--- a/sem1/СО-ПР-22.xlsx
+++ b/sem1/СО-ПР-22.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thebandik/Library/Mobile Documents/com~apple~CloudDocs/General/Работа/Колледж/GitHub/computer-science/sem1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4A9765AA-7878-BD47-9A4A-29E6805F94CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2D492CB-4F72-B348-B289-CFA7DBC0A097}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16940" xr2:uid="{78B3409E-6B57-FA43-BCC4-C09108445BD6}"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16940" activeTab="1" xr2:uid="{78B3409E-6B57-FA43-BCC4-C09108445BD6}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="1" sheetId="1" r:id="rId1"/>
+    <sheet name="2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="39">
   <si>
     <t>№</t>
   </si>
@@ -92,6 +93,66 @@
   </si>
   <si>
     <t>Путинцева Елизавета</t>
+  </si>
+  <si>
+    <t>Фирсова Анастасия</t>
+  </si>
+  <si>
+    <t>Осипчук Вероника</t>
+  </si>
+  <si>
+    <t>Филипович Регина</t>
+  </si>
+  <si>
+    <t>Никулин Евгений</t>
+  </si>
+  <si>
+    <t>Никитина Виктория</t>
+  </si>
+  <si>
+    <t>Гаврилова Милана</t>
+  </si>
+  <si>
+    <t>Соловьева Дарья</t>
+  </si>
+  <si>
+    <t>Калдырмина Ксения</t>
+  </si>
+  <si>
+    <t>Фозилов Екуб</t>
+  </si>
+  <si>
+    <t>Серов Илья</t>
+  </si>
+  <si>
+    <t>Избушева Алина</t>
+  </si>
+  <si>
+    <t>Сустанова Эльвира</t>
+  </si>
+  <si>
+    <t>Иванова Анна</t>
+  </si>
+  <si>
+    <t>Тарасова Дарья</t>
+  </si>
+  <si>
+    <t>Якушина Вероника</t>
+  </si>
+  <si>
+    <t>Шандер Арина</t>
+  </si>
+  <si>
+    <t>Товстонос Лиза</t>
+  </si>
+  <si>
+    <t>Никулина Ангелина</t>
+  </si>
+  <si>
+    <t>Алексеев Георгий</t>
+  </si>
+  <si>
+    <t>Мильхен Екатерина</t>
   </si>
 </sst>
 </file>
@@ -142,7 +203,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -152,6 +213,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -468,10 +532,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F44A87E8-D92E-4B4A-BFC1-FEFAB9CDC28F}">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="192" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView topLeftCell="A2" zoomScale="192" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -481,6 +545,321 @@
     <col min="3" max="3" width="10.83203125" style="4"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2">
+        <v>45170</v>
+      </c>
+      <c r="D1" s="5">
+        <v>45174</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="3"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="3"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="3"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="3"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="3"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4215EFA8-B92E-4C45-9535-33FF4C7A518F}">
+  <dimension ref="A1:C25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="193" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="3.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
@@ -489,7 +868,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="2">
-        <v>45170</v>
+        <v>45174</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -497,7 +876,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>13</v>
@@ -508,7 +887,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>13</v>
@@ -519,7 +898,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>13</v>
@@ -530,7 +909,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>13</v>
@@ -541,7 +920,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>13</v>
@@ -552,7 +931,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>13</v>
@@ -563,7 +942,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>13</v>
@@ -574,7 +953,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>13</v>
@@ -585,7 +964,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>13</v>
@@ -596,7 +975,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>13</v>
@@ -607,7 +986,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>13</v>
@@ -618,10 +997,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -629,10 +1008,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -640,10 +1019,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
@@ -651,72 +1030,66 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" s="1"/>
-      <c r="C17" s="3"/>
+      <c r="B17" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18" s="1"/>
-      <c r="C18" s="3"/>
+      <c r="B18" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="1">
-        <v>18</v>
-      </c>
+      <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="3"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="1">
-        <v>19</v>
-      </c>
+      <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="3"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="1">
-        <v>20</v>
-      </c>
+      <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="3"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="1">
-        <v>21</v>
-      </c>
+      <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="3"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="1">
-        <v>22</v>
-      </c>
+      <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="3"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="1">
-        <v>23</v>
-      </c>
+      <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="3"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="1">
-        <v>24</v>
-      </c>
+      <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="3"/>
     </row>

--- a/sem1/СО-ПР-22.xlsx
+++ b/sem1/СО-ПР-22.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thebandik/Library/Mobile Documents/com~apple~CloudDocs/General/Работа/Колледж/GitHub/computer-science/sem1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2D492CB-4F72-B348-B289-CFA7DBC0A097}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAC07058-7A29-A84B-80E5-0B1FDAED8E64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16940" activeTab="1" xr2:uid="{78B3409E-6B57-FA43-BCC4-C09108445BD6}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="42">
   <si>
     <t>№</t>
   </si>
@@ -74,9 +74,6 @@
     <t>Довыденко Максим</t>
   </si>
   <si>
-    <t>Паноев Имран</t>
-  </si>
-  <si>
     <t>+</t>
   </si>
   <si>
@@ -153,6 +150,18 @@
   </si>
   <si>
     <t>Мильхен Екатерина</t>
+  </si>
+  <si>
+    <t>Ефименко Тимур</t>
+  </si>
+  <si>
+    <t>Савченко Егор</t>
+  </si>
+  <si>
+    <t>=</t>
+  </si>
+  <si>
+    <t>Филипова Агния</t>
   </si>
 </sst>
 </file>
@@ -203,7 +212,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -218,6 +227,7 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -532,10 +542,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F44A87E8-D92E-4B4A-BFC1-FEFAB9CDC28F}">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="192" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView topLeftCell="A3" zoomScale="192" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -545,7 +555,7 @@
     <col min="3" max="3" width="10.83203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -558,8 +568,11 @@
       <c r="D1" s="5">
         <v>45174</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E1" s="6">
+        <v>45176</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -567,13 +580,16 @@
         <v>2</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -581,13 +597,16 @@
         <v>3</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -595,13 +614,16 @@
         <v>4</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -609,13 +631,16 @@
         <v>5</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+      <c r="E5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -623,13 +648,16 @@
         <v>6</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+      <c r="E6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -637,13 +665,16 @@
         <v>7</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+      <c r="E7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -651,13 +682,16 @@
         <v>8</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+      <c r="E8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -665,13 +699,16 @@
         <v>9</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+      <c r="E9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -679,13 +716,16 @@
         <v>10</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+      <c r="E10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -693,150 +733,166 @@
         <v>11</v>
       </c>
       <c r="C11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="4"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
-        <v>11</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
-        <v>12</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="C13" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+      <c r="E13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="1">
-        <v>14</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="C15" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+      <c r="E15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+      <c r="E16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+      <c r="E17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+      <c r="E18" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+      <c r="E19" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="3"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="3"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="3"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="3"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="3"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="3"/>
@@ -848,19 +904,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4215EFA8-B92E-4C45-9535-33FF4C7A518F}">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="193" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="193" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="9" width="10.83203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -870,228 +927,480 @@
       <c r="C1" s="2">
         <v>45174</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D1" s="2">
+        <v>45174</v>
+      </c>
+      <c r="E1" s="2">
+        <v>45176</v>
+      </c>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
-        <v>12</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="C13" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="1">
-        <v>14</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="C15" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="3"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="3"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="3"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C20" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="3"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="3"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="3"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/sem1/СО-ПР-22.xlsx
+++ b/sem1/СО-ПР-22.xlsx
@@ -8,15 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thebandik/Library/Mobile Documents/com~apple~CloudDocs/General/Работа/Колледж/GitHub/computer-science/sem1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAC07058-7A29-A84B-80E5-0B1FDAED8E64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B798378-D1F9-A44B-9B71-11A558E85E3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16940" activeTab="1" xr2:uid="{78B3409E-6B57-FA43-BCC4-C09108445BD6}"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16940" xr2:uid="{78B3409E-6B57-FA43-BCC4-C09108445BD6}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
     <sheet name="2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="44">
   <si>
     <t>№</t>
   </si>
@@ -162,6 +164,12 @@
   </si>
   <si>
     <t>Филипова Агния</t>
+  </si>
+  <si>
+    <t>Лаб 1</t>
+  </si>
+  <si>
+    <t>Буджурак</t>
   </si>
 </sst>
 </file>
@@ -212,7 +220,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -228,6 +236,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -542,10 +551,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F44A87E8-D92E-4B4A-BFC1-FEFAB9CDC28F}">
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="192" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" zoomScale="162" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -555,7 +564,7 @@
     <col min="3" max="3" width="10.83203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -571,8 +580,11 @@
       <c r="E1" s="6">
         <v>45176</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F1" s="6">
+        <v>45177</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -588,8 +600,11 @@
       <c r="E2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -605,8 +620,11 @@
       <c r="E3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -622,8 +640,11 @@
       <c r="E4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -639,8 +660,11 @@
       <c r="E5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -656,8 +680,11 @@
       <c r="E6" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -673,8 +700,11 @@
       <c r="E7" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -690,8 +720,11 @@
       <c r="E8" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -707,8 +740,11 @@
       <c r="E9" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -724,8 +760,11 @@
       <c r="E10" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -741,19 +780,36 @@
       <c r="E11" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="4"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>14</v>
@@ -764,64 +820,76 @@
       <c r="E13" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E14" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+      <c r="F14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+      <c r="F15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E16" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+      <c r="F16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>12</v>
@@ -832,13 +900,16 @@
       <c r="E17" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>12</v>
@@ -847,52 +918,38 @@
         <v>12</v>
       </c>
       <c r="E18" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="1">
-        <v>18</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E19" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+      <c r="F18" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="3"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="3"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="3"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="3"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="3"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="3"/>
@@ -906,8 +963,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4215EFA8-B92E-4C45-9535-33FF4C7A518F}">
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="193" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView zoomScale="150" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -933,7 +990,9 @@
       <c r="E1" s="2">
         <v>45176</v>
       </c>
-      <c r="F1" s="3"/>
+      <c r="F1" s="2">
+        <v>45177</v>
+      </c>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
@@ -954,7 +1013,9 @@
       <c r="E2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="3"/>
+      <c r="F2" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
@@ -975,7 +1036,9 @@
       <c r="E3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="3"/>
+      <c r="F3" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
@@ -996,7 +1059,9 @@
       <c r="E4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="3"/>
+      <c r="F4" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
@@ -1017,7 +1082,9 @@
       <c r="E5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="3"/>
+      <c r="F5" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
@@ -1038,7 +1105,9 @@
       <c r="E6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="3"/>
+      <c r="F6" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
@@ -1059,7 +1128,9 @@
       <c r="E7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="3"/>
+      <c r="F7" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
@@ -1080,7 +1151,9 @@
       <c r="E8" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="3"/>
+      <c r="F8" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
@@ -1101,7 +1174,9 @@
       <c r="E9" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="3"/>
+      <c r="F9" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
@@ -1122,7 +1197,9 @@
       <c r="E10" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F10" s="3"/>
+      <c r="F10" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
@@ -1143,7 +1220,9 @@
       <c r="E11" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="3"/>
+      <c r="F11" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
@@ -1164,7 +1243,9 @@
       <c r="E12" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F12" s="3"/>
+      <c r="F12" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
@@ -1185,7 +1266,9 @@
       <c r="E13" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F13" s="3"/>
+      <c r="F13" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
@@ -1206,7 +1289,9 @@
       <c r="E14" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F14" s="3"/>
+      <c r="F14" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
@@ -1227,7 +1312,9 @@
       <c r="E15" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F15" s="3"/>
+      <c r="F15" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
@@ -1248,7 +1335,9 @@
       <c r="E16" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F16" s="3"/>
+      <c r="F16" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
@@ -1269,7 +1358,9 @@
       <c r="E17" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F17" s="3"/>
+      <c r="F17" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
@@ -1290,7 +1381,9 @@
       <c r="E18" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F18" s="3"/>
+      <c r="F18" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
@@ -1311,7 +1404,9 @@
       <c r="E19" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F19" s="3"/>
+      <c r="F19" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
@@ -1332,7 +1427,9 @@
       <c r="E20" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F20" s="3"/>
+      <c r="F20" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
@@ -1353,7 +1450,9 @@
       <c r="E21" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F21" s="3"/>
+      <c r="F21" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
@@ -1405,4 +1504,517 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7C7B5B6-77FB-D24E-9B62-07839F7C9E80}">
+  <dimension ref="A1:G19"/>
+  <sheetViews>
+    <sheetView zoomScale="181" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="3.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="7" width="10.83203125" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="3"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="3"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="3"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="3"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="7">
+        <v>18</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" s="3">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39845E33-B198-1749-A96D-46C57A0F57AA}">
+  <dimension ref="A1:E21"/>
+  <sheetViews>
+    <sheetView zoomScale="143" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="3.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="3">
+        <v>3</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="3">
+        <v>3</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="3">
+        <v>3</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="3">
+        <v>3</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="3">
+        <v>3</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="3">
+        <v>3</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="3">
+        <v>3</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="3">
+        <v>3</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="3">
+        <v>3</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="3">
+        <v>3</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="3">
+        <v>3</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="3">
+        <v>3</v>
+      </c>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="3">
+        <v>3</v>
+      </c>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="3">
+        <v>3</v>
+      </c>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="3">
+        <v>3</v>
+      </c>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="3">
+        <v>3</v>
+      </c>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" s="3">
+        <v>3</v>
+      </c>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" s="3">
+        <v>2</v>
+      </c>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" s="3">
+        <v>3</v>
+      </c>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/sem1/СО-ПР-22.xlsx
+++ b/sem1/СО-ПР-22.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thebandik/Library/Mobile Documents/com~apple~CloudDocs/General/Работа/Колледж/GitHub/computer-science/sem1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B798378-D1F9-A44B-9B71-11A558E85E3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0475228B-4BB7-FB41-9BC9-C8082C093833}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16940" xr2:uid="{78B3409E-6B57-FA43-BCC4-C09108445BD6}"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16940" activeTab="2" xr2:uid="{78B3409E-6B57-FA43-BCC4-C09108445BD6}"/>
   </bookViews>
   <sheets>
-    <sheet name="1" sheetId="1" r:id="rId1"/>
-    <sheet name="2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet2" sheetId="4" r:id="rId4"/>
+    <sheet name="Посещаемость 1" sheetId="2" r:id="rId1"/>
+    <sheet name="Посещаемость 2" sheetId="1" r:id="rId2"/>
+    <sheet name="Успеваемость 1" sheetId="4" r:id="rId3"/>
+    <sheet name="Успеваемость 2" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="48">
   <si>
     <t>№</t>
   </si>
@@ -170,6 +170,18 @@
   </si>
   <si>
     <t>Буджурак</t>
+  </si>
+  <si>
+    <t>Пр 1</t>
+  </si>
+  <si>
+    <t>Пр 2</t>
+  </si>
+  <si>
+    <t>пр1</t>
+  </si>
+  <si>
+    <t>пр2</t>
   </si>
 </sst>
 </file>
@@ -193,7 +205,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -216,6 +228,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -236,7 +257,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -550,416 +573,6 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F44A87E8-D92E-4B4A-BFC1-FEFAB9CDC28F}">
-  <dimension ref="A1:F25"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="162" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="3.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.33203125" customWidth="1"/>
-    <col min="3" max="3" width="10.83203125" style="4"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2">
-        <v>45170</v>
-      </c>
-      <c r="D1" s="5">
-        <v>45174</v>
-      </c>
-      <c r="E1" s="6">
-        <v>45176</v>
-      </c>
-      <c r="F1" s="6">
-        <v>45177</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
-        <v>11</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E12" t="s">
-        <v>14</v>
-      </c>
-      <c r="F12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
-        <v>12</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E13" t="s">
-        <v>14</v>
-      </c>
-      <c r="F13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="1">
-        <v>13</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E14" t="s">
-        <v>12</v>
-      </c>
-      <c r="F14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="1">
-        <v>14</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E15" t="s">
-        <v>40</v>
-      </c>
-      <c r="F15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="1">
-        <v>15</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E16" t="s">
-        <v>12</v>
-      </c>
-      <c r="F16" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="1">
-        <v>16</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E17" t="s">
-        <v>12</v>
-      </c>
-      <c r="F17" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="1">
-        <v>17</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E18" t="s">
-        <v>14</v>
-      </c>
-      <c r="F18" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="3"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="3"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="3"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="3"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="3"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="3"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4215EFA8-B92E-4C45-9535-33FF4C7A518F}">
   <dimension ref="A1:I25"/>
   <sheetViews>
@@ -993,8 +606,12 @@
       <c r="F1" s="2">
         <v>45177</v>
       </c>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
+      <c r="G1" s="2">
+        <v>45183</v>
+      </c>
+      <c r="H1" s="2">
+        <v>45184</v>
+      </c>
       <c r="I1" s="3"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -1002,7 +619,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>12</v>
@@ -1016,8 +633,12 @@
       <c r="F2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
+      <c r="G2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="I2" s="3"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -1025,7 +646,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>12</v>
@@ -1037,10 +658,14 @@
         <v>12</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
+        <v>14</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="I3" s="3"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -1048,22 +673,26 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
+        <v>12</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="I4" s="3"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -1071,7 +700,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>12</v>
@@ -1080,13 +709,17 @@
         <v>12</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
+      <c r="G5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="I5" s="3"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -1094,7 +727,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>12</v>
@@ -1108,8 +741,12 @@
       <c r="F6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
+      <c r="G6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="I6" s="3"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -1117,7 +754,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>12</v>
@@ -1131,8 +768,12 @@
       <c r="F7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
+      <c r="G7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="I7" s="3"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -1140,7 +781,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>12</v>
@@ -1154,8 +795,12 @@
       <c r="F8" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
+      <c r="G8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="I8" s="3"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -1163,7 +808,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>12</v>
@@ -1177,8 +822,12 @@
       <c r="F9" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
+      <c r="G9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="I9" s="3"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -1186,7 +835,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>12</v>
@@ -1200,8 +849,12 @@
       <c r="F10" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
+      <c r="G10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="I10" s="3"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -1209,7 +862,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>12</v>
@@ -1223,8 +876,12 @@
       <c r="F11" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
+      <c r="G11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="I11" s="3"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -1232,22 +889,26 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
+      <c r="G12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="I12" s="3"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
@@ -1255,7 +916,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>12</v>
@@ -1269,8 +930,12 @@
       <c r="F13" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
+      <c r="G13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="I13" s="3"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
@@ -1278,7 +943,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>12</v>
@@ -1287,13 +952,17 @@
         <v>12</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
+      <c r="G14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="I14" s="3"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
@@ -1301,7 +970,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>12</v>
@@ -1315,8 +984,12 @@
       <c r="F15" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
+      <c r="G15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>40</v>
+      </c>
       <c r="I15" s="3"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
@@ -1324,7 +997,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>12</v>
@@ -1338,8 +1011,12 @@
       <c r="F16" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
+      <c r="G16" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="I16" s="3"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
@@ -1347,7 +1024,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>12</v>
@@ -1361,8 +1038,12 @@
       <c r="F17" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
+      <c r="G17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="I17" s="3"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
@@ -1370,10 +1051,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>12</v>
@@ -1384,8 +1065,12 @@
       <c r="F18" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
+      <c r="G18" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="I18" s="3"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
@@ -1393,10 +1078,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>12</v>
@@ -1407,8 +1092,12 @@
       <c r="F19" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
+      <c r="G19" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="I19" s="3"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
@@ -1416,46 +1105,27 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
+      <c r="G20" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="I20" s="3"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="1">
-        <v>20</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
@@ -1502,239 +1172,565 @@
       <c r="I25" s="3"/>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H25">
+    <sortCondition ref="B1:B25"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F44A87E8-D92E-4B4A-BFC1-FEFAB9CDC28F}">
+  <dimension ref="A1:I25"/>
+  <sheetViews>
+    <sheetView zoomScale="162" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="3.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.33203125" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2">
+        <v>45170</v>
+      </c>
+      <c r="D1" s="5">
+        <v>45174</v>
+      </c>
+      <c r="E1" s="6">
+        <v>45176</v>
+      </c>
+      <c r="F1" s="6">
+        <v>45177</v>
+      </c>
+      <c r="G1" s="6">
+        <v>45181</v>
+      </c>
+      <c r="H1" s="6">
+        <v>45183</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="4"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" t="s">
+        <v>12</v>
+      </c>
+      <c r="H14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>40</v>
+      </c>
+      <c r="F15" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15" t="s">
+        <v>14</v>
+      </c>
+      <c r="H15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" t="s">
+        <v>12</v>
+      </c>
+      <c r="H16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" t="s">
+        <v>12</v>
+      </c>
+      <c r="H17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" t="s">
+        <v>12</v>
+      </c>
+      <c r="H18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>6</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I19" s="3"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E20" t="s">
+        <v>40</v>
+      </c>
+      <c r="F20" t="s">
+        <v>40</v>
+      </c>
+      <c r="G20" t="s">
+        <v>40</v>
+      </c>
+      <c r="H20" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="3"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="3"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="3"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="3"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="3"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7C7B5B6-77FB-D24E-9B62-07839F7C9E80}">
-  <dimension ref="A1:G19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39845E33-B198-1749-A96D-46C57A0F57AA}">
+  <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView zoomScale="181" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="3.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="7" width="10.83203125" style="4"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="3"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
-        <v>11</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="3"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
-        <v>12</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="3"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="1">
-        <v>13</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="1">
-        <v>14</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" s="3"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="1">
-        <v>15</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="1">
-        <v>16</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="1">
-        <v>17</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C18" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="7">
-        <v>18</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C19" s="3">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39845E33-B198-1749-A96D-46C57A0F57AA}">
-  <dimension ref="A1:E21"/>
-  <sheetViews>
-    <sheetView zoomScale="143" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1753,91 +1749,119 @@
       <c r="C1" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
+      <c r="D1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="C2" s="3">
         <v>3</v>
       </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
+      <c r="D2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="3">
-        <v>3</v>
-      </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
+        <v>23</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
+        <v>38</v>
+      </c>
+      <c r="C4" s="3">
+        <v>2</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C5" s="3">
         <v>3</v>
       </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
+      <c r="D5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C6" s="3">
         <v>3</v>
       </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
+      <c r="D6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C7" s="3">
         <v>3</v>
       </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
+      <c r="D7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="C8" s="3">
         <v>3</v>
@@ -1850,46 +1874,58 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C9" s="3">
         <v>3</v>
       </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
+      <c r="D9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="C10" s="3">
         <v>3</v>
       </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
+      <c r="D10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C11" s="3">
         <v>3</v>
       </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
+      <c r="D11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="C12" s="3">
         <v>3</v>
@@ -1902,33 +1938,41 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C13" s="3">
         <v>3</v>
       </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
+      <c r="D13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="C14" s="3">
         <v>3</v>
       </c>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
+      <c r="D14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C15" s="3">
         <v>3</v>
@@ -1941,33 +1985,41 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C16" s="3">
         <v>3</v>
       </c>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
+      <c r="D16" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C17" s="3">
         <v>3</v>
       </c>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
+      <c r="D17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C18" s="3">
         <v>3</v>
@@ -1980,39 +2032,469 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="C19" s="3">
         <v>3</v>
       </c>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
+      <c r="D19" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C20" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="1">
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E20">
+    <sortCondition ref="B1:B20"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7C7B5B6-77FB-D24E-9B62-07839F7C9E80}">
+  <dimension ref="A1:K20"/>
+  <sheetViews>
+    <sheetView zoomScale="181" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="3.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="7" width="10.83203125" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="3">
+        <v>3</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="3">
+        <v>3</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="3">
+        <v>3</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="3">
+        <v>3</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="3">
+        <v>3</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="3">
+        <v>3</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="3">
+        <v>3</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="3">
+        <v>3</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="3">
+        <v>3</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="3">
+        <v>3</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="3">
+        <v>3</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="3">
+        <v>3</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="3">
+        <v>3</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C21" s="3">
-        <v>3</v>
-      </c>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
+      <c r="C18" s="3">
+        <v>3</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" s="3">
+        <v>3</v>
+      </c>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>6</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" s="3">
+        <v>3</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/sem1/СО-ПР-22.xlsx
+++ b/sem1/СО-ПР-22.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thebandik/Library/Mobile Documents/com~apple~CloudDocs/General/Работа/Колледж/GitHub/computer-science/sem1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0475228B-4BB7-FB41-9BC9-C8082C093833}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DAF6047-81DA-AD43-B74E-A9ECEAB17AB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16940" activeTab="2" xr2:uid="{78B3409E-6B57-FA43-BCC4-C09108445BD6}"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16940" activeTab="1" xr2:uid="{78B3409E-6B57-FA43-BCC4-C09108445BD6}"/>
   </bookViews>
   <sheets>
     <sheet name="Посещаемость 1" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="49">
   <si>
     <t>№</t>
   </si>
@@ -182,6 +182,9 @@
   </si>
   <si>
     <t>пр2</t>
+  </si>
+  <si>
+    <t>Буджурак Анастасия</t>
   </si>
 </sst>
 </file>
@@ -205,7 +208,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -228,20 +231,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -251,13 +245,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -577,14 +564,16 @@
   <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="9" width="10.83203125" style="4"/>
+    <col min="3" max="3" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="8" width="6.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.83203125" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
@@ -612,7 +601,9 @@
       <c r="H1" s="2">
         <v>45184</v>
       </c>
-      <c r="I1" s="3"/>
+      <c r="I1" s="2">
+        <v>45188</v>
+      </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
@@ -639,7 +630,9 @@
       <c r="H2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="3"/>
+      <c r="I2" s="3" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
@@ -666,7 +659,9 @@
       <c r="H3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="3"/>
+      <c r="I3" s="3" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
@@ -693,7 +688,9 @@
       <c r="H4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="3"/>
+      <c r="I4" s="3" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
@@ -720,7 +717,9 @@
       <c r="H5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="3"/>
+      <c r="I5" s="3" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
@@ -747,7 +746,9 @@
       <c r="H6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="3"/>
+      <c r="I6" s="3" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
@@ -774,7 +775,9 @@
       <c r="H7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="I7" s="3"/>
+      <c r="I7" s="3" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
@@ -801,7 +804,9 @@
       <c r="H8" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="3"/>
+      <c r="I8" s="3" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
@@ -828,7 +833,9 @@
       <c r="H9" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="I9" s="3"/>
+      <c r="I9" s="3" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
@@ -855,7 +862,9 @@
       <c r="H10" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="I10" s="3"/>
+      <c r="I10" s="3" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
@@ -882,7 +891,9 @@
       <c r="H11" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="I11" s="3"/>
+      <c r="I11" s="3" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
@@ -909,7 +920,9 @@
       <c r="H12" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I12" s="3"/>
+      <c r="I12" s="3" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
@@ -936,7 +949,9 @@
       <c r="H13" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="I13" s="3"/>
+      <c r="I13" s="3" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
@@ -963,7 +978,9 @@
       <c r="H14" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="I14" s="3"/>
+      <c r="I14" s="3" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
@@ -990,7 +1007,9 @@
       <c r="H15" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="I15" s="3"/>
+      <c r="I15" s="3" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
@@ -1017,7 +1036,9 @@
       <c r="H16" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="I16" s="3"/>
+      <c r="I16" s="3" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
@@ -1044,7 +1065,9 @@
       <c r="H17" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="I17" s="3"/>
+      <c r="I17" s="3" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
@@ -1071,7 +1094,9 @@
       <c r="H18" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I18" s="3"/>
+      <c r="I18" s="3" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
@@ -1098,7 +1123,9 @@
       <c r="H19" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="I19" s="3"/>
+      <c r="I19" s="3" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
@@ -1125,7 +1152,9 @@
       <c r="H20" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I20" s="3"/>
+      <c r="I20" s="3" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
@@ -1181,20 +1210,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F44A87E8-D92E-4B4A-BFC1-FEFAB9CDC28F}">
-  <dimension ref="A1:I25"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView zoomScale="162" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" zoomScale="162" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.33203125" customWidth="1"/>
-    <col min="3" max="3" width="10.83203125" style="4"/>
+    <col min="2" max="2" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="8" width="6.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1204,23 +1234,27 @@
       <c r="C1" s="2">
         <v>45170</v>
       </c>
-      <c r="D1" s="5">
+      <c r="D1" s="2">
         <v>45174</v>
       </c>
-      <c r="E1" s="6">
+      <c r="E1" s="2">
         <v>45176</v>
       </c>
-      <c r="F1" s="6">
+      <c r="F1" s="2">
         <v>45177</v>
       </c>
-      <c r="G1" s="6">
+      <c r="G1" s="2">
         <v>45181</v>
       </c>
-      <c r="H1" s="6">
+      <c r="H1" s="2">
         <v>45183</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I1" s="2">
+        <v>45188</v>
+      </c>
+      <c r="J1" s="3"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1230,23 +1264,27 @@
       <c r="C2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" s="3"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1256,23 +1294,27 @@
       <c r="C3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" s="3"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1282,23 +1324,27 @@
       <c r="C4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4" s="3"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1308,23 +1354,27 @@
       <c r="C5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J5" s="3"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1334,23 +1384,27 @@
       <c r="C6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" t="s">
-        <v>12</v>
-      </c>
-      <c r="H6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J6" s="3"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1360,23 +1414,27 @@
       <c r="C7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J7" s="3"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1386,23 +1444,27 @@
       <c r="C8" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" t="s">
-        <v>12</v>
-      </c>
-      <c r="H8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J8" s="3"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1412,23 +1474,27 @@
       <c r="C9" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9" s="3"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1438,23 +1504,27 @@
       <c r="C10" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10" t="s">
-        <v>14</v>
-      </c>
-      <c r="G10" t="s">
-        <v>12</v>
-      </c>
-      <c r="H10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J10" s="3"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1464,23 +1534,27 @@
       <c r="C11" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J11" s="3"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1490,232 +1564,257 @@
       <c r="C12" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E12" t="s">
-        <v>14</v>
-      </c>
-      <c r="F12" t="s">
-        <v>14</v>
-      </c>
-      <c r="G12" t="s">
-        <v>14</v>
-      </c>
-      <c r="H12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="4"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J12" s="3"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J13" s="3"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D14" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E14" t="s">
-        <v>12</v>
-      </c>
-      <c r="F14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" t="s">
-        <v>12</v>
-      </c>
-      <c r="H14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J14" s="3"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E15" t="s">
-        <v>40</v>
-      </c>
-      <c r="F15" t="s">
-        <v>14</v>
-      </c>
-      <c r="G15" t="s">
-        <v>14</v>
-      </c>
-      <c r="H15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J15" s="3"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E16" t="s">
-        <v>12</v>
-      </c>
-      <c r="F16" t="s">
-        <v>12</v>
-      </c>
-      <c r="G16" t="s">
-        <v>12</v>
-      </c>
-      <c r="H16" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D16" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J16" s="3"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E17" t="s">
-        <v>12</v>
-      </c>
-      <c r="F17" t="s">
-        <v>12</v>
-      </c>
-      <c r="G17" t="s">
-        <v>12</v>
-      </c>
-      <c r="H17" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J17" s="3"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E18" t="s">
-        <v>14</v>
-      </c>
-      <c r="F18" t="s">
-        <v>12</v>
-      </c>
-      <c r="G18" t="s">
-        <v>12</v>
-      </c>
-      <c r="H18" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D18" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J18" s="3"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="H19" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="I19" s="3"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="1">
-        <v>18</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="E20" t="s">
-        <v>40</v>
-      </c>
-      <c r="F20" t="s">
-        <v>40</v>
-      </c>
-      <c r="G20" t="s">
-        <v>40</v>
-      </c>
-      <c r="H20" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I19" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J19" s="3"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="3"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="3"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="3"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="3"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="3"/>
@@ -1729,7 +1828,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39845E33-B198-1749-A96D-46C57A0F57AA}">
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+    <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>

--- a/sem1/СО-ПР-22.xlsx
+++ b/sem1/СО-ПР-22.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thebandik/Library/Mobile Documents/com~apple~CloudDocs/General/Работа/Колледж/GitHub/computer-science/sem1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DAF6047-81DA-AD43-B74E-A9ECEAB17AB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3553E1C9-3962-1A46-A193-1C7E8B69F284}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16940" activeTab="1" xr2:uid="{78B3409E-6B57-FA43-BCC4-C09108445BD6}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="3" xr2:uid="{78B3409E-6B57-FA43-BCC4-C09108445BD6}"/>
   </bookViews>
   <sheets>
     <sheet name="Посещаемость 1" sheetId="2" r:id="rId1"/>
@@ -37,8 +37,52 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Arkadiy Schneider</author>
+  </authors>
+  <commentList>
+    <comment ref="F10" authorId="0" shapeId="0" xr:uid="{268C7868-9314-8740-9C54-032406863F31}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Arkadiy Schneider:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Нет 5
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="53">
   <si>
     <t>№</t>
   </si>
@@ -185,19 +229,44 @@
   </si>
   <si>
     <t>Буджурак Анастасия</t>
+  </si>
+  <si>
+    <t>пр3</t>
+  </si>
+  <si>
+    <t>пр4</t>
+  </si>
+  <si>
+    <t>пр5</t>
+  </si>
+  <si>
+    <t>пр6</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -208,7 +277,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -231,11 +300,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -245,6 +334,24 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -561,10 +668,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4215EFA8-B92E-4C45-9535-33FF4C7A518F}">
-  <dimension ref="A1:I25"/>
+  <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -572,11 +679,11 @@
     <col min="1" max="1" width="3.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="6.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.83203125" style="4"/>
+    <col min="4" max="9" width="6.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="6.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -604,8 +711,14 @@
       <c r="I1" s="2">
         <v>45188</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1" s="8">
+        <v>45190</v>
+      </c>
+      <c r="K1" s="8">
+        <v>45191</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -633,8 +746,14 @@
       <c r="I2" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -662,8 +781,14 @@
       <c r="I3" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -691,8 +816,14 @@
       <c r="I4" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K4" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -720,8 +851,14 @@
       <c r="I5" s="3" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J5" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="K5" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -749,8 +886,14 @@
       <c r="I6" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K6" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -778,8 +921,14 @@
       <c r="I7" s="3" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K7" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -807,8 +956,14 @@
       <c r="I8" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K8" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -836,8 +991,14 @@
       <c r="I9" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K9" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -865,8 +1026,14 @@
       <c r="I10" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K10" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -894,8 +1061,14 @@
       <c r="I11" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K11" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -923,8 +1096,14 @@
       <c r="I12" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K12" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -952,8 +1131,14 @@
       <c r="I13" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K13" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -981,8 +1166,14 @@
       <c r="I14" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K14" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -1010,8 +1201,14 @@
       <c r="I15" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K15" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -1039,8 +1236,14 @@
       <c r="I16" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J16" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K16" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -1068,37 +1271,27 @@
       <c r="I17" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="1">
-        <v>17</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K17" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="12"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -1126,8 +1319,14 @@
       <c r="I19" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J19" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K19" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -1155,50 +1354,96 @@
       <c r="I20" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
+      <c r="J20" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K20" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A22" s="6"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="6"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A23" s="6"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="6"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A24" s="6"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="6"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A25" s="6"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="6"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A26" s="6"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="6"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A27" s="6"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="6"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A28" s="6"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="6"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H25">
@@ -1210,10 +1455,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F44A87E8-D92E-4B4A-BFC1-FEFAB9CDC28F}">
-  <dimension ref="A1:J25"/>
+  <dimension ref="A1:K28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="162" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView zoomScale="162" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1224,7 +1469,7 @@
     <col min="4" max="8" width="6.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1252,9 +1497,14 @@
       <c r="I1" s="2">
         <v>45188</v>
       </c>
-      <c r="J1" s="3"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J1" s="2">
+        <v>45190</v>
+      </c>
+      <c r="K1" s="5">
+        <v>45191</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1282,9 +1532,14 @@
       <c r="I2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="3"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1312,9 +1567,14 @@
       <c r="I3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="3"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1342,9 +1602,14 @@
       <c r="I4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="J4" s="3"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K4" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1372,9 +1637,14 @@
       <c r="I5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="J5" s="3"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J5" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="K5" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1402,9 +1672,14 @@
       <c r="I6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="J6" s="3"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K6" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1432,9 +1707,14 @@
       <c r="I7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="J7" s="3"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K7" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1462,9 +1742,14 @@
       <c r="I8" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="J8" s="3"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K8" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1492,9 +1777,14 @@
       <c r="I9" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="J9" s="3"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K9" s="11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1522,9 +1812,14 @@
       <c r="I10" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="J10" s="3"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K10" s="11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1552,9 +1847,14 @@
       <c r="I11" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="J11" s="3"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K11" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1562,29 +1862,34 @@
         <v>13</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J12" s="3"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K12" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1612,9 +1917,14 @@
       <c r="I13" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="J13" s="3"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K13" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -1642,9 +1952,14 @@
       <c r="I14" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="J14" s="3"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K14" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -1672,9 +1987,14 @@
       <c r="I15" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="J15" s="3"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J15" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K15" s="11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -1702,9 +2022,14 @@
       <c r="I16" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="J16" s="3"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J16" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K16" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -1732,9 +2057,14 @@
       <c r="I17" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="J17" s="3"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J17" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K17" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -1762,9 +2092,14 @@
       <c r="I18" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="J18" s="3"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J18" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K18" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -1792,32 +2127,95 @@
       <c r="I19" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="J19" s="3"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="3"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="3"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="3"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="3"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="3"/>
+      <c r="J19" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="K19" s="11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>17</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K20" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A21" s="6"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="6"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A22" s="6"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="6"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A23" s="6"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="6"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A24" s="6"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="6"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A25" s="6"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="6"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A26" s="6"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="6"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A27" s="6"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="6"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A28" s="6"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1826,10 +2224,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39845E33-B198-1749-A96D-46C57A0F57AA}">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1838,7 +2236,7 @@
     <col min="2" max="2" width="18.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1854,8 +2252,20 @@
       <c r="E1" s="2" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F1" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1871,8 +2281,18 @@
       <c r="E2" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="3"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1886,8 +2306,18 @@
       <c r="E3" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="3"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1903,8 +2333,18 @@
       <c r="E4" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="3"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1920,8 +2360,14 @@
       <c r="E5" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1937,8 +2383,16 @@
       <c r="E6" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1954,8 +2408,20 @@
       <c r="E7" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1965,10 +2431,24 @@
       <c r="C8" s="3">
         <v>3</v>
       </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" s="3"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1984,8 +2464,16 @@
       <c r="E9" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -2001,8 +2489,16 @@
       <c r="E10" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -2018,8 +2514,16 @@
       <c r="E11" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -2031,8 +2535,16 @@
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -2048,8 +2560,18 @@
       <c r="E13" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H13" s="3"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -2065,8 +2587,18 @@
       <c r="E14" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H14" s="3"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -2076,10 +2608,24 @@
       <c r="C15" s="3">
         <v>3</v>
       </c>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H15" s="3"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -2095,8 +2641,18 @@
       <c r="E16" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F16" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H16" s="3"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -2112,21 +2668,29 @@
       <c r="E17" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="1">
-        <v>17</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C18" s="3">
-        <v>3</v>
-      </c>
+      <c r="F17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -2142,8 +2706,18 @@
       <c r="E19" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F19" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H19" s="3"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -2153,8 +2727,22 @@
       <c r="C20" s="3">
         <v>3</v>
       </c>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
+      <c r="D20" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H20" s="3"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E20">
@@ -2165,11 +2753,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7C7B5B6-77FB-D24E-9B62-07839F7C9E80}">
-  <dimension ref="A1:K20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7C7B5B6-77FB-D24E-9B62-07839F7C9E80}">
+  <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView zoomScale="181" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" zoomScale="157" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2195,10 +2783,18 @@
       <c r="E1" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
+      <c r="F1" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
     </row>
@@ -2207,7 +2803,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C2" s="3">
         <v>3</v>
@@ -2218,7 +2814,9 @@
       <c r="E2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="3"/>
+      <c r="F2" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="G2" s="3"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
@@ -2235,9 +2833,15 @@
       <c r="C3" s="3">
         <v>3</v>
       </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
+      <c r="D3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="G3" s="3"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
@@ -2249,7 +2853,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C4" s="3">
         <v>3</v>
@@ -2260,8 +2864,12 @@
       <c r="E4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
+      <c r="F4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
@@ -2272,17 +2880,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="C5" s="3">
         <v>3</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>12</v>
-      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
       <c r="H5" s="1"/>
@@ -2295,11 +2899,9 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="3">
-        <v>3</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="C6" s="3"/>
       <c r="D6" s="3" t="s">
         <v>12</v>
       </c>
@@ -2318,7 +2920,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" s="3">
         <v>3</v>
@@ -2329,7 +2931,9 @@
       <c r="E7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="3"/>
+      <c r="F7" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="G7" s="3"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
@@ -2341,7 +2945,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C8" s="3">
         <v>3</v>
@@ -2349,8 +2953,12 @@
       <c r="D8" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
+      <c r="E8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="G8" s="3"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
@@ -2381,7 +2989,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C10" s="3">
         <v>3</v>
@@ -2404,7 +3012,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C11" s="3">
         <v>3</v>
@@ -2427,12 +3035,20 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
+        <v>16</v>
+      </c>
+      <c r="C12" s="3">
+        <v>3</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="G12" s="3"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
@@ -2444,12 +3060,20 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
+        <v>4</v>
+      </c>
+      <c r="C13" s="3">
+        <v>3</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="G13" s="3"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
@@ -2461,7 +3085,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C14" s="3">
         <v>3</v>
@@ -2501,7 +3125,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="C16" s="3">
         <v>3</v>
@@ -2512,7 +3136,9 @@
       <c r="E16" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F16" s="3"/>
+      <c r="F16" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="G16" s="3"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
@@ -2524,18 +3150,18 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="C17" s="3">
         <v>3</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
-      <c r="H17" s="1"/>
+      <c r="H17" s="3"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
@@ -2553,8 +3179,12 @@
       <c r="D18" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
+      <c r="E18" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="G18" s="3"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
@@ -2566,13 +3196,17 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="C19" s="3">
         <v>3</v>
       </c>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
+      <c r="D19" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
       <c r="H19" s="1"/>
@@ -2582,7 +3216,7 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>26</v>
@@ -2593,9 +3227,38 @@
       <c r="D20" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E20" s="3"/>
+      <c r="E20" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" s="3"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="6"/>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I21">
+    <sortCondition ref="B1:B21"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/sem1/СО-ПР-22.xlsx
+++ b/sem1/СО-ПР-22.xlsx
@@ -8,15 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thebandik/Library/Mobile Documents/com~apple~CloudDocs/General/Работа/Колледж/GitHub/computer-science/sem1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3553E1C9-3962-1A46-A193-1C7E8B69F284}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B47F72D-0F41-DD42-B2C2-23140FE060E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="3" xr2:uid="{78B3409E-6B57-FA43-BCC4-C09108445BD6}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="2" xr2:uid="{78B3409E-6B57-FA43-BCC4-C09108445BD6}"/>
   </bookViews>
   <sheets>
     <sheet name="Посещаемость 1" sheetId="2" r:id="rId1"/>
     <sheet name="Посещаемость 2" sheetId="1" r:id="rId2"/>
-    <sheet name="Успеваемость 1" sheetId="4" r:id="rId3"/>
-    <sheet name="Успеваемость 2" sheetId="3" r:id="rId4"/>
+    <sheet name="Успеваемость" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +42,7 @@
     <author>Arkadiy Schneider</author>
   </authors>
   <commentList>
-    <comment ref="F10" authorId="0" shapeId="0" xr:uid="{268C7868-9314-8740-9C54-032406863F31}">
+    <comment ref="K16" authorId="0" shapeId="0" xr:uid="{96E5A179-9F34-9B4C-9239-FD839CD8CDF8}">
       <text>
         <r>
           <rPr>
@@ -82,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="79">
   <si>
     <t>№</t>
   </si>
@@ -210,18 +209,9 @@
     <t>Филипова Агния</t>
   </si>
   <si>
-    <t>Лаб 1</t>
-  </si>
-  <si>
     <t>Буджурак</t>
   </si>
   <si>
-    <t>Пр 1</t>
-  </si>
-  <si>
-    <t>Пр 2</t>
-  </si>
-  <si>
     <t>пр1</t>
   </si>
   <si>
@@ -241,13 +231,100 @@
   </si>
   <si>
     <t>пр6</t>
+  </si>
+  <si>
+    <t>Итог</t>
+  </si>
+  <si>
+    <t>лаб1</t>
+  </si>
+  <si>
+    <t>лаб2</t>
+  </si>
+  <si>
+    <t>лаб3</t>
+  </si>
+  <si>
+    <t>лаб4</t>
+  </si>
+  <si>
+    <t>лаб5</t>
+  </si>
+  <si>
+    <t>лаб6</t>
+  </si>
+  <si>
+    <t>пр7</t>
+  </si>
+  <si>
+    <t>пр8</t>
+  </si>
+  <si>
+    <t>пр9</t>
+  </si>
+  <si>
+    <t>пр10</t>
+  </si>
+  <si>
+    <t>пр11</t>
+  </si>
+  <si>
+    <t>пр12</t>
+  </si>
+  <si>
+    <t>пр13</t>
+  </si>
+  <si>
+    <t>пр14</t>
+  </si>
+  <si>
+    <t>пр15</t>
+  </si>
+  <si>
+    <t>пр16</t>
+  </si>
+  <si>
+    <t>пр17</t>
+  </si>
+  <si>
+    <t>пр18</t>
+  </si>
+  <si>
+    <t>3 балла</t>
+  </si>
+  <si>
+    <t>Лабораторная работа №1</t>
+  </si>
+  <si>
+    <t>Лабораторная работа №2</t>
+  </si>
+  <si>
+    <t>Лабораторная работа №3</t>
+  </si>
+  <si>
+    <t>Лабораторная работа №4</t>
+  </si>
+  <si>
+    <t>Лабораторная работа №5</t>
+  </si>
+  <si>
+    <t>Лабораторная работа №6</t>
+  </si>
+  <si>
+    <t>Практические работы</t>
+  </si>
+  <si>
+    <t>5 баллов</t>
+  </si>
+  <si>
+    <t>Разбаловка</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -268,16 +345,40 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -301,30 +402,23 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
+      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
+      <top style="thin">
         <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -336,22 +430,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -668,10 +774,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4215EFA8-B92E-4C45-9535-33FF4C7A518F}">
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -681,9 +787,10 @@
     <col min="3" max="3" width="6.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="9" width="6.6640625" style="4" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.6640625" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,14 +818,20 @@
       <c r="I1" s="2">
         <v>45188</v>
       </c>
-      <c r="J1" s="8">
+      <c r="J1" s="5">
         <v>45190</v>
       </c>
-      <c r="K1" s="8">
+      <c r="K1" s="5">
         <v>45191</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L1" s="2">
+        <v>45195</v>
+      </c>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -749,11 +862,17 @@
       <c r="J2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -784,11 +903,17 @@
       <c r="J3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="K3" s="12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -819,11 +944,17 @@
       <c r="J4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -854,11 +985,17 @@
       <c r="J5" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="K5" s="12" t="s">
+      <c r="K5" s="3" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L5" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -889,11 +1026,17 @@
       <c r="J6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="K6" s="12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -924,11 +1067,17 @@
       <c r="J7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="K7" s="12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -959,11 +1108,17 @@
       <c r="J8" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="K8" s="12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -994,11 +1149,17 @@
       <c r="J9" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="K9" s="12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1029,11 +1190,17 @@
       <c r="J10" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="K10" s="12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1064,11 +1231,17 @@
       <c r="J11" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="K11" s="12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1099,11 +1272,17 @@
       <c r="J12" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="K12" s="12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1134,11 +1313,17 @@
       <c r="J13" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="K13" s="12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -1169,11 +1354,17 @@
       <c r="J14" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="K14" s="12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -1204,11 +1395,17 @@
       <c r="J15" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="K15" s="12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -1239,11 +1436,17 @@
       <c r="J16" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="K16" s="12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K16" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L16" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -1274,29 +1477,63 @@
       <c r="J17" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="K17" s="12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="12"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>12</v>
@@ -1314,7 +1551,7 @@
         <v>12</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I19" s="3" t="s">
         <v>12</v>
@@ -1322,128 +1559,27 @@
       <c r="J19" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="K19" s="12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A20" s="1">
-        <v>19</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="K20" s="12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A22" s="6"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="6"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A23" s="6"/>
-      <c r="B23" s="6"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="6"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A24" s="6"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
-      <c r="J24" s="6"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A25" s="6"/>
-      <c r="B25" s="6"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="7"/>
-      <c r="J25" s="6"/>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A26" s="6"/>
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="7"/>
-      <c r="J26" s="6"/>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A27" s="6"/>
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="7"/>
-      <c r="J27" s="6"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A28" s="6"/>
-      <c r="B28" s="6"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7"/>
-      <c r="I28" s="7"/>
-      <c r="J28" s="6"/>
+      <c r="K19" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L19" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="C22" s="4"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="C23" s="4"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="C24" s="4"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="C25" s="4"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H25">
@@ -1455,10 +1591,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F44A87E8-D92E-4B4A-BFC1-FEFAB9CDC28F}">
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView zoomScale="162" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1466,7 +1602,7 @@
     <col min="1" max="1" width="3.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="11" width="6.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
@@ -1500,7 +1636,7 @@
       <c r="J1" s="2">
         <v>45190</v>
       </c>
-      <c r="K1" s="5">
+      <c r="K1" s="2">
         <v>45191</v>
       </c>
     </row>
@@ -1535,7 +1671,7 @@
       <c r="J2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="10" t="s">
+      <c r="K2" s="3" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1570,7 +1706,7 @@
       <c r="J3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="K3" s="10" t="s">
+      <c r="K3" s="3" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1605,7 +1741,7 @@
       <c r="J4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="K4" s="10" t="s">
+      <c r="K4" s="3" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1640,7 +1776,7 @@
       <c r="J5" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="K5" s="11" t="s">
+      <c r="K5" s="3" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1675,7 +1811,7 @@
       <c r="J6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="K6" s="11" t="s">
+      <c r="K6" s="3" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1710,7 +1846,7 @@
       <c r="J7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="K7" s="11" t="s">
+      <c r="K7" s="3" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1745,7 +1881,7 @@
       <c r="J8" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="K8" s="11" t="s">
+      <c r="K8" s="3" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1780,7 +1916,7 @@
       <c r="J9" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="K9" s="11" t="s">
+      <c r="K9" s="3" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1815,7 +1951,7 @@
       <c r="J10" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="K10" s="11" t="s">
+      <c r="K10" s="3" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1850,7 +1986,7 @@
       <c r="J11" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="K11" s="11" t="s">
+      <c r="K11" s="3" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1885,7 +2021,7 @@
       <c r="J12" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="K12" s="11" t="s">
+      <c r="K12" s="3" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1920,7 +2056,7 @@
       <c r="J13" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="K13" s="11" t="s">
+      <c r="K13" s="3" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1955,7 +2091,7 @@
       <c r="J14" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="K14" s="11" t="s">
+      <c r="K14" s="3" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1990,7 +2126,7 @@
       <c r="J15" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="K15" s="11" t="s">
+      <c r="K15" s="3" t="s">
         <v>14</v>
       </c>
     </row>
@@ -2025,7 +2161,7 @@
       <c r="J16" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="K16" s="11" t="s">
+      <c r="K16" s="3" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2060,7 +2196,7 @@
       <c r="J17" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="K17" s="11" t="s">
+      <c r="K17" s="3" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2095,7 +2231,7 @@
       <c r="J18" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="K18" s="11" t="s">
+      <c r="K18" s="3" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2104,7 +2240,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>40</v>
@@ -2130,7 +2266,7 @@
       <c r="J19" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="K19" s="11" t="s">
+      <c r="K19" s="3" t="s">
         <v>14</v>
       </c>
     </row>
@@ -2165,57 +2301,9 @@
       <c r="J20" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="K20" s="12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A21" s="6"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="6"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A22" s="6"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="6"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A23" s="6"/>
-      <c r="B23" s="6"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="6"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A24" s="6"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="6"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A25" s="6"/>
-      <c r="B25" s="6"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="6"/>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A26" s="6"/>
-      <c r="B26" s="6"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="6"/>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A27" s="6"/>
-      <c r="B27" s="6"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="6"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A28" s="6"/>
-      <c r="B28" s="6"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="6"/>
+      <c r="K20" s="3" t="s">
+        <v>12</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2223,664 +2311,268 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39845E33-B198-1749-A96D-46C57A0F57AA}">
-  <dimension ref="A1:K20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39845E33-B198-1749-A96D-46C57A0F57AA}">
+  <dimension ref="A1:AD40"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="3.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.83203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C2" s="3">
-        <v>3</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" s="3"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" s="3"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C4" s="3">
-        <v>2</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H4" s="3"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C5" s="3">
-        <v>3</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" s="3">
-        <v>3</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="3">
-        <v>3</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C8" s="3">
-        <v>3</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H8" s="3"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="3">
-        <v>3</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="3">
-        <v>3</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11" s="3">
-        <v>3</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
-        <v>11</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C12" s="3">
-        <v>3</v>
-      </c>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
-        <v>12</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" s="3">
-        <v>3</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H13" s="3"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14" s="1">
-        <v>13</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" s="3">
-        <v>3</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H14" s="3"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A15" s="1">
-        <v>14</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" s="3">
-        <v>3</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H15" s="3"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16" s="1">
-        <v>15</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C16" s="3">
-        <v>3</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H16" s="3"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A17" s="1">
-        <v>16</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C17" s="3">
-        <v>3</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A19" s="1">
-        <v>18</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C19" s="3">
-        <v>3</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H19" s="3"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A20" s="1">
-        <v>19</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C20" s="3">
-        <v>3</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H20" s="3"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
-    </row>
-  </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E20">
-    <sortCondition ref="B1:B20"/>
-  </sortState>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7C7B5B6-77FB-D24E-9B62-07839F7C9E80}">
-  <dimension ref="A1:K21"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="157" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="7" width="10.83203125" style="4"/>
+    <col min="3" max="3" width="5.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="8" width="5.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="14" width="4.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5" style="4" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="4.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="18" max="26" width="5.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="23.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="C1" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="J1" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F1" s="3" t="s">
+      <c r="K1" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="L1" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="M1" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="N1" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="O1" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="P1" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q1" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="R1" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="S1" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="T1" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="U1" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="V1" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="W1" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="X1" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="Y1" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="Z1" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="AA1" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="C2" s="3">
         <v>3</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>12</v>
-      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
       <c r="G2" s="3"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H2" s="3"/>
+      <c r="I2" s="8">
+        <v>3</v>
+      </c>
+      <c r="J2" s="3">
+        <v>3</v>
+      </c>
+      <c r="K2" s="3">
+        <v>3</v>
+      </c>
+      <c r="L2" s="3">
+        <v>3</v>
+      </c>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+      <c r="U2" s="3"/>
+      <c r="V2" s="3"/>
+      <c r="W2" s="3"/>
+      <c r="X2" s="3"/>
+      <c r="Y2" s="3"/>
+      <c r="Z2" s="3"/>
+      <c r="AA2" s="3">
+        <f>SUM(C2:Z2)</f>
+        <v>15</v>
+      </c>
+      <c r="AC2" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="AD2" s="16"/>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C3" s="3">
         <v>3</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>12</v>
-      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
       <c r="G3" s="3"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H3" s="3"/>
+      <c r="I3" s="8">
+        <v>3</v>
+      </c>
+      <c r="J3" s="3">
+        <v>3</v>
+      </c>
+      <c r="K3" s="3">
+        <v>3</v>
+      </c>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
+      <c r="U3" s="3"/>
+      <c r="V3" s="3"/>
+      <c r="W3" s="3"/>
+      <c r="X3" s="3"/>
+      <c r="Y3" s="3"/>
+      <c r="Z3" s="3"/>
+      <c r="AA3" s="3">
+        <f t="shared" ref="AA3:AA39" si="0">SUM(C3:Z3)</f>
+        <v>12</v>
+      </c>
+      <c r="AC3" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD3" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" s="3">
         <v>3</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="8">
+        <v>3</v>
+      </c>
+      <c r="J4" s="3">
+        <v>3</v>
+      </c>
+      <c r="K4" s="3">
+        <v>3</v>
+      </c>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
+      <c r="U4" s="3"/>
+      <c r="V4" s="3"/>
+      <c r="W4" s="3"/>
+      <c r="X4" s="3"/>
+      <c r="Y4" s="3"/>
+      <c r="Z4" s="3"/>
+      <c r="AA4" s="3">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="AC4" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="AD4" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="C5" s="3">
         <v>3</v>
@@ -2889,88 +2581,184 @@
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H5" s="3"/>
+      <c r="I5" s="8">
+        <v>3</v>
+      </c>
+      <c r="J5" s="3">
+        <v>3</v>
+      </c>
+      <c r="K5" s="3">
+        <v>3</v>
+      </c>
+      <c r="L5" s="3">
+        <v>3</v>
+      </c>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3"/>
+      <c r="U5" s="3"/>
+      <c r="V5" s="3"/>
+      <c r="W5" s="3"/>
+      <c r="X5" s="3"/>
+      <c r="Y5" s="3"/>
+      <c r="Z5" s="3"/>
+      <c r="AA5" s="3">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="AC5" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="AD5" s="3"/>
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>12</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="C6" s="3">
+        <v>3</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H6" s="3"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="3"/>
+      <c r="U6" s="3"/>
+      <c r="V6" s="3"/>
+      <c r="W6" s="3"/>
+      <c r="X6" s="3"/>
+      <c r="Y6" s="3"/>
+      <c r="Z6" s="3"/>
+      <c r="AA6" s="3">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="AC6" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD6" s="3"/>
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="3">
-        <v>3</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>12</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
       <c r="G7" s="3"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H7" s="3"/>
+      <c r="I7" s="8">
+        <v>3</v>
+      </c>
+      <c r="J7" s="3">
+        <v>3</v>
+      </c>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="3"/>
+      <c r="U7" s="3"/>
+      <c r="V7" s="3"/>
+      <c r="W7" s="3"/>
+      <c r="X7" s="3"/>
+      <c r="Y7" s="3"/>
+      <c r="Z7" s="3"/>
+      <c r="AA7" s="3">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="AC7" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="AD7" s="3"/>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="3">
-        <v>3</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>12</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
       <c r="G8" s="3"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H8" s="3"/>
+      <c r="I8" s="8">
+        <v>3</v>
+      </c>
+      <c r="J8" s="3">
+        <v>3</v>
+      </c>
+      <c r="K8" s="3">
+        <v>3</v>
+      </c>
+      <c r="L8" s="3">
+        <v>3</v>
+      </c>
+      <c r="M8" s="3">
+        <v>3</v>
+      </c>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
+      <c r="U8" s="3"/>
+      <c r="V8" s="3"/>
+      <c r="W8" s="3"/>
+      <c r="X8" s="3"/>
+      <c r="Y8" s="3"/>
+      <c r="Z8" s="3"/>
+      <c r="AA8" s="3">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="AC8" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD8" s="3"/>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C9" s="3">
         <v>3</v>
@@ -2979,285 +2767,1396 @@
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H9" s="3"/>
+      <c r="I9" s="8">
+        <v>3</v>
+      </c>
+      <c r="J9" s="3">
+        <v>3</v>
+      </c>
+      <c r="K9" s="3">
+        <v>3</v>
+      </c>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="3"/>
+      <c r="U9" s="3"/>
+      <c r="V9" s="3"/>
+      <c r="W9" s="3"/>
+      <c r="X9" s="3"/>
+      <c r="Y9" s="3"/>
+      <c r="Z9" s="3"/>
+      <c r="AA9" s="3">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="AC9" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD9" s="3"/>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C10" s="3">
         <v>3</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>12</v>
-      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H10" s="3"/>
+      <c r="I10" s="8">
+        <v>3</v>
+      </c>
+      <c r="J10" s="3">
+        <v>3</v>
+      </c>
+      <c r="K10" s="3">
+        <v>3</v>
+      </c>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="3"/>
+      <c r="U10" s="3"/>
+      <c r="V10" s="3"/>
+      <c r="W10" s="3"/>
+      <c r="X10" s="3"/>
+      <c r="Y10" s="3"/>
+      <c r="Z10" s="3"/>
+      <c r="AA10" s="3">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="C11" s="3">
-        <v>3</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>12</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H11" s="3"/>
+      <c r="I11" s="8">
+        <v>3</v>
+      </c>
+      <c r="J11" s="3">
+        <v>3</v>
+      </c>
+      <c r="K11" s="3">
+        <v>3</v>
+      </c>
+      <c r="L11" s="3">
+        <v>3</v>
+      </c>
+      <c r="M11" s="3">
+        <v>3</v>
+      </c>
+      <c r="N11" s="3">
+        <v>3</v>
+      </c>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+      <c r="W11" s="3"/>
+      <c r="X11" s="3"/>
+      <c r="Y11" s="3"/>
+      <c r="Z11" s="3"/>
+      <c r="AA11" s="3">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="C12" s="3">
         <v>3</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>12</v>
-      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
       <c r="G12" s="3"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H12" s="3"/>
+      <c r="I12" s="8">
+        <v>3</v>
+      </c>
+      <c r="J12" s="3">
+        <v>3</v>
+      </c>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3"/>
+      <c r="S12" s="3"/>
+      <c r="T12" s="3"/>
+      <c r="U12" s="3"/>
+      <c r="V12" s="3"/>
+      <c r="W12" s="3"/>
+      <c r="X12" s="3"/>
+      <c r="Y12" s="3"/>
+      <c r="Z12" s="3"/>
+      <c r="AA12" s="3">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="C13" s="3">
         <v>3</v>
       </c>
-      <c r="D13" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>12</v>
-      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
       <c r="G13" s="3"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H13" s="3"/>
+      <c r="I13" s="8">
+        <v>3</v>
+      </c>
+      <c r="J13" s="3">
+        <v>3</v>
+      </c>
+      <c r="K13" s="3">
+        <v>3</v>
+      </c>
+      <c r="L13" s="3">
+        <v>3</v>
+      </c>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3"/>
+      <c r="S13" s="3"/>
+      <c r="T13" s="3"/>
+      <c r="U13" s="3"/>
+      <c r="V13" s="3"/>
+      <c r="W13" s="3"/>
+      <c r="X13" s="3"/>
+      <c r="Y13" s="3"/>
+      <c r="Z13" s="3"/>
+      <c r="AA13" s="3">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="C14" s="3">
         <v>3</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>12</v>
-      </c>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H14" s="3"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="3"/>
+      <c r="U14" s="3"/>
+      <c r="V14" s="3"/>
+      <c r="W14" s="3"/>
+      <c r="X14" s="3"/>
+      <c r="Y14" s="3"/>
+      <c r="Z14" s="3"/>
+      <c r="AA14" s="3">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" s="3"/>
+        <v>25</v>
+      </c>
+      <c r="C15" s="3">
+        <v>3</v>
+      </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H15" s="3"/>
+      <c r="I15" s="8">
+        <v>3</v>
+      </c>
+      <c r="J15" s="3">
+        <v>3</v>
+      </c>
+      <c r="K15" s="3">
+        <v>3</v>
+      </c>
+      <c r="L15" s="3">
+        <v>3</v>
+      </c>
+      <c r="M15" s="3">
+        <v>3</v>
+      </c>
+      <c r="N15" s="3">
+        <v>3</v>
+      </c>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="3"/>
+      <c r="S15" s="3"/>
+      <c r="T15" s="3"/>
+      <c r="U15" s="3"/>
+      <c r="V15" s="3"/>
+      <c r="W15" s="3"/>
+      <c r="X15" s="3"/>
+      <c r="Y15" s="3"/>
+      <c r="Z15" s="3"/>
+      <c r="AA15" s="3">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C16" s="3">
         <v>3</v>
       </c>
-      <c r="D16" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>12</v>
-      </c>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
       <c r="G16" s="3"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H16" s="3"/>
+      <c r="I16" s="8">
+        <v>3</v>
+      </c>
+      <c r="J16" s="3">
+        <v>3</v>
+      </c>
+      <c r="K16" s="3">
+        <v>2</v>
+      </c>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+      <c r="W16" s="3"/>
+      <c r="X16" s="3"/>
+      <c r="Y16" s="3"/>
+      <c r="Z16" s="3"/>
+      <c r="AA16" s="3">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="C17" s="3">
         <v>3</v>
       </c>
       <c r="D17" s="3"/>
-      <c r="E17" s="3" t="s">
-        <v>12</v>
-      </c>
+      <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I17" s="8">
+        <v>3</v>
+      </c>
+      <c r="J17" s="3">
+        <v>3</v>
+      </c>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="3"/>
+      <c r="S17" s="3"/>
+      <c r="T17" s="3"/>
+      <c r="U17" s="3"/>
+      <c r="V17" s="3"/>
+      <c r="W17" s="3"/>
+      <c r="X17" s="3"/>
+      <c r="Y17" s="3"/>
+      <c r="Z17" s="3"/>
+      <c r="AA17" s="3">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C18" s="3">
         <v>3</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>12</v>
-      </c>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
       <c r="G18" s="3"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H18" s="3"/>
+      <c r="I18" s="8">
+        <v>3</v>
+      </c>
+      <c r="J18" s="3">
+        <v>3</v>
+      </c>
+      <c r="K18" s="3">
+        <v>3</v>
+      </c>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="3"/>
+      <c r="S18" s="3"/>
+      <c r="T18" s="3"/>
+      <c r="U18" s="3"/>
+      <c r="V18" s="3"/>
+      <c r="W18" s="3"/>
+      <c r="X18" s="3"/>
+      <c r="Y18" s="3"/>
+      <c r="Z18" s="3"/>
+      <c r="AA18" s="3">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="C19" s="3">
         <v>3</v>
       </c>
-      <c r="D19" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>12</v>
-      </c>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H19" s="3"/>
+      <c r="I19" s="8">
+        <v>3</v>
+      </c>
+      <c r="J19" s="3">
+        <v>3</v>
+      </c>
+      <c r="K19" s="3">
+        <v>3</v>
+      </c>
+      <c r="L19" s="3">
+        <v>3</v>
+      </c>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+      <c r="W19" s="3"/>
+      <c r="X19" s="3"/>
+      <c r="Y19" s="3"/>
+      <c r="Z19" s="3"/>
+      <c r="AA19" s="3">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="C20" s="3">
         <v>3</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>12</v>
-      </c>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
       <c r="G20" s="3"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H20" s="3"/>
+      <c r="I20" s="8">
+        <v>3</v>
+      </c>
+      <c r="J20" s="3">
+        <v>3</v>
+      </c>
+      <c r="K20" s="3">
+        <v>3</v>
+      </c>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
+      <c r="P20" s="3"/>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="3"/>
+      <c r="S20" s="3"/>
+      <c r="T20" s="3"/>
+      <c r="U20" s="3"/>
+      <c r="V20" s="3"/>
+      <c r="W20" s="3"/>
+      <c r="X20" s="3"/>
+      <c r="Y20" s="3"/>
+      <c r="Z20" s="3"/>
+      <c r="AA20" s="3">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C21" s="3"/>
+        <v>22</v>
+      </c>
+      <c r="C21" s="3">
+        <v>3</v>
+      </c>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="6"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="8">
+        <v>3</v>
+      </c>
+      <c r="J21" s="3">
+        <v>3</v>
+      </c>
+      <c r="K21" s="3">
+        <v>3</v>
+      </c>
+      <c r="L21" s="3">
+        <v>3</v>
+      </c>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="3"/>
+      <c r="P21" s="3"/>
+      <c r="Q21" s="3"/>
+      <c r="R21" s="3"/>
+      <c r="S21" s="3"/>
+      <c r="T21" s="3"/>
+      <c r="U21" s="3"/>
+      <c r="V21" s="3"/>
+      <c r="W21" s="3"/>
+      <c r="X21" s="3"/>
+      <c r="Y21" s="3"/>
+      <c r="Z21" s="3"/>
+      <c r="AA21" s="3">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" s="3">
+        <v>3</v>
+      </c>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="8">
+        <v>3</v>
+      </c>
+      <c r="J22" s="3">
+        <v>3</v>
+      </c>
+      <c r="K22" s="3">
+        <v>3</v>
+      </c>
+      <c r="L22" s="3">
+        <v>3</v>
+      </c>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="3"/>
+      <c r="P22" s="3"/>
+      <c r="Q22" s="3"/>
+      <c r="R22" s="3"/>
+      <c r="S22" s="3"/>
+      <c r="T22" s="3"/>
+      <c r="U22" s="3"/>
+      <c r="V22" s="3"/>
+      <c r="W22" s="3"/>
+      <c r="X22" s="3"/>
+      <c r="Y22" s="3"/>
+      <c r="Z22" s="3"/>
+      <c r="AA22" s="3">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C23" s="3">
+        <v>3</v>
+      </c>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="8">
+        <v>3</v>
+      </c>
+      <c r="J23" s="3">
+        <v>3</v>
+      </c>
+      <c r="K23" s="3">
+        <v>3</v>
+      </c>
+      <c r="L23" s="3">
+        <v>3</v>
+      </c>
+      <c r="M23" s="3">
+        <v>3</v>
+      </c>
+      <c r="N23" s="3"/>
+      <c r="O23" s="3"/>
+      <c r="P23" s="3"/>
+      <c r="Q23" s="3"/>
+      <c r="R23" s="3"/>
+      <c r="S23" s="3"/>
+      <c r="T23" s="3"/>
+      <c r="U23" s="3"/>
+      <c r="V23" s="3"/>
+      <c r="W23" s="3"/>
+      <c r="X23" s="3"/>
+      <c r="Y23" s="3"/>
+      <c r="Z23" s="3"/>
+      <c r="AA23" s="3">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24" s="3">
+        <v>3</v>
+      </c>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="8">
+        <v>3</v>
+      </c>
+      <c r="J24" s="3">
+        <v>3</v>
+      </c>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
+      <c r="O24" s="3"/>
+      <c r="P24" s="3"/>
+      <c r="Q24" s="3"/>
+      <c r="R24" s="3"/>
+      <c r="S24" s="3"/>
+      <c r="T24" s="3"/>
+      <c r="U24" s="3"/>
+      <c r="V24" s="3"/>
+      <c r="W24" s="3"/>
+      <c r="X24" s="3"/>
+      <c r="Y24" s="3"/>
+      <c r="Z24" s="3"/>
+      <c r="AA24" s="3">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="3"/>
+      <c r="O25" s="3"/>
+      <c r="P25" s="3"/>
+      <c r="Q25" s="3"/>
+      <c r="R25" s="3"/>
+      <c r="S25" s="3"/>
+      <c r="T25" s="3"/>
+      <c r="U25" s="3"/>
+      <c r="V25" s="3"/>
+      <c r="W25" s="3"/>
+      <c r="X25" s="3"/>
+      <c r="Y25" s="3"/>
+      <c r="Z25" s="3"/>
+      <c r="AA25" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="3">
+        <v>3</v>
+      </c>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="8">
+        <v>3</v>
+      </c>
+      <c r="J26" s="3">
+        <v>3</v>
+      </c>
+      <c r="K26" s="3">
+        <v>3</v>
+      </c>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3"/>
+      <c r="O26" s="3"/>
+      <c r="P26" s="3"/>
+      <c r="Q26" s="3"/>
+      <c r="R26" s="3"/>
+      <c r="S26" s="3"/>
+      <c r="T26" s="3"/>
+      <c r="U26" s="3"/>
+      <c r="V26" s="3"/>
+      <c r="W26" s="3"/>
+      <c r="X26" s="3"/>
+      <c r="Y26" s="3"/>
+      <c r="Z26" s="3"/>
+      <c r="AA26" s="3">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C27" s="3">
+        <v>3</v>
+      </c>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3">
+        <v>3</v>
+      </c>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="3"/>
+      <c r="O27" s="3"/>
+      <c r="P27" s="3"/>
+      <c r="Q27" s="3"/>
+      <c r="R27" s="3"/>
+      <c r="S27" s="3"/>
+      <c r="T27" s="3"/>
+      <c r="U27" s="3"/>
+      <c r="V27" s="3"/>
+      <c r="W27" s="3"/>
+      <c r="X27" s="3"/>
+      <c r="Y27" s="3"/>
+      <c r="Z27" s="3"/>
+      <c r="AA27" s="3">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C28" s="3">
+        <v>3</v>
+      </c>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="8">
+        <v>3</v>
+      </c>
+      <c r="J28" s="3">
+        <v>3</v>
+      </c>
+      <c r="K28" s="3">
+        <v>3</v>
+      </c>
+      <c r="L28" s="3">
+        <v>3</v>
+      </c>
+      <c r="M28" s="3">
+        <v>3</v>
+      </c>
+      <c r="N28" s="3">
+        <v>3</v>
+      </c>
+      <c r="O28" s="3"/>
+      <c r="P28" s="3"/>
+      <c r="Q28" s="3"/>
+      <c r="R28" s="3"/>
+      <c r="S28" s="3"/>
+      <c r="T28" s="3"/>
+      <c r="U28" s="3"/>
+      <c r="V28" s="3"/>
+      <c r="W28" s="3"/>
+      <c r="X28" s="3"/>
+      <c r="Y28" s="3"/>
+      <c r="Z28" s="3"/>
+      <c r="AA28" s="3">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="29" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C29" s="3">
+        <v>3</v>
+      </c>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="8">
+        <v>3</v>
+      </c>
+      <c r="J29" s="3">
+        <v>3</v>
+      </c>
+      <c r="K29" s="3">
+        <v>3</v>
+      </c>
+      <c r="L29" s="3">
+        <v>3</v>
+      </c>
+      <c r="M29" s="3"/>
+      <c r="N29" s="3"/>
+      <c r="O29" s="3"/>
+      <c r="P29" s="3"/>
+      <c r="Q29" s="3"/>
+      <c r="R29" s="3"/>
+      <c r="S29" s="3"/>
+      <c r="T29" s="3"/>
+      <c r="U29" s="3"/>
+      <c r="V29" s="3"/>
+      <c r="W29" s="3"/>
+      <c r="X29" s="3"/>
+      <c r="Y29" s="3"/>
+      <c r="Z29" s="3"/>
+      <c r="AA29" s="3">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C30" s="3">
+        <v>3</v>
+      </c>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="8">
+        <v>3</v>
+      </c>
+      <c r="J30" s="3">
+        <v>3</v>
+      </c>
+      <c r="K30" s="3">
+        <v>3</v>
+      </c>
+      <c r="L30" s="3">
+        <v>3</v>
+      </c>
+      <c r="M30" s="3"/>
+      <c r="N30" s="3"/>
+      <c r="O30" s="3"/>
+      <c r="P30" s="3"/>
+      <c r="Q30" s="3"/>
+      <c r="R30" s="3"/>
+      <c r="S30" s="3"/>
+      <c r="T30" s="3"/>
+      <c r="U30" s="3"/>
+      <c r="V30" s="3"/>
+      <c r="W30" s="3"/>
+      <c r="X30" s="3"/>
+      <c r="Y30" s="3"/>
+      <c r="Z30" s="3"/>
+      <c r="AA30" s="3">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31" s="3">
+        <v>3</v>
+      </c>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="8">
+        <v>3</v>
+      </c>
+      <c r="J31" s="3">
+        <v>3</v>
+      </c>
+      <c r="K31" s="3">
+        <v>3</v>
+      </c>
+      <c r="L31" s="3">
+        <v>3</v>
+      </c>
+      <c r="M31" s="3">
+        <v>3</v>
+      </c>
+      <c r="N31" s="3">
+        <v>3</v>
+      </c>
+      <c r="O31" s="3"/>
+      <c r="P31" s="3"/>
+      <c r="Q31" s="3"/>
+      <c r="R31" s="3"/>
+      <c r="S31" s="3"/>
+      <c r="T31" s="3"/>
+      <c r="U31" s="3"/>
+      <c r="V31" s="3"/>
+      <c r="W31" s="3"/>
+      <c r="X31" s="3"/>
+      <c r="Y31" s="3"/>
+      <c r="Z31" s="3"/>
+      <c r="AA31" s="3">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="32" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C32" s="3">
+        <v>3</v>
+      </c>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="8">
+        <v>3</v>
+      </c>
+      <c r="J32" s="3">
+        <v>3</v>
+      </c>
+      <c r="K32" s="3">
+        <v>3</v>
+      </c>
+      <c r="L32" s="3">
+        <v>3</v>
+      </c>
+      <c r="M32" s="3">
+        <v>3</v>
+      </c>
+      <c r="N32" s="3"/>
+      <c r="O32" s="3"/>
+      <c r="P32" s="3"/>
+      <c r="Q32" s="3"/>
+      <c r="R32" s="3"/>
+      <c r="S32" s="3"/>
+      <c r="T32" s="3"/>
+      <c r="U32" s="3"/>
+      <c r="V32" s="3"/>
+      <c r="W32" s="3"/>
+      <c r="X32" s="3"/>
+      <c r="Y32" s="3"/>
+      <c r="Z32" s="3"/>
+      <c r="AA32" s="3">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C33" s="3">
+        <v>3</v>
+      </c>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="8"/>
+      <c r="J33" s="3">
+        <v>3</v>
+      </c>
+      <c r="K33" s="3"/>
+      <c r="L33" s="3"/>
+      <c r="M33" s="3"/>
+      <c r="N33" s="3"/>
+      <c r="O33" s="3"/>
+      <c r="P33" s="3"/>
+      <c r="Q33" s="3"/>
+      <c r="R33" s="3"/>
+      <c r="S33" s="3"/>
+      <c r="T33" s="3"/>
+      <c r="U33" s="3"/>
+      <c r="V33" s="3"/>
+      <c r="W33" s="3"/>
+      <c r="X33" s="3"/>
+      <c r="Y33" s="3"/>
+      <c r="Z33" s="3"/>
+      <c r="AA33" s="3">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C34" s="3">
+        <v>3</v>
+      </c>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="8">
+        <v>3</v>
+      </c>
+      <c r="J34" s="3">
+        <v>3</v>
+      </c>
+      <c r="K34" s="3">
+        <v>3</v>
+      </c>
+      <c r="L34" s="3"/>
+      <c r="M34" s="3"/>
+      <c r="N34" s="3"/>
+      <c r="O34" s="3"/>
+      <c r="P34" s="3"/>
+      <c r="Q34" s="3"/>
+      <c r="R34" s="3"/>
+      <c r="S34" s="3"/>
+      <c r="T34" s="3"/>
+      <c r="U34" s="3"/>
+      <c r="V34" s="3"/>
+      <c r="W34" s="3"/>
+      <c r="X34" s="3"/>
+      <c r="Y34" s="3"/>
+      <c r="Z34" s="3"/>
+      <c r="AA34" s="3">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C35" s="3">
+        <v>3</v>
+      </c>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="8">
+        <v>3</v>
+      </c>
+      <c r="J35" s="3">
+        <v>3</v>
+      </c>
+      <c r="K35" s="3"/>
+      <c r="L35" s="3"/>
+      <c r="M35" s="3"/>
+      <c r="N35" s="3"/>
+      <c r="O35" s="3"/>
+      <c r="P35" s="3"/>
+      <c r="Q35" s="3"/>
+      <c r="R35" s="3"/>
+      <c r="S35" s="3"/>
+      <c r="T35" s="3"/>
+      <c r="U35" s="3"/>
+      <c r="V35" s="3"/>
+      <c r="W35" s="3"/>
+      <c r="X35" s="3"/>
+      <c r="Y35" s="3"/>
+      <c r="Z35" s="3"/>
+      <c r="AA35" s="3">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" s="3">
+        <v>3</v>
+      </c>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="8">
+        <v>3</v>
+      </c>
+      <c r="J36" s="3">
+        <v>3</v>
+      </c>
+      <c r="K36" s="3">
+        <v>3</v>
+      </c>
+      <c r="L36" s="3"/>
+      <c r="M36" s="3"/>
+      <c r="N36" s="3"/>
+      <c r="O36" s="3"/>
+      <c r="P36" s="3"/>
+      <c r="Q36" s="3"/>
+      <c r="R36" s="3"/>
+      <c r="S36" s="3"/>
+      <c r="T36" s="3"/>
+      <c r="U36" s="3"/>
+      <c r="V36" s="3"/>
+      <c r="W36" s="3"/>
+      <c r="X36" s="3"/>
+      <c r="Y36" s="3"/>
+      <c r="Z36" s="3"/>
+      <c r="AA36" s="3">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C37" s="3">
+        <v>3</v>
+      </c>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="8">
+        <v>3</v>
+      </c>
+      <c r="J37" s="3">
+        <v>3</v>
+      </c>
+      <c r="K37" s="3">
+        <v>3</v>
+      </c>
+      <c r="L37" s="3">
+        <v>3</v>
+      </c>
+      <c r="M37" s="3">
+        <v>3</v>
+      </c>
+      <c r="N37" s="3">
+        <v>3</v>
+      </c>
+      <c r="O37" s="3"/>
+      <c r="P37" s="3"/>
+      <c r="Q37" s="3"/>
+      <c r="R37" s="3"/>
+      <c r="S37" s="3"/>
+      <c r="T37" s="3"/>
+      <c r="U37" s="3"/>
+      <c r="V37" s="3"/>
+      <c r="W37" s="3"/>
+      <c r="X37" s="3"/>
+      <c r="Y37" s="3"/>
+      <c r="Z37" s="3"/>
+      <c r="AA37" s="3">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="38" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
+      <c r="I38" s="8"/>
+      <c r="J38" s="3"/>
+      <c r="K38" s="3"/>
+      <c r="L38" s="3"/>
+      <c r="M38" s="3"/>
+      <c r="N38" s="3"/>
+      <c r="O38" s="3"/>
+      <c r="P38" s="3"/>
+      <c r="Q38" s="3"/>
+      <c r="R38" s="3"/>
+      <c r="S38" s="3"/>
+      <c r="T38" s="3"/>
+      <c r="U38" s="3"/>
+      <c r="V38" s="3"/>
+      <c r="W38" s="3"/>
+      <c r="X38" s="3"/>
+      <c r="Y38" s="3"/>
+      <c r="Z38" s="3"/>
+      <c r="AA38" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C39" s="3">
+        <v>3</v>
+      </c>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="3"/>
+      <c r="I39" s="8">
+        <v>3</v>
+      </c>
+      <c r="J39" s="3">
+        <v>3</v>
+      </c>
+      <c r="K39" s="3">
+        <v>3</v>
+      </c>
+      <c r="L39" s="3">
+        <v>3</v>
+      </c>
+      <c r="M39" s="3">
+        <v>3</v>
+      </c>
+      <c r="N39" s="3">
+        <v>3</v>
+      </c>
+      <c r="O39" s="3"/>
+      <c r="P39" s="3"/>
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+      <c r="T39" s="3"/>
+      <c r="U39" s="3"/>
+      <c r="V39" s="3"/>
+      <c r="W39" s="3"/>
+      <c r="X39" s="3"/>
+      <c r="Y39" s="3"/>
+      <c r="Z39" s="3"/>
+      <c r="AA39" s="3">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="40" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A40" s="6"/>
+      <c r="B40" s="6"/>
+      <c r="C40" s="7"/>
+      <c r="I40" s="7"/>
+      <c r="J40" s="7"/>
+      <c r="K40" s="7"/>
+      <c r="L40" s="7"/>
+      <c r="M40" s="7"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I21">
-    <sortCondition ref="B1:B21"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H40">
+    <sortCondition ref="B1:B40"/>
   </sortState>
+  <mergeCells count="1">
+    <mergeCell ref="AC2:AD2"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>

--- a/sem1/СО-ПР-22.xlsx
+++ b/sem1/СО-ПР-22.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thebandik/Library/Mobile Documents/com~apple~CloudDocs/General/Работа/Колледж/GitHub/computer-science/sem1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B47F72D-0F41-DD42-B2C2-23140FE060E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A003757-A610-3249-88A2-9373E77EEBEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="2" xr2:uid="{78B3409E-6B57-FA43-BCC4-C09108445BD6}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{78B3409E-6B57-FA43-BCC4-C09108445BD6}"/>
   </bookViews>
   <sheets>
     <sheet name="Посещаемость 1" sheetId="2" r:id="rId1"/>
@@ -81,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="79">
   <si>
     <t>№</t>
   </si>
@@ -378,7 +378,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -414,11 +414,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -431,10 +451,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -458,6 +474,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -777,7 +802,7 @@
   <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -788,6 +813,7 @@
     <col min="4" max="9" width="6.6640625" style="4" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="6.6640625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="6.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.2">
@@ -827,7 +853,9 @@
       <c r="L1" s="2">
         <v>45195</v>
       </c>
-      <c r="M1" s="3"/>
+      <c r="M1" s="2">
+        <v>45197</v>
+      </c>
       <c r="N1" s="3"/>
       <c r="O1" s="3"/>
     </row>
@@ -868,7 +896,9 @@
       <c r="L2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="M2" s="3"/>
+      <c r="M2" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="N2" s="3"/>
       <c r="O2" s="3"/>
     </row>
@@ -909,7 +939,9 @@
       <c r="L3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="M3" s="3"/>
+      <c r="M3" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="N3" s="3"/>
       <c r="O3" s="3"/>
     </row>
@@ -950,7 +982,9 @@
       <c r="L4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="M4" s="3"/>
+      <c r="M4" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
     </row>
@@ -991,7 +1025,9 @@
       <c r="L5" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="M5" s="3"/>
+      <c r="M5" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
     </row>
@@ -1032,7 +1068,9 @@
       <c r="L6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="M6" s="3"/>
+      <c r="M6" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
     </row>
@@ -1073,7 +1111,9 @@
       <c r="L7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="M7" s="3"/>
+      <c r="M7" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
     </row>
@@ -1114,7 +1154,9 @@
       <c r="L8" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="M8" s="3"/>
+      <c r="M8" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="N8" s="3"/>
       <c r="O8" s="3"/>
     </row>
@@ -1155,7 +1197,9 @@
       <c r="L9" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="M9" s="3"/>
+      <c r="M9" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="N9" s="3"/>
       <c r="O9" s="3"/>
     </row>
@@ -1196,7 +1240,9 @@
       <c r="L10" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="M10" s="3"/>
+      <c r="M10" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="N10" s="3"/>
       <c r="O10" s="3"/>
     </row>
@@ -1237,7 +1283,9 @@
       <c r="L11" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="M11" s="3"/>
+      <c r="M11" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
     </row>
@@ -1278,7 +1326,9 @@
       <c r="L12" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="M12" s="3"/>
+      <c r="M12" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="N12" s="3"/>
       <c r="O12" s="3"/>
     </row>
@@ -1319,7 +1369,9 @@
       <c r="L13" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="M13" s="3"/>
+      <c r="M13" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="N13" s="3"/>
       <c r="O13" s="3"/>
     </row>
@@ -1360,7 +1412,9 @@
       <c r="L14" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="M14" s="3"/>
+      <c r="M14" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="N14" s="3"/>
       <c r="O14" s="3"/>
     </row>
@@ -1401,7 +1455,9 @@
       <c r="L15" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="M15" s="3"/>
+      <c r="M15" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="N15" s="3"/>
       <c r="O15" s="3"/>
     </row>
@@ -1442,7 +1498,9 @@
       <c r="L16" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="M16" s="3"/>
+      <c r="M16" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
     </row>
@@ -1483,7 +1541,9 @@
       <c r="L17" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="M17" s="3"/>
+      <c r="M17" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="N17" s="3"/>
       <c r="O17" s="3"/>
     </row>
@@ -1524,7 +1584,9 @@
       <c r="L18" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="M18" s="3"/>
+      <c r="M18" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="N18" s="3"/>
       <c r="O18" s="3"/>
     </row>
@@ -1565,7 +1627,9 @@
       <c r="L19" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="M19" s="3"/>
+      <c r="M19" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
     </row>
@@ -1591,10 +1655,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F44A87E8-D92E-4B4A-BFC1-FEFAB9CDC28F}">
-  <dimension ref="A1:K20"/>
+  <dimension ref="A1:L20"/>
   <sheetViews>
-    <sheetView zoomScale="162" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+    <sheetView tabSelected="1" zoomScale="162" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1603,9 +1667,10 @@
     <col min="2" max="2" width="19.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.6640625" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="11" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.6640625" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1639,8 +1704,11 @@
       <c r="K1" s="2">
         <v>45191</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L1" s="17">
+        <v>45197</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1674,8 +1742,11 @@
       <c r="K2" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L2" s="15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1709,8 +1780,11 @@
       <c r="K3" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L3" s="15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1744,8 +1818,11 @@
       <c r="K4" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L4" s="15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1779,8 +1856,11 @@
       <c r="K5" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L5" s="16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1814,8 +1894,11 @@
       <c r="K6" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L6" s="16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1849,8 +1932,11 @@
       <c r="K7" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" s="16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1884,8 +1970,11 @@
       <c r="K8" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1919,8 +2008,11 @@
       <c r="K9" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1954,8 +2046,11 @@
       <c r="K10" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1989,8 +2084,11 @@
       <c r="K11" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -2024,8 +2122,11 @@
       <c r="K12" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -2059,8 +2160,11 @@
       <c r="K13" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -2094,8 +2198,11 @@
       <c r="K14" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -2129,8 +2236,11 @@
       <c r="K15" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -2164,8 +2274,11 @@
       <c r="K16" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -2199,8 +2312,11 @@
       <c r="K17" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -2234,8 +2350,11 @@
       <c r="K18" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -2269,8 +2388,11 @@
       <c r="K19" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>17</v>
       </c>
@@ -2303,6 +2425,9 @@
       </c>
       <c r="K20" s="3" t="s">
         <v>12</v>
+      </c>
+      <c r="L20" s="16" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -2312,21 +2437,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39845E33-B198-1749-A96D-46C57A0F57AA}">
-  <dimension ref="A1:AD40"/>
+  <dimension ref="A1:AD39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O17" sqref="O17"/>
+      <selection pane="bottomRight" activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.1640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="5.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="8" width="5.1640625" style="4" bestFit="1" customWidth="1"/>
     <col min="9" max="14" width="4.33203125" style="4" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="5" style="4" bestFit="1" customWidth="1"/>
     <col min="16" max="17" width="4.33203125" style="4" bestFit="1" customWidth="1"/>
@@ -2335,85 +2459,85 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="I1" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="J1" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="K1" s="14" t="s">
+      <c r="K1" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="L1" s="15" t="s">
+      <c r="L1" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="M1" s="15" t="s">
+      <c r="M1" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="N1" s="15" t="s">
+      <c r="N1" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="O1" s="15" t="s">
+      <c r="O1" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="P1" s="15" t="s">
+      <c r="P1" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Q1" s="15" t="s">
+      <c r="Q1" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="R1" s="15" t="s">
+      <c r="R1" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="S1" s="15" t="s">
+      <c r="S1" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="T1" s="15" t="s">
+      <c r="T1" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="U1" s="15" t="s">
+      <c r="U1" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="V1" s="15" t="s">
+      <c r="V1" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="W1" s="15" t="s">
+      <c r="W1" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="X1" s="15" t="s">
+      <c r="X1" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="Y1" s="15" t="s">
+      <c r="Y1" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="Z1" s="15" t="s">
+      <c r="Z1" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="AA1" s="10" t="s">
+      <c r="AA1" s="8" t="s">
         <v>50</v>
       </c>
     </row>
@@ -2432,7 +2556,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
-      <c r="I2" s="8">
+      <c r="I2" s="6">
         <v>3</v>
       </c>
       <c r="J2" s="3">
@@ -2462,10 +2586,10 @@
         <f>SUM(C2:Z2)</f>
         <v>15</v>
       </c>
-      <c r="AC2" s="16" t="s">
+      <c r="AC2" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="AD2" s="16"/>
+      <c r="AD2" s="14"/>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
@@ -2482,7 +2606,7 @@
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
-      <c r="I3" s="8">
+      <c r="I3" s="6">
         <v>3</v>
       </c>
       <c r="J3" s="3">
@@ -2532,7 +2656,7 @@
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
-      <c r="I4" s="8">
+      <c r="I4" s="6">
         <v>3</v>
       </c>
       <c r="J4" s="3">
@@ -2582,7 +2706,7 @@
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
-      <c r="I5" s="8">
+      <c r="I5" s="6">
         <v>3</v>
       </c>
       <c r="J5" s="3">
@@ -2632,7 +2756,7 @@
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
-      <c r="I6" s="8"/>
+      <c r="I6" s="6"/>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
@@ -2672,7 +2796,7 @@
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
-      <c r="I7" s="8">
+      <c r="I7" s="6">
         <v>3</v>
       </c>
       <c r="J7" s="3">
@@ -2716,7 +2840,7 @@
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
-      <c r="I8" s="8">
+      <c r="I8" s="6">
         <v>3</v>
       </c>
       <c r="J8" s="3">
@@ -2768,7 +2892,7 @@
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
-      <c r="I9" s="8">
+      <c r="I9" s="6">
         <v>3</v>
       </c>
       <c r="J9" s="3">
@@ -2816,7 +2940,7 @@
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
-      <c r="I10" s="8">
+      <c r="I10" s="6">
         <v>3</v>
       </c>
       <c r="J10" s="3">
@@ -2860,7 +2984,7 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
-      <c r="I11" s="8">
+      <c r="I11" s="6">
         <v>3</v>
       </c>
       <c r="J11" s="3">
@@ -2910,7 +3034,7 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
-      <c r="I12" s="8">
+      <c r="I12" s="6">
         <v>3</v>
       </c>
       <c r="J12" s="3">
@@ -2952,7 +3076,7 @@
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
-      <c r="I13" s="8">
+      <c r="I13" s="6">
         <v>3</v>
       </c>
       <c r="J13" s="3">
@@ -2998,7 +3122,7 @@
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
-      <c r="I14" s="8"/>
+      <c r="I14" s="6"/>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
@@ -3036,7 +3160,7 @@
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
-      <c r="I15" s="8">
+      <c r="I15" s="6">
         <v>3</v>
       </c>
       <c r="J15" s="3">
@@ -3086,7 +3210,7 @@
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
-      <c r="I16" s="8">
+      <c r="I16" s="6">
         <v>3</v>
       </c>
       <c r="J16" s="3">
@@ -3130,7 +3254,7 @@
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
-      <c r="I17" s="8">
+      <c r="I17" s="6">
         <v>3</v>
       </c>
       <c r="J17" s="3">
@@ -3172,7 +3296,7 @@
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
-      <c r="I18" s="8">
+      <c r="I18" s="6">
         <v>3</v>
       </c>
       <c r="J18" s="3">
@@ -3216,7 +3340,7 @@
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
-      <c r="I19" s="8">
+      <c r="I19" s="6">
         <v>3</v>
       </c>
       <c r="J19" s="3">
@@ -3262,7 +3386,7 @@
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
-      <c r="I20" s="8">
+      <c r="I20" s="6">
         <v>3</v>
       </c>
       <c r="J20" s="3">
@@ -3306,7 +3430,7 @@
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
-      <c r="I21" s="8">
+      <c r="I21" s="6">
         <v>3</v>
       </c>
       <c r="J21" s="3">
@@ -3352,7 +3476,7 @@
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
-      <c r="I22" s="8">
+      <c r="I22" s="6">
         <v>3</v>
       </c>
       <c r="J22" s="3">
@@ -3398,7 +3522,7 @@
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
-      <c r="I23" s="8">
+      <c r="I23" s="6">
         <v>3</v>
       </c>
       <c r="J23" s="3">
@@ -3446,7 +3570,7 @@
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
-      <c r="I24" s="8">
+      <c r="I24" s="6">
         <v>3</v>
       </c>
       <c r="J24" s="3">
@@ -3486,7 +3610,7 @@
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
-      <c r="I25" s="8"/>
+      <c r="I25" s="6"/>
       <c r="J25" s="3"/>
       <c r="K25" s="3"/>
       <c r="L25" s="3"/>
@@ -3524,7 +3648,7 @@
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
-      <c r="I26" s="8">
+      <c r="I26" s="6">
         <v>3</v>
       </c>
       <c r="J26" s="3">
@@ -3568,7 +3692,7 @@
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
-      <c r="I27" s="8"/>
+      <c r="I27" s="6"/>
       <c r="J27" s="3"/>
       <c r="K27" s="3">
         <v>3</v>
@@ -3608,7 +3732,7 @@
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
-      <c r="I28" s="8">
+      <c r="I28" s="6">
         <v>3</v>
       </c>
       <c r="J28" s="3">
@@ -3658,7 +3782,7 @@
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
-      <c r="I29" s="8">
+      <c r="I29" s="6">
         <v>3</v>
       </c>
       <c r="J29" s="3">
@@ -3704,7 +3828,7 @@
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
-      <c r="I30" s="8">
+      <c r="I30" s="6">
         <v>3</v>
       </c>
       <c r="J30" s="3">
@@ -3750,7 +3874,7 @@
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
-      <c r="I31" s="8">
+      <c r="I31" s="6">
         <v>3</v>
       </c>
       <c r="J31" s="3">
@@ -3800,7 +3924,7 @@
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>
-      <c r="I32" s="8">
+      <c r="I32" s="6">
         <v>3</v>
       </c>
       <c r="J32" s="3">
@@ -3848,7 +3972,7 @@
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
       <c r="H33" s="3"/>
-      <c r="I33" s="8"/>
+      <c r="I33" s="6"/>
       <c r="J33" s="3">
         <v>3</v>
       </c>
@@ -3888,7 +4012,7 @@
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
       <c r="H34" s="3"/>
-      <c r="I34" s="8">
+      <c r="I34" s="6">
         <v>3</v>
       </c>
       <c r="J34" s="3">
@@ -3932,7 +4056,7 @@
       <c r="F35" s="3"/>
       <c r="G35" s="3"/>
       <c r="H35" s="3"/>
-      <c r="I35" s="8">
+      <c r="I35" s="6">
         <v>3</v>
       </c>
       <c r="J35" s="3">
@@ -3974,7 +4098,7 @@
       <c r="F36" s="3"/>
       <c r="G36" s="3"/>
       <c r="H36" s="3"/>
-      <c r="I36" s="8">
+      <c r="I36" s="6">
         <v>3</v>
       </c>
       <c r="J36" s="3">
@@ -4018,7 +4142,7 @@
       <c r="F37" s="3"/>
       <c r="G37" s="3"/>
       <c r="H37" s="3"/>
-      <c r="I37" s="8">
+      <c r="I37" s="6">
         <v>3</v>
       </c>
       <c r="J37" s="3">
@@ -4066,7 +4190,7 @@
       <c r="F38" s="3"/>
       <c r="G38" s="3"/>
       <c r="H38" s="3"/>
-      <c r="I38" s="8"/>
+      <c r="I38" s="6"/>
       <c r="J38" s="3"/>
       <c r="K38" s="3"/>
       <c r="L38" s="3"/>
@@ -4104,7 +4228,7 @@
       <c r="F39" s="3"/>
       <c r="G39" s="3"/>
       <c r="H39" s="3"/>
-      <c r="I39" s="8">
+      <c r="I39" s="6">
         <v>3</v>
       </c>
       <c r="J39" s="3">
@@ -4139,16 +4263,6 @@
         <v>21</v>
       </c>
     </row>
-    <row r="40" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A40" s="6"/>
-      <c r="B40" s="6"/>
-      <c r="C40" s="7"/>
-      <c r="I40" s="7"/>
-      <c r="J40" s="7"/>
-      <c r="K40" s="7"/>
-      <c r="L40" s="7"/>
-      <c r="M40" s="7"/>
-    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H40">
     <sortCondition ref="B1:B40"/>

--- a/sem1/СО-ПР-22.xlsx
+++ b/sem1/СО-ПР-22.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thebandik/Library/Mobile Documents/com~apple~CloudDocs/General/Работа/Колледж/GitHub/computer-science/sem1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A003757-A610-3249-88A2-9373E77EEBEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA4A41BC-E5CF-EF4B-A50E-6C8134CA9C9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{78B3409E-6B57-FA43-BCC4-C09108445BD6}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="2" xr2:uid="{78B3409E-6B57-FA43-BCC4-C09108445BD6}"/>
   </bookViews>
   <sheets>
     <sheet name="Посещаемость 1" sheetId="2" r:id="rId1"/>
@@ -36,52 +36,8 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>Arkadiy Schneider</author>
-  </authors>
-  <commentList>
-    <comment ref="K16" authorId="0" shapeId="0" xr:uid="{96E5A179-9F34-9B4C-9239-FD839CD8CDF8}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Arkadiy Schneider:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Нет 5
-</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="78">
   <si>
     <t>№</t>
   </si>
@@ -209,9 +165,6 @@
     <t>Филипова Агния</t>
   </si>
   <si>
-    <t>Буджурак</t>
-  </si>
-  <si>
     <t>пр1</t>
   </si>
   <si>
@@ -314,36 +267,23 @@
     <t>Практические работы</t>
   </si>
   <si>
-    <t>5 баллов</t>
-  </si>
-  <si>
     <t>Разбаловка</t>
+  </si>
+  <si>
+    <t>7 баллов</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
@@ -378,7 +318,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -414,31 +354,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -474,15 +394,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1655,10 +1566,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F44A87E8-D92E-4B4A-BFC1-FEFAB9CDC28F}">
-  <dimension ref="A1:L20"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="162" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView zoomScale="162" workbookViewId="0">
+      <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1667,10 +1578,10 @@
     <col min="2" max="2" width="19.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.6640625" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="11" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="6.6640625" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1704,11 +1615,15 @@
       <c r="K1" s="2">
         <v>45191</v>
       </c>
-      <c r="L1" s="17">
+      <c r="L1" s="2">
         <v>45197</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1" s="2">
+        <v>45198</v>
+      </c>
+      <c r="N1" s="1"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1742,11 +1657,15 @@
       <c r="K2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N2" s="1"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1780,11 +1699,15 @@
       <c r="K3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="L3" s="15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N3" s="1"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1818,11 +1741,15 @@
       <c r="K4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="L4" s="15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N4" s="1"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1856,11 +1783,15 @@
       <c r="K5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="L5" s="16" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L5" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N5" s="1"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1894,11 +1825,15 @@
       <c r="K6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="L6" s="16" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N6" s="1"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1932,11 +1867,15 @@
       <c r="K7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="L7" s="16" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N7" s="1"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1970,11 +1909,15 @@
       <c r="K8" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="L8" s="16" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N8" s="1"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -2008,11 +1951,15 @@
       <c r="K9" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="L9" s="16" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N9" s="1"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -2046,11 +1993,15 @@
       <c r="K10" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="L10" s="16" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="N10" s="1"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -2084,11 +2035,15 @@
       <c r="K11" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="L11" s="16" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N11" s="1"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -2122,11 +2077,15 @@
       <c r="K12" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="L12" s="16" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N12" s="1"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -2160,11 +2119,15 @@
       <c r="K13" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="L13" s="16" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N13" s="1"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -2198,11 +2161,15 @@
       <c r="K14" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="L14" s="16" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N14" s="1"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -2231,16 +2198,20 @@
         <v>14</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="L15" s="16" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N15" s="1"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -2274,11 +2245,15 @@
       <c r="K16" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="L16" s="16" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L16" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M16" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="N16" s="1"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -2312,11 +2287,15 @@
       <c r="K17" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="L17" s="16" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L17" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="N17" s="1"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -2350,16 +2329,20 @@
       <c r="K18" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="L18" s="16" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L18" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N18" s="1"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>40</v>
@@ -2380,19 +2363,23 @@
         <v>12</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="J19" s="3" t="s">
         <v>40</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="L19" s="16" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+      <c r="L19" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M19" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N19" s="1"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>17</v>
       </c>
@@ -2426,9 +2413,13 @@
       <c r="K20" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="L20" s="16" t="s">
-        <v>14</v>
-      </c>
+      <c r="L20" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N20" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2436,14 +2427,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39845E33-B198-1749-A96D-46C57A0F57AA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39845E33-B198-1749-A96D-46C57A0F57AA}">
   <dimension ref="A1:AD39"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="150" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F22" sqref="F22"/>
+      <selection pane="bottomRight" activeCell="Q13" sqref="Q13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2451,9 +2442,7 @@
     <col min="1" max="1" width="3.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.5" bestFit="1" customWidth="1"/>
     <col min="3" max="8" width="5.1640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="14" width="4.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="5" style="4" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="4.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="17" width="4.33203125" style="4" bestFit="1" customWidth="1"/>
     <col min="18" max="26" width="5.33203125" style="4" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="23.5" bestFit="1" customWidth="1"/>
   </cols>
@@ -2466,79 +2455,79 @@
         <v>1</v>
       </c>
       <c r="C1" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="E1" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="F1" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="G1" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="H1" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="I1" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="K1" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="L1" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="M1" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="N1" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="O1" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="I1" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="J1" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="K1" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="L1" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="M1" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="N1" s="13" t="s">
+      <c r="P1" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q1" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="R1" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="S1" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="T1" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="U1" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="V1" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="W1" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="X1" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y1" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z1" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA1" s="8" t="s">
         <v>49</v>
-      </c>
-      <c r="O1" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="P1" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q1" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="R1" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="S1" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="T1" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="U1" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="V1" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="W1" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="X1" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="Y1" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="Z1" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="AA1" s="8" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.2">
@@ -2587,7 +2576,7 @@
         <v>15</v>
       </c>
       <c r="AC2" s="14" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="AD2" s="14"/>
     </row>
@@ -2615,8 +2604,12 @@
       <c r="K3" s="3">
         <v>3</v>
       </c>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
+      <c r="L3" s="3">
+        <v>3</v>
+      </c>
+      <c r="M3" s="3">
+        <v>3</v>
+      </c>
       <c r="N3" s="3"/>
       <c r="O3" s="3"/>
       <c r="P3" s="3"/>
@@ -2632,13 +2625,13 @@
       <c r="Z3" s="3"/>
       <c r="AA3" s="3">
         <f t="shared" ref="AA3:AA39" si="0">SUM(C3:Z3)</f>
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="AC3" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AD3" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.2">
@@ -2665,8 +2658,12 @@
       <c r="K4" s="3">
         <v>3</v>
       </c>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
+      <c r="L4" s="3">
+        <v>3</v>
+      </c>
+      <c r="M4" s="3">
+        <v>3</v>
+      </c>
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
       <c r="P4" s="3"/>
@@ -2682,13 +2679,13 @@
       <c r="Z4" s="3"/>
       <c r="AA4" s="3">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="AC4" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AD4" s="3" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.2">
@@ -2718,9 +2715,15 @@
       <c r="L5" s="3">
         <v>3</v>
       </c>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
+      <c r="M5" s="3">
+        <v>3</v>
+      </c>
+      <c r="N5" s="3">
+        <v>3</v>
+      </c>
+      <c r="O5" s="3">
+        <v>3</v>
+      </c>
       <c r="P5" s="3"/>
       <c r="Q5" s="3"/>
       <c r="R5" s="3"/>
@@ -2734,19 +2737,21 @@
       <c r="Z5" s="3"/>
       <c r="AA5" s="3">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="AC5" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="AD5" s="3"/>
+        <v>70</v>
+      </c>
+      <c r="AD5" s="3" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C6" s="3">
         <v>3</v>
@@ -2756,10 +2761,16 @@
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="3"/>
+      <c r="I6" s="6">
+        <v>3</v>
+      </c>
+      <c r="J6" s="3">
+        <v>3</v>
+      </c>
       <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
+      <c r="L6" s="3">
+        <v>3</v>
+      </c>
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
@@ -2776,10 +2787,10 @@
       <c r="Z6" s="3"/>
       <c r="AA6" s="3">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="AC6" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AD6" s="3"/>
     </row>
@@ -2802,7 +2813,9 @@
       <c r="J7" s="3">
         <v>3</v>
       </c>
-      <c r="K7" s="3"/>
+      <c r="K7" s="3">
+        <v>3</v>
+      </c>
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
@@ -2820,10 +2833,10 @@
       <c r="Z7" s="3"/>
       <c r="AA7" s="3">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AC7" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AD7" s="3"/>
     </row>
@@ -2873,7 +2886,7 @@
         <v>15</v>
       </c>
       <c r="AC8" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AD8" s="3"/>
     </row>
@@ -2901,7 +2914,9 @@
       <c r="K9" s="3">
         <v>3</v>
       </c>
-      <c r="L9" s="3"/>
+      <c r="L9" s="3">
+        <v>3</v>
+      </c>
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
       <c r="O9" s="3"/>
@@ -2918,10 +2933,10 @@
       <c r="Z9" s="3"/>
       <c r="AA9" s="3">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AC9" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AD9" s="3"/>
     </row>
@@ -2949,10 +2964,18 @@
       <c r="K10" s="3">
         <v>3</v>
       </c>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
+      <c r="L10" s="3">
+        <v>3</v>
+      </c>
+      <c r="M10" s="3">
+        <v>3</v>
+      </c>
+      <c r="N10" s="3">
+        <v>3</v>
+      </c>
+      <c r="O10" s="3">
+        <v>3</v>
+      </c>
       <c r="P10" s="3"/>
       <c r="Q10" s="3"/>
       <c r="R10" s="3"/>
@@ -2966,7 +2989,7 @@
       <c r="Z10" s="3"/>
       <c r="AA10" s="3">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.2">
@@ -3122,9 +3145,15 @@
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
+      <c r="I14" s="6">
+        <v>3</v>
+      </c>
+      <c r="J14" s="3">
+        <v>3</v>
+      </c>
+      <c r="K14" s="3">
+        <v>3</v>
+      </c>
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
       <c r="N14" s="3"/>
@@ -3142,7 +3171,7 @@
       <c r="Z14" s="3"/>
       <c r="AA14" s="3">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:30" x14ac:dyDescent="0.2">
@@ -3217,10 +3246,14 @@
         <v>3</v>
       </c>
       <c r="K16" s="3">
-        <v>2</v>
-      </c>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
+        <v>3</v>
+      </c>
+      <c r="L16" s="3">
+        <v>3</v>
+      </c>
+      <c r="M16" s="3">
+        <v>3</v>
+      </c>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
@@ -3236,7 +3269,7 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.2">
@@ -3305,8 +3338,12 @@
       <c r="K18" s="3">
         <v>3</v>
       </c>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
+      <c r="L18" s="3">
+        <v>3</v>
+      </c>
+      <c r="M18" s="3">
+        <v>3</v>
+      </c>
       <c r="N18" s="3"/>
       <c r="O18" s="3"/>
       <c r="P18" s="3"/>
@@ -3322,7 +3359,7 @@
       <c r="Z18" s="3"/>
       <c r="AA18" s="3">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.2">
@@ -3395,8 +3432,12 @@
       <c r="K20" s="3">
         <v>3</v>
       </c>
-      <c r="L20" s="3"/>
-      <c r="M20" s="3"/>
+      <c r="L20" s="3">
+        <v>3</v>
+      </c>
+      <c r="M20" s="3">
+        <v>3</v>
+      </c>
       <c r="N20" s="3"/>
       <c r="O20" s="3"/>
       <c r="P20" s="3"/>
@@ -3412,7 +3453,7 @@
       <c r="Z20" s="3"/>
       <c r="AA20" s="3">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.2">
@@ -3610,8 +3651,12 @@
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
-      <c r="I25" s="6"/>
-      <c r="J25" s="3"/>
+      <c r="I25" s="6">
+        <v>3</v>
+      </c>
+      <c r="J25" s="3">
+        <v>3</v>
+      </c>
       <c r="K25" s="3"/>
       <c r="L25" s="3"/>
       <c r="M25" s="3"/>
@@ -3630,7 +3675,7 @@
       <c r="Z25" s="3"/>
       <c r="AA25" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.2">
@@ -3657,8 +3702,12 @@
       <c r="K26" s="3">
         <v>3</v>
       </c>
-      <c r="L26" s="3"/>
-      <c r="M26" s="3"/>
+      <c r="L26" s="3">
+        <v>3</v>
+      </c>
+      <c r="M26" s="3">
+        <v>3</v>
+      </c>
       <c r="N26" s="3"/>
       <c r="O26" s="3"/>
       <c r="P26" s="3"/>
@@ -3674,7 +3723,7 @@
       <c r="Z26" s="3"/>
       <c r="AA26" s="3">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.2">
@@ -3972,11 +4021,15 @@
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
       <c r="H33" s="3"/>
-      <c r="I33" s="6"/>
+      <c r="I33" s="6">
+        <v>3</v>
+      </c>
       <c r="J33" s="3">
         <v>3</v>
       </c>
-      <c r="K33" s="3"/>
+      <c r="K33" s="3">
+        <v>3</v>
+      </c>
       <c r="L33" s="3"/>
       <c r="M33" s="3"/>
       <c r="N33" s="3"/>
@@ -3994,7 +4047,7 @@
       <c r="Z33" s="3"/>
       <c r="AA33" s="3">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.2">
@@ -4063,7 +4116,9 @@
         <v>3</v>
       </c>
       <c r="K35" s="3"/>
-      <c r="L35" s="3"/>
+      <c r="L35" s="3">
+        <v>3</v>
+      </c>
       <c r="M35" s="3"/>
       <c r="N35" s="3"/>
       <c r="O35" s="3"/>
@@ -4080,7 +4135,7 @@
       <c r="Z35" s="3"/>
       <c r="AA35" s="3">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.2">
@@ -4107,7 +4162,9 @@
       <c r="K36" s="3">
         <v>3</v>
       </c>
-      <c r="L36" s="3"/>
+      <c r="L36" s="3">
+        <v>3</v>
+      </c>
       <c r="M36" s="3"/>
       <c r="N36" s="3"/>
       <c r="O36" s="3"/>
@@ -4124,7 +4181,7 @@
       <c r="Z36" s="3"/>
       <c r="AA36" s="3">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.2">
@@ -4270,8 +4327,7 @@
   <mergeCells count="1">
     <mergeCell ref="AC2:AD2"/>
   </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/sem1/СО-ПР-22.xlsx
+++ b/sem1/СО-ПР-22.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thebandik/Library/Mobile Documents/com~apple~CloudDocs/General/Работа/Колледж/GitHub/computer-science/sem1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA4A41BC-E5CF-EF4B-A50E-6C8134CA9C9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17BA02BB-2897-7244-9BA5-EBD5B5EEA8BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="2" xr2:uid="{78B3409E-6B57-FA43-BCC4-C09108445BD6}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="79">
   <si>
     <t>№</t>
   </si>
@@ -271,6 +271,9 @@
   </si>
   <si>
     <t>7 баллов</t>
+  </si>
+  <si>
+    <t>Федосеева Юлия</t>
   </si>
 </sst>
 </file>
@@ -710,10 +713,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4215EFA8-B92E-4C45-9535-33FF4C7A518F}">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView zoomScale="131" workbookViewId="0">
+      <selection activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -725,9 +728,10 @@
     <col min="10" max="11" width="6.6640625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="6.6640625" style="4" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="16" width="6.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -767,10 +771,20 @@
       <c r="M1" s="2">
         <v>45197</v>
       </c>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="N1" s="2">
+        <v>45202</v>
+      </c>
+      <c r="O1" s="2">
+        <v>45204</v>
+      </c>
+      <c r="P1" s="2">
+        <v>45205</v>
+      </c>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -810,10 +824,20 @@
       <c r="M2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="N2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -830,7 +854,7 @@
         <v>12</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>12</v>
@@ -853,10 +877,20 @@
       <c r="M3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="N3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -896,10 +930,20 @@
       <c r="M4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="N4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -937,12 +981,22 @@
         <v>40</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -982,10 +1036,20 @@
       <c r="M6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="N6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="P6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1025,10 +1089,20 @@
       <c r="M7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="N7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="P7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1068,10 +1142,20 @@
       <c r="M8" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="N8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="P8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1111,10 +1195,20 @@
       <c r="M9" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="N9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+      <c r="S9" s="3"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1154,10 +1248,20 @@
       <c r="M10" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="N10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
+      <c r="S10" s="3"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1197,10 +1301,20 @@
       <c r="M11" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N11" s="3"/>
-      <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="N11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="O11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="P11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1240,10 +1354,20 @@
       <c r="M12" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="N12" s="3"/>
-      <c r="O12" s="3"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3"/>
+      <c r="S12" s="3"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1283,10 +1407,20 @@
       <c r="M13" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N13" s="3"/>
-      <c r="O13" s="3"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="N13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="O13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="P13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3"/>
+      <c r="S13" s="3"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -1326,10 +1460,20 @@
       <c r="M14" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="N14" s="3"/>
-      <c r="O14" s="3"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="N14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3"/>
+      <c r="S14" s="3"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -1369,10 +1513,20 @@
       <c r="M15" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N15" s="3"/>
-      <c r="O15" s="3"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="N15" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="O15" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="P15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="3"/>
+      <c r="S15" s="3"/>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -1412,10 +1566,20 @@
       <c r="M16" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="N16" s="3"/>
-      <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="N16" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="O16" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="P16" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -1453,12 +1617,22 @@
         <v>12</v>
       </c>
       <c r="M17" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="N17" s="3"/>
-      <c r="O17" s="3"/>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="O17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="P17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="3"/>
+      <c r="S17" s="3"/>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -1498,10 +1672,20 @@
       <c r="M18" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N18" s="3"/>
-      <c r="O18" s="3"/>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="N18" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="O18" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="P18" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="3"/>
+      <c r="S18" s="3"/>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -1541,19 +1725,82 @@
       <c r="M19" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="N19" s="3"/>
-      <c r="O19" s="3"/>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="N19" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="O19" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="P19" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="N20" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="O20" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="P20" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="3"/>
+      <c r="S20" s="3"/>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C22" s="4"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C23" s="4"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C24" s="4"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C25" s="4"/>
     </row>
   </sheetData>
@@ -1566,10 +1813,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F44A87E8-D92E-4B4A-BFC1-FEFAB9CDC28F}">
-  <dimension ref="A1:N20"/>
+  <dimension ref="A1:S20"/>
   <sheetViews>
-    <sheetView zoomScale="162" workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+    <sheetView zoomScale="125" workbookViewId="0">
+      <selection activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1579,9 +1826,10 @@
     <col min="3" max="3" width="6.6640625" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="11" width="6.6640625" bestFit="1" customWidth="1"/>
     <col min="12" max="13" width="6.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="16" width="6.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1621,9 +1869,20 @@
       <c r="M1" s="2">
         <v>45198</v>
       </c>
-      <c r="N1" s="1"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N1" s="2">
+        <v>45202</v>
+      </c>
+      <c r="O1" s="2">
+        <v>45204</v>
+      </c>
+      <c r="P1" s="2">
+        <v>45205</v>
+      </c>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1663,9 +1922,20 @@
       <c r="M2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="1"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1685,7 +1955,7 @@
         <v>12</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>12</v>
@@ -1705,9 +1975,20 @@
       <c r="M3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N3" s="1"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1747,9 +2028,20 @@
       <c r="M4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N4" s="1"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1789,9 +2081,20 @@
       <c r="M5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N5" s="1"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1831,9 +2134,20 @@
       <c r="M6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N6" s="1"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="P6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1873,9 +2187,20 @@
       <c r="M7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N7" s="1"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="P7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1915,9 +2240,20 @@
       <c r="M8" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N8" s="1"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="P8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1957,9 +2293,20 @@
       <c r="M9" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N9" s="1"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+      <c r="S9" s="3"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1999,9 +2346,20 @@
       <c r="M10" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="N10" s="1"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
+      <c r="S10" s="3"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -2041,9 +2399,20 @@
       <c r="M11" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N11" s="1"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="O11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="P11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -2083,9 +2452,20 @@
       <c r="M12" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N12" s="1"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3"/>
+      <c r="S12" s="3"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -2125,9 +2505,20 @@
       <c r="M13" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N13" s="1"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="O13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="P13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3"/>
+      <c r="S13" s="3"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -2167,9 +2558,20 @@
       <c r="M14" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N14" s="1"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3"/>
+      <c r="S14" s="3"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -2209,9 +2611,20 @@
       <c r="M15" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N15" s="1"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N15" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="O15" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="P15" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="3"/>
+      <c r="S15" s="3"/>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -2246,14 +2659,25 @@
         <v>12</v>
       </c>
       <c r="L16" s="3" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="M16" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="N16" s="1"/>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+      <c r="N16" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="O16" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="P16" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -2293,9 +2717,20 @@
       <c r="M17" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="N17" s="1"/>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N17" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="O17" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="P17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="3"/>
+      <c r="S17" s="3"/>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -2335,9 +2770,20 @@
       <c r="M18" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N18" s="1"/>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N18" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="O18" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="P18" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="3"/>
+      <c r="S18" s="3"/>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -2377,11 +2823,22 @@
       <c r="M19" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N19" s="1"/>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N19" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="O19" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="P19" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>41</v>
@@ -2419,7 +2876,18 @@
       <c r="M20" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N20" s="1"/>
+      <c r="N20" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="O20" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="P20" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="3"/>
+      <c r="S20" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2428,13 +2896,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39845E33-B198-1749-A96D-46C57A0F57AA}">
-  <dimension ref="A1:AD39"/>
+  <dimension ref="A1:AD40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="150" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Q13" sqref="Q13"/>
+      <selection pane="bottomRight" activeCell="Q18" sqref="Q18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2610,8 +3078,12 @@
       <c r="M3" s="3">
         <v>3</v>
       </c>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
+      <c r="N3" s="3">
+        <v>3</v>
+      </c>
+      <c r="O3" s="3">
+        <v>3</v>
+      </c>
       <c r="P3" s="3"/>
       <c r="Q3" s="3"/>
       <c r="R3" s="3"/>
@@ -2625,7 +3097,7 @@
       <c r="Z3" s="3"/>
       <c r="AA3" s="3">
         <f t="shared" ref="AA3:AA39" si="0">SUM(C3:Z3)</f>
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="AC3" s="3" t="s">
         <v>75</v>
@@ -2664,9 +3136,15 @@
       <c r="M4" s="3">
         <v>3</v>
       </c>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
+      <c r="N4" s="3">
+        <v>3</v>
+      </c>
+      <c r="O4" s="3">
+        <v>3</v>
+      </c>
+      <c r="P4" s="3">
+        <v>3</v>
+      </c>
       <c r="Q4" s="3"/>
       <c r="R4" s="3"/>
       <c r="S4" s="3"/>
@@ -2679,7 +3157,7 @@
       <c r="Z4" s="3"/>
       <c r="AA4" s="3">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="AC4" s="3" t="s">
         <v>69</v>
@@ -2771,8 +3249,12 @@
       <c r="L6" s="3">
         <v>3</v>
       </c>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
+      <c r="M6" s="3">
+        <v>3</v>
+      </c>
+      <c r="N6" s="3">
+        <v>3</v>
+      </c>
       <c r="O6" s="3"/>
       <c r="P6" s="3"/>
       <c r="Q6" s="3"/>
@@ -2787,7 +3269,7 @@
       <c r="Z6" s="3"/>
       <c r="AA6" s="3">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="AC6" s="3" t="s">
         <v>71</v>
@@ -2816,7 +3298,9 @@
       <c r="K7" s="3">
         <v>3</v>
       </c>
-      <c r="L7" s="3"/>
+      <c r="L7" s="3">
+        <v>3</v>
+      </c>
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
@@ -2833,7 +3317,7 @@
       <c r="Z7" s="3"/>
       <c r="AA7" s="3">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AC7" s="3" t="s">
         <v>72</v>
@@ -2868,7 +3352,9 @@
       <c r="M8" s="3">
         <v>3</v>
       </c>
-      <c r="N8" s="3"/>
+      <c r="N8" s="3">
+        <v>3</v>
+      </c>
       <c r="O8" s="3"/>
       <c r="P8" s="3"/>
       <c r="Q8" s="3"/>
@@ -2883,7 +3369,7 @@
       <c r="Z8" s="3"/>
       <c r="AA8" s="3">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AC8" s="3" t="s">
         <v>73</v>
@@ -2917,8 +3403,12 @@
       <c r="L9" s="3">
         <v>3</v>
       </c>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
+      <c r="M9" s="3">
+        <v>3</v>
+      </c>
+      <c r="N9" s="3">
+        <v>3</v>
+      </c>
       <c r="O9" s="3"/>
       <c r="P9" s="3"/>
       <c r="Q9" s="3"/>
@@ -2933,7 +3423,7 @@
       <c r="Z9" s="3"/>
       <c r="AA9" s="3">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AC9" s="3" t="s">
         <v>74</v>
@@ -2976,7 +3466,9 @@
       <c r="O10" s="3">
         <v>3</v>
       </c>
-      <c r="P10" s="3"/>
+      <c r="P10" s="3">
+        <v>3</v>
+      </c>
       <c r="Q10" s="3"/>
       <c r="R10" s="3"/>
       <c r="S10" s="3"/>
@@ -2989,7 +3481,7 @@
       <c r="Z10" s="3"/>
       <c r="AA10" s="3">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.2">
@@ -3025,7 +3517,9 @@
       <c r="N11" s="3">
         <v>3</v>
       </c>
-      <c r="O11" s="3"/>
+      <c r="O11" s="3">
+        <v>3</v>
+      </c>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
@@ -3039,7 +3533,7 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:30" x14ac:dyDescent="0.2">
@@ -3063,10 +3557,18 @@
       <c r="J12" s="3">
         <v>3</v>
       </c>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
+      <c r="K12" s="3">
+        <v>3</v>
+      </c>
+      <c r="L12" s="3">
+        <v>3</v>
+      </c>
+      <c r="M12" s="3">
+        <v>3</v>
+      </c>
+      <c r="N12" s="3">
+        <v>3</v>
+      </c>
       <c r="O12" s="3"/>
       <c r="P12" s="3"/>
       <c r="Q12" s="3"/>
@@ -3081,7 +3583,7 @@
       <c r="Z12" s="3"/>
       <c r="AA12" s="3">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.2">
@@ -3111,8 +3613,12 @@
       <c r="L13" s="3">
         <v>3</v>
       </c>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
+      <c r="M13" s="3">
+        <v>3</v>
+      </c>
+      <c r="N13" s="3">
+        <v>3</v>
+      </c>
       <c r="O13" s="3"/>
       <c r="P13" s="3"/>
       <c r="Q13" s="3"/>
@@ -3127,7 +3633,7 @@
       <c r="Z13" s="3"/>
       <c r="AA13" s="3">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:30" x14ac:dyDescent="0.2">
@@ -3207,8 +3713,12 @@
       <c r="N15" s="3">
         <v>3</v>
       </c>
-      <c r="O15" s="3"/>
-      <c r="P15" s="3"/>
+      <c r="O15" s="3">
+        <v>3</v>
+      </c>
+      <c r="P15" s="3">
+        <v>3</v>
+      </c>
       <c r="Q15" s="3"/>
       <c r="R15" s="3"/>
       <c r="S15" s="3"/>
@@ -3221,7 +3731,7 @@
       <c r="Z15" s="3"/>
       <c r="AA15" s="3">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.2">
@@ -3254,8 +3764,12 @@
       <c r="M16" s="3">
         <v>3</v>
       </c>
-      <c r="N16" s="3"/>
-      <c r="O16" s="3"/>
+      <c r="N16" s="3">
+        <v>3</v>
+      </c>
+      <c r="O16" s="3">
+        <v>3</v>
+      </c>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
@@ -3269,7 +3783,7 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.2">
@@ -3389,10 +3903,16 @@
       <c r="L19" s="3">
         <v>3</v>
       </c>
-      <c r="M19" s="3"/>
-      <c r="N19" s="3"/>
+      <c r="M19" s="3">
+        <v>3</v>
+      </c>
+      <c r="N19" s="3">
+        <v>3</v>
+      </c>
       <c r="O19" s="3"/>
-      <c r="P19" s="3"/>
+      <c r="P19" s="3">
+        <v>3</v>
+      </c>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
@@ -3405,7 +3925,7 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.2">
@@ -3438,8 +3958,12 @@
       <c r="M20" s="3">
         <v>3</v>
       </c>
-      <c r="N20" s="3"/>
-      <c r="O20" s="3"/>
+      <c r="N20" s="3">
+        <v>3</v>
+      </c>
+      <c r="O20" s="3">
+        <v>3</v>
+      </c>
       <c r="P20" s="3"/>
       <c r="Q20" s="3"/>
       <c r="R20" s="3"/>
@@ -3453,7 +3977,7 @@
       <c r="Z20" s="3"/>
       <c r="AA20" s="3">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.2">
@@ -3483,9 +4007,15 @@
       <c r="L21" s="3">
         <v>3</v>
       </c>
-      <c r="M21" s="3"/>
-      <c r="N21" s="3"/>
-      <c r="O21" s="3"/>
+      <c r="M21" s="3">
+        <v>3</v>
+      </c>
+      <c r="N21" s="3">
+        <v>3</v>
+      </c>
+      <c r="O21" s="3">
+        <v>3</v>
+      </c>
       <c r="P21" s="3"/>
       <c r="Q21" s="3"/>
       <c r="R21" s="3"/>
@@ -3499,7 +4029,7 @@
       <c r="Z21" s="3"/>
       <c r="AA21" s="3">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.2">
@@ -3529,8 +4059,12 @@
       <c r="L22" s="3">
         <v>3</v>
       </c>
-      <c r="M22" s="3"/>
-      <c r="N22" s="3"/>
+      <c r="M22" s="3">
+        <v>3</v>
+      </c>
+      <c r="N22" s="3">
+        <v>3</v>
+      </c>
       <c r="O22" s="3"/>
       <c r="P22" s="3"/>
       <c r="Q22" s="3"/>
@@ -3545,7 +4079,7 @@
       <c r="Z22" s="3"/>
       <c r="AA22" s="3">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.2">
@@ -3578,7 +4112,9 @@
       <c r="M23" s="3">
         <v>3</v>
       </c>
-      <c r="N23" s="3"/>
+      <c r="N23" s="3">
+        <v>3</v>
+      </c>
       <c r="O23" s="3"/>
       <c r="P23" s="3"/>
       <c r="Q23" s="3"/>
@@ -3593,7 +4129,7 @@
       <c r="Z23" s="3"/>
       <c r="AA23" s="3">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.2">
@@ -3618,8 +4154,12 @@
         <v>3</v>
       </c>
       <c r="K24" s="3"/>
-      <c r="L24" s="3"/>
-      <c r="M24" s="3"/>
+      <c r="L24" s="3">
+        <v>3</v>
+      </c>
+      <c r="M24" s="3">
+        <v>3</v>
+      </c>
       <c r="N24" s="3"/>
       <c r="O24" s="3"/>
       <c r="P24" s="3"/>
@@ -3635,7 +4175,7 @@
       <c r="Z24" s="3"/>
       <c r="AA24" s="3">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.2">
@@ -3657,7 +4197,9 @@
       <c r="J25" s="3">
         <v>3</v>
       </c>
-      <c r="K25" s="3"/>
+      <c r="K25" s="3">
+        <v>3</v>
+      </c>
       <c r="L25" s="3"/>
       <c r="M25" s="3"/>
       <c r="N25" s="3"/>
@@ -3675,7 +4217,7 @@
       <c r="Z25" s="3"/>
       <c r="AA25" s="3">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.2">
@@ -3708,8 +4250,12 @@
       <c r="M26" s="3">
         <v>3</v>
       </c>
-      <c r="N26" s="3"/>
-      <c r="O26" s="3"/>
+      <c r="N26" s="3">
+        <v>3</v>
+      </c>
+      <c r="O26" s="3">
+        <v>3</v>
+      </c>
       <c r="P26" s="3"/>
       <c r="Q26" s="3"/>
       <c r="R26" s="3"/>
@@ -3723,7 +4269,7 @@
       <c r="Z26" s="3"/>
       <c r="AA26" s="3">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.2">
@@ -3741,14 +4287,18 @@
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
-      <c r="I27" s="6"/>
+      <c r="I27" s="6">
+        <v>3</v>
+      </c>
       <c r="J27" s="3"/>
       <c r="K27" s="3">
         <v>3</v>
       </c>
       <c r="L27" s="3"/>
       <c r="M27" s="3"/>
-      <c r="N27" s="3"/>
+      <c r="N27" s="3">
+        <v>3</v>
+      </c>
       <c r="O27" s="3"/>
       <c r="P27" s="3"/>
       <c r="Q27" s="3"/>
@@ -3763,7 +4313,7 @@
       <c r="Z27" s="3"/>
       <c r="AA27" s="3">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.2">
@@ -3799,7 +4349,9 @@
       <c r="N28" s="3">
         <v>3</v>
       </c>
-      <c r="O28" s="3"/>
+      <c r="O28" s="3">
+        <v>3</v>
+      </c>
       <c r="P28" s="3"/>
       <c r="Q28" s="3"/>
       <c r="R28" s="3"/>
@@ -3813,7 +4365,7 @@
       <c r="Z28" s="3"/>
       <c r="AA28" s="3">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.2">
@@ -3843,8 +4395,12 @@
       <c r="L29" s="3">
         <v>3</v>
       </c>
-      <c r="M29" s="3"/>
-      <c r="N29" s="3"/>
+      <c r="M29" s="3">
+        <v>3</v>
+      </c>
+      <c r="N29" s="3">
+        <v>3</v>
+      </c>
       <c r="O29" s="3"/>
       <c r="P29" s="3"/>
       <c r="Q29" s="3"/>
@@ -3859,7 +4415,7 @@
       <c r="Z29" s="3"/>
       <c r="AA29" s="3">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.2">
@@ -3889,9 +4445,15 @@
       <c r="L30" s="3">
         <v>3</v>
       </c>
-      <c r="M30" s="3"/>
-      <c r="N30" s="3"/>
-      <c r="O30" s="3"/>
+      <c r="M30" s="3">
+        <v>3</v>
+      </c>
+      <c r="N30" s="3">
+        <v>3</v>
+      </c>
+      <c r="O30" s="3">
+        <v>3</v>
+      </c>
       <c r="P30" s="3"/>
       <c r="Q30" s="3"/>
       <c r="R30" s="3"/>
@@ -3905,7 +4467,7 @@
       <c r="Z30" s="3"/>
       <c r="AA30" s="3">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.2">
@@ -3942,7 +4504,9 @@
         <v>3</v>
       </c>
       <c r="O31" s="3"/>
-      <c r="P31" s="3"/>
+      <c r="P31" s="3">
+        <v>3</v>
+      </c>
       <c r="Q31" s="3"/>
       <c r="R31" s="3"/>
       <c r="S31" s="3"/>
@@ -3955,7 +4519,7 @@
       <c r="Z31" s="3"/>
       <c r="AA31" s="3">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.2">
@@ -3988,9 +4552,15 @@
       <c r="M32" s="3">
         <v>3</v>
       </c>
-      <c r="N32" s="3"/>
-      <c r="O32" s="3"/>
-      <c r="P32" s="3"/>
+      <c r="N32" s="3">
+        <v>3</v>
+      </c>
+      <c r="O32" s="3">
+        <v>3</v>
+      </c>
+      <c r="P32" s="3">
+        <v>3</v>
+      </c>
       <c r="Q32" s="3"/>
       <c r="R32" s="3"/>
       <c r="S32" s="3"/>
@@ -4003,7 +4573,7 @@
       <c r="Z32" s="3"/>
       <c r="AA32" s="3">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.2">
@@ -4030,7 +4600,9 @@
       <c r="K33" s="3">
         <v>3</v>
       </c>
-      <c r="L33" s="3"/>
+      <c r="L33" s="3">
+        <v>3</v>
+      </c>
       <c r="M33" s="3"/>
       <c r="N33" s="3"/>
       <c r="O33" s="3"/>
@@ -4047,7 +4619,7 @@
       <c r="Z33" s="3"/>
       <c r="AA33" s="3">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.2">
@@ -4074,8 +4646,12 @@
       <c r="K34" s="3">
         <v>3</v>
       </c>
-      <c r="L34" s="3"/>
-      <c r="M34" s="3"/>
+      <c r="L34" s="3">
+        <v>3</v>
+      </c>
+      <c r="M34" s="3">
+        <v>3</v>
+      </c>
       <c r="N34" s="3"/>
       <c r="O34" s="3"/>
       <c r="P34" s="3"/>
@@ -4091,7 +4667,7 @@
       <c r="Z34" s="3"/>
       <c r="AA34" s="3">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.2">
@@ -4166,8 +4742,12 @@
         <v>3</v>
       </c>
       <c r="M36" s="3"/>
-      <c r="N36" s="3"/>
-      <c r="O36" s="3"/>
+      <c r="N36" s="3">
+        <v>3</v>
+      </c>
+      <c r="O36" s="3">
+        <v>3</v>
+      </c>
       <c r="P36" s="3"/>
       <c r="Q36" s="3"/>
       <c r="R36" s="3"/>
@@ -4181,7 +4761,7 @@
       <c r="Z36" s="3"/>
       <c r="AA36" s="3">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.2">
@@ -4217,7 +4797,9 @@
       <c r="N37" s="3">
         <v>3</v>
       </c>
-      <c r="O37" s="3"/>
+      <c r="O37" s="3">
+        <v>3</v>
+      </c>
       <c r="P37" s="3"/>
       <c r="Q37" s="3"/>
       <c r="R37" s="3"/>
@@ -4231,7 +4813,7 @@
       <c r="Z37" s="3"/>
       <c r="AA37" s="3">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.2">
@@ -4285,7 +4867,7 @@
       <c r="F39" s="3"/>
       <c r="G39" s="3"/>
       <c r="H39" s="3"/>
-      <c r="I39" s="6">
+      <c r="I39" s="3">
         <v>3</v>
       </c>
       <c r="J39" s="3">
@@ -4320,6 +4902,43 @@
         <v>21</v>
       </c>
     </row>
+    <row r="40" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3"/>
+      <c r="I40" s="3">
+        <v>3</v>
+      </c>
+      <c r="J40" s="3">
+        <v>3</v>
+      </c>
+      <c r="K40" s="3"/>
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+      <c r="O40" s="3"/>
+      <c r="P40" s="3"/>
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
+      <c r="T40" s="3"/>
+      <c r="U40" s="3"/>
+      <c r="V40" s="3"/>
+      <c r="W40" s="3"/>
+      <c r="X40" s="3"/>
+      <c r="Y40" s="3"/>
+      <c r="Z40" s="3"/>
+      <c r="AA40" s="1"/>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H40">
     <sortCondition ref="B1:B40"/>

--- a/sem1/СО-ПР-22.xlsx
+++ b/sem1/СО-ПР-22.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thebandik/Library/Mobile Documents/com~apple~CloudDocs/General/Работа/Колледж/GitHub/computer-science/sem1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17BA02BB-2897-7244-9BA5-EBD5B5EEA8BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4AB5DF3-2A26-E44A-906A-841232F1DDF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="2" xr2:uid="{78B3409E-6B57-FA43-BCC4-C09108445BD6}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="748" uniqueCount="81">
   <si>
     <t>№</t>
   </si>
@@ -274,6 +274,12 @@
   </si>
   <si>
     <t>Федосеева Юлия</t>
+  </si>
+  <si>
+    <t>Ат1</t>
+  </si>
+  <si>
+    <t>Ат2</t>
   </si>
 </sst>
 </file>
@@ -403,7 +409,68 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="6">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -716,7 +783,10 @@
   <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView zoomScale="131" workbookViewId="0">
-      <selection activeCell="P14" sqref="P14"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -728,7 +798,7 @@
     <col min="10" max="11" width="6.6640625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="6.6640625" style="4" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="16" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="18" width="6.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.2">
@@ -780,8 +850,12 @@
       <c r="P1" s="2">
         <v>45205</v>
       </c>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
+      <c r="Q1" s="2">
+        <v>45209</v>
+      </c>
+      <c r="R1" s="2">
+        <v>45211</v>
+      </c>
       <c r="S1" s="3"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
@@ -833,8 +907,12 @@
       <c r="P2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
+      <c r="Q2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="S2" s="3"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
@@ -886,8 +964,12 @@
       <c r="P3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
+      <c r="Q3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="S3" s="3"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.2">
@@ -939,8 +1021,12 @@
       <c r="P4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
+      <c r="Q4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="R4" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="S4" s="3"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.2">
@@ -992,8 +1078,12 @@
       <c r="P5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="Q5" s="3"/>
-      <c r="R5" s="3"/>
+      <c r="Q5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="R5" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="S5" s="3"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.2">
@@ -1045,8 +1135,12 @@
       <c r="P6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="3"/>
+      <c r="Q6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="R6" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="S6" s="3"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.2">
@@ -1098,8 +1192,12 @@
       <c r="P7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="3"/>
+      <c r="Q7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="R7" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="S7" s="3"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.2">
@@ -1151,8 +1249,12 @@
       <c r="P8" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="3"/>
+      <c r="Q8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="R8" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="S8" s="3"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.2">
@@ -1204,8 +1306,12 @@
       <c r="P9" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="3"/>
+      <c r="Q9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="R9" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="S9" s="3"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.2">
@@ -1257,8 +1363,12 @@
       <c r="P10" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="3"/>
+      <c r="Q10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="R10" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="S10" s="3"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.2">
@@ -1310,8 +1420,12 @@
       <c r="P11" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="3"/>
+      <c r="Q11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="R11" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="S11" s="3"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.2">
@@ -1363,8 +1477,12 @@
       <c r="P12" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="Q12" s="3"/>
-      <c r="R12" s="3"/>
+      <c r="Q12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="S12" s="3"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.2">
@@ -1416,8 +1534,12 @@
       <c r="P13" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="Q13" s="3"/>
-      <c r="R13" s="3"/>
+      <c r="Q13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="R13" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="S13" s="3"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.2">
@@ -1469,8 +1591,12 @@
       <c r="P14" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="Q14" s="3"/>
-      <c r="R14" s="3"/>
+      <c r="Q14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="R14" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="S14" s="3"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.2">
@@ -1522,8 +1648,12 @@
       <c r="P15" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="Q15" s="3"/>
-      <c r="R15" s="3"/>
+      <c r="Q15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="R15" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="S15" s="3"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.2">
@@ -1575,8 +1705,12 @@
       <c r="P16" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="Q16" s="3"/>
-      <c r="R16" s="3"/>
+      <c r="Q16" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="R16" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="S16" s="3"/>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.2">
@@ -1628,8 +1762,12 @@
       <c r="P17" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="Q17" s="3"/>
-      <c r="R17" s="3"/>
+      <c r="Q17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="R17" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="S17" s="3"/>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.2">
@@ -1681,8 +1819,12 @@
       <c r="P18" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="Q18" s="3"/>
-      <c r="R18" s="3"/>
+      <c r="Q18" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="R18" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="S18" s="3"/>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.2">
@@ -1734,8 +1876,12 @@
       <c r="P19" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="Q19" s="3"/>
-      <c r="R19" s="3"/>
+      <c r="Q19" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="R19" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="S19" s="3"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.2">
@@ -1787,8 +1933,12 @@
       <c r="P20" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="Q20" s="3"/>
-      <c r="R20" s="3"/>
+      <c r="Q20" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="R20" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="S20" s="3"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.2">
@@ -1807,6 +1957,17 @@
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H25">
     <sortCondition ref="B1:B25"/>
   </sortState>
+  <conditionalFormatting sqref="A2:XFD20">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+      <formula>"="</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+      <formula>"+"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+      <formula>"-"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1816,7 +1977,10 @@
   <dimension ref="A1:S20"/>
   <sheetViews>
     <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="P15" sqref="P15"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="S16" sqref="S16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1826,7 +1990,7 @@
     <col min="3" max="3" width="6.6640625" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="11" width="6.6640625" bestFit="1" customWidth="1"/>
     <col min="12" max="13" width="6.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="16" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="19" width="6.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.2">
@@ -1878,9 +2042,15 @@
       <c r="P1" s="2">
         <v>45205</v>
       </c>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
+      <c r="Q1" s="2">
+        <v>45209</v>
+      </c>
+      <c r="R1" s="2">
+        <v>45211</v>
+      </c>
+      <c r="S1" s="2">
+        <v>45212</v>
+      </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
@@ -1931,9 +2101,15 @@
       <c r="P2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
-      <c r="S2" s="3"/>
+      <c r="Q2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
@@ -1984,9 +2160,15 @@
       <c r="P3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
-      <c r="S3" s="3"/>
+      <c r="Q3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="S3" s="3" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
@@ -2037,9 +2219,15 @@
       <c r="P4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
-      <c r="S4" s="3"/>
+      <c r="Q4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="R4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="S4" s="3" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
@@ -2090,9 +2278,15 @@
       <c r="P5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="Q5" s="3"/>
-      <c r="R5" s="3"/>
-      <c r="S5" s="3"/>
+      <c r="Q5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="R5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="S5" s="3" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
@@ -2143,9 +2337,15 @@
       <c r="P6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="3"/>
-      <c r="S6" s="3"/>
+      <c r="Q6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="R6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="S6" s="3" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
@@ -2196,9 +2396,15 @@
       <c r="P7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="3"/>
-      <c r="S7" s="3"/>
+      <c r="Q7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="R7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="S7" s="3" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
@@ -2249,9 +2455,15 @@
       <c r="P8" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="3"/>
-      <c r="S8" s="3"/>
+      <c r="Q8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="R8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="S8" s="3" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
@@ -2302,9 +2514,15 @@
       <c r="P9" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="3"/>
-      <c r="S9" s="3"/>
+      <c r="Q9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="R9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="S9" s="3" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
@@ -2355,9 +2573,15 @@
       <c r="P10" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="3"/>
-      <c r="S10" s="3"/>
+      <c r="Q10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="R10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="S10" s="3" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
@@ -2408,9 +2632,15 @@
       <c r="P11" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="3"/>
-      <c r="S11" s="3"/>
+      <c r="Q11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="R11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="S11" s="3" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
@@ -2461,9 +2691,15 @@
       <c r="P12" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="Q12" s="3"/>
-      <c r="R12" s="3"/>
-      <c r="S12" s="3"/>
+      <c r="Q12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="S12" s="3" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
@@ -2509,14 +2745,20 @@
         <v>12</v>
       </c>
       <c r="O13" s="3" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="P13" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q13" s="3"/>
-      <c r="R13" s="3"/>
-      <c r="S13" s="3"/>
+        <v>40</v>
+      </c>
+      <c r="Q13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="R13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="S13" s="3" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
@@ -2567,9 +2809,15 @@
       <c r="P14" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="Q14" s="3"/>
-      <c r="R14" s="3"/>
-      <c r="S14" s="3"/>
+      <c r="Q14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="R14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="S14" s="3" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
@@ -2620,9 +2868,15 @@
       <c r="P15" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="Q15" s="3"/>
-      <c r="R15" s="3"/>
-      <c r="S15" s="3"/>
+      <c r="Q15" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="R15" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="S15" s="3" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
@@ -2673,9 +2927,15 @@
       <c r="P16" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="Q16" s="3"/>
-      <c r="R16" s="3"/>
-      <c r="S16" s="3"/>
+      <c r="Q16" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="R16" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="S16" s="3" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
@@ -2726,9 +2986,15 @@
       <c r="P17" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="Q17" s="3"/>
-      <c r="R17" s="3"/>
-      <c r="S17" s="3"/>
+      <c r="Q17" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="R17" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="S17" s="3" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
@@ -2779,9 +3045,15 @@
       <c r="P18" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="Q18" s="3"/>
-      <c r="R18" s="3"/>
-      <c r="S18" s="3"/>
+      <c r="Q18" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="R18" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="S18" s="3" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
@@ -2832,9 +3104,15 @@
       <c r="P19" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="Q19" s="3"/>
-      <c r="R19" s="3"/>
-      <c r="S19" s="3"/>
+      <c r="Q19" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="R19" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="S19" s="3" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
@@ -2885,24 +3163,41 @@
       <c r="P20" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="Q20" s="3"/>
-      <c r="R20" s="3"/>
-      <c r="S20" s="3"/>
+      <c r="Q20" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="R20" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="S20" s="3" t="s">
+        <v>12</v>
+      </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="A2:XFD20">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+      <formula>"="</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>"+"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
+      <formula>"-"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39845E33-B198-1749-A96D-46C57A0F57AA}">
-  <dimension ref="A1:AD40"/>
+  <dimension ref="A1:AF40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="150" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="133" zoomScaleNormal="150" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Q18" sqref="Q18"/>
+      <selection pane="bottomRight" activeCell="V35" sqref="V35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2912,10 +3207,13 @@
     <col min="3" max="8" width="5.1640625" style="4" bestFit="1" customWidth="1"/>
     <col min="9" max="17" width="4.33203125" style="4" bestFit="1" customWidth="1"/>
     <col min="18" max="26" width="5.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="4.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="5" style="4" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="8.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -2995,10 +3293,16 @@
         <v>67</v>
       </c>
       <c r="AA1" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="AB1" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="AC1" s="8" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -3040,15 +3344,20 @@
       <c r="Y2" s="3"/>
       <c r="Z2" s="3"/>
       <c r="AA2" s="3">
+        <f>SUM(C2:D2,I2:R2)</f>
+        <v>15</v>
+      </c>
+      <c r="AB2" s="3"/>
+      <c r="AC2" s="3">
         <f>SUM(C2:Z2)</f>
         <v>15</v>
       </c>
-      <c r="AC2" s="14" t="s">
+      <c r="AE2" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="AD2" s="14"/>
-    </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AF2" s="14"/>
+    </row>
+    <row r="3" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -3084,9 +3393,15 @@
       <c r="O3" s="3">
         <v>3</v>
       </c>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
+      <c r="P3" s="3">
+        <v>3</v>
+      </c>
+      <c r="Q3" s="3">
+        <v>3</v>
+      </c>
+      <c r="R3" s="3">
+        <v>3</v>
+      </c>
       <c r="S3" s="3"/>
       <c r="T3" s="3"/>
       <c r="U3" s="3"/>
@@ -3096,17 +3411,22 @@
       <c r="Y3" s="3"/>
       <c r="Z3" s="3"/>
       <c r="AA3" s="3">
-        <f t="shared" ref="AA3:AA39" si="0">SUM(C3:Z3)</f>
-        <v>24</v>
-      </c>
-      <c r="AC3" s="3" t="s">
+        <f t="shared" ref="AA3:AA40" si="0">SUM(C3:D3,I3:R3)</f>
+        <v>33</v>
+      </c>
+      <c r="AB3" s="3"/>
+      <c r="AC3" s="3">
+        <f>SUM(C3:Z3)</f>
+        <v>33</v>
+      </c>
+      <c r="AE3" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="AD3" s="3" t="s">
+      <c r="AF3" s="3" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -3145,8 +3465,12 @@
       <c r="P4" s="3">
         <v>3</v>
       </c>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
+      <c r="Q4" s="3">
+        <v>3</v>
+      </c>
+      <c r="R4" s="3">
+        <v>3</v>
+      </c>
       <c r="S4" s="3"/>
       <c r="T4" s="3"/>
       <c r="U4" s="3"/>
@@ -3157,16 +3481,21 @@
       <c r="Z4" s="3"/>
       <c r="AA4" s="3">
         <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-      <c r="AC4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB4" s="3"/>
+      <c r="AC4" s="3">
+        <f>SUM(C4:Z4)</f>
+        <v>33</v>
+      </c>
+      <c r="AE4" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="AD4" s="3" t="s">
+      <c r="AF4" s="3" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -3176,7 +3505,9 @@
       <c r="C5" s="3">
         <v>3</v>
       </c>
-      <c r="D5" s="3"/>
+      <c r="D5" s="3">
+        <v>9</v>
+      </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
@@ -3202,7 +3533,9 @@
       <c r="O5" s="3">
         <v>3</v>
       </c>
-      <c r="P5" s="3"/>
+      <c r="P5" s="3">
+        <v>3</v>
+      </c>
       <c r="Q5" s="3"/>
       <c r="R5" s="3"/>
       <c r="S5" s="3"/>
@@ -3215,16 +3548,21 @@
       <c r="Z5" s="3"/>
       <c r="AA5" s="3">
         <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="AC5" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB5" s="3"/>
+      <c r="AC5" s="3">
+        <f>SUM(C5:Z5)</f>
+        <v>36</v>
+      </c>
+      <c r="AE5" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="AD5" s="3" t="s">
+      <c r="AF5" s="3" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -3255,7 +3593,9 @@
       <c r="N6" s="3">
         <v>3</v>
       </c>
-      <c r="O6" s="3"/>
+      <c r="O6" s="3">
+        <v>3</v>
+      </c>
       <c r="P6" s="3"/>
       <c r="Q6" s="3"/>
       <c r="R6" s="3"/>
@@ -3269,14 +3609,19 @@
       <c r="Z6" s="3"/>
       <c r="AA6" s="3">
         <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="AC6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB6" s="3"/>
+      <c r="AC6" s="3">
+        <f>SUM(C6:Z6)</f>
+        <v>21</v>
+      </c>
+      <c r="AE6" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="AD6" s="3"/>
-    </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AF6" s="3"/>
+    </row>
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -3301,7 +3646,9 @@
       <c r="L7" s="3">
         <v>3</v>
       </c>
-      <c r="M7" s="3"/>
+      <c r="M7" s="3">
+        <v>3</v>
+      </c>
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
       <c r="P7" s="3"/>
@@ -3317,14 +3664,19 @@
       <c r="Z7" s="3"/>
       <c r="AA7" s="3">
         <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="AC7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB7" s="3"/>
+      <c r="AC7" s="3">
+        <f>SUM(C7:Z7)</f>
+        <v>15</v>
+      </c>
+      <c r="AE7" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="AD7" s="3"/>
-    </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AF7" s="3"/>
+    </row>
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -3371,12 +3723,17 @@
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="AC8" s="3" t="s">
+      <c r="AB8" s="3"/>
+      <c r="AC8" s="3">
+        <f>SUM(C8:Z8)</f>
+        <v>18</v>
+      </c>
+      <c r="AE8" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="AD8" s="3"/>
-    </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AF8" s="3"/>
+    </row>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -3409,10 +3766,18 @@
       <c r="N9" s="3">
         <v>3</v>
       </c>
-      <c r="O9" s="3"/>
-      <c r="P9" s="3"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="3"/>
+      <c r="O9" s="3">
+        <v>3</v>
+      </c>
+      <c r="P9" s="3">
+        <v>3</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>3</v>
+      </c>
+      <c r="R9" s="3">
+        <v>3</v>
+      </c>
       <c r="S9" s="3"/>
       <c r="T9" s="3"/>
       <c r="U9" s="3"/>
@@ -3423,14 +3788,19 @@
       <c r="Z9" s="3"/>
       <c r="AA9" s="3">
         <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="AC9" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB9" s="3"/>
+      <c r="AC9" s="3">
+        <f>SUM(C9:Z9)</f>
+        <v>33</v>
+      </c>
+      <c r="AE9" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="AD9" s="3"/>
-    </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AF9" s="3"/>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -3469,8 +3839,12 @@
       <c r="P10" s="3">
         <v>3</v>
       </c>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="3"/>
+      <c r="Q10" s="3">
+        <v>3</v>
+      </c>
+      <c r="R10" s="3">
+        <v>3</v>
+      </c>
       <c r="S10" s="3"/>
       <c r="T10" s="3"/>
       <c r="U10" s="3"/>
@@ -3481,10 +3855,15 @@
       <c r="Z10" s="3"/>
       <c r="AA10" s="3">
         <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+      <c r="AB10" s="3"/>
+      <c r="AC10" s="3">
+        <f>SUM(C10:Z10)</f>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -3535,8 +3914,13 @@
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+      <c r="AC11" s="3">
+        <f>SUM(C11:Z11)</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -3585,8 +3969,13 @@
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3"/>
+      <c r="AC12" s="3">
+        <f>SUM(C12:Z12)</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -3635,8 +4024,13 @@
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3"/>
+      <c r="AC13" s="3">
+        <f>SUM(C13:Z13)</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -3679,8 +4073,13 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AB14" s="3"/>
+      <c r="AC14" s="3">
+        <f>SUM(C14:Z14)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -3733,8 +4132,13 @@
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3"/>
+      <c r="AC15" s="3">
+        <f>SUM(C15:Z15)</f>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -3770,9 +4174,15 @@
       <c r="O16" s="3">
         <v>3</v>
       </c>
-      <c r="P16" s="3"/>
-      <c r="Q16" s="3"/>
-      <c r="R16" s="3"/>
+      <c r="P16" s="3">
+        <v>3</v>
+      </c>
+      <c r="Q16" s="3">
+        <v>3</v>
+      </c>
+      <c r="R16" s="3">
+        <v>3</v>
+      </c>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
@@ -3783,10 +4193,15 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3">
         <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+      <c r="AB16" s="3"/>
+      <c r="AC16" s="3">
+        <f>SUM(C16:Z16)</f>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -3827,8 +4242,13 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB17" s="3"/>
+      <c r="AC17" s="3">
+        <f>SUM(C17:Z17)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -3858,10 +4278,18 @@
       <c r="M18" s="3">
         <v>3</v>
       </c>
-      <c r="N18" s="3"/>
-      <c r="O18" s="3"/>
-      <c r="P18" s="3"/>
-      <c r="Q18" s="3"/>
+      <c r="N18" s="3">
+        <v>3</v>
+      </c>
+      <c r="O18" s="3">
+        <v>3</v>
+      </c>
+      <c r="P18" s="3">
+        <v>3</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>3</v>
+      </c>
       <c r="R18" s="3"/>
       <c r="S18" s="3"/>
       <c r="T18" s="3"/>
@@ -3873,10 +4301,15 @@
       <c r="Z18" s="3"/>
       <c r="AA18" s="3">
         <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+      <c r="AB18" s="3"/>
+      <c r="AC18" s="3">
+        <f>SUM(C18:Z18)</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -3927,8 +4360,13 @@
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-    </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+      <c r="AC19" s="3">
+        <f>SUM(C19:Z19)</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -3964,9 +4402,15 @@
       <c r="O20" s="3">
         <v>3</v>
       </c>
-      <c r="P20" s="3"/>
-      <c r="Q20" s="3"/>
-      <c r="R20" s="3"/>
+      <c r="P20" s="3">
+        <v>3</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>3</v>
+      </c>
+      <c r="R20" s="3">
+        <v>3</v>
+      </c>
       <c r="S20" s="3"/>
       <c r="T20" s="3"/>
       <c r="U20" s="3"/>
@@ -3977,10 +4421,15 @@
       <c r="Z20" s="3"/>
       <c r="AA20" s="3">
         <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+      <c r="AB20" s="3"/>
+      <c r="AC20" s="3">
+        <f>SUM(C20:Z20)</f>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -4031,8 +4480,13 @@
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-    </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB21" s="3"/>
+      <c r="AC21" s="3">
+        <f>SUM(C21:Z21)</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -4081,8 +4535,13 @@
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB22" s="3"/>
+      <c r="AC22" s="3">
+        <f>SUM(C22:Z22)</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -4131,8 +4590,13 @@
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB23" s="3"/>
+      <c r="AC23" s="3">
+        <f>SUM(C23:Z23)</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -4153,18 +4617,30 @@
       <c r="J24" s="3">
         <v>3</v>
       </c>
-      <c r="K24" s="3"/>
+      <c r="K24" s="3">
+        <v>3</v>
+      </c>
       <c r="L24" s="3">
         <v>3</v>
       </c>
       <c r="M24" s="3">
         <v>3</v>
       </c>
-      <c r="N24" s="3"/>
-      <c r="O24" s="3"/>
-      <c r="P24" s="3"/>
-      <c r="Q24" s="3"/>
-      <c r="R24" s="3"/>
+      <c r="N24" s="3">
+        <v>3</v>
+      </c>
+      <c r="O24" s="3">
+        <v>3</v>
+      </c>
+      <c r="P24" s="3">
+        <v>3</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>3</v>
+      </c>
+      <c r="R24" s="3">
+        <v>3</v>
+      </c>
       <c r="S24" s="3"/>
       <c r="T24" s="3"/>
       <c r="U24" s="3"/>
@@ -4175,10 +4651,15 @@
       <c r="Z24" s="3"/>
       <c r="AA24" s="3">
         <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+      <c r="AB24" s="3"/>
+      <c r="AC24" s="3">
+        <f>SUM(C24:Z24)</f>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -4200,8 +4681,12 @@
       <c r="K25" s="3">
         <v>3</v>
       </c>
-      <c r="L25" s="3"/>
-      <c r="M25" s="3"/>
+      <c r="L25" s="3">
+        <v>3</v>
+      </c>
+      <c r="M25" s="3">
+        <v>3</v>
+      </c>
       <c r="N25" s="3"/>
       <c r="O25" s="3"/>
       <c r="P25" s="3"/>
@@ -4217,10 +4702,15 @@
       <c r="Z25" s="3"/>
       <c r="AA25" s="3">
         <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+      <c r="AB25" s="3"/>
+      <c r="AC25" s="3">
+        <f>SUM(C25:Z25)</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -4256,9 +4746,15 @@
       <c r="O26" s="3">
         <v>3</v>
       </c>
-      <c r="P26" s="3"/>
-      <c r="Q26" s="3"/>
-      <c r="R26" s="3"/>
+      <c r="P26" s="3">
+        <v>3</v>
+      </c>
+      <c r="Q26" s="3">
+        <v>3</v>
+      </c>
+      <c r="R26" s="3">
+        <v>3</v>
+      </c>
       <c r="S26" s="3"/>
       <c r="T26" s="3"/>
       <c r="U26" s="3"/>
@@ -4269,10 +4765,15 @@
       <c r="Z26" s="3"/>
       <c r="AA26" s="3">
         <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+      <c r="AB26" s="3"/>
+      <c r="AC26" s="3">
+        <f>SUM(C26:Z26)</f>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -4315,8 +4816,13 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-    </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB27" s="3"/>
+      <c r="AC27" s="3">
+        <f>SUM(C27:Z27)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -4367,8 +4873,13 @@
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-    </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3"/>
+      <c r="AC28" s="3">
+        <f>SUM(C28:Z28)</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -4417,8 +4928,13 @@
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-    </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3"/>
+      <c r="AC29" s="3">
+        <f>SUM(C29:Z29)</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -4469,8 +4985,13 @@
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-    </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3"/>
+      <c r="AC30" s="3">
+        <f>SUM(C30:Z30)</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="31" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -4521,8 +5042,13 @@
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-    </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3"/>
+      <c r="AC31" s="3">
+        <f>SUM(C31:Z31)</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="32" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -4575,8 +5101,13 @@
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-    </row>
-    <row r="33" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB32" s="3"/>
+      <c r="AC32" s="3">
+        <f>SUM(C32:Z32)</f>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="33" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -4604,8 +5135,12 @@
         <v>3</v>
       </c>
       <c r="M33" s="3"/>
-      <c r="N33" s="3"/>
-      <c r="O33" s="3"/>
+      <c r="N33" s="3">
+        <v>3</v>
+      </c>
+      <c r="O33" s="3">
+        <v>3</v>
+      </c>
       <c r="P33" s="3"/>
       <c r="Q33" s="3"/>
       <c r="R33" s="3"/>
@@ -4619,10 +5154,15 @@
       <c r="Z33" s="3"/>
       <c r="AA33" s="3">
         <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="34" spans="1:27" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+      <c r="AB33" s="3"/>
+      <c r="AC33" s="3">
+        <f>SUM(C33:Z33)</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="34" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -4652,10 +5192,18 @@
       <c r="M34" s="3">
         <v>3</v>
       </c>
-      <c r="N34" s="3"/>
-      <c r="O34" s="3"/>
-      <c r="P34" s="3"/>
-      <c r="Q34" s="3"/>
+      <c r="N34" s="3">
+        <v>3</v>
+      </c>
+      <c r="O34" s="3">
+        <v>3</v>
+      </c>
+      <c r="P34" s="3">
+        <v>3</v>
+      </c>
+      <c r="Q34" s="3">
+        <v>3</v>
+      </c>
       <c r="R34" s="3"/>
       <c r="S34" s="3"/>
       <c r="T34" s="3"/>
@@ -4667,10 +5215,15 @@
       <c r="Z34" s="3"/>
       <c r="AA34" s="3">
         <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="35" spans="1:27" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+      <c r="AB34" s="3"/>
+      <c r="AC34" s="3">
+        <f>SUM(C34:Z34)</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -4695,7 +5248,9 @@
       <c r="L35" s="3">
         <v>3</v>
       </c>
-      <c r="M35" s="3"/>
+      <c r="M35" s="3">
+        <v>3</v>
+      </c>
       <c r="N35" s="3"/>
       <c r="O35" s="3"/>
       <c r="P35" s="3"/>
@@ -4711,10 +5266,15 @@
       <c r="Z35" s="3"/>
       <c r="AA35" s="3">
         <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="36" spans="1:27" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+      <c r="AB35" s="3"/>
+      <c r="AC35" s="3">
+        <f>SUM(C35:Z35)</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -4741,15 +5301,21 @@
       <c r="L36" s="3">
         <v>3</v>
       </c>
-      <c r="M36" s="3"/>
+      <c r="M36" s="3">
+        <v>3</v>
+      </c>
       <c r="N36" s="3">
         <v>3</v>
       </c>
       <c r="O36" s="3">
         <v>3</v>
       </c>
-      <c r="P36" s="3"/>
-      <c r="Q36" s="3"/>
+      <c r="P36" s="3">
+        <v>3</v>
+      </c>
+      <c r="Q36" s="3">
+        <v>3</v>
+      </c>
       <c r="R36" s="3"/>
       <c r="S36" s="3"/>
       <c r="T36" s="3"/>
@@ -4761,10 +5327,15 @@
       <c r="Z36" s="3"/>
       <c r="AA36" s="3">
         <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="37" spans="1:27" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+      <c r="AB36" s="3"/>
+      <c r="AC36" s="3">
+        <f>SUM(C36:Z36)</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="37" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -4815,8 +5386,13 @@
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-    </row>
-    <row r="38" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB37" s="3"/>
+      <c r="AC37" s="3">
+        <f>SUM(C37:Z37)</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="38" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -4851,8 +5427,13 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB38" s="3"/>
+      <c r="AC38" s="3">
+        <f>SUM(C38:Z38)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -4901,8 +5482,13 @@
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-    </row>
-    <row r="40" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+      <c r="AC39" s="3">
+        <f>SUM(C39:Z39)</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="40" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -4937,14 +5523,22 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-      <c r="AA40" s="1"/>
+      <c r="AA40" s="3">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="AB40" s="3"/>
+      <c r="AC40" s="3">
+        <f>SUM(C40:Z40)</f>
+        <v>6</v>
+      </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H40">
     <sortCondition ref="B1:B40"/>
   </sortState>
   <mergeCells count="1">
-    <mergeCell ref="AC2:AD2"/>
+    <mergeCell ref="AE2:AF2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/sem1/СО-ПР-22.xlsx
+++ b/sem1/СО-ПР-22.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thebandik/Library/Mobile Documents/com~apple~CloudDocs/General/Работа/Колледж/GitHub/computer-science/sem1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4AB5DF3-2A26-E44A-906A-841232F1DDF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CB01E8D-BA97-984D-8777-3BF8C9755F4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="2" xr2:uid="{78B3409E-6B57-FA43-BCC4-C09108445BD6}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="748" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="843" uniqueCount="81">
   <si>
     <t>№</t>
   </si>
@@ -367,7 +367,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -403,6 +403,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -780,13 +783,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4215EFA8-B92E-4C45-9535-33FF4C7A518F}">
-  <dimension ref="A1:S25"/>
+  <dimension ref="A1:Z25"/>
   <sheetViews>
-    <sheetView zoomScale="131" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="150" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="K2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F25" sqref="F25"/>
+      <selection pane="bottomRight" activeCell="U21" sqref="U21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -798,10 +801,10 @@
     <col min="10" max="11" width="6.6640625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="6.6640625" style="4" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="18" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="21" width="6.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -856,9 +859,22 @@
       <c r="R1" s="2">
         <v>45211</v>
       </c>
-      <c r="S1" s="3"/>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="S1" s="2">
+        <v>45216</v>
+      </c>
+      <c r="T1" s="5">
+        <v>45218</v>
+      </c>
+      <c r="U1" s="5">
+        <v>45219</v>
+      </c>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1"/>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -913,9 +929,22 @@
       <c r="R2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="S2" s="3"/>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="S2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="U2" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+      <c r="X2" s="1"/>
+      <c r="Y2" s="1"/>
+      <c r="Z2" s="1"/>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -970,9 +999,22 @@
       <c r="R3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="S3" s="3"/>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="S3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="T3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="U3" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
+      <c r="X3" s="1"/>
+      <c r="Y3" s="1"/>
+      <c r="Z3" s="1"/>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1027,9 +1069,22 @@
       <c r="R4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="S4" s="3"/>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="S4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="T4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="U4" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
+      <c r="X4" s="1"/>
+      <c r="Y4" s="1"/>
+      <c r="Z4" s="1"/>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1084,9 +1139,22 @@
       <c r="R5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="S5" s="3"/>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="S5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="T5" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="U5" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="V5" s="1"/>
+      <c r="W5" s="1"/>
+      <c r="X5" s="1"/>
+      <c r="Y5" s="1"/>
+      <c r="Z5" s="1"/>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1141,9 +1209,22 @@
       <c r="R6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="S6" s="3"/>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="S6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="T6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="U6" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="V6" s="1"/>
+      <c r="W6" s="1"/>
+      <c r="X6" s="1"/>
+      <c r="Y6" s="1"/>
+      <c r="Z6" s="1"/>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1198,9 +1279,22 @@
       <c r="R7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="S7" s="3"/>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="S7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="T7" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="U7" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="V7" s="1"/>
+      <c r="W7" s="1"/>
+      <c r="X7" s="1"/>
+      <c r="Y7" s="1"/>
+      <c r="Z7" s="1"/>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1255,9 +1349,22 @@
       <c r="R8" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="S8" s="3"/>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="S8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="T8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="U8" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="V8" s="1"/>
+      <c r="W8" s="1"/>
+      <c r="X8" s="1"/>
+      <c r="Y8" s="1"/>
+      <c r="Z8" s="1"/>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1312,9 +1419,22 @@
       <c r="R9" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="S9" s="3"/>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="T9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="U9" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="V9" s="1"/>
+      <c r="W9" s="1"/>
+      <c r="X9" s="1"/>
+      <c r="Y9" s="1"/>
+      <c r="Z9" s="1"/>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1369,9 +1489,22 @@
       <c r="R10" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="S10" s="3"/>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="T10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="U10" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="V10" s="1"/>
+      <c r="W10" s="1"/>
+      <c r="X10" s="1"/>
+      <c r="Y10" s="1"/>
+      <c r="Z10" s="1"/>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1426,9 +1559,22 @@
       <c r="R11" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="S11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="T11" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="U11" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="V11" s="1"/>
+      <c r="W11" s="1"/>
+      <c r="X11" s="1"/>
+      <c r="Y11" s="1"/>
+      <c r="Z11" s="1"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1483,9 +1629,22 @@
       <c r="R12" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="S12" s="3"/>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="T12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="U12" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="V12" s="1"/>
+      <c r="W12" s="1"/>
+      <c r="X12" s="1"/>
+      <c r="Y12" s="1"/>
+      <c r="Z12" s="1"/>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1540,9 +1699,22 @@
       <c r="R13" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="S13" s="3"/>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="S13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="T13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="U13" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="V13" s="1"/>
+      <c r="W13" s="1"/>
+      <c r="X13" s="1"/>
+      <c r="Y13" s="1"/>
+      <c r="Z13" s="1"/>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -1597,9 +1769,22 @@
       <c r="R14" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="S14" s="3"/>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="S14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="T14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="U14" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="V14" s="1"/>
+      <c r="W14" s="1"/>
+      <c r="X14" s="1"/>
+      <c r="Y14" s="1"/>
+      <c r="Z14" s="1"/>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -1654,9 +1839,22 @@
       <c r="R15" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="S15" s="3"/>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="S15" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="T15" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="U15" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="V15" s="1"/>
+      <c r="W15" s="1"/>
+      <c r="X15" s="1"/>
+      <c r="Y15" s="1"/>
+      <c r="Z15" s="1"/>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -1711,9 +1909,22 @@
       <c r="R16" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="S16" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="T16" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="U16" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="V16" s="1"/>
+      <c r="W16" s="1"/>
+      <c r="X16" s="1"/>
+      <c r="Y16" s="1"/>
+      <c r="Z16" s="1"/>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -1768,9 +1979,22 @@
       <c r="R17" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="S17" s="3"/>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="S17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="T17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="U17" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="V17" s="1"/>
+      <c r="W17" s="1"/>
+      <c r="X17" s="1"/>
+      <c r="Y17" s="1"/>
+      <c r="Z17" s="1"/>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -1825,9 +2049,22 @@
       <c r="R18" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="S18" s="3"/>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="S18" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="T18" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="U18" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="V18" s="1"/>
+      <c r="W18" s="1"/>
+      <c r="X18" s="1"/>
+      <c r="Y18" s="1"/>
+      <c r="Z18" s="1"/>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -1882,9 +2119,22 @@
       <c r="R19" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="S19" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="T19" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="U19" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="V19" s="1"/>
+      <c r="W19" s="1"/>
+      <c r="X19" s="1"/>
+      <c r="Y19" s="1"/>
+      <c r="Z19" s="1"/>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -1939,18 +2189,31 @@
       <c r="R20" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="S20" s="3"/>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="S20" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="T20" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="U20" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="V20" s="1"/>
+      <c r="W20" s="1"/>
+      <c r="X20" s="1"/>
+      <c r="Y20" s="1"/>
+      <c r="Z20" s="1"/>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C22" s="4"/>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C23" s="4"/>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C24" s="4"/>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C25" s="4"/>
     </row>
   </sheetData>
@@ -1974,13 +2237,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F44A87E8-D92E-4B4A-BFC1-FEFAB9CDC28F}">
-  <dimension ref="A1:S20"/>
+  <dimension ref="A1:Y20"/>
   <sheetViews>
-    <sheetView zoomScale="125" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="140" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="S16" sqref="S16"/>
+      <selection pane="bottomRight" activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1991,9 +2254,10 @@
     <col min="4" max="11" width="6.6640625" bestFit="1" customWidth="1"/>
     <col min="12" max="13" width="6.6640625" style="4" bestFit="1" customWidth="1"/>
     <col min="14" max="19" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="6.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2051,8 +2315,18 @@
       <c r="S1" s="2">
         <v>45212</v>
       </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T1" s="5">
+        <v>45218</v>
+      </c>
+      <c r="U1" s="5">
+        <v>45219</v>
+      </c>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+      <c r="Y1" s="1"/>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2110,8 +2384,18 @@
       <c r="S2" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="U2" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+      <c r="X2" s="1"/>
+      <c r="Y2" s="1"/>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -2169,8 +2453,18 @@
       <c r="S3" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="U3" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
+      <c r="X3" s="1"/>
+      <c r="Y3" s="1"/>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -2228,8 +2522,18 @@
       <c r="S4" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="U4" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
+      <c r="X4" s="1"/>
+      <c r="Y4" s="1"/>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -2287,8 +2591,18 @@
       <c r="S5" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T5" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="U5" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="V5" s="1"/>
+      <c r="W5" s="1"/>
+      <c r="X5" s="1"/>
+      <c r="Y5" s="1"/>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -2346,8 +2660,18 @@
       <c r="S6" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T6" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="U6" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="V6" s="1"/>
+      <c r="W6" s="1"/>
+      <c r="X6" s="1"/>
+      <c r="Y6" s="1"/>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -2405,8 +2729,18 @@
       <c r="S7" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="U7" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="V7" s="1"/>
+      <c r="W7" s="1"/>
+      <c r="X7" s="1"/>
+      <c r="Y7" s="1"/>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -2464,8 +2798,18 @@
       <c r="S8" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="U8" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="V8" s="1"/>
+      <c r="W8" s="1"/>
+      <c r="X8" s="1"/>
+      <c r="Y8" s="1"/>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -2523,8 +2867,18 @@
       <c r="S9" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="U9" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="V9" s="1"/>
+      <c r="W9" s="1"/>
+      <c r="X9" s="1"/>
+      <c r="Y9" s="1"/>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -2582,8 +2936,18 @@
       <c r="S10" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="U10" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="V10" s="1"/>
+      <c r="W10" s="1"/>
+      <c r="X10" s="1"/>
+      <c r="Y10" s="1"/>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -2641,8 +3005,18 @@
       <c r="S11" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="U11" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="V11" s="1"/>
+      <c r="W11" s="1"/>
+      <c r="X11" s="1"/>
+      <c r="Y11" s="1"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -2700,8 +3074,18 @@
       <c r="S12" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="U12" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="V12" s="1"/>
+      <c r="W12" s="1"/>
+      <c r="X12" s="1"/>
+      <c r="Y12" s="1"/>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -2759,8 +3143,18 @@
       <c r="S13" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="U13" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="V13" s="1"/>
+      <c r="W13" s="1"/>
+      <c r="X13" s="1"/>
+      <c r="Y13" s="1"/>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -2818,8 +3212,18 @@
       <c r="S14" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="U14" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="V14" s="1"/>
+      <c r="W14" s="1"/>
+      <c r="X14" s="1"/>
+      <c r="Y14" s="1"/>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -2877,8 +3281,18 @@
       <c r="S15" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="U15" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="V15" s="1"/>
+      <c r="W15" s="1"/>
+      <c r="X15" s="1"/>
+      <c r="Y15" s="1"/>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -2936,8 +3350,18 @@
       <c r="S16" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="U16" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="V16" s="1"/>
+      <c r="W16" s="1"/>
+      <c r="X16" s="1"/>
+      <c r="Y16" s="1"/>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -2995,8 +3419,18 @@
       <c r="S17" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="U17" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="V17" s="1"/>
+      <c r="W17" s="1"/>
+      <c r="X17" s="1"/>
+      <c r="Y17" s="1"/>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -3054,8 +3488,18 @@
       <c r="S18" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T18" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="U18" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="V18" s="1"/>
+      <c r="W18" s="1"/>
+      <c r="X18" s="1"/>
+      <c r="Y18" s="1"/>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -3113,8 +3557,18 @@
       <c r="S19" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="U19" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="V19" s="1"/>
+      <c r="W19" s="1"/>
+      <c r="X19" s="1"/>
+      <c r="Y19" s="1"/>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -3172,6 +3626,16 @@
       <c r="S20" s="3" t="s">
         <v>12</v>
       </c>
+      <c r="T20" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="U20" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="V20" s="1"/>
+      <c r="W20" s="1"/>
+      <c r="X20" s="1"/>
+      <c r="Y20" s="1"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:XFD20">
@@ -3194,10 +3658,10 @@
   <dimension ref="A1:AF40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="133" zoomScaleNormal="150" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C13" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="V35" sqref="V35"/>
+      <selection pane="bottomRight" activeCell="X10" sqref="X10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3312,7 +3776,9 @@
       <c r="C2" s="3">
         <v>3</v>
       </c>
-      <c r="D2" s="3"/>
+      <c r="D2" s="3">
+        <v>7</v>
+      </c>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
@@ -3345,12 +3811,12 @@
       <c r="Z2" s="3"/>
       <c r="AA2" s="3">
         <f>SUM(C2:D2,I2:R2)</f>
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="AB2" s="3"/>
       <c r="AC2" s="3">
-        <f>SUM(C2:Z2)</f>
-        <v>15</v>
+        <f t="shared" ref="AC2:AC40" si="0">SUM(C2:Z2)</f>
+        <v>22</v>
       </c>
       <c r="AE2" s="14" t="s">
         <v>76</v>
@@ -3367,7 +3833,9 @@
       <c r="C3" s="3">
         <v>3</v>
       </c>
-      <c r="D3" s="3"/>
+      <c r="D3" s="3">
+        <v>7</v>
+      </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
@@ -3411,13 +3879,13 @@
       <c r="Y3" s="3"/>
       <c r="Z3" s="3"/>
       <c r="AA3" s="3">
-        <f t="shared" ref="AA3:AA40" si="0">SUM(C3:D3,I3:R3)</f>
-        <v>33</v>
+        <f t="shared" ref="AA3:AA40" si="1">SUM(C3:D3,I3:R3)</f>
+        <v>40</v>
       </c>
       <c r="AB3" s="3"/>
       <c r="AC3" s="3">
-        <f>SUM(C3:Z3)</f>
-        <v>33</v>
+        <f t="shared" si="0"/>
+        <v>40</v>
       </c>
       <c r="AE3" s="3" t="s">
         <v>75</v>
@@ -3436,7 +3904,9 @@
       <c r="C4" s="3">
         <v>3</v>
       </c>
-      <c r="D4" s="3"/>
+      <c r="D4" s="3">
+        <v>7</v>
+      </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
@@ -3480,13 +3950,13 @@
       <c r="Y4" s="3"/>
       <c r="Z4" s="3"/>
       <c r="AA4" s="3">
-        <f t="shared" si="0"/>
-        <v>33</v>
+        <f t="shared" si="1"/>
+        <v>40</v>
       </c>
       <c r="AB4" s="3"/>
       <c r="AC4" s="3">
-        <f>SUM(C4:Z4)</f>
-        <v>33</v>
+        <f t="shared" si="0"/>
+        <v>40</v>
       </c>
       <c r="AE4" s="3" t="s">
         <v>69</v>
@@ -3536,8 +4006,12 @@
       <c r="P5" s="3">
         <v>3</v>
       </c>
-      <c r="Q5" s="3"/>
-      <c r="R5" s="3"/>
+      <c r="Q5" s="3">
+        <v>3</v>
+      </c>
+      <c r="R5" s="3">
+        <v>3</v>
+      </c>
       <c r="S5" s="3"/>
       <c r="T5" s="3"/>
       <c r="U5" s="3"/>
@@ -3547,13 +4021,13 @@
       <c r="Y5" s="3"/>
       <c r="Z5" s="3"/>
       <c r="AA5" s="3">
-        <f t="shared" si="0"/>
-        <v>36</v>
+        <f t="shared" si="1"/>
+        <v>42</v>
       </c>
       <c r="AB5" s="3"/>
       <c r="AC5" s="3">
-        <f>SUM(C5:Z5)</f>
-        <v>36</v>
+        <f t="shared" si="0"/>
+        <v>42</v>
       </c>
       <c r="AE5" s="3" t="s">
         <v>70</v>
@@ -3572,7 +4046,9 @@
       <c r="C6" s="3">
         <v>3</v>
       </c>
-      <c r="D6" s="3"/>
+      <c r="D6" s="3">
+        <v>7</v>
+      </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
@@ -3597,8 +4073,12 @@
         <v>3</v>
       </c>
       <c r="P6" s="3"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="3"/>
+      <c r="Q6" s="3">
+        <v>3</v>
+      </c>
+      <c r="R6" s="3">
+        <v>2</v>
+      </c>
       <c r="S6" s="3"/>
       <c r="T6" s="3"/>
       <c r="U6" s="3"/>
@@ -3608,13 +4088,13 @@
       <c r="Y6" s="3"/>
       <c r="Z6" s="3"/>
       <c r="AA6" s="3">
-        <f t="shared" si="0"/>
-        <v>21</v>
+        <f t="shared" si="1"/>
+        <v>33</v>
       </c>
       <c r="AB6" s="3"/>
       <c r="AC6" s="3">
-        <f>SUM(C6:Z6)</f>
-        <v>21</v>
+        <f t="shared" si="0"/>
+        <v>33</v>
       </c>
       <c r="AE6" s="3" t="s">
         <v>71</v>
@@ -3649,8 +4129,12 @@
       <c r="M7" s="3">
         <v>3</v>
       </c>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
+      <c r="N7" s="3">
+        <v>3</v>
+      </c>
+      <c r="O7" s="3">
+        <v>3</v>
+      </c>
       <c r="P7" s="3"/>
       <c r="Q7" s="3"/>
       <c r="R7" s="3"/>
@@ -3663,13 +4147,13 @@
       <c r="Y7" s="3"/>
       <c r="Z7" s="3"/>
       <c r="AA7" s="3">
-        <f t="shared" si="0"/>
-        <v>15</v>
+        <f t="shared" si="1"/>
+        <v>21</v>
       </c>
       <c r="AB7" s="3"/>
       <c r="AC7" s="3">
-        <f>SUM(C7:Z7)</f>
-        <v>15</v>
+        <f t="shared" si="0"/>
+        <v>21</v>
       </c>
       <c r="AE7" s="3" t="s">
         <v>72</v>
@@ -3684,7 +4168,9 @@
         <v>23</v>
       </c>
       <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
+      <c r="D8" s="3">
+        <v>7</v>
+      </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
@@ -3707,10 +4193,18 @@
       <c r="N8" s="3">
         <v>3</v>
       </c>
-      <c r="O8" s="3"/>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="3"/>
+      <c r="O8" s="3">
+        <v>3</v>
+      </c>
+      <c r="P8" s="3">
+        <v>3</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>3</v>
+      </c>
+      <c r="R8" s="3">
+        <v>3</v>
+      </c>
       <c r="S8" s="3"/>
       <c r="T8" s="3"/>
       <c r="U8" s="3"/>
@@ -3720,13 +4214,13 @@
       <c r="Y8" s="3"/>
       <c r="Z8" s="3"/>
       <c r="AA8" s="3">
-        <f t="shared" si="0"/>
-        <v>18</v>
+        <f t="shared" si="1"/>
+        <v>37</v>
       </c>
       <c r="AB8" s="3"/>
       <c r="AC8" s="3">
-        <f>SUM(C8:Z8)</f>
-        <v>18</v>
+        <f t="shared" si="0"/>
+        <v>37</v>
       </c>
       <c r="AE8" s="3" t="s">
         <v>73</v>
@@ -3743,7 +4237,9 @@
       <c r="C9" s="3">
         <v>3</v>
       </c>
-      <c r="D9" s="3"/>
+      <c r="D9" s="3">
+        <v>7</v>
+      </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
@@ -3787,13 +4283,13 @@
       <c r="Y9" s="3"/>
       <c r="Z9" s="3"/>
       <c r="AA9" s="3">
-        <f t="shared" si="0"/>
-        <v>33</v>
+        <f t="shared" si="1"/>
+        <v>40</v>
       </c>
       <c r="AB9" s="3"/>
       <c r="AC9" s="3">
-        <f>SUM(C9:Z9)</f>
-        <v>33</v>
+        <f t="shared" si="0"/>
+        <v>40</v>
       </c>
       <c r="AE9" s="3" t="s">
         <v>74</v>
@@ -3810,7 +4306,9 @@
       <c r="C10" s="3">
         <v>3</v>
       </c>
-      <c r="D10" s="3"/>
+      <c r="D10" s="3">
+        <v>7</v>
+      </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
@@ -3854,13 +4352,13 @@
       <c r="Y10" s="3"/>
       <c r="Z10" s="3"/>
       <c r="AA10" s="3">
-        <f t="shared" si="0"/>
-        <v>33</v>
+        <f t="shared" si="1"/>
+        <v>40</v>
       </c>
       <c r="AB10" s="3"/>
       <c r="AC10" s="3">
-        <f>SUM(C10:Z10)</f>
-        <v>33</v>
+        <f t="shared" si="0"/>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:32" x14ac:dyDescent="0.2">
@@ -3873,7 +4371,9 @@
       <c r="C11" s="3">
         <v>2</v>
       </c>
-      <c r="D11" s="3"/>
+      <c r="D11" s="3">
+        <v>7</v>
+      </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
@@ -3911,13 +4411,13 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3">
-        <f t="shared" si="0"/>
-        <v>23</v>
+        <f t="shared" si="1"/>
+        <v>30</v>
       </c>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3">
-        <f>SUM(C11:Z11)</f>
-        <v>23</v>
+        <f t="shared" si="0"/>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:32" x14ac:dyDescent="0.2">
@@ -3966,14 +4466,14 @@
       <c r="Y12" s="3"/>
       <c r="Z12" s="3"/>
       <c r="AA12" s="3">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="AB12" s="3"/>
+      <c r="AC12" s="3">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="AB12" s="3"/>
-      <c r="AC12" s="3">
-        <f>SUM(C12:Z12)</f>
-        <v>21</v>
-      </c>
     </row>
     <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
@@ -3985,7 +4485,9 @@
       <c r="C13" s="3">
         <v>3</v>
       </c>
-      <c r="D13" s="3"/>
+      <c r="D13" s="3">
+        <v>7</v>
+      </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
@@ -4009,8 +4511,12 @@
         <v>3</v>
       </c>
       <c r="O13" s="3"/>
-      <c r="P13" s="3"/>
-      <c r="Q13" s="3"/>
+      <c r="P13" s="3">
+        <v>3</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>3</v>
+      </c>
       <c r="R13" s="3"/>
       <c r="S13" s="3"/>
       <c r="T13" s="3"/>
@@ -4021,13 +4527,13 @@
       <c r="Y13" s="3"/>
       <c r="Z13" s="3"/>
       <c r="AA13" s="3">
-        <f t="shared" si="0"/>
-        <v>21</v>
+        <f t="shared" si="1"/>
+        <v>34</v>
       </c>
       <c r="AB13" s="3"/>
       <c r="AC13" s="3">
-        <f>SUM(C13:Z13)</f>
-        <v>21</v>
+        <f t="shared" si="0"/>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:32" x14ac:dyDescent="0.2">
@@ -4070,12 +4576,12 @@
       <c r="Y14" s="3"/>
       <c r="Z14" s="3"/>
       <c r="AA14" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="AB14" s="3"/>
       <c r="AC14" s="3">
-        <f>SUM(C14:Z14)</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
     </row>
@@ -4089,7 +4595,9 @@
       <c r="C15" s="3">
         <v>3</v>
       </c>
-      <c r="D15" s="3"/>
+      <c r="D15" s="3">
+        <v>7</v>
+      </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
@@ -4118,8 +4626,12 @@
       <c r="P15" s="3">
         <v>3</v>
       </c>
-      <c r="Q15" s="3"/>
-      <c r="R15" s="3"/>
+      <c r="Q15" s="3">
+        <v>3</v>
+      </c>
+      <c r="R15" s="3">
+        <v>3</v>
+      </c>
       <c r="S15" s="3"/>
       <c r="T15" s="3"/>
       <c r="U15" s="3"/>
@@ -4129,13 +4641,13 @@
       <c r="Y15" s="3"/>
       <c r="Z15" s="3"/>
       <c r="AA15" s="3">
-        <f t="shared" si="0"/>
-        <v>27</v>
+        <f t="shared" si="1"/>
+        <v>40</v>
       </c>
       <c r="AB15" s="3"/>
       <c r="AC15" s="3">
-        <f>SUM(C15:Z15)</f>
-        <v>27</v>
+        <f t="shared" si="0"/>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:32" x14ac:dyDescent="0.2">
@@ -4148,7 +4660,9 @@
       <c r="C16" s="3">
         <v>3</v>
       </c>
-      <c r="D16" s="3"/>
+      <c r="D16" s="3">
+        <v>7</v>
+      </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
@@ -4192,13 +4706,13 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3">
-        <f t="shared" si="0"/>
-        <v>33</v>
+        <f t="shared" si="1"/>
+        <v>40</v>
       </c>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3">
-        <f>SUM(C16:Z16)</f>
-        <v>33</v>
+        <f t="shared" si="0"/>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:29" x14ac:dyDescent="0.2">
@@ -4239,12 +4753,12 @@
       <c r="Y17" s="3"/>
       <c r="Z17" s="3"/>
       <c r="AA17" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="AB17" s="3"/>
       <c r="AC17" s="3">
-        <f>SUM(C17:Z17)</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
     </row>
@@ -4290,7 +4804,9 @@
       <c r="Q18" s="3">
         <v>3</v>
       </c>
-      <c r="R18" s="3"/>
+      <c r="R18" s="3">
+        <v>3</v>
+      </c>
       <c r="S18" s="3"/>
       <c r="T18" s="3"/>
       <c r="U18" s="3"/>
@@ -4300,13 +4816,13 @@
       <c r="Y18" s="3"/>
       <c r="Z18" s="3"/>
       <c r="AA18" s="3">
-        <f t="shared" si="0"/>
-        <v>30</v>
+        <f t="shared" si="1"/>
+        <v>33</v>
       </c>
       <c r="AB18" s="3"/>
       <c r="AC18" s="3">
-        <f>SUM(C18:Z18)</f>
-        <v>30</v>
+        <f t="shared" si="0"/>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:29" x14ac:dyDescent="0.2">
@@ -4342,11 +4858,15 @@
       <c r="N19" s="3">
         <v>3</v>
       </c>
-      <c r="O19" s="3"/>
+      <c r="O19" s="3">
+        <v>3</v>
+      </c>
       <c r="P19" s="3">
         <v>3</v>
       </c>
-      <c r="Q19" s="3"/>
+      <c r="Q19" s="3">
+        <v>3</v>
+      </c>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
@@ -4357,13 +4877,13 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3">
-        <f t="shared" si="0"/>
-        <v>24</v>
+        <f t="shared" si="1"/>
+        <v>30</v>
       </c>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3">
-        <f>SUM(C19:Z19)</f>
-        <v>24</v>
+        <f t="shared" si="0"/>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:29" x14ac:dyDescent="0.2">
@@ -4376,7 +4896,9 @@
       <c r="C20" s="3">
         <v>3</v>
       </c>
-      <c r="D20" s="3"/>
+      <c r="D20" s="3">
+        <v>7</v>
+      </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
@@ -4420,13 +4942,13 @@
       <c r="Y20" s="3"/>
       <c r="Z20" s="3"/>
       <c r="AA20" s="3">
-        <f t="shared" si="0"/>
-        <v>33</v>
+        <f t="shared" si="1"/>
+        <v>40</v>
       </c>
       <c r="AB20" s="3"/>
       <c r="AC20" s="3">
-        <f>SUM(C20:Z20)</f>
-        <v>33</v>
+        <f t="shared" si="0"/>
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:29" x14ac:dyDescent="0.2">
@@ -4439,7 +4961,9 @@
       <c r="C21" s="3">
         <v>3</v>
       </c>
-      <c r="D21" s="3"/>
+      <c r="D21" s="3">
+        <v>7</v>
+      </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
@@ -4465,9 +4989,15 @@
       <c r="O21" s="3">
         <v>3</v>
       </c>
-      <c r="P21" s="3"/>
-      <c r="Q21" s="3"/>
-      <c r="R21" s="3"/>
+      <c r="P21" s="3">
+        <v>3</v>
+      </c>
+      <c r="Q21" s="3">
+        <v>3</v>
+      </c>
+      <c r="R21" s="3">
+        <v>3</v>
+      </c>
       <c r="S21" s="3"/>
       <c r="T21" s="3"/>
       <c r="U21" s="3"/>
@@ -4477,13 +5007,13 @@
       <c r="Y21" s="3"/>
       <c r="Z21" s="3"/>
       <c r="AA21" s="3">
-        <f t="shared" si="0"/>
-        <v>24</v>
+        <f t="shared" si="1"/>
+        <v>40</v>
       </c>
       <c r="AB21" s="3"/>
       <c r="AC21" s="3">
-        <f>SUM(C21:Z21)</f>
-        <v>24</v>
+        <f t="shared" si="0"/>
+        <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:29" x14ac:dyDescent="0.2">
@@ -4496,7 +5026,9 @@
       <c r="C22" s="3">
         <v>3</v>
       </c>
-      <c r="D22" s="3"/>
+      <c r="D22" s="3">
+        <v>7</v>
+      </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
@@ -4519,8 +5051,12 @@
       <c r="N22" s="3">
         <v>3</v>
       </c>
-      <c r="O22" s="3"/>
-      <c r="P22" s="3"/>
+      <c r="O22" s="3">
+        <v>3</v>
+      </c>
+      <c r="P22" s="3">
+        <v>3</v>
+      </c>
       <c r="Q22" s="3"/>
       <c r="R22" s="3"/>
       <c r="S22" s="3"/>
@@ -4532,13 +5068,13 @@
       <c r="Y22" s="3"/>
       <c r="Z22" s="3"/>
       <c r="AA22" s="3">
-        <f t="shared" si="0"/>
-        <v>21</v>
+        <f t="shared" si="1"/>
+        <v>34</v>
       </c>
       <c r="AB22" s="3"/>
       <c r="AC22" s="3">
-        <f>SUM(C22:Z22)</f>
-        <v>21</v>
+        <f t="shared" si="0"/>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:29" x14ac:dyDescent="0.2">
@@ -4587,12 +5123,12 @@
       <c r="Y23" s="3"/>
       <c r="Z23" s="3"/>
       <c r="AA23" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>21</v>
       </c>
       <c r="AB23" s="3"/>
       <c r="AC23" s="3">
-        <f>SUM(C23:Z23)</f>
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
     </row>
@@ -4606,7 +5142,9 @@
       <c r="C24" s="3">
         <v>3</v>
       </c>
-      <c r="D24" s="3"/>
+      <c r="D24" s="3">
+        <v>7</v>
+      </c>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
@@ -4650,13 +5188,13 @@
       <c r="Y24" s="3"/>
       <c r="Z24" s="3"/>
       <c r="AA24" s="3">
-        <f t="shared" si="0"/>
-        <v>33</v>
+        <f t="shared" si="1"/>
+        <v>40</v>
       </c>
       <c r="AB24" s="3"/>
       <c r="AC24" s="3">
-        <f>SUM(C24:Z24)</f>
-        <v>33</v>
+        <f t="shared" si="0"/>
+        <v>40</v>
       </c>
     </row>
     <row r="25" spans="1:29" x14ac:dyDescent="0.2">
@@ -4687,7 +5225,9 @@
       <c r="M25" s="3">
         <v>3</v>
       </c>
-      <c r="N25" s="3"/>
+      <c r="N25" s="3">
+        <v>3</v>
+      </c>
       <c r="O25" s="3"/>
       <c r="P25" s="3"/>
       <c r="Q25" s="3"/>
@@ -4701,13 +5241,13 @@
       <c r="Y25" s="3"/>
       <c r="Z25" s="3"/>
       <c r="AA25" s="3">
-        <f t="shared" si="0"/>
-        <v>15</v>
+        <f t="shared" si="1"/>
+        <v>18</v>
       </c>
       <c r="AB25" s="3"/>
       <c r="AC25" s="3">
-        <f>SUM(C25:Z25)</f>
-        <v>15</v>
+        <f t="shared" si="0"/>
+        <v>18</v>
       </c>
     </row>
     <row r="26" spans="1:29" x14ac:dyDescent="0.2">
@@ -4720,7 +5260,9 @@
       <c r="C26" s="3">
         <v>3</v>
       </c>
-      <c r="D26" s="3"/>
+      <c r="D26" s="3">
+        <v>7</v>
+      </c>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
@@ -4764,13 +5306,13 @@
       <c r="Y26" s="3"/>
       <c r="Z26" s="3"/>
       <c r="AA26" s="3">
-        <f t="shared" si="0"/>
-        <v>33</v>
+        <f t="shared" si="1"/>
+        <v>40</v>
       </c>
       <c r="AB26" s="3"/>
       <c r="AC26" s="3">
-        <f>SUM(C26:Z26)</f>
-        <v>33</v>
+        <f t="shared" si="0"/>
+        <v>40</v>
       </c>
     </row>
     <row r="27" spans="1:29" x14ac:dyDescent="0.2">
@@ -4783,7 +5325,9 @@
       <c r="C27" s="3">
         <v>3</v>
       </c>
-      <c r="D27" s="3"/>
+      <c r="D27" s="3">
+        <v>7</v>
+      </c>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
@@ -4813,13 +5357,13 @@
       <c r="Y27" s="3"/>
       <c r="Z27" s="3"/>
       <c r="AA27" s="3">
-        <f t="shared" si="0"/>
-        <v>12</v>
+        <f t="shared" si="1"/>
+        <v>19</v>
       </c>
       <c r="AB27" s="3"/>
       <c r="AC27" s="3">
-        <f>SUM(C27:Z27)</f>
-        <v>12</v>
+        <f t="shared" si="0"/>
+        <v>19</v>
       </c>
     </row>
     <row r="28" spans="1:29" x14ac:dyDescent="0.2">
@@ -4832,7 +5376,9 @@
       <c r="C28" s="3">
         <v>3</v>
       </c>
-      <c r="D28" s="3"/>
+      <c r="D28" s="3">
+        <v>7</v>
+      </c>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
@@ -4858,8 +5404,12 @@
       <c r="O28" s="3">
         <v>3</v>
       </c>
-      <c r="P28" s="3"/>
-      <c r="Q28" s="3"/>
+      <c r="P28" s="3">
+        <v>3</v>
+      </c>
+      <c r="Q28" s="3">
+        <v>3</v>
+      </c>
       <c r="R28" s="3"/>
       <c r="S28" s="3"/>
       <c r="T28" s="3"/>
@@ -4870,13 +5420,13 @@
       <c r="Y28" s="3"/>
       <c r="Z28" s="3"/>
       <c r="AA28" s="3">
-        <f t="shared" si="0"/>
-        <v>24</v>
+        <f t="shared" si="1"/>
+        <v>37</v>
       </c>
       <c r="AB28" s="3"/>
       <c r="AC28" s="3">
-        <f>SUM(C28:Z28)</f>
-        <v>24</v>
+        <f t="shared" si="0"/>
+        <v>37</v>
       </c>
     </row>
     <row r="29" spans="1:29" x14ac:dyDescent="0.2">
@@ -4889,7 +5439,9 @@
       <c r="C29" s="3">
         <v>3</v>
       </c>
-      <c r="D29" s="3"/>
+      <c r="D29" s="3">
+        <v>7</v>
+      </c>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
@@ -4912,10 +5464,18 @@
       <c r="N29" s="3">
         <v>3</v>
       </c>
-      <c r="O29" s="3"/>
-      <c r="P29" s="3"/>
-      <c r="Q29" s="3"/>
-      <c r="R29" s="3"/>
+      <c r="O29" s="3">
+        <v>3</v>
+      </c>
+      <c r="P29" s="3">
+        <v>3</v>
+      </c>
+      <c r="Q29" s="3">
+        <v>3</v>
+      </c>
+      <c r="R29" s="3">
+        <v>3</v>
+      </c>
       <c r="S29" s="3"/>
       <c r="T29" s="3"/>
       <c r="U29" s="3"/>
@@ -4925,13 +5485,13 @@
       <c r="Y29" s="3"/>
       <c r="Z29" s="3"/>
       <c r="AA29" s="3">
-        <f t="shared" si="0"/>
-        <v>21</v>
+        <f t="shared" si="1"/>
+        <v>40</v>
       </c>
       <c r="AB29" s="3"/>
       <c r="AC29" s="3">
-        <f>SUM(C29:Z29)</f>
-        <v>21</v>
+        <f t="shared" si="0"/>
+        <v>40</v>
       </c>
     </row>
     <row r="30" spans="1:29" x14ac:dyDescent="0.2">
@@ -4970,9 +5530,15 @@
       <c r="O30" s="3">
         <v>3</v>
       </c>
-      <c r="P30" s="3"/>
-      <c r="Q30" s="3"/>
-      <c r="R30" s="3"/>
+      <c r="P30" s="3">
+        <v>3</v>
+      </c>
+      <c r="Q30" s="3">
+        <v>3</v>
+      </c>
+      <c r="R30" s="3">
+        <v>3</v>
+      </c>
       <c r="S30" s="3"/>
       <c r="T30" s="3"/>
       <c r="U30" s="3"/>
@@ -4982,13 +5548,13 @@
       <c r="Y30" s="3"/>
       <c r="Z30" s="3"/>
       <c r="AA30" s="3">
-        <f t="shared" si="0"/>
-        <v>24</v>
+        <f t="shared" si="1"/>
+        <v>33</v>
       </c>
       <c r="AB30" s="3"/>
       <c r="AC30" s="3">
-        <f>SUM(C30:Z30)</f>
-        <v>24</v>
+        <f t="shared" si="0"/>
+        <v>33</v>
       </c>
     </row>
     <row r="31" spans="1:29" x14ac:dyDescent="0.2">
@@ -5001,7 +5567,9 @@
       <c r="C31" s="3">
         <v>3</v>
       </c>
-      <c r="D31" s="3"/>
+      <c r="D31" s="3">
+        <v>7</v>
+      </c>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
@@ -5039,13 +5607,13 @@
       <c r="Y31" s="3"/>
       <c r="Z31" s="3"/>
       <c r="AA31" s="3">
-        <f t="shared" si="0"/>
-        <v>24</v>
+        <f t="shared" si="1"/>
+        <v>31</v>
       </c>
       <c r="AB31" s="3"/>
       <c r="AC31" s="3">
-        <f>SUM(C31:Z31)</f>
-        <v>24</v>
+        <f t="shared" si="0"/>
+        <v>31</v>
       </c>
     </row>
     <row r="32" spans="1:29" x14ac:dyDescent="0.2">
@@ -5058,7 +5626,9 @@
       <c r="C32" s="3">
         <v>3</v>
       </c>
-      <c r="D32" s="3"/>
+      <c r="D32" s="3">
+        <v>7</v>
+      </c>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
@@ -5087,8 +5657,12 @@
       <c r="P32" s="3">
         <v>3</v>
       </c>
-      <c r="Q32" s="3"/>
-      <c r="R32" s="3"/>
+      <c r="Q32" s="3">
+        <v>3</v>
+      </c>
+      <c r="R32" s="3">
+        <v>3</v>
+      </c>
       <c r="S32" s="3"/>
       <c r="T32" s="3"/>
       <c r="U32" s="3"/>
@@ -5098,13 +5672,13 @@
       <c r="Y32" s="3"/>
       <c r="Z32" s="3"/>
       <c r="AA32" s="3">
-        <f t="shared" si="0"/>
-        <v>27</v>
+        <f t="shared" si="1"/>
+        <v>40</v>
       </c>
       <c r="AB32" s="3"/>
       <c r="AC32" s="3">
-        <f>SUM(C32:Z32)</f>
-        <v>27</v>
+        <f t="shared" si="0"/>
+        <v>40</v>
       </c>
     </row>
     <row r="33" spans="1:29" x14ac:dyDescent="0.2">
@@ -5153,12 +5727,12 @@
       <c r="Y33" s="3"/>
       <c r="Z33" s="3"/>
       <c r="AA33" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>21</v>
       </c>
       <c r="AB33" s="3"/>
       <c r="AC33" s="3">
-        <f>SUM(C33:Z33)</f>
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
     </row>
@@ -5204,7 +5778,9 @@
       <c r="Q34" s="3">
         <v>3</v>
       </c>
-      <c r="R34" s="3"/>
+      <c r="R34" s="3">
+        <v>3</v>
+      </c>
       <c r="S34" s="3"/>
       <c r="T34" s="3"/>
       <c r="U34" s="3"/>
@@ -5214,13 +5790,13 @@
       <c r="Y34" s="3"/>
       <c r="Z34" s="3"/>
       <c r="AA34" s="3">
-        <f t="shared" si="0"/>
-        <v>30</v>
+        <f t="shared" si="1"/>
+        <v>33</v>
       </c>
       <c r="AB34" s="3"/>
       <c r="AC34" s="3">
-        <f>SUM(C34:Z34)</f>
-        <v>30</v>
+        <f t="shared" si="0"/>
+        <v>33</v>
       </c>
     </row>
     <row r="35" spans="1:29" x14ac:dyDescent="0.2">
@@ -5253,8 +5829,12 @@
       </c>
       <c r="N35" s="3"/>
       <c r="O35" s="3"/>
-      <c r="P35" s="3"/>
-      <c r="Q35" s="3"/>
+      <c r="P35" s="3">
+        <v>3</v>
+      </c>
+      <c r="Q35" s="3">
+        <v>3</v>
+      </c>
       <c r="R35" s="3"/>
       <c r="S35" s="3"/>
       <c r="T35" s="3"/>
@@ -5265,13 +5845,13 @@
       <c r="Y35" s="3"/>
       <c r="Z35" s="3"/>
       <c r="AA35" s="3">
-        <f t="shared" si="0"/>
-        <v>15</v>
+        <f t="shared" si="1"/>
+        <v>21</v>
       </c>
       <c r="AB35" s="3"/>
       <c r="AC35" s="3">
-        <f>SUM(C35:Z35)</f>
-        <v>15</v>
+        <f t="shared" si="0"/>
+        <v>21</v>
       </c>
     </row>
     <row r="36" spans="1:29" x14ac:dyDescent="0.2">
@@ -5284,7 +5864,9 @@
       <c r="C36" s="3">
         <v>3</v>
       </c>
-      <c r="D36" s="3"/>
+      <c r="D36" s="3">
+        <v>7</v>
+      </c>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
       <c r="G36" s="3"/>
@@ -5326,13 +5908,13 @@
       <c r="Y36" s="3"/>
       <c r="Z36" s="3"/>
       <c r="AA36" s="3">
-        <f t="shared" si="0"/>
-        <v>30</v>
+        <f t="shared" si="1"/>
+        <v>37</v>
       </c>
       <c r="AB36" s="3"/>
       <c r="AC36" s="3">
-        <f>SUM(C36:Z36)</f>
-        <v>30</v>
+        <f t="shared" si="0"/>
+        <v>37</v>
       </c>
     </row>
     <row r="37" spans="1:29" x14ac:dyDescent="0.2">
@@ -5345,7 +5927,9 @@
       <c r="C37" s="3">
         <v>3</v>
       </c>
-      <c r="D37" s="3"/>
+      <c r="D37" s="3">
+        <v>7</v>
+      </c>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
       <c r="G37" s="3"/>
@@ -5371,9 +5955,15 @@
       <c r="O37" s="3">
         <v>3</v>
       </c>
-      <c r="P37" s="3"/>
-      <c r="Q37" s="3"/>
-      <c r="R37" s="3"/>
+      <c r="P37" s="3">
+        <v>3</v>
+      </c>
+      <c r="Q37" s="3">
+        <v>3</v>
+      </c>
+      <c r="R37" s="3">
+        <v>3</v>
+      </c>
       <c r="S37" s="3"/>
       <c r="T37" s="3"/>
       <c r="U37" s="3"/>
@@ -5383,13 +5973,13 @@
       <c r="Y37" s="3"/>
       <c r="Z37" s="3"/>
       <c r="AA37" s="3">
-        <f t="shared" si="0"/>
-        <v>24</v>
+        <f t="shared" si="1"/>
+        <v>40</v>
       </c>
       <c r="AB37" s="3"/>
       <c r="AC37" s="3">
-        <f>SUM(C37:Z37)</f>
-        <v>24</v>
+        <f t="shared" si="0"/>
+        <v>40</v>
       </c>
     </row>
     <row r="38" spans="1:29" x14ac:dyDescent="0.2">
@@ -5424,12 +6014,12 @@
       <c r="Y38" s="3"/>
       <c r="Z38" s="3"/>
       <c r="AA38" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AB38" s="3"/>
       <c r="AC38" s="3">
-        <f>SUM(C38:Z38)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5443,7 +6033,9 @@
       <c r="C39" s="3">
         <v>3</v>
       </c>
-      <c r="D39" s="3"/>
+      <c r="D39" s="3">
+        <v>7</v>
+      </c>
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
       <c r="G39" s="3"/>
@@ -5479,13 +6071,13 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3">
-        <f t="shared" si="0"/>
-        <v>21</v>
+        <f t="shared" si="1"/>
+        <v>28</v>
       </c>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3">
-        <f>SUM(C39:Z39)</f>
-        <v>21</v>
+        <f t="shared" si="0"/>
+        <v>28</v>
       </c>
     </row>
     <row r="40" spans="1:29" x14ac:dyDescent="0.2">
@@ -5507,8 +6099,12 @@
       <c r="J40" s="3">
         <v>3</v>
       </c>
-      <c r="K40" s="3"/>
-      <c r="L40" s="3"/>
+      <c r="K40" s="3">
+        <v>3</v>
+      </c>
+      <c r="L40" s="3">
+        <v>3</v>
+      </c>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
@@ -5524,13 +6120,13 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3">
-        <f t="shared" si="0"/>
-        <v>6</v>
+        <f t="shared" si="1"/>
+        <v>12</v>
       </c>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3">
-        <f>SUM(C40:Z40)</f>
-        <v>6</v>
+        <f t="shared" si="0"/>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/sem1/СО-ПР-22.xlsx
+++ b/sem1/СО-ПР-22.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thebandik/Library/Mobile Documents/com~apple~CloudDocs/General/Работа/Колледж/GitHub/computer-science/sem1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CB01E8D-BA97-984D-8777-3BF8C9755F4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0AB3FDC-E2FF-8248-9C2B-8A81F6939C38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="2" xr2:uid="{78B3409E-6B57-FA43-BCC4-C09108445BD6}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="843" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="81">
   <si>
     <t>№</t>
   </si>
@@ -367,7 +367,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -403,9 +403,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -786,10 +783,10 @@
   <dimension ref="A1:Z25"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="K2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="J6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="U21" sqref="U21"/>
+      <selection pane="bottomRight" activeCell="W21" sqref="W21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -802,6 +799,8 @@
     <col min="12" max="12" width="6.6640625" style="4" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="6.6640625" bestFit="1" customWidth="1"/>
     <col min="14" max="21" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="6.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="24" max="26" width="10.83203125" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.2">
@@ -868,11 +867,15 @@
       <c r="U1" s="5">
         <v>45219</v>
       </c>
-      <c r="V1" s="1"/>
-      <c r="W1" s="1"/>
-      <c r="X1" s="1"/>
-      <c r="Y1" s="1"/>
-      <c r="Z1" s="1"/>
+      <c r="V1" s="2">
+        <v>45223</v>
+      </c>
+      <c r="W1" s="2">
+        <v>45225</v>
+      </c>
+      <c r="X1" s="3"/>
+      <c r="Y1" s="3"/>
+      <c r="Z1" s="3"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
@@ -935,14 +938,18 @@
       <c r="T2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="U2" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="V2" s="1"/>
-      <c r="W2" s="1"/>
-      <c r="X2" s="1"/>
-      <c r="Y2" s="1"/>
-      <c r="Z2" s="1"/>
+      <c r="U2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="W2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="X2" s="3"/>
+      <c r="Y2" s="3"/>
+      <c r="Z2" s="3"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
@@ -1005,14 +1012,18 @@
       <c r="T3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="U3" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="V3" s="1"/>
-      <c r="W3" s="1"/>
-      <c r="X3" s="1"/>
-      <c r="Y3" s="1"/>
-      <c r="Z3" s="1"/>
+      <c r="U3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="V3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="W3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="X3" s="3"/>
+      <c r="Y3" s="3"/>
+      <c r="Z3" s="3"/>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
@@ -1075,14 +1086,18 @@
       <c r="T4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="U4" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="V4" s="1"/>
-      <c r="W4" s="1"/>
-      <c r="X4" s="1"/>
-      <c r="Y4" s="1"/>
-      <c r="Z4" s="1"/>
+      <c r="U4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="V4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="W4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="X4" s="3"/>
+      <c r="Y4" s="3"/>
+      <c r="Z4" s="3"/>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
@@ -1145,14 +1160,18 @@
       <c r="T5" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="U5" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="V5" s="1"/>
-      <c r="W5" s="1"/>
-      <c r="X5" s="1"/>
-      <c r="Y5" s="1"/>
-      <c r="Z5" s="1"/>
+      <c r="U5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="V5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="W5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="X5" s="3"/>
+      <c r="Y5" s="3"/>
+      <c r="Z5" s="3"/>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
@@ -1215,14 +1234,18 @@
       <c r="T6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="U6" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="V6" s="1"/>
-      <c r="W6" s="1"/>
-      <c r="X6" s="1"/>
-      <c r="Y6" s="1"/>
-      <c r="Z6" s="1"/>
+      <c r="U6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="V6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="W6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="X6" s="3"/>
+      <c r="Y6" s="3"/>
+      <c r="Z6" s="3"/>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
@@ -1285,14 +1308,18 @@
       <c r="T7" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="U7" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="V7" s="1"/>
-      <c r="W7" s="1"/>
-      <c r="X7" s="1"/>
-      <c r="Y7" s="1"/>
-      <c r="Z7" s="1"/>
+      <c r="U7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="V7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="W7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="X7" s="3"/>
+      <c r="Y7" s="3"/>
+      <c r="Z7" s="3"/>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
@@ -1355,14 +1382,18 @@
       <c r="T8" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="U8" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="V8" s="1"/>
-      <c r="W8" s="1"/>
-      <c r="X8" s="1"/>
-      <c r="Y8" s="1"/>
-      <c r="Z8" s="1"/>
+      <c r="U8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="V8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="W8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="X8" s="3"/>
+      <c r="Y8" s="3"/>
+      <c r="Z8" s="3"/>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
@@ -1425,14 +1456,18 @@
       <c r="T9" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="U9" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="V9" s="1"/>
-      <c r="W9" s="1"/>
-      <c r="X9" s="1"/>
-      <c r="Y9" s="1"/>
-      <c r="Z9" s="1"/>
+      <c r="U9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="V9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="W9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="X9" s="3"/>
+      <c r="Y9" s="3"/>
+      <c r="Z9" s="3"/>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
@@ -1495,14 +1530,18 @@
       <c r="T10" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="U10" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="V10" s="1"/>
-      <c r="W10" s="1"/>
-      <c r="X10" s="1"/>
-      <c r="Y10" s="1"/>
-      <c r="Z10" s="1"/>
+      <c r="U10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="V10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="W10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="X10" s="3"/>
+      <c r="Y10" s="3"/>
+      <c r="Z10" s="3"/>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
@@ -1560,19 +1599,23 @@
         <v>12</v>
       </c>
       <c r="S11" s="3" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="T11" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="U11" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="V11" s="1"/>
-      <c r="W11" s="1"/>
-      <c r="X11" s="1"/>
-      <c r="Y11" s="1"/>
-      <c r="Z11" s="1"/>
+      <c r="U11" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="V11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="W11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="X11" s="3"/>
+      <c r="Y11" s="3"/>
+      <c r="Z11" s="3"/>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
@@ -1635,14 +1678,18 @@
       <c r="T12" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="U12" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="V12" s="1"/>
-      <c r="W12" s="1"/>
-      <c r="X12" s="1"/>
-      <c r="Y12" s="1"/>
-      <c r="Z12" s="1"/>
+      <c r="U12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="V12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="W12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="X12" s="3"/>
+      <c r="Y12" s="3"/>
+      <c r="Z12" s="3"/>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
@@ -1705,14 +1752,18 @@
       <c r="T13" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="U13" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="V13" s="1"/>
-      <c r="W13" s="1"/>
-      <c r="X13" s="1"/>
-      <c r="Y13" s="1"/>
-      <c r="Z13" s="1"/>
+      <c r="U13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="V13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="W13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="X13" s="3"/>
+      <c r="Y13" s="3"/>
+      <c r="Z13" s="3"/>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
@@ -1775,14 +1826,18 @@
       <c r="T14" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="U14" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="V14" s="1"/>
-      <c r="W14" s="1"/>
-      <c r="X14" s="1"/>
-      <c r="Y14" s="1"/>
-      <c r="Z14" s="1"/>
+      <c r="U14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="V14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="W14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="X14" s="3"/>
+      <c r="Y14" s="3"/>
+      <c r="Z14" s="3"/>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
@@ -1845,14 +1900,18 @@
       <c r="T15" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="U15" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="V15" s="1"/>
-      <c r="W15" s="1"/>
-      <c r="X15" s="1"/>
-      <c r="Y15" s="1"/>
-      <c r="Z15" s="1"/>
+      <c r="U15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="V15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="W15" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="X15" s="3"/>
+      <c r="Y15" s="3"/>
+      <c r="Z15" s="3"/>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
@@ -1915,14 +1974,18 @@
       <c r="T16" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="U16" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="V16" s="1"/>
-      <c r="W16" s="1"/>
-      <c r="X16" s="1"/>
-      <c r="Y16" s="1"/>
-      <c r="Z16" s="1"/>
+      <c r="U16" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="V16" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="W16" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="X16" s="3"/>
+      <c r="Y16" s="3"/>
+      <c r="Z16" s="3"/>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
@@ -1985,14 +2048,18 @@
       <c r="T17" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="U17" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="V17" s="1"/>
-      <c r="W17" s="1"/>
-      <c r="X17" s="1"/>
-      <c r="Y17" s="1"/>
-      <c r="Z17" s="1"/>
+      <c r="U17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="V17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="W17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="X17" s="3"/>
+      <c r="Y17" s="3"/>
+      <c r="Z17" s="3"/>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
@@ -2055,14 +2122,18 @@
       <c r="T18" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="U18" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="V18" s="1"/>
-      <c r="W18" s="1"/>
-      <c r="X18" s="1"/>
-      <c r="Y18" s="1"/>
-      <c r="Z18" s="1"/>
+      <c r="U18" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="V18" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="W18" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="X18" s="3"/>
+      <c r="Y18" s="3"/>
+      <c r="Z18" s="3"/>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
@@ -2125,14 +2196,18 @@
       <c r="T19" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="U19" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="V19" s="1"/>
-      <c r="W19" s="1"/>
-      <c r="X19" s="1"/>
-      <c r="Y19" s="1"/>
-      <c r="Z19" s="1"/>
+      <c r="U19" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="V19" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="W19" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="X19" s="3"/>
+      <c r="Y19" s="3"/>
+      <c r="Z19" s="3"/>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
@@ -2195,14 +2270,18 @@
       <c r="T20" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="U20" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="V20" s="1"/>
-      <c r="W20" s="1"/>
-      <c r="X20" s="1"/>
-      <c r="Y20" s="1"/>
-      <c r="Z20" s="1"/>
+      <c r="U20" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="V20" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="W20" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="X20" s="3"/>
+      <c r="Y20" s="3"/>
+      <c r="Z20" s="3"/>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C22" s="4"/>
@@ -2237,13 +2316,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F44A87E8-D92E-4B4A-BFC1-FEFAB9CDC28F}">
-  <dimension ref="A1:Y20"/>
+  <dimension ref="A1:AI20"/>
   <sheetViews>
-    <sheetView zoomScale="140" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="161" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="M2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N14" sqref="N14"/>
+      <selection pane="bottomRight" activeCell="Y9" sqref="Y9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2254,7 +2333,9 @@
     <col min="4" max="11" width="6.6640625" bestFit="1" customWidth="1"/>
     <col min="12" max="13" width="6.6640625" style="4" bestFit="1" customWidth="1"/>
     <col min="14" max="19" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="22" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="6.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="24" max="35" width="10.83203125" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.2">
@@ -2321,10 +2402,16 @@
       <c r="U1" s="5">
         <v>45219</v>
       </c>
-      <c r="V1" s="1"/>
-      <c r="W1" s="1"/>
-      <c r="X1" s="1"/>
-      <c r="Y1" s="1"/>
+      <c r="V1" s="2">
+        <v>45223</v>
+      </c>
+      <c r="W1" s="2">
+        <v>45225</v>
+      </c>
+      <c r="X1" s="2">
+        <v>45226</v>
+      </c>
+      <c r="Y1" s="3"/>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
@@ -2387,13 +2474,19 @@
       <c r="T2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="U2" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="V2" s="1"/>
-      <c r="W2" s="1"/>
-      <c r="X2" s="1"/>
-      <c r="Y2" s="1"/>
+      <c r="U2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="W2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="X2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y2" s="3"/>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
@@ -2456,13 +2549,19 @@
       <c r="T3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="U3" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="V3" s="1"/>
-      <c r="W3" s="1"/>
-      <c r="X3" s="1"/>
-      <c r="Y3" s="1"/>
+      <c r="U3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="V3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="W3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="X3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y3" s="3"/>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
@@ -2525,13 +2624,19 @@
       <c r="T4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="U4" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="V4" s="1"/>
-      <c r="W4" s="1"/>
-      <c r="X4" s="1"/>
-      <c r="Y4" s="1"/>
+      <c r="U4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="V4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="W4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="X4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y4" s="3"/>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
@@ -2594,13 +2699,19 @@
       <c r="T5" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="U5" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="V5" s="1"/>
-      <c r="W5" s="1"/>
-      <c r="X5" s="1"/>
-      <c r="Y5" s="1"/>
+      <c r="U5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="V5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="W5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="X5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y5" s="3"/>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
@@ -2663,13 +2774,19 @@
       <c r="T6" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="U6" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="V6" s="1"/>
-      <c r="W6" s="1"/>
-      <c r="X6" s="1"/>
-      <c r="Y6" s="1"/>
+      <c r="U6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="V6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="W6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="X6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y6" s="3"/>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
@@ -2732,13 +2849,19 @@
       <c r="T7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="U7" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="V7" s="1"/>
-      <c r="W7" s="1"/>
-      <c r="X7" s="1"/>
-      <c r="Y7" s="1"/>
+      <c r="U7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="V7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="W7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="X7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y7" s="3"/>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
@@ -2801,13 +2924,19 @@
       <c r="T8" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="U8" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="V8" s="1"/>
-      <c r="W8" s="1"/>
-      <c r="X8" s="1"/>
-      <c r="Y8" s="1"/>
+      <c r="U8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="V8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="W8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="X8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y8" s="3"/>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
@@ -2870,13 +2999,19 @@
       <c r="T9" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="U9" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="V9" s="1"/>
-      <c r="W9" s="1"/>
-      <c r="X9" s="1"/>
-      <c r="Y9" s="1"/>
+      <c r="U9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="V9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="W9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="X9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y9" s="3"/>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
@@ -2939,13 +3074,19 @@
       <c r="T10" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="U10" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="V10" s="1"/>
-      <c r="W10" s="1"/>
-      <c r="X10" s="1"/>
-      <c r="Y10" s="1"/>
+      <c r="U10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="V10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="W10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="X10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y10" s="3"/>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
@@ -3008,13 +3149,19 @@
       <c r="T11" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="U11" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="V11" s="1"/>
-      <c r="W11" s="1"/>
-      <c r="X11" s="1"/>
-      <c r="Y11" s="1"/>
+      <c r="U11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="V11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="W11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="X11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y11" s="3"/>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
@@ -3077,13 +3224,19 @@
       <c r="T12" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="U12" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="V12" s="1"/>
-      <c r="W12" s="1"/>
-      <c r="X12" s="1"/>
-      <c r="Y12" s="1"/>
+      <c r="U12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="V12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="W12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="X12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y12" s="3"/>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
@@ -3146,13 +3299,19 @@
       <c r="T13" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="U13" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="V13" s="1"/>
-      <c r="W13" s="1"/>
-      <c r="X13" s="1"/>
-      <c r="Y13" s="1"/>
+      <c r="U13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="V13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="W13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="X13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y13" s="3"/>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
@@ -3215,13 +3374,19 @@
       <c r="T14" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="U14" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="V14" s="1"/>
-      <c r="W14" s="1"/>
-      <c r="X14" s="1"/>
-      <c r="Y14" s="1"/>
+      <c r="U14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="V14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="W14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="X14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y14" s="3"/>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
@@ -3284,13 +3449,19 @@
       <c r="T15" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="U15" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="V15" s="1"/>
-      <c r="W15" s="1"/>
-      <c r="X15" s="1"/>
-      <c r="Y15" s="1"/>
+      <c r="U15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="V15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="W15" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="X15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y15" s="3"/>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
@@ -3353,13 +3524,19 @@
       <c r="T16" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="U16" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="V16" s="1"/>
-      <c r="W16" s="1"/>
-      <c r="X16" s="1"/>
-      <c r="Y16" s="1"/>
+      <c r="U16" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="V16" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="W16" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="X16" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y16" s="3"/>
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
@@ -3422,13 +3599,19 @@
       <c r="T17" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="U17" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="V17" s="1"/>
-      <c r="W17" s="1"/>
-      <c r="X17" s="1"/>
-      <c r="Y17" s="1"/>
+      <c r="U17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="V17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="W17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="X17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y17" s="3"/>
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
@@ -3491,13 +3674,19 @@
       <c r="T18" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="U18" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="V18" s="1"/>
-      <c r="W18" s="1"/>
-      <c r="X18" s="1"/>
-      <c r="Y18" s="1"/>
+      <c r="U18" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="V18" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="W18" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="X18" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y18" s="3"/>
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
@@ -3560,13 +3749,19 @@
       <c r="T19" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="U19" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="V19" s="1"/>
-      <c r="W19" s="1"/>
-      <c r="X19" s="1"/>
-      <c r="Y19" s="1"/>
+      <c r="U19" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="V19" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="W19" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="X19" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y19" s="3"/>
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
@@ -3629,13 +3824,19 @@
       <c r="T20" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="U20" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="V20" s="1"/>
-      <c r="W20" s="1"/>
-      <c r="X20" s="1"/>
-      <c r="Y20" s="1"/>
+      <c r="U20" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="V20" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="W20" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="X20" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y20" s="3"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:XFD20">
@@ -3657,11 +3858,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39845E33-B198-1749-A96D-46C57A0F57AA}">
   <dimension ref="A1:AF40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="133" zoomScaleNormal="150" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="X10" sqref="X10"/>
+      <selection pane="bottomRight" activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3870,8 +4071,12 @@
       <c r="R3" s="3">
         <v>3</v>
       </c>
-      <c r="S3" s="3"/>
-      <c r="T3" s="3"/>
+      <c r="S3" s="3">
+        <v>3</v>
+      </c>
+      <c r="T3" s="3">
+        <v>3</v>
+      </c>
       <c r="U3" s="3"/>
       <c r="V3" s="3"/>
       <c r="W3" s="3"/>
@@ -3885,7 +4090,7 @@
       <c r="AB3" s="3"/>
       <c r="AC3" s="3">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="AE3" s="3" t="s">
         <v>75</v>
@@ -3907,7 +4112,9 @@
       <c r="D4" s="3">
         <v>7</v>
       </c>
-      <c r="E4" s="3"/>
+      <c r="E4" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
@@ -3941,8 +4148,12 @@
       <c r="R4" s="3">
         <v>3</v>
       </c>
-      <c r="S4" s="3"/>
-      <c r="T4" s="3"/>
+      <c r="S4" s="3">
+        <v>3</v>
+      </c>
+      <c r="T4" s="3">
+        <v>3</v>
+      </c>
       <c r="U4" s="3"/>
       <c r="V4" s="3"/>
       <c r="W4" s="3"/>
@@ -3956,7 +4167,7 @@
       <c r="AB4" s="3"/>
       <c r="AC4" s="3">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="AE4" s="3" t="s">
         <v>69</v>
@@ -3978,7 +4189,9 @@
       <c r="D5" s="3">
         <v>9</v>
       </c>
-      <c r="E5" s="3"/>
+      <c r="E5" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
@@ -4012,8 +4225,12 @@
       <c r="R5" s="3">
         <v>3</v>
       </c>
-      <c r="S5" s="3"/>
-      <c r="T5" s="3"/>
+      <c r="S5" s="3">
+        <v>3</v>
+      </c>
+      <c r="T5" s="3">
+        <v>3</v>
+      </c>
       <c r="U5" s="3"/>
       <c r="V5" s="3"/>
       <c r="W5" s="3"/>
@@ -4027,7 +4244,7 @@
       <c r="AB5" s="3"/>
       <c r="AC5" s="3">
         <f t="shared" si="0"/>
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="AE5" s="3" t="s">
         <v>70</v>
@@ -4059,7 +4276,9 @@
       <c r="J6" s="3">
         <v>3</v>
       </c>
-      <c r="K6" s="3"/>
+      <c r="K6" s="3">
+        <v>3</v>
+      </c>
       <c r="L6" s="3">
         <v>3</v>
       </c>
@@ -4072,15 +4291,21 @@
       <c r="O6" s="3">
         <v>3</v>
       </c>
-      <c r="P6" s="3"/>
+      <c r="P6" s="3">
+        <v>3</v>
+      </c>
       <c r="Q6" s="3">
         <v>3</v>
       </c>
       <c r="R6" s="3">
-        <v>2</v>
-      </c>
-      <c r="S6" s="3"/>
-      <c r="T6" s="3"/>
+        <v>3</v>
+      </c>
+      <c r="S6" s="3">
+        <v>3</v>
+      </c>
+      <c r="T6" s="3">
+        <v>3</v>
+      </c>
       <c r="U6" s="3"/>
       <c r="V6" s="3"/>
       <c r="W6" s="3"/>
@@ -4089,12 +4314,12 @@
       <c r="Z6" s="3"/>
       <c r="AA6" s="3">
         <f t="shared" si="1"/>
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="AB6" s="3"/>
       <c r="AC6" s="3">
         <f t="shared" si="0"/>
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="AE6" s="3" t="s">
         <v>71</v>
@@ -4274,8 +4499,12 @@
       <c r="R9" s="3">
         <v>3</v>
       </c>
-      <c r="S9" s="3"/>
-      <c r="T9" s="3"/>
+      <c r="S9" s="3">
+        <v>3</v>
+      </c>
+      <c r="T9" s="3">
+        <v>3</v>
+      </c>
       <c r="U9" s="3"/>
       <c r="V9" s="3"/>
       <c r="W9" s="3"/>
@@ -4289,7 +4518,7 @@
       <c r="AB9" s="3"/>
       <c r="AC9" s="3">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="AE9" s="3" t="s">
         <v>74</v>
@@ -4343,8 +4572,12 @@
       <c r="R10" s="3">
         <v>3</v>
       </c>
-      <c r="S10" s="3"/>
-      <c r="T10" s="3"/>
+      <c r="S10" s="3">
+        <v>3</v>
+      </c>
+      <c r="T10" s="3">
+        <v>3</v>
+      </c>
       <c r="U10" s="3"/>
       <c r="V10" s="3"/>
       <c r="W10" s="3"/>
@@ -4358,7 +4591,7 @@
       <c r="AB10" s="3"/>
       <c r="AC10" s="3">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:32" x14ac:dyDescent="0.2">
@@ -4431,7 +4664,9 @@
         <v>3</v>
       </c>
       <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
+      <c r="E12" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
@@ -4455,8 +4690,12 @@
       </c>
       <c r="O12" s="3"/>
       <c r="P12" s="3"/>
-      <c r="Q12" s="3"/>
-      <c r="R12" s="3"/>
+      <c r="Q12" s="3">
+        <v>3</v>
+      </c>
+      <c r="R12" s="3">
+        <v>3</v>
+      </c>
       <c r="S12" s="3"/>
       <c r="T12" s="3"/>
       <c r="U12" s="3"/>
@@ -4467,12 +4706,12 @@
       <c r="Z12" s="3"/>
       <c r="AA12" s="3">
         <f t="shared" si="1"/>
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="AB12" s="3"/>
       <c r="AC12" s="3">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:32" x14ac:dyDescent="0.2">
@@ -4488,7 +4727,9 @@
       <c r="D13" s="3">
         <v>7</v>
       </c>
-      <c r="E13" s="3"/>
+      <c r="E13" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
@@ -4560,8 +4801,12 @@
       <c r="K14" s="3">
         <v>3</v>
       </c>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
+      <c r="L14" s="3">
+        <v>3</v>
+      </c>
+      <c r="M14" s="3">
+        <v>3</v>
+      </c>
       <c r="N14" s="3"/>
       <c r="O14" s="3"/>
       <c r="P14" s="3"/>
@@ -4577,12 +4822,12 @@
       <c r="Z14" s="3"/>
       <c r="AA14" s="3">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="AB14" s="3"/>
       <c r="AC14" s="3">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:32" x14ac:dyDescent="0.2">
@@ -4697,7 +4942,9 @@
       <c r="R16" s="3">
         <v>3</v>
       </c>
-      <c r="S16" s="3"/>
+      <c r="S16" s="3">
+        <v>3</v>
+      </c>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
@@ -4712,7 +4959,7 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:29" x14ac:dyDescent="0.2">
@@ -4899,7 +5146,9 @@
       <c r="D20" s="3">
         <v>7</v>
       </c>
-      <c r="E20" s="3"/>
+      <c r="E20" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
@@ -4933,8 +5182,12 @@
       <c r="R20" s="3">
         <v>3</v>
       </c>
-      <c r="S20" s="3"/>
-      <c r="T20" s="3"/>
+      <c r="S20" s="3">
+        <v>3</v>
+      </c>
+      <c r="T20" s="3">
+        <v>3</v>
+      </c>
       <c r="U20" s="3"/>
       <c r="V20" s="3"/>
       <c r="W20" s="3"/>
@@ -4948,7 +5201,7 @@
       <c r="AB20" s="3"/>
       <c r="AC20" s="3">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:29" x14ac:dyDescent="0.2">
@@ -5088,7 +5341,9 @@
         <v>3</v>
       </c>
       <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
+      <c r="E23" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
@@ -5228,7 +5483,9 @@
       <c r="N25" s="3">
         <v>3</v>
       </c>
-      <c r="O25" s="3"/>
+      <c r="O25" s="3">
+        <v>3</v>
+      </c>
       <c r="P25" s="3"/>
       <c r="Q25" s="3"/>
       <c r="R25" s="3"/>
@@ -5242,12 +5499,12 @@
       <c r="Z25" s="3"/>
       <c r="AA25" s="3">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AB25" s="3"/>
       <c r="AC25" s="3">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" spans="1:29" x14ac:dyDescent="0.2">
@@ -5297,8 +5554,12 @@
       <c r="R26" s="3">
         <v>3</v>
       </c>
-      <c r="S26" s="3"/>
-      <c r="T26" s="3"/>
+      <c r="S26" s="3">
+        <v>3</v>
+      </c>
+      <c r="T26" s="3">
+        <v>3</v>
+      </c>
       <c r="U26" s="3"/>
       <c r="V26" s="3"/>
       <c r="W26" s="3"/>
@@ -5312,7 +5573,7 @@
       <c r="AB26" s="3"/>
       <c r="AC26" s="3">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>46</v>
       </c>
     </row>
     <row r="27" spans="1:29" x14ac:dyDescent="0.2">
@@ -5379,7 +5640,9 @@
       <c r="D28" s="3">
         <v>7</v>
       </c>
-      <c r="E28" s="3"/>
+      <c r="E28" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
@@ -5442,7 +5705,9 @@
       <c r="D29" s="3">
         <v>7</v>
       </c>
-      <c r="E29" s="3"/>
+      <c r="E29" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
@@ -5504,7 +5769,9 @@
       <c r="C30" s="3">
         <v>3</v>
       </c>
-      <c r="D30" s="3"/>
+      <c r="D30" s="3">
+        <v>7</v>
+      </c>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
@@ -5549,12 +5816,12 @@
       <c r="Z30" s="3"/>
       <c r="AA30" s="3">
         <f t="shared" si="1"/>
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="AB30" s="3"/>
       <c r="AC30" s="3">
         <f t="shared" si="0"/>
-        <v>33</v>
+        <v>40</v>
       </c>
     </row>
     <row r="31" spans="1:29" x14ac:dyDescent="0.2">
@@ -5629,7 +5896,9 @@
       <c r="D32" s="3">
         <v>7</v>
       </c>
-      <c r="E32" s="3"/>
+      <c r="E32" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>
@@ -5715,7 +5984,9 @@
       <c r="O33" s="3">
         <v>3</v>
       </c>
-      <c r="P33" s="3"/>
+      <c r="P33" s="3">
+        <v>3</v>
+      </c>
       <c r="Q33" s="3"/>
       <c r="R33" s="3"/>
       <c r="S33" s="3"/>
@@ -5728,12 +5999,12 @@
       <c r="Z33" s="3"/>
       <c r="AA33" s="3">
         <f t="shared" si="1"/>
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AB33" s="3"/>
       <c r="AC33" s="3">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="34" spans="1:29" x14ac:dyDescent="0.2">
@@ -5781,8 +6052,12 @@
       <c r="R34" s="3">
         <v>3</v>
       </c>
-      <c r="S34" s="3"/>
-      <c r="T34" s="3"/>
+      <c r="S34" s="3">
+        <v>3</v>
+      </c>
+      <c r="T34" s="3">
+        <v>3</v>
+      </c>
       <c r="U34" s="3"/>
       <c r="V34" s="3"/>
       <c r="W34" s="3"/>
@@ -5796,7 +6071,7 @@
       <c r="AB34" s="3"/>
       <c r="AC34" s="3">
         <f t="shared" si="0"/>
-        <v>33</v>
+        <v>39</v>
       </c>
     </row>
     <row r="35" spans="1:29" x14ac:dyDescent="0.2">
@@ -5820,7 +6095,9 @@
       <c r="J35" s="3">
         <v>3</v>
       </c>
-      <c r="K35" s="3"/>
+      <c r="K35" s="3">
+        <v>3</v>
+      </c>
       <c r="L35" s="3">
         <v>3</v>
       </c>
@@ -5835,7 +6112,9 @@
       <c r="Q35" s="3">
         <v>3</v>
       </c>
-      <c r="R35" s="3"/>
+      <c r="R35" s="3">
+        <v>3</v>
+      </c>
       <c r="S35" s="3"/>
       <c r="T35" s="3"/>
       <c r="U35" s="3"/>
@@ -5846,12 +6125,12 @@
       <c r="Z35" s="3"/>
       <c r="AA35" s="3">
         <f t="shared" si="1"/>
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="AB35" s="3"/>
       <c r="AC35" s="3">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="36" spans="1:29" x14ac:dyDescent="0.2">
@@ -5930,7 +6209,9 @@
       <c r="D37" s="3">
         <v>7</v>
       </c>
-      <c r="E37" s="3"/>
+      <c r="E37" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="F37" s="3"/>
       <c r="G37" s="3"/>
       <c r="H37" s="3"/>

--- a/sem1/СО-ПР-22.xlsx
+++ b/sem1/СО-ПР-22.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thebandik/Library/Mobile Documents/com~apple~CloudDocs/General/Работа/Колледж/GitHub/computer-science/sem1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0AB3FDC-E2FF-8248-9C2B-8A81F6939C38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE82D305-3A0F-D944-ADE9-CA5AE96E1297}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="2" xr2:uid="{78B3409E-6B57-FA43-BCC4-C09108445BD6}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="967" uniqueCount="81">
   <si>
     <t>№</t>
   </si>
@@ -783,7 +783,7 @@
   <dimension ref="A1:Z25"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="J6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="W21" sqref="W21"/>
@@ -2319,10 +2319,10 @@
   <dimension ref="A1:AI20"/>
   <sheetViews>
     <sheetView zoomScale="161" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="M2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="L2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Y9" sqref="Y9"/>
+      <selection pane="bottomRight" activeCell="Z7" sqref="Z7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2335,7 +2335,8 @@
     <col min="14" max="19" width="6.5" bestFit="1" customWidth="1"/>
     <col min="20" max="22" width="6.6640625" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="6.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="24" max="35" width="10.83203125" style="4"/>
+    <col min="24" max="25" width="6.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="26" max="35" width="10.83203125" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.2">
@@ -2411,7 +2412,9 @@
       <c r="X1" s="2">
         <v>45226</v>
       </c>
-      <c r="Y1" s="3"/>
+      <c r="Y1" s="2">
+        <v>45230</v>
+      </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
@@ -2486,7 +2489,9 @@
       <c r="X2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="Y2" s="3"/>
+      <c r="Y2" s="3" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
@@ -2561,7 +2566,9 @@
       <c r="X3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="Y3" s="3"/>
+      <c r="Y3" s="3" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
@@ -2636,7 +2643,9 @@
       <c r="X4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="Y4" s="3"/>
+      <c r="Y4" s="3" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
@@ -2711,7 +2720,9 @@
       <c r="X5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="Y5" s="3"/>
+      <c r="Y5" s="3" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
@@ -2786,7 +2797,9 @@
       <c r="X6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="Y6" s="3"/>
+      <c r="Y6" s="3" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
@@ -2861,7 +2874,9 @@
       <c r="X7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="Y7" s="3"/>
+      <c r="Y7" s="3" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
@@ -2936,7 +2951,9 @@
       <c r="X8" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="Y8" s="3"/>
+      <c r="Y8" s="3" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
@@ -3011,7 +3028,9 @@
       <c r="X9" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="Y9" s="3"/>
+      <c r="Y9" s="3" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
@@ -3086,7 +3105,9 @@
       <c r="X10" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="Y10" s="3"/>
+      <c r="Y10" s="3" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
@@ -3161,7 +3182,9 @@
       <c r="X11" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="Y11" s="3"/>
+      <c r="Y11" s="3" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
@@ -3236,7 +3259,9 @@
       <c r="X12" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="Y12" s="3"/>
+      <c r="Y12" s="3" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
@@ -3311,7 +3336,9 @@
       <c r="X13" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="Y13" s="3"/>
+      <c r="Y13" s="3" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
@@ -3386,7 +3413,9 @@
       <c r="X14" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="Y14" s="3"/>
+      <c r="Y14" s="3" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
@@ -3461,7 +3490,9 @@
       <c r="X15" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="Y15" s="3"/>
+      <c r="Y15" s="3" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
@@ -3536,7 +3567,9 @@
       <c r="X16" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="Y16" s="3"/>
+      <c r="Y16" s="3" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
@@ -3611,7 +3644,9 @@
       <c r="X17" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="Y17" s="3"/>
+      <c r="Y17" s="3" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
@@ -3686,7 +3721,9 @@
       <c r="X18" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="Y18" s="3"/>
+      <c r="Y18" s="3" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
@@ -3761,7 +3798,9 @@
       <c r="X19" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="Y19" s="3"/>
+      <c r="Y19" s="3" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
@@ -3836,7 +3875,9 @@
       <c r="X20" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="Y20" s="3"/>
+      <c r="Y20" s="3" t="s">
+        <v>14</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:XFD20">
@@ -3859,10 +3900,10 @@
   <dimension ref="A1:AF40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C17" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J28" sqref="J28"/>
+      <selection pane="bottomRight" activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4077,7 +4118,9 @@
       <c r="T3" s="3">
         <v>3</v>
       </c>
-      <c r="U3" s="3"/>
+      <c r="U3" s="3">
+        <v>3</v>
+      </c>
       <c r="V3" s="3"/>
       <c r="W3" s="3"/>
       <c r="X3" s="3"/>
@@ -4090,7 +4133,7 @@
       <c r="AB3" s="3"/>
       <c r="AC3" s="3">
         <f t="shared" si="0"/>
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="AE3" s="3" t="s">
         <v>75</v>
@@ -4154,7 +4197,9 @@
       <c r="T4" s="3">
         <v>3</v>
       </c>
-      <c r="U4" s="3"/>
+      <c r="U4" s="3">
+        <v>3</v>
+      </c>
       <c r="V4" s="3"/>
       <c r="W4" s="3"/>
       <c r="X4" s="3"/>
@@ -4167,7 +4212,7 @@
       <c r="AB4" s="3"/>
       <c r="AC4" s="3">
         <f t="shared" si="0"/>
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="AE4" s="3" t="s">
         <v>69</v>
@@ -5188,7 +5233,9 @@
       <c r="T20" s="3">
         <v>3</v>
       </c>
-      <c r="U20" s="3"/>
+      <c r="U20" s="3">
+        <v>3</v>
+      </c>
       <c r="V20" s="3"/>
       <c r="W20" s="3"/>
       <c r="X20" s="3"/>
@@ -5201,7 +5248,7 @@
       <c r="AB20" s="3"/>
       <c r="AC20" s="3">
         <f t="shared" si="0"/>
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="21" spans="1:29" x14ac:dyDescent="0.2">
@@ -5434,9 +5481,15 @@
       <c r="R24" s="3">
         <v>3</v>
       </c>
-      <c r="S24" s="3"/>
-      <c r="T24" s="3"/>
-      <c r="U24" s="3"/>
+      <c r="S24" s="3">
+        <v>3</v>
+      </c>
+      <c r="T24" s="3">
+        <v>3</v>
+      </c>
+      <c r="U24" s="3">
+        <v>3</v>
+      </c>
       <c r="V24" s="3"/>
       <c r="W24" s="3"/>
       <c r="X24" s="3"/>
@@ -5449,7 +5502,7 @@
       <c r="AB24" s="3"/>
       <c r="AC24" s="3">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>49</v>
       </c>
     </row>
     <row r="25" spans="1:29" x14ac:dyDescent="0.2">
@@ -5487,8 +5540,12 @@
         <v>3</v>
       </c>
       <c r="P25" s="3"/>
-      <c r="Q25" s="3"/>
-      <c r="R25" s="3"/>
+      <c r="Q25" s="3">
+        <v>3</v>
+      </c>
+      <c r="R25" s="3">
+        <v>3</v>
+      </c>
       <c r="S25" s="3"/>
       <c r="T25" s="3"/>
       <c r="U25" s="3"/>
@@ -5499,12 +5556,12 @@
       <c r="Z25" s="3"/>
       <c r="AA25" s="3">
         <f t="shared" si="1"/>
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="AB25" s="3"/>
       <c r="AC25" s="3">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="26" spans="1:29" x14ac:dyDescent="0.2">
@@ -5560,7 +5617,9 @@
       <c r="T26" s="3">
         <v>3</v>
       </c>
-      <c r="U26" s="3"/>
+      <c r="U26" s="3">
+        <v>3</v>
+      </c>
       <c r="V26" s="3"/>
       <c r="W26" s="3"/>
       <c r="X26" s="3"/>
@@ -5573,7 +5632,7 @@
       <c r="AB26" s="3"/>
       <c r="AC26" s="3">
         <f t="shared" si="0"/>
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="27" spans="1:29" x14ac:dyDescent="0.2">

--- a/sem1/СО-ПР-22.xlsx
+++ b/sem1/СО-ПР-22.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thebandik/Library/Mobile Documents/com~apple~CloudDocs/General/Работа/Колледж/GitHub/computer-science/sem1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE82D305-3A0F-D944-ADE9-CA5AE96E1297}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7BFB3F8-FFF2-764C-B1E3-93CBCF09E0B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="2" xr2:uid="{78B3409E-6B57-FA43-BCC4-C09108445BD6}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="13900" xr2:uid="{78B3409E-6B57-FA43-BCC4-C09108445BD6}"/>
   </bookViews>
   <sheets>
     <sheet name="Посещаемость 1" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="967" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1029" uniqueCount="81">
   <si>
     <t>№</t>
   </si>
@@ -782,11 +782,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4215EFA8-B92E-4C45-9535-33FF4C7A518F}">
   <dimension ref="A1:Z25"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="O2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="W21" sqref="W21"/>
+      <selection pane="bottomRight" activeCell="Y7" sqref="Y7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -799,8 +799,9 @@
     <col min="12" max="12" width="6.6640625" style="4" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="6.6640625" bestFit="1" customWidth="1"/>
     <col min="14" max="21" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="6.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="24" max="26" width="10.83203125" style="4"/>
+    <col min="22" max="24" width="6.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="6.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="10.83203125" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.2">
@@ -873,8 +874,12 @@
       <c r="W1" s="2">
         <v>45225</v>
       </c>
-      <c r="X1" s="3"/>
-      <c r="Y1" s="3"/>
+      <c r="X1" s="2">
+        <v>45230</v>
+      </c>
+      <c r="Y1" s="2">
+        <v>45232</v>
+      </c>
       <c r="Z1" s="3"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.2">
@@ -947,8 +952,12 @@
       <c r="W2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="X2" s="3"/>
-      <c r="Y2" s="3"/>
+      <c r="X2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y2" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="Z2" s="3"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.2">
@@ -1021,8 +1030,12 @@
       <c r="W3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="X3" s="3"/>
-      <c r="Y3" s="3"/>
+      <c r="X3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y3" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="Z3" s="3"/>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.2">
@@ -1095,8 +1108,12 @@
       <c r="W4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="X4" s="3"/>
-      <c r="Y4" s="3"/>
+      <c r="X4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y4" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="Z4" s="3"/>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.2">
@@ -1169,8 +1186,12 @@
       <c r="W5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="X5" s="3"/>
-      <c r="Y5" s="3"/>
+      <c r="X5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y5" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="Z5" s="3"/>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.2">
@@ -1243,8 +1264,12 @@
       <c r="W6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="X6" s="3"/>
-      <c r="Y6" s="3"/>
+      <c r="X6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y6" s="3" t="s">
+        <v>40</v>
+      </c>
       <c r="Z6" s="3"/>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.2">
@@ -1317,8 +1342,12 @@
       <c r="W7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="X7" s="3"/>
-      <c r="Y7" s="3"/>
+      <c r="X7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y7" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="Z7" s="3"/>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.2">
@@ -1391,8 +1420,12 @@
       <c r="W8" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="X8" s="3"/>
-      <c r="Y8" s="3"/>
+      <c r="X8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y8" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="Z8" s="3"/>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.2">
@@ -1465,8 +1498,12 @@
       <c r="W9" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="X9" s="3"/>
-      <c r="Y9" s="3"/>
+      <c r="X9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y9" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="Z9" s="3"/>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.2">
@@ -1539,8 +1576,12 @@
       <c r="W10" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="X10" s="3"/>
-      <c r="Y10" s="3"/>
+      <c r="X10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y10" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="Z10" s="3"/>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.2">
@@ -1613,8 +1654,12 @@
       <c r="W11" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="X11" s="3"/>
-      <c r="Y11" s="3"/>
+      <c r="X11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y11" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="Z11" s="3"/>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.2">
@@ -1687,8 +1732,12 @@
       <c r="W12" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="X12" s="3"/>
-      <c r="Y12" s="3"/>
+      <c r="X12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y12" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="Z12" s="3"/>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.2">
@@ -1761,8 +1810,12 @@
       <c r="W13" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="X13" s="3"/>
-      <c r="Y13" s="3"/>
+      <c r="X13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y13" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="Z13" s="3"/>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.2">
@@ -1835,8 +1888,12 @@
       <c r="W14" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="X14" s="3"/>
-      <c r="Y14" s="3"/>
+      <c r="X14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y14" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="Z14" s="3"/>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.2">
@@ -1909,8 +1966,12 @@
       <c r="W15" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="X15" s="3"/>
-      <c r="Y15" s="3"/>
+      <c r="X15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y15" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="Z15" s="3"/>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.2">
@@ -1983,8 +2044,12 @@
       <c r="W16" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="X16" s="3"/>
-      <c r="Y16" s="3"/>
+      <c r="X16" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y16" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="Z16" s="3"/>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.2">
@@ -2057,8 +2122,12 @@
       <c r="W17" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="X17" s="3"/>
-      <c r="Y17" s="3"/>
+      <c r="X17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y17" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="Z17" s="3"/>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.2">
@@ -2131,8 +2200,12 @@
       <c r="W18" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="X18" s="3"/>
-      <c r="Y18" s="3"/>
+      <c r="X18" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y18" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="Z18" s="3"/>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.2">
@@ -2205,8 +2278,12 @@
       <c r="W19" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="X19" s="3"/>
-      <c r="Y19" s="3"/>
+      <c r="X19" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y19" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="Z19" s="3"/>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.2">
@@ -2279,8 +2356,12 @@
       <c r="W20" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="X20" s="3"/>
-      <c r="Y20" s="3"/>
+      <c r="X20" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y20" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="Z20" s="3"/>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.2">
@@ -2319,10 +2400,10 @@
   <dimension ref="A1:AI20"/>
   <sheetViews>
     <sheetView zoomScale="161" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="L2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="R7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Z7" sqref="Z7"/>
+      <selection pane="bottomRight" activeCell="Z20" sqref="Z20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2336,10 +2417,11 @@
     <col min="20" max="22" width="6.6640625" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="6.6640625" style="4" bestFit="1" customWidth="1"/>
     <col min="24" max="25" width="6.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="26" max="35" width="10.83203125" style="4"/>
+    <col min="26" max="26" width="6.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="27" max="35" width="10.83203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2415,8 +2497,15 @@
       <c r="Y1" s="2">
         <v>45230</v>
       </c>
-    </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z1" s="2">
+        <v>45232</v>
+      </c>
+      <c r="AA1" s="3"/>
+      <c r="AB1" s="3"/>
+      <c r="AC1" s="3"/>
+      <c r="AD1" s="3"/>
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2492,8 +2581,15 @@
       <c r="Y2" s="3" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA2" s="3"/>
+      <c r="AB2" s="3"/>
+      <c r="AC2" s="3"/>
+      <c r="AD2" s="3"/>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -2569,8 +2665,15 @@
       <c r="Y3" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA3" s="3"/>
+      <c r="AB3" s="3"/>
+      <c r="AC3" s="3"/>
+      <c r="AD3" s="3"/>
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -2646,8 +2749,15 @@
       <c r="Y4" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA4" s="3"/>
+      <c r="AB4" s="3"/>
+      <c r="AC4" s="3"/>
+      <c r="AD4" s="3"/>
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -2721,10 +2831,17 @@
         <v>12</v>
       </c>
       <c r="Y5" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+      <c r="Z5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA5" s="3"/>
+      <c r="AB5" s="3"/>
+      <c r="AC5" s="3"/>
+      <c r="AD5" s="3"/>
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -2800,8 +2917,15 @@
       <c r="Y6" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA6" s="3"/>
+      <c r="AB6" s="3"/>
+      <c r="AC6" s="3"/>
+      <c r="AD6" s="3"/>
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -2877,8 +3001,15 @@
       <c r="Y7" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA7" s="3"/>
+      <c r="AB7" s="3"/>
+      <c r="AC7" s="3"/>
+      <c r="AD7" s="3"/>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -2954,8 +3085,15 @@
       <c r="Y8" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA8" s="3"/>
+      <c r="AB8" s="3"/>
+      <c r="AC8" s="3"/>
+      <c r="AD8" s="3"/>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -3031,8 +3169,15 @@
       <c r="Y9" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA9" s="3"/>
+      <c r="AB9" s="3"/>
+      <c r="AC9" s="3"/>
+      <c r="AD9" s="3"/>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -3108,8 +3253,15 @@
       <c r="Y10" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA10" s="3"/>
+      <c r="AB10" s="3"/>
+      <c r="AC10" s="3"/>
+      <c r="AD10" s="3"/>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -3185,8 +3337,15 @@
       <c r="Y11" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA11" s="3"/>
+      <c r="AB11" s="3"/>
+      <c r="AC11" s="3"/>
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -3262,8 +3421,15 @@
       <c r="Y12" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA12" s="3"/>
+      <c r="AB12" s="3"/>
+      <c r="AC12" s="3"/>
+      <c r="AD12" s="3"/>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -3339,8 +3505,15 @@
       <c r="Y13" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA13" s="3"/>
+      <c r="AB13" s="3"/>
+      <c r="AC13" s="3"/>
+      <c r="AD13" s="3"/>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -3416,8 +3589,15 @@
       <c r="Y14" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA14" s="3"/>
+      <c r="AB14" s="3"/>
+      <c r="AC14" s="3"/>
+      <c r="AD14" s="3"/>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -3493,8 +3673,15 @@
       <c r="Y15" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA15" s="3"/>
+      <c r="AB15" s="3"/>
+      <c r="AC15" s="3"/>
+      <c r="AD15" s="3"/>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -3570,8 +3757,15 @@
       <c r="Y16" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA16" s="3"/>
+      <c r="AB16" s="3"/>
+      <c r="AC16" s="3"/>
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -3647,8 +3841,15 @@
       <c r="Y17" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z17" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA17" s="3"/>
+      <c r="AB17" s="3"/>
+      <c r="AC17" s="3"/>
+      <c r="AD17" s="3"/>
+    </row>
+    <row r="18" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -3724,8 +3925,15 @@
       <c r="Y18" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z18" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA18" s="3"/>
+      <c r="AB18" s="3"/>
+      <c r="AC18" s="3"/>
+      <c r="AD18" s="3"/>
+    </row>
+    <row r="19" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -3801,8 +4009,15 @@
       <c r="Y19" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA19" s="3"/>
+      <c r="AB19" s="3"/>
+      <c r="AC19" s="3"/>
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -3878,6 +4093,13 @@
       <c r="Y20" s="3" t="s">
         <v>14</v>
       </c>
+      <c r="Z20" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA20" s="3"/>
+      <c r="AB20" s="3"/>
+      <c r="AC20" s="3"/>
+      <c r="AD20" s="3"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:XFD20">
@@ -3899,11 +4121,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39845E33-B198-1749-A96D-46C57A0F57AA}">
   <dimension ref="A1:AF40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L10" sqref="L10"/>
+      <selection pane="bottomRight" activeCell="T31" sqref="T31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4441,7 +4663,9 @@
       <c r="D8" s="3">
         <v>7</v>
       </c>
-      <c r="E8" s="3"/>
+      <c r="E8" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
@@ -4805,7 +5029,9 @@
       </c>
       <c r="R13" s="3"/>
       <c r="S13" s="3"/>
-      <c r="T13" s="3"/>
+      <c r="T13" s="3">
+        <v>3</v>
+      </c>
       <c r="U13" s="3"/>
       <c r="V13" s="3"/>
       <c r="W13" s="3"/>
@@ -4819,7 +5045,7 @@
       <c r="AB13" s="3"/>
       <c r="AC13" s="3">
         <f t="shared" si="0"/>
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:32" x14ac:dyDescent="0.2">
@@ -4922,7 +5148,9 @@
       <c r="R15" s="3">
         <v>3</v>
       </c>
-      <c r="S15" s="3"/>
+      <c r="S15" s="3">
+        <v>3</v>
+      </c>
       <c r="T15" s="3"/>
       <c r="U15" s="3"/>
       <c r="V15" s="3"/>
@@ -4937,7 +5165,7 @@
       <c r="AB15" s="3"/>
       <c r="AC15" s="3">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:32" x14ac:dyDescent="0.2">
@@ -4953,7 +5181,9 @@
       <c r="D16" s="3">
         <v>7</v>
       </c>
-      <c r="E16" s="3"/>
+      <c r="E16" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
@@ -4990,7 +5220,9 @@
       <c r="S16" s="3">
         <v>3</v>
       </c>
-      <c r="T16" s="3"/>
+      <c r="T16" s="3">
+        <v>3</v>
+      </c>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
@@ -5004,7 +5236,7 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3">
         <f t="shared" si="0"/>
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:29" x14ac:dyDescent="0.2">
@@ -5264,7 +5496,9 @@
       <c r="D21" s="3">
         <v>7</v>
       </c>
-      <c r="E21" s="3"/>
+      <c r="E21" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
@@ -5329,7 +5563,9 @@
       <c r="D22" s="3">
         <v>7</v>
       </c>
-      <c r="E22" s="3"/>
+      <c r="E22" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
@@ -5357,7 +5593,9 @@
       <c r="P22" s="3">
         <v>3</v>
       </c>
-      <c r="Q22" s="3"/>
+      <c r="Q22" s="3">
+        <v>3</v>
+      </c>
       <c r="R22" s="3"/>
       <c r="S22" s="3"/>
       <c r="T22" s="3"/>
@@ -5369,12 +5607,12 @@
       <c r="Z22" s="3"/>
       <c r="AA22" s="3">
         <f t="shared" si="1"/>
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="AB22" s="3"/>
       <c r="AC22" s="3">
         <f t="shared" si="0"/>
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:29" x14ac:dyDescent="0.2">
@@ -5865,8 +6103,12 @@
       <c r="R30" s="3">
         <v>3</v>
       </c>
-      <c r="S30" s="3"/>
-      <c r="T30" s="3"/>
+      <c r="S30" s="3">
+        <v>3</v>
+      </c>
+      <c r="T30" s="3">
+        <v>3</v>
+      </c>
       <c r="U30" s="3"/>
       <c r="V30" s="3"/>
       <c r="W30" s="3"/>
@@ -5880,7 +6122,7 @@
       <c r="AB30" s="3"/>
       <c r="AC30" s="3">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>46</v>
       </c>
     </row>
     <row r="31" spans="1:29" x14ac:dyDescent="0.2">
@@ -5896,7 +6138,9 @@
       <c r="D31" s="3">
         <v>7</v>
       </c>
-      <c r="E31" s="3"/>
+      <c r="E31" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
@@ -5991,8 +6235,12 @@
       <c r="R32" s="3">
         <v>3</v>
       </c>
-      <c r="S32" s="3"/>
-      <c r="T32" s="3"/>
+      <c r="S32" s="3">
+        <v>3</v>
+      </c>
+      <c r="T32" s="3">
+        <v>3</v>
+      </c>
       <c r="U32" s="3"/>
       <c r="V32" s="3"/>
       <c r="W32" s="3"/>
@@ -6006,7 +6254,7 @@
       <c r="AB32" s="3"/>
       <c r="AC32" s="3">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>46</v>
       </c>
     </row>
     <row r="33" spans="1:29" x14ac:dyDescent="0.2">
@@ -6445,7 +6693,9 @@
       <c r="L40" s="3">
         <v>3</v>
       </c>
-      <c r="M40" s="3"/>
+      <c r="M40" s="3">
+        <v>3</v>
+      </c>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
@@ -6461,12 +6711,12 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/sem1/СО-ПР-22.xlsx
+++ b/sem1/СО-ПР-22.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thebandik/Library/Mobile Documents/com~apple~CloudDocs/General/Работа/Колледж/GitHub/computer-science/sem1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7BFB3F8-FFF2-764C-B1E3-93CBCF09E0B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B23CC153-E26B-7A4B-A7B3-719A30620C7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="13900" xr2:uid="{78B3409E-6B57-FA43-BCC4-C09108445BD6}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="2" xr2:uid="{78B3409E-6B57-FA43-BCC4-C09108445BD6}"/>
   </bookViews>
   <sheets>
     <sheet name="Посещаемость 1" sheetId="2" r:id="rId1"/>
     <sheet name="Посещаемость 2" sheetId="1" r:id="rId2"/>
     <sheet name="Успеваемость" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1029" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1255" uniqueCount="77">
   <si>
     <t>№</t>
   </si>
@@ -234,18 +234,6 @@
     <t>пр15</t>
   </si>
   <si>
-    <t>пр16</t>
-  </si>
-  <si>
-    <t>пр17</t>
-  </si>
-  <si>
-    <t>пр18</t>
-  </si>
-  <si>
-    <t>3 балла</t>
-  </si>
-  <si>
     <t>Лабораторная работа №1</t>
   </si>
   <si>
@@ -270,9 +258,6 @@
     <t>Разбаловка</t>
   </si>
   <si>
-    <t>7 баллов</t>
-  </si>
-  <si>
     <t>Федосеева Юлия</t>
   </si>
   <si>
@@ -280,6 +265,9 @@
   </si>
   <si>
     <t>Ат2</t>
+  </si>
+  <si>
+    <t>±</t>
   </si>
 </sst>
 </file>
@@ -780,13 +768,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4215EFA8-B92E-4C45-9535-33FF4C7A518F}">
-  <dimension ref="A1:Z25"/>
+  <dimension ref="A1:AF25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="O2" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="172" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="Y2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Y7" sqref="Y7"/>
+      <selection pane="bottomRight" activeCell="AF6" sqref="AF6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -800,11 +788,13 @@
     <col min="13" max="13" width="6.6640625" bestFit="1" customWidth="1"/>
     <col min="14" max="21" width="6.5" bestFit="1" customWidth="1"/>
     <col min="22" max="24" width="6.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="6.83203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="10.83203125" style="4"/>
+    <col min="25" max="28" width="7.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="6.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="7" style="4" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="6.83203125" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -880,9 +870,27 @@
       <c r="Y1" s="2">
         <v>45232</v>
       </c>
-      <c r="Z1" s="3"/>
-    </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Z1" s="2">
+        <v>45233</v>
+      </c>
+      <c r="AA1" s="2">
+        <v>45237</v>
+      </c>
+      <c r="AB1" s="2">
+        <v>45239</v>
+      </c>
+      <c r="AC1" s="2">
+        <v>45244</v>
+      </c>
+      <c r="AD1" s="2">
+        <v>45246</v>
+      </c>
+      <c r="AE1" s="2">
+        <v>45247</v>
+      </c>
+      <c r="AF1" s="1"/>
+    </row>
+    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -958,9 +966,27 @@
       <c r="Y2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="Z2" s="3"/>
-    </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Z2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AD2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF2" s="1"/>
+    </row>
+    <row r="3" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1036,9 +1062,27 @@
       <c r="Y3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="Z3" s="3"/>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Z3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF3" s="1"/>
+    </row>
+    <row r="4" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1114,9 +1158,27 @@
       <c r="Y4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="Z4" s="3"/>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Z4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF4" s="1"/>
+    </row>
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1192,9 +1254,27 @@
       <c r="Y5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="Z5" s="3"/>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Z5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AD5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF5" s="1"/>
+    </row>
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1270,9 +1350,27 @@
       <c r="Y6" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="Z6" s="3"/>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Z6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF6" s="1"/>
+    </row>
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1348,9 +1446,27 @@
       <c r="Y7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="Z7" s="3"/>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Z7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF7" s="1"/>
+    </row>
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1426,9 +1542,27 @@
       <c r="Y8" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="Z8" s="3"/>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Z8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AD8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF8" s="1"/>
+    </row>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1504,9 +1638,27 @@
       <c r="Y9" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="Z9" s="3"/>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Z9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD9" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF9" s="1"/>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1582,9 +1734,27 @@
       <c r="Y10" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="Z10" s="3"/>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Z10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA10" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF10" s="1"/>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1660,9 +1830,27 @@
       <c r="Y11" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC11" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD11" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF11" s="1"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1738,9 +1926,27 @@
       <c r="Y12" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="Z12" s="3"/>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF12" s="1"/>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1816,9 +2022,27 @@
       <c r="Y13" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="Z13" s="3"/>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF13" s="1"/>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -1894,9 +2118,27 @@
       <c r="Y14" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="Z14" s="3"/>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF14" s="1"/>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -1972,9 +2214,27 @@
       <c r="Y15" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="Z15" s="3"/>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB15" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD15" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF15" s="1"/>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -2050,9 +2310,27 @@
       <c r="Y16" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA16" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB16" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC16" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AD16" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE16" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF16" s="1"/>
+    </row>
+    <row r="17" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -2128,9 +2406,27 @@
       <c r="Y17" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="Z17" s="3"/>
-    </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Z17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF17" s="1"/>
+    </row>
+    <row r="18" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -2201,14 +2497,32 @@
         <v>14</v>
       </c>
       <c r="X18" s="3" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="Y18" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="Z18" s="3"/>
-    </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+      <c r="Z18" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA18" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB18" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC18" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD18" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE18" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF18" s="1"/>
+    </row>
+    <row r="19" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -2284,14 +2598,32 @@
       <c r="Y19" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA19" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB19" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC19" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AD19" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE19" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF19" s="1"/>
+    </row>
+    <row r="20" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>40</v>
@@ -2362,18 +2694,36 @@
       <c r="Y20" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="Z20" s="3"/>
-    </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Z20" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA20" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB20" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC20" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD20" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE20" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF20" s="1"/>
+    </row>
+    <row r="22" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C22" s="4"/>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C23" s="4"/>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C24" s="4"/>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C25" s="4"/>
     </row>
   </sheetData>
@@ -2397,13 +2747,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F44A87E8-D92E-4B4A-BFC1-FEFAB9CDC28F}">
-  <dimension ref="A1:AI20"/>
+  <dimension ref="A1:AK20"/>
   <sheetViews>
-    <sheetView zoomScale="161" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="R7" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="150" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="Z2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Z20" sqref="Z20"/>
+      <selection pane="bottomRight" activeCell="AJ16" sqref="AJ16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2417,11 +2767,14 @@
     <col min="20" max="22" width="6.6640625" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="6.6640625" style="4" bestFit="1" customWidth="1"/>
     <col min="24" max="25" width="6.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="6.83203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="27" max="35" width="10.83203125" style="4"/>
+    <col min="26" max="27" width="7.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="6.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="7.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="30" max="33" width="6.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="34" max="35" width="10.83203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2500,12 +2853,33 @@
       <c r="Z1" s="2">
         <v>45232</v>
       </c>
-      <c r="AA1" s="3"/>
-      <c r="AB1" s="3"/>
-      <c r="AC1" s="3"/>
-      <c r="AD1" s="3"/>
-    </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AA1" s="2">
+        <v>45233</v>
+      </c>
+      <c r="AB1" s="2">
+        <v>45237</v>
+      </c>
+      <c r="AC1" s="2">
+        <v>45239</v>
+      </c>
+      <c r="AD1" s="2">
+        <v>45240</v>
+      </c>
+      <c r="AE1" s="2">
+        <v>45244</v>
+      </c>
+      <c r="AF1" s="2">
+        <v>45246</v>
+      </c>
+      <c r="AG1" s="2">
+        <v>45247</v>
+      </c>
+      <c r="AH1" s="3"/>
+      <c r="AI1" s="3"/>
+      <c r="AJ1" s="1"/>
+      <c r="AK1" s="1"/>
+    </row>
+    <row r="2" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2584,12 +2958,33 @@
       <c r="Z2" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="AA2" s="3"/>
-      <c r="AB2" s="3"/>
-      <c r="AC2" s="3"/>
-      <c r="AD2" s="3"/>
-    </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AA2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AG2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AH2" s="3"/>
+      <c r="AI2" s="3"/>
+      <c r="AJ2" s="1"/>
+      <c r="AK2" s="1"/>
+    </row>
+    <row r="3" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -2668,12 +3063,33 @@
       <c r="Z3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="AA3" s="3"/>
-      <c r="AB3" s="3"/>
-      <c r="AC3" s="3"/>
-      <c r="AD3" s="3"/>
-    </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AA3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AG3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AH3" s="3"/>
+      <c r="AI3" s="3"/>
+      <c r="AJ3" s="1"/>
+      <c r="AK3" s="1"/>
+    </row>
+    <row r="4" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -2752,12 +3168,33 @@
       <c r="Z4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="AA4" s="3"/>
-      <c r="AB4" s="3"/>
-      <c r="AC4" s="3"/>
-      <c r="AD4" s="3"/>
-    </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AA4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AD4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AG4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AH4" s="3"/>
+      <c r="AI4" s="3"/>
+      <c r="AJ4" s="1"/>
+      <c r="AK4" s="1"/>
+    </row>
+    <row r="5" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -2836,12 +3273,33 @@
       <c r="Z5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="AA5" s="3"/>
-      <c r="AB5" s="3"/>
-      <c r="AC5" s="3"/>
-      <c r="AD5" s="3"/>
-    </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AA5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AD5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AG5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AH5" s="3"/>
+      <c r="AI5" s="3"/>
+      <c r="AJ5" s="1"/>
+      <c r="AK5" s="1"/>
+    </row>
+    <row r="6" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -2920,12 +3378,33 @@
       <c r="Z6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="AA6" s="3"/>
-      <c r="AB6" s="3"/>
-      <c r="AC6" s="3"/>
-      <c r="AD6" s="3"/>
-    </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AA6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AG6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AH6" s="3"/>
+      <c r="AI6" s="3"/>
+      <c r="AJ6" s="1"/>
+      <c r="AK6" s="1"/>
+    </row>
+    <row r="7" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -3004,12 +3483,33 @@
       <c r="Z7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="AA7" s="3"/>
-      <c r="AB7" s="3"/>
-      <c r="AC7" s="3"/>
-      <c r="AD7" s="3"/>
-    </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AA7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AG7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AH7" s="3"/>
+      <c r="AI7" s="3"/>
+      <c r="AJ7" s="1"/>
+      <c r="AK7" s="1"/>
+    </row>
+    <row r="8" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -3088,12 +3588,33 @@
       <c r="Z8" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="AA8" s="3"/>
-      <c r="AB8" s="3"/>
-      <c r="AC8" s="3"/>
-      <c r="AD8" s="3"/>
-    </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AA8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AG8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AH8" s="3"/>
+      <c r="AI8" s="3"/>
+      <c r="AJ8" s="1"/>
+      <c r="AK8" s="1"/>
+    </row>
+    <row r="9" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -3167,17 +3688,38 @@
         <v>12</v>
       </c>
       <c r="Y9" s="3" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="Z9" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="AA9" s="3"/>
-      <c r="AB9" s="3"/>
-      <c r="AC9" s="3"/>
-      <c r="AD9" s="3"/>
-    </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+      <c r="AA9" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB9" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AD9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AG9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AH9" s="3"/>
+      <c r="AI9" s="3"/>
+      <c r="AJ9" s="1"/>
+      <c r="AK9" s="1"/>
+    </row>
+    <row r="10" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -3218,50 +3760,71 @@
         <v>14</v>
       </c>
       <c r="N10" s="3" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="O10" s="3" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="P10" s="3" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="Q10" s="3" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="R10" s="3" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="S10" s="3" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="T10" s="3" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="U10" s="3" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="V10" s="3" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="W10" s="3" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="X10" s="3" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="Y10" s="3" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="Z10" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="AA10" s="3"/>
-      <c r="AB10" s="3"/>
-      <c r="AC10" s="3"/>
-      <c r="AD10" s="3"/>
-    </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+      <c r="AA10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB10" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC10" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD10" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AG10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AH10" s="3"/>
+      <c r="AI10" s="3"/>
+      <c r="AJ10" s="1"/>
+      <c r="AK10" s="1"/>
+    </row>
+    <row r="11" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -3340,12 +3903,33 @@
       <c r="Z11" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="AA11" s="3"/>
-      <c r="AB11" s="3"/>
-      <c r="AC11" s="3"/>
-      <c r="AD11" s="3"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AD11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AG11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AH11" s="3"/>
+      <c r="AI11" s="3"/>
+      <c r="AJ11" s="1"/>
+      <c r="AK11" s="1"/>
+    </row>
+    <row r="12" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -3424,12 +4008,33 @@
       <c r="Z12" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="AA12" s="3"/>
-      <c r="AB12" s="3"/>
-      <c r="AC12" s="3"/>
-      <c r="AD12" s="3"/>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AA12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AG12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AH12" s="3"/>
+      <c r="AI12" s="3"/>
+      <c r="AJ12" s="1"/>
+      <c r="AK12" s="1"/>
+    </row>
+    <row r="13" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -3508,12 +4113,33 @@
       <c r="Z13" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="AA13" s="3"/>
-      <c r="AB13" s="3"/>
-      <c r="AC13" s="3"/>
-      <c r="AD13" s="3"/>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AD13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AG13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AH13" s="3"/>
+      <c r="AI13" s="3"/>
+      <c r="AJ13" s="1"/>
+      <c r="AK13" s="1"/>
+    </row>
+    <row r="14" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -3592,12 +4218,33 @@
       <c r="Z14" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="AA14" s="3"/>
-      <c r="AB14" s="3"/>
-      <c r="AC14" s="3"/>
-      <c r="AD14" s="3"/>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AA14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AD14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AG14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AH14" s="3"/>
+      <c r="AI14" s="3"/>
+      <c r="AJ14" s="1"/>
+      <c r="AK14" s="1"/>
+    </row>
+    <row r="15" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -3676,12 +4323,33 @@
       <c r="Z15" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="AA15" s="3"/>
-      <c r="AB15" s="3"/>
-      <c r="AC15" s="3"/>
-      <c r="AD15" s="3"/>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AA15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB15" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC15" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AD15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE15" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF15" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AG15" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AH15" s="3"/>
+      <c r="AI15" s="3"/>
+      <c r="AJ15" s="1"/>
+      <c r="AK15" s="1"/>
+    </row>
+    <row r="16" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -3760,12 +4428,33 @@
       <c r="Z16" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="AA16" s="3"/>
-      <c r="AB16" s="3"/>
-      <c r="AC16" s="3"/>
-      <c r="AD16" s="3"/>
-    </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB16" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC16" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD16" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE16" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF16" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AG16" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AH16" s="3"/>
+      <c r="AI16" s="3"/>
+      <c r="AJ16" s="1"/>
+      <c r="AK16" s="1"/>
+    </row>
+    <row r="17" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -3844,12 +4533,33 @@
       <c r="Z17" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="AA17" s="3"/>
-      <c r="AB17" s="3"/>
-      <c r="AC17" s="3"/>
-      <c r="AD17" s="3"/>
-    </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AA17" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB17" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC17" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AD17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE17" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF17" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AG17" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AH17" s="3"/>
+      <c r="AI17" s="3"/>
+      <c r="AJ17" s="1"/>
+      <c r="AK17" s="1"/>
+    </row>
+    <row r="18" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -3928,12 +4638,33 @@
       <c r="Z18" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="AA18" s="3"/>
-      <c r="AB18" s="3"/>
-      <c r="AC18" s="3"/>
-      <c r="AD18" s="3"/>
-    </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AA18" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB18" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC18" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AD18" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE18" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF18" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AG18" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AH18" s="3"/>
+      <c r="AI18" s="3"/>
+      <c r="AJ18" s="1"/>
+      <c r="AK18" s="1"/>
+    </row>
+    <row r="19" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -4012,12 +4743,33 @@
       <c r="Z19" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="AA19" s="3"/>
-      <c r="AB19" s="3"/>
-      <c r="AC19" s="3"/>
-      <c r="AD19" s="3"/>
-    </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB19" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC19" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AD19" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE19" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF19" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AG19" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AH19" s="3"/>
+      <c r="AI19" s="3"/>
+      <c r="AJ19" s="1"/>
+      <c r="AK19" s="1"/>
+    </row>
+    <row r="20" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -4096,10 +4848,31 @@
       <c r="Z20" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="AA20" s="3"/>
-      <c r="AB20" s="3"/>
-      <c r="AC20" s="3"/>
-      <c r="AD20" s="3"/>
+      <c r="AA20" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB20" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC20" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AD20" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE20" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF20" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AG20" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AH20" s="3"/>
+      <c r="AI20" s="3"/>
+      <c r="AJ20" s="1"/>
+      <c r="AK20" s="1"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:XFD20">
@@ -4121,11 +4894,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39845E33-B198-1749-A96D-46C57A0F57AA}">
   <dimension ref="A1:AF40"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C17" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="150" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="T31" sqref="T31"/>
+      <selection pane="bottomRight" activeCell="W11" sqref="W11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4211,20 +4984,14 @@
       <c r="W1" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="X1" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="Y1" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="Z1" s="13" t="s">
-        <v>67</v>
-      </c>
+      <c r="X1" s="13"/>
+      <c r="Y1" s="13"/>
+      <c r="Z1" s="13"/>
       <c r="AA1" s="8" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AB1" s="8" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AC1" s="8" t="s">
         <v>49</v>
@@ -4259,7 +5026,9 @@
       <c r="L2" s="3">
         <v>3</v>
       </c>
-      <c r="M2" s="3"/>
+      <c r="M2" s="3">
+        <v>3</v>
+      </c>
       <c r="N2" s="3"/>
       <c r="O2" s="3"/>
       <c r="P2" s="3"/>
@@ -4274,16 +5043,19 @@
       <c r="Y2" s="3"/>
       <c r="Z2" s="3"/>
       <c r="AA2" s="3">
-        <f>SUM(C2:D2,I2:R2)</f>
-        <v>22</v>
-      </c>
-      <c r="AB2" s="3"/>
+        <f t="shared" ref="AA2:AA40" si="0">SUM(C2:D2,I2:R2)</f>
+        <v>25</v>
+      </c>
+      <c r="AB2" s="3">
+        <f t="shared" ref="AB2:AB40" si="1">SUM(E2:H2,S2:Z2)</f>
+        <v>0</v>
+      </c>
       <c r="AC2" s="3">
-        <f t="shared" ref="AC2:AC40" si="0">SUM(C2:Z2)</f>
-        <v>22</v>
+        <f>SUM(AA2:AB2)</f>
+        <v>25</v>
       </c>
       <c r="AE2" s="14" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AF2" s="14"/>
     </row>
@@ -4300,8 +5072,12 @@
       <c r="D3" s="3">
         <v>7</v>
       </c>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
+      <c r="E3" s="3">
+        <v>5</v>
+      </c>
+      <c r="F3" s="3">
+        <v>5</v>
+      </c>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
       <c r="I3" s="6">
@@ -4343,25 +5119,32 @@
       <c r="U3" s="3">
         <v>3</v>
       </c>
-      <c r="V3" s="3"/>
-      <c r="W3" s="3"/>
+      <c r="V3" s="3">
+        <v>3</v>
+      </c>
+      <c r="W3" s="3">
+        <v>3</v>
+      </c>
       <c r="X3" s="3"/>
       <c r="Y3" s="3"/>
       <c r="Z3" s="3"/>
       <c r="AA3" s="3">
-        <f t="shared" ref="AA3:AA40" si="1">SUM(C3:D3,I3:R3)</f>
-        <v>40</v>
-      </c>
-      <c r="AB3" s="3"/>
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="AB3" s="3">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
       <c r="AC3" s="3">
-        <f t="shared" si="0"/>
-        <v>49</v>
+        <f t="shared" ref="AC3:AC40" si="2">SUM(AA3:AB3)</f>
+        <v>65</v>
       </c>
       <c r="AE3" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="AF3" s="3" t="s">
-        <v>68</v>
+        <v>71</v>
+      </c>
+      <c r="AF3" s="3">
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.2">
@@ -4377,10 +5160,12 @@
       <c r="D4" s="3">
         <v>7</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="3"/>
+      <c r="E4" s="3">
+        <v>5</v>
+      </c>
+      <c r="F4" s="3">
+        <v>5</v>
+      </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
       <c r="I4" s="6">
@@ -4422,25 +5207,32 @@
       <c r="U4" s="3">
         <v>3</v>
       </c>
-      <c r="V4" s="3"/>
-      <c r="W4" s="3"/>
+      <c r="V4" s="3">
+        <v>3</v>
+      </c>
+      <c r="W4" s="3">
+        <v>3</v>
+      </c>
       <c r="X4" s="3"/>
       <c r="Y4" s="3"/>
       <c r="Z4" s="3"/>
       <c r="AA4" s="3">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="AB4" s="3">
         <f t="shared" si="1"/>
-        <v>40</v>
-      </c>
-      <c r="AB4" s="3"/>
+        <v>25</v>
+      </c>
       <c r="AC4" s="3">
-        <f t="shared" si="0"/>
-        <v>49</v>
+        <f t="shared" si="2"/>
+        <v>65</v>
       </c>
       <c r="AE4" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="AF4" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
+      </c>
+      <c r="AF4" s="3">
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.2">
@@ -4456,10 +5248,12 @@
       <c r="D5" s="3">
         <v>9</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="3"/>
+      <c r="E5" s="3">
+        <v>5</v>
+      </c>
+      <c r="F5" s="3">
+        <v>5</v>
+      </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
       <c r="I5" s="6">
@@ -4498,26 +5292,35 @@
       <c r="T5" s="3">
         <v>3</v>
       </c>
-      <c r="U5" s="3"/>
-      <c r="V5" s="3"/>
-      <c r="W5" s="3"/>
+      <c r="U5" s="3">
+        <v>3</v>
+      </c>
+      <c r="V5" s="3">
+        <v>3</v>
+      </c>
+      <c r="W5" s="3">
+        <v>3</v>
+      </c>
       <c r="X5" s="3"/>
       <c r="Y5" s="3"/>
       <c r="Z5" s="3"/>
       <c r="AA5" s="3">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="AB5" s="3">
         <f t="shared" si="1"/>
-        <v>42</v>
-      </c>
-      <c r="AB5" s="3"/>
+        <v>25</v>
+      </c>
       <c r="AC5" s="3">
-        <f t="shared" si="0"/>
-        <v>48</v>
+        <f t="shared" si="2"/>
+        <v>67</v>
       </c>
       <c r="AE5" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="AF5" s="3" t="s">
-        <v>77</v>
+        <v>66</v>
+      </c>
+      <c r="AF5" s="3">
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.2">
@@ -4573,25 +5376,36 @@
       <c r="T6" s="3">
         <v>3</v>
       </c>
-      <c r="U6" s="3"/>
-      <c r="V6" s="3"/>
-      <c r="W6" s="3"/>
+      <c r="U6" s="3">
+        <v>3</v>
+      </c>
+      <c r="V6" s="3">
+        <v>3</v>
+      </c>
+      <c r="W6" s="3">
+        <v>3</v>
+      </c>
       <c r="X6" s="3"/>
       <c r="Y6" s="3"/>
       <c r="Z6" s="3"/>
       <c r="AA6" s="3">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="AB6" s="3">
         <f t="shared" si="1"/>
-        <v>40</v>
-      </c>
-      <c r="AB6" s="3"/>
+        <v>15</v>
+      </c>
       <c r="AC6" s="3">
-        <f t="shared" si="0"/>
-        <v>46</v>
+        <f t="shared" si="2"/>
+        <v>55</v>
       </c>
       <c r="AE6" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="AF6" s="3"/>
+        <v>67</v>
+      </c>
+      <c r="AF6" s="3">
+        <v>5</v>
+      </c>
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
@@ -4639,18 +5453,23 @@
       <c r="Y7" s="3"/>
       <c r="Z7" s="3"/>
       <c r="AA7" s="3">
-        <f t="shared" si="1"/>
-        <v>21</v>
-      </c>
-      <c r="AB7" s="3"/>
-      <c r="AC7" s="3">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
+      <c r="AB7" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AC7" s="3">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
       <c r="AE7" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="AF7" s="3"/>
+        <v>68</v>
+      </c>
+      <c r="AF7" s="3">
+        <v>5</v>
+      </c>
     </row>
     <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
@@ -4663,10 +5482,12 @@
       <c r="D8" s="3">
         <v>7</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" s="3"/>
+      <c r="E8" s="3">
+        <v>5</v>
+      </c>
+      <c r="F8" s="3">
+        <v>5</v>
+      </c>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
       <c r="I8" s="6">
@@ -4699,25 +5520,38 @@
       <c r="R8" s="3">
         <v>3</v>
       </c>
-      <c r="S8" s="3"/>
-      <c r="T8" s="3"/>
-      <c r="U8" s="3"/>
-      <c r="V8" s="3"/>
-      <c r="W8" s="3"/>
+      <c r="S8" s="3">
+        <v>3</v>
+      </c>
+      <c r="T8" s="3">
+        <v>3</v>
+      </c>
+      <c r="U8" s="3">
+        <v>3</v>
+      </c>
+      <c r="V8" s="3">
+        <v>3</v>
+      </c>
+      <c r="W8" s="3">
+        <v>3</v>
+      </c>
       <c r="X8" s="3"/>
       <c r="Y8" s="3"/>
       <c r="Z8" s="3"/>
       <c r="AA8" s="3">
-        <f t="shared" si="1"/>
-        <v>37</v>
-      </c>
-      <c r="AB8" s="3"/>
-      <c r="AC8" s="3">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
+      <c r="AB8" s="3">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="AC8" s="3">
+        <f t="shared" si="2"/>
+        <v>62</v>
+      </c>
       <c r="AE8" s="3" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="AF8" s="3"/>
     </row>
@@ -4734,7 +5568,9 @@
       <c r="D9" s="3">
         <v>7</v>
       </c>
-      <c r="E9" s="3"/>
+      <c r="E9" s="3">
+        <v>5</v>
+      </c>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
@@ -4774,23 +5610,32 @@
       <c r="T9" s="3">
         <v>3</v>
       </c>
-      <c r="U9" s="3"/>
-      <c r="V9" s="3"/>
-      <c r="W9" s="3"/>
+      <c r="U9" s="3">
+        <v>3</v>
+      </c>
+      <c r="V9" s="3">
+        <v>3</v>
+      </c>
+      <c r="W9" s="3">
+        <v>3</v>
+      </c>
       <c r="X9" s="3"/>
       <c r="Y9" s="3"/>
       <c r="Z9" s="3"/>
       <c r="AA9" s="3">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="AB9" s="3">
         <f t="shared" si="1"/>
-        <v>40</v>
-      </c>
-      <c r="AB9" s="3"/>
+        <v>20</v>
+      </c>
       <c r="AC9" s="3">
-        <f t="shared" si="0"/>
-        <v>46</v>
+        <f t="shared" si="2"/>
+        <v>60</v>
       </c>
       <c r="AE9" s="3" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="AF9" s="3"/>
     </row>
@@ -4807,8 +5652,12 @@
       <c r="D10" s="3">
         <v>7</v>
       </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
+      <c r="E10" s="3">
+        <v>5</v>
+      </c>
+      <c r="F10" s="3">
+        <v>5</v>
+      </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
       <c r="I10" s="6">
@@ -4847,20 +5696,29 @@
       <c r="T10" s="3">
         <v>3</v>
       </c>
-      <c r="U10" s="3"/>
-      <c r="V10" s="3"/>
-      <c r="W10" s="3"/>
+      <c r="U10" s="3">
+        <v>3</v>
+      </c>
+      <c r="V10" s="3">
+        <v>3</v>
+      </c>
+      <c r="W10" s="3">
+        <v>3</v>
+      </c>
       <c r="X10" s="3"/>
       <c r="Y10" s="3"/>
       <c r="Z10" s="3"/>
       <c r="AA10" s="3">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="AB10" s="3">
         <f t="shared" si="1"/>
-        <v>40</v>
-      </c>
-      <c r="AB10" s="3"/>
+        <v>25</v>
+      </c>
       <c r="AC10" s="3">
-        <f t="shared" si="0"/>
-        <v>46</v>
+        <f t="shared" si="2"/>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:32" x14ac:dyDescent="0.2">
@@ -4876,7 +5734,9 @@
       <c r="D11" s="3">
         <v>7</v>
       </c>
-      <c r="E11" s="3"/>
+      <c r="E11" s="3">
+        <v>5</v>
+      </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
@@ -4902,7 +5762,9 @@
         <v>3</v>
       </c>
       <c r="P11" s="3"/>
-      <c r="Q11" s="3"/>
+      <c r="Q11" s="3">
+        <v>3</v>
+      </c>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
@@ -4913,13 +5775,16 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="AB11" s="3">
         <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
-      <c r="AB11" s="3"/>
+        <v>5</v>
+      </c>
       <c r="AC11" s="3">
-        <f t="shared" si="0"/>
-        <v>30</v>
+        <f t="shared" si="2"/>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:32" x14ac:dyDescent="0.2">
@@ -4932,9 +5797,11 @@
       <c r="C12" s="3">
         <v>3</v>
       </c>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3" t="s">
-        <v>12</v>
+      <c r="D12" s="3">
+        <v>7</v>
+      </c>
+      <c r="E12" s="3">
+        <v>5</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
@@ -4957,8 +5824,12 @@
       <c r="N12" s="3">
         <v>3</v>
       </c>
-      <c r="O12" s="3"/>
-      <c r="P12" s="3"/>
+      <c r="O12" s="3">
+        <v>3</v>
+      </c>
+      <c r="P12" s="3">
+        <v>3</v>
+      </c>
       <c r="Q12" s="3">
         <v>3</v>
       </c>
@@ -4974,13 +5845,16 @@
       <c r="Y12" s="3"/>
       <c r="Z12" s="3"/>
       <c r="AA12" s="3">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="AB12" s="3">
         <f t="shared" si="1"/>
-        <v>27</v>
-      </c>
-      <c r="AB12" s="3"/>
+        <v>5</v>
+      </c>
       <c r="AC12" s="3">
-        <f t="shared" si="0"/>
-        <v>27</v>
+        <f t="shared" si="2"/>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:32" x14ac:dyDescent="0.2">
@@ -4996,8 +5870,8 @@
       <c r="D13" s="3">
         <v>7</v>
       </c>
-      <c r="E13" s="3" t="s">
-        <v>12</v>
+      <c r="E13" s="3">
+        <v>5</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
@@ -5027,25 +5901,34 @@
       <c r="Q13" s="3">
         <v>3</v>
       </c>
-      <c r="R13" s="3"/>
+      <c r="R13" s="3">
+        <v>3</v>
+      </c>
       <c r="S13" s="3"/>
       <c r="T13" s="3">
         <v>3</v>
       </c>
-      <c r="U13" s="3"/>
-      <c r="V13" s="3"/>
+      <c r="U13" s="3">
+        <v>3</v>
+      </c>
+      <c r="V13" s="3">
+        <v>3</v>
+      </c>
       <c r="W13" s="3"/>
       <c r="X13" s="3"/>
       <c r="Y13" s="3"/>
       <c r="Z13" s="3"/>
       <c r="AA13" s="3">
-        <f t="shared" si="1"/>
-        <v>34</v>
-      </c>
-      <c r="AB13" s="3"/>
-      <c r="AC13" s="3">
         <f t="shared" si="0"/>
         <v>37</v>
+      </c>
+      <c r="AB13" s="3">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="AC13" s="3">
+        <f t="shared" si="2"/>
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:32" x14ac:dyDescent="0.2">
@@ -5080,7 +5963,9 @@
       </c>
       <c r="N14" s="3"/>
       <c r="O14" s="3"/>
-      <c r="P14" s="3"/>
+      <c r="P14" s="3">
+        <v>3</v>
+      </c>
       <c r="Q14" s="3"/>
       <c r="R14" s="3"/>
       <c r="S14" s="3"/>
@@ -5092,13 +5977,16 @@
       <c r="Y14" s="3"/>
       <c r="Z14" s="3"/>
       <c r="AA14" s="3">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="AB14" s="3">
         <f t="shared" si="1"/>
-        <v>18</v>
-      </c>
-      <c r="AB14" s="3"/>
+        <v>0</v>
+      </c>
       <c r="AC14" s="3">
-        <f t="shared" si="0"/>
-        <v>18</v>
+        <f t="shared" si="2"/>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:32" x14ac:dyDescent="0.2">
@@ -5114,8 +6002,12 @@
       <c r="D15" s="3">
         <v>7</v>
       </c>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
+      <c r="E15" s="3">
+        <v>5</v>
+      </c>
+      <c r="F15" s="3">
+        <v>5</v>
+      </c>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
       <c r="I15" s="6">
@@ -5151,21 +6043,30 @@
       <c r="S15" s="3">
         <v>3</v>
       </c>
-      <c r="T15" s="3"/>
-      <c r="U15" s="3"/>
-      <c r="V15" s="3"/>
+      <c r="T15" s="3">
+        <v>3</v>
+      </c>
+      <c r="U15" s="3">
+        <v>2</v>
+      </c>
+      <c r="V15" s="3">
+        <v>3</v>
+      </c>
       <c r="W15" s="3"/>
       <c r="X15" s="3"/>
       <c r="Y15" s="3"/>
       <c r="Z15" s="3"/>
       <c r="AA15" s="3">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="AB15" s="3">
         <f t="shared" si="1"/>
-        <v>40</v>
-      </c>
-      <c r="AB15" s="3"/>
+        <v>21</v>
+      </c>
       <c r="AC15" s="3">
-        <f t="shared" si="0"/>
-        <v>43</v>
+        <f t="shared" si="2"/>
+        <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:32" x14ac:dyDescent="0.2">
@@ -5181,10 +6082,12 @@
       <c r="D16" s="3">
         <v>7</v>
       </c>
-      <c r="E16" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F16" s="3"/>
+      <c r="E16" s="3">
+        <v>5</v>
+      </c>
+      <c r="F16" s="3">
+        <v>5</v>
+      </c>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
       <c r="I16" s="6">
@@ -5223,20 +6126,29 @@
       <c r="T16" s="3">
         <v>3</v>
       </c>
-      <c r="U16" s="3"/>
-      <c r="V16" s="3"/>
-      <c r="W16" s="3"/>
+      <c r="U16" s="3">
+        <v>3</v>
+      </c>
+      <c r="V16" s="3">
+        <v>3</v>
+      </c>
+      <c r="W16" s="3">
+        <v>3</v>
+      </c>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="AB16" s="3">
         <f t="shared" si="1"/>
-        <v>40</v>
-      </c>
-      <c r="AB16" s="3"/>
+        <v>25</v>
+      </c>
       <c r="AC16" s="3">
-        <f t="shared" si="0"/>
-        <v>46</v>
+        <f t="shared" si="2"/>
+        <v>65</v>
       </c>
     </row>
     <row r="17" spans="1:29" x14ac:dyDescent="0.2">
@@ -5260,10 +6172,16 @@
       <c r="J17" s="3">
         <v>3</v>
       </c>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
+      <c r="K17" s="3">
+        <v>3</v>
+      </c>
+      <c r="L17" s="3">
+        <v>3</v>
+      </c>
       <c r="M17" s="3"/>
-      <c r="N17" s="3"/>
+      <c r="N17" s="3">
+        <v>3</v>
+      </c>
       <c r="O17" s="3"/>
       <c r="P17" s="3"/>
       <c r="Q17" s="3"/>
@@ -5277,13 +6195,16 @@
       <c r="Y17" s="3"/>
       <c r="Z17" s="3"/>
       <c r="AA17" s="3">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="AB17" s="3">
         <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="AB17" s="3"/>
+        <v>0</v>
+      </c>
       <c r="AC17" s="3">
-        <f t="shared" si="0"/>
-        <v>9</v>
+        <f t="shared" si="2"/>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:29" x14ac:dyDescent="0.2">
@@ -5331,22 +6252,35 @@
       <c r="R18" s="3">
         <v>3</v>
       </c>
-      <c r="S18" s="3"/>
-      <c r="T18" s="3"/>
-      <c r="U18" s="3"/>
-      <c r="V18" s="3"/>
-      <c r="W18" s="3"/>
+      <c r="S18" s="3">
+        <v>3</v>
+      </c>
+      <c r="T18" s="3">
+        <v>3</v>
+      </c>
+      <c r="U18" s="3">
+        <v>3</v>
+      </c>
+      <c r="V18" s="3">
+        <v>3</v>
+      </c>
+      <c r="W18" s="3">
+        <v>3</v>
+      </c>
       <c r="X18" s="3"/>
       <c r="Y18" s="3"/>
       <c r="Z18" s="3"/>
       <c r="AA18" s="3">
-        <f t="shared" si="1"/>
-        <v>33</v>
-      </c>
-      <c r="AB18" s="3"/>
-      <c r="AC18" s="3">
         <f t="shared" si="0"/>
         <v>33</v>
+      </c>
+      <c r="AB18" s="3">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="AC18" s="3">
+        <f t="shared" si="2"/>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:29" x14ac:dyDescent="0.2">
@@ -5391,23 +6325,34 @@
       <c r="Q19" s="3">
         <v>3</v>
       </c>
-      <c r="R19" s="3"/>
-      <c r="S19" s="3"/>
-      <c r="T19" s="3"/>
-      <c r="U19" s="3"/>
+      <c r="R19" s="3">
+        <v>3</v>
+      </c>
+      <c r="S19" s="3">
+        <v>3</v>
+      </c>
+      <c r="T19" s="3">
+        <v>3</v>
+      </c>
+      <c r="U19" s="3">
+        <v>3</v>
+      </c>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="AB19" s="3">
         <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
-      <c r="AB19" s="3"/>
+        <v>9</v>
+      </c>
       <c r="AC19" s="3">
-        <f t="shared" si="0"/>
-        <v>30</v>
+        <f t="shared" si="2"/>
+        <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:29" x14ac:dyDescent="0.2">
@@ -5423,10 +6368,12 @@
       <c r="D20" s="3">
         <v>7</v>
       </c>
-      <c r="E20" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F20" s="3"/>
+      <c r="E20" s="3">
+        <v>5</v>
+      </c>
+      <c r="F20" s="3">
+        <v>5</v>
+      </c>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
       <c r="I20" s="6">
@@ -5468,19 +6415,24 @@
       <c r="U20" s="3">
         <v>3</v>
       </c>
-      <c r="V20" s="3"/>
+      <c r="V20" s="3">
+        <v>3</v>
+      </c>
       <c r="W20" s="3"/>
       <c r="X20" s="3"/>
       <c r="Y20" s="3"/>
       <c r="Z20" s="3"/>
       <c r="AA20" s="3">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="AB20" s="3">
         <f t="shared" si="1"/>
-        <v>40</v>
-      </c>
-      <c r="AB20" s="3"/>
+        <v>22</v>
+      </c>
       <c r="AC20" s="3">
-        <f t="shared" si="0"/>
-        <v>49</v>
+        <f t="shared" si="2"/>
+        <v>62</v>
       </c>
     </row>
     <row r="21" spans="1:29" x14ac:dyDescent="0.2">
@@ -5496,8 +6448,8 @@
       <c r="D21" s="3">
         <v>7</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>12</v>
+      <c r="E21" s="3">
+        <v>5</v>
       </c>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
@@ -5532,22 +6484,35 @@
       <c r="R21" s="3">
         <v>3</v>
       </c>
-      <c r="S21" s="3"/>
-      <c r="T21" s="3"/>
-      <c r="U21" s="3"/>
-      <c r="V21" s="3"/>
-      <c r="W21" s="3"/>
+      <c r="S21" s="3">
+        <v>3</v>
+      </c>
+      <c r="T21" s="3">
+        <v>3</v>
+      </c>
+      <c r="U21" s="3">
+        <v>3</v>
+      </c>
+      <c r="V21" s="3">
+        <v>3</v>
+      </c>
+      <c r="W21" s="3">
+        <v>3</v>
+      </c>
       <c r="X21" s="3"/>
       <c r="Y21" s="3"/>
       <c r="Z21" s="3"/>
       <c r="AA21" s="3">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="AB21" s="3">
         <f t="shared" si="1"/>
-        <v>40</v>
-      </c>
-      <c r="AB21" s="3"/>
+        <v>20</v>
+      </c>
       <c r="AC21" s="3">
-        <f t="shared" si="0"/>
-        <v>40</v>
+        <f t="shared" si="2"/>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:29" x14ac:dyDescent="0.2">
@@ -5563,8 +6528,8 @@
       <c r="D22" s="3">
         <v>7</v>
       </c>
-      <c r="E22" s="3" t="s">
-        <v>12</v>
+      <c r="E22" s="3">
+        <v>5</v>
       </c>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
@@ -5599,20 +6564,29 @@
       <c r="R22" s="3"/>
       <c r="S22" s="3"/>
       <c r="T22" s="3"/>
-      <c r="U22" s="3"/>
-      <c r="V22" s="3"/>
-      <c r="W22" s="3"/>
+      <c r="U22" s="3">
+        <v>3</v>
+      </c>
+      <c r="V22" s="3">
+        <v>3</v>
+      </c>
+      <c r="W22" s="3">
+        <v>3</v>
+      </c>
       <c r="X22" s="3"/>
       <c r="Y22" s="3"/>
       <c r="Z22" s="3"/>
       <c r="AA22" s="3">
-        <f t="shared" si="1"/>
-        <v>37</v>
-      </c>
-      <c r="AB22" s="3"/>
-      <c r="AC22" s="3">
         <f t="shared" si="0"/>
         <v>37</v>
+      </c>
+      <c r="AB22" s="3">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="AC22" s="3">
+        <f t="shared" si="2"/>
+        <v>51</v>
       </c>
     </row>
     <row r="23" spans="1:29" x14ac:dyDescent="0.2">
@@ -5625,11 +6599,15 @@
       <c r="C23" s="3">
         <v>3</v>
       </c>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F23" s="3"/>
+      <c r="D23" s="3">
+        <v>7</v>
+      </c>
+      <c r="E23" s="3">
+        <v>5</v>
+      </c>
+      <c r="F23" s="3">
+        <v>5</v>
+      </c>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
       <c r="I23" s="6">
@@ -5655,21 +6633,30 @@
       <c r="Q23" s="3"/>
       <c r="R23" s="3"/>
       <c r="S23" s="3"/>
-      <c r="T23" s="3"/>
-      <c r="U23" s="3"/>
-      <c r="V23" s="3"/>
+      <c r="T23" s="3">
+        <v>3</v>
+      </c>
+      <c r="U23" s="3">
+        <v>3</v>
+      </c>
+      <c r="V23" s="3">
+        <v>3</v>
+      </c>
       <c r="W23" s="3"/>
       <c r="X23" s="3"/>
       <c r="Y23" s="3"/>
       <c r="Z23" s="3"/>
       <c r="AA23" s="3">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="AB23" s="3">
         <f t="shared" si="1"/>
-        <v>21</v>
-      </c>
-      <c r="AB23" s="3"/>
+        <v>19</v>
+      </c>
       <c r="AC23" s="3">
-        <f t="shared" si="0"/>
-        <v>21</v>
+        <f t="shared" si="2"/>
+        <v>47</v>
       </c>
     </row>
     <row r="24" spans="1:29" x14ac:dyDescent="0.2">
@@ -5685,8 +6672,12 @@
       <c r="D24" s="3">
         <v>7</v>
       </c>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
+      <c r="E24" s="3">
+        <v>5</v>
+      </c>
+      <c r="F24" s="3">
+        <v>5</v>
+      </c>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
       <c r="I24" s="6">
@@ -5728,19 +6719,26 @@
       <c r="U24" s="3">
         <v>3</v>
       </c>
-      <c r="V24" s="3"/>
-      <c r="W24" s="3"/>
+      <c r="V24" s="3">
+        <v>3</v>
+      </c>
+      <c r="W24" s="3">
+        <v>3</v>
+      </c>
       <c r="X24" s="3"/>
       <c r="Y24" s="3"/>
       <c r="Z24" s="3"/>
       <c r="AA24" s="3">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="AB24" s="3">
         <f t="shared" si="1"/>
-        <v>40</v>
-      </c>
-      <c r="AB24" s="3"/>
+        <v>25</v>
+      </c>
       <c r="AC24" s="3">
-        <f t="shared" si="0"/>
-        <v>49</v>
+        <f t="shared" si="2"/>
+        <v>65</v>
       </c>
     </row>
     <row r="25" spans="1:29" x14ac:dyDescent="0.2">
@@ -5777,29 +6775,40 @@
       <c r="O25" s="3">
         <v>3</v>
       </c>
-      <c r="P25" s="3"/>
+      <c r="P25" s="3">
+        <v>3</v>
+      </c>
       <c r="Q25" s="3">
         <v>3</v>
       </c>
       <c r="R25" s="3">
         <v>3</v>
       </c>
-      <c r="S25" s="3"/>
-      <c r="T25" s="3"/>
-      <c r="U25" s="3"/>
+      <c r="S25" s="3">
+        <v>3</v>
+      </c>
+      <c r="T25" s="3">
+        <v>3</v>
+      </c>
+      <c r="U25" s="3">
+        <v>3</v>
+      </c>
       <c r="V25" s="3"/>
       <c r="W25" s="3"/>
       <c r="X25" s="3"/>
       <c r="Y25" s="3"/>
       <c r="Z25" s="3"/>
       <c r="AA25" s="3">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="AB25" s="3">
         <f t="shared" si="1"/>
-        <v>27</v>
-      </c>
-      <c r="AB25" s="3"/>
+        <v>9</v>
+      </c>
       <c r="AC25" s="3">
-        <f t="shared" si="0"/>
-        <v>27</v>
+        <f t="shared" si="2"/>
+        <v>39</v>
       </c>
     </row>
     <row r="26" spans="1:29" x14ac:dyDescent="0.2">
@@ -5815,8 +6824,12 @@
       <c r="D26" s="3">
         <v>7</v>
       </c>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
+      <c r="E26" s="3">
+        <v>5</v>
+      </c>
+      <c r="F26" s="3">
+        <v>5</v>
+      </c>
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
       <c r="I26" s="6">
@@ -5858,19 +6871,26 @@
       <c r="U26" s="3">
         <v>3</v>
       </c>
-      <c r="V26" s="3"/>
-      <c r="W26" s="3"/>
+      <c r="V26" s="3">
+        <v>3</v>
+      </c>
+      <c r="W26" s="3">
+        <v>3</v>
+      </c>
       <c r="X26" s="3"/>
       <c r="Y26" s="3"/>
       <c r="Z26" s="3"/>
       <c r="AA26" s="3">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="AB26" s="3">
         <f t="shared" si="1"/>
-        <v>40</v>
-      </c>
-      <c r="AB26" s="3"/>
+        <v>25</v>
+      </c>
       <c r="AC26" s="3">
-        <f t="shared" si="0"/>
-        <v>49</v>
+        <f t="shared" si="2"/>
+        <v>65</v>
       </c>
     </row>
     <row r="27" spans="1:29" x14ac:dyDescent="0.2">
@@ -5886,7 +6906,9 @@
       <c r="D27" s="3">
         <v>7</v>
       </c>
-      <c r="E27" s="3"/>
+      <c r="E27" s="3">
+        <v>5</v>
+      </c>
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
@@ -5898,12 +6920,16 @@
         <v>3</v>
       </c>
       <c r="L27" s="3"/>
-      <c r="M27" s="3"/>
+      <c r="M27" s="3">
+        <v>3</v>
+      </c>
       <c r="N27" s="3">
         <v>3</v>
       </c>
       <c r="O27" s="3"/>
-      <c r="P27" s="3"/>
+      <c r="P27" s="3">
+        <v>3</v>
+      </c>
       <c r="Q27" s="3"/>
       <c r="R27" s="3"/>
       <c r="S27" s="3"/>
@@ -5915,13 +6941,16 @@
       <c r="Y27" s="3"/>
       <c r="Z27" s="3"/>
       <c r="AA27" s="3">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="AB27" s="3">
         <f t="shared" si="1"/>
-        <v>19</v>
-      </c>
-      <c r="AB27" s="3"/>
+        <v>5</v>
+      </c>
       <c r="AC27" s="3">
-        <f t="shared" si="0"/>
-        <v>19</v>
+        <f t="shared" si="2"/>
+        <v>30</v>
       </c>
     </row>
     <row r="28" spans="1:29" x14ac:dyDescent="0.2">
@@ -5937,10 +6966,12 @@
       <c r="D28" s="3">
         <v>7</v>
       </c>
-      <c r="E28" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F28" s="3"/>
+      <c r="E28" s="3">
+        <v>5</v>
+      </c>
+      <c r="F28" s="3">
+        <v>2</v>
+      </c>
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
       <c r="I28" s="6">
@@ -5970,23 +7001,38 @@
       <c r="Q28" s="3">
         <v>3</v>
       </c>
-      <c r="R28" s="3"/>
-      <c r="S28" s="3"/>
-      <c r="T28" s="3"/>
-      <c r="U28" s="3"/>
-      <c r="V28" s="3"/>
-      <c r="W28" s="3"/>
+      <c r="R28" s="3">
+        <v>3</v>
+      </c>
+      <c r="S28" s="3">
+        <v>3</v>
+      </c>
+      <c r="T28" s="3">
+        <v>3</v>
+      </c>
+      <c r="U28" s="3">
+        <v>3</v>
+      </c>
+      <c r="V28" s="3">
+        <v>3</v>
+      </c>
+      <c r="W28" s="3">
+        <v>3</v>
+      </c>
       <c r="X28" s="3"/>
       <c r="Y28" s="3"/>
       <c r="Z28" s="3"/>
       <c r="AA28" s="3">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="AB28" s="3">
         <f t="shared" si="1"/>
-        <v>37</v>
-      </c>
-      <c r="AB28" s="3"/>
+        <v>22</v>
+      </c>
       <c r="AC28" s="3">
-        <f t="shared" si="0"/>
-        <v>37</v>
+        <f t="shared" si="2"/>
+        <v>62</v>
       </c>
     </row>
     <row r="29" spans="1:29" x14ac:dyDescent="0.2">
@@ -6002,10 +7048,12 @@
       <c r="D29" s="3">
         <v>7</v>
       </c>
-      <c r="E29" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F29" s="3"/>
+      <c r="E29" s="3">
+        <v>5</v>
+      </c>
+      <c r="F29" s="3">
+        <v>5</v>
+      </c>
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
       <c r="I29" s="6">
@@ -6038,22 +7086,35 @@
       <c r="R29" s="3">
         <v>3</v>
       </c>
-      <c r="S29" s="3"/>
-      <c r="T29" s="3"/>
-      <c r="U29" s="3"/>
-      <c r="V29" s="3"/>
-      <c r="W29" s="3"/>
+      <c r="S29" s="3">
+        <v>3</v>
+      </c>
+      <c r="T29" s="3">
+        <v>3</v>
+      </c>
+      <c r="U29" s="3">
+        <v>3</v>
+      </c>
+      <c r="V29" s="3">
+        <v>3</v>
+      </c>
+      <c r="W29" s="3">
+        <v>3</v>
+      </c>
       <c r="X29" s="3"/>
       <c r="Y29" s="3"/>
       <c r="Z29" s="3"/>
       <c r="AA29" s="3">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="AB29" s="3">
         <f t="shared" si="1"/>
-        <v>40</v>
-      </c>
-      <c r="AB29" s="3"/>
+        <v>25</v>
+      </c>
       <c r="AC29" s="3">
-        <f t="shared" si="0"/>
-        <v>40</v>
+        <f t="shared" si="2"/>
+        <v>65</v>
       </c>
     </row>
     <row r="30" spans="1:29" x14ac:dyDescent="0.2">
@@ -6109,20 +7170,25 @@
       <c r="T30" s="3">
         <v>3</v>
       </c>
-      <c r="U30" s="3"/>
+      <c r="U30" s="3">
+        <v>3</v>
+      </c>
       <c r="V30" s="3"/>
       <c r="W30" s="3"/>
       <c r="X30" s="3"/>
       <c r="Y30" s="3"/>
       <c r="Z30" s="3"/>
       <c r="AA30" s="3">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="AB30" s="3">
         <f t="shared" si="1"/>
-        <v>40</v>
-      </c>
-      <c r="AB30" s="3"/>
+        <v>9</v>
+      </c>
       <c r="AC30" s="3">
-        <f t="shared" si="0"/>
-        <v>46</v>
+        <f t="shared" si="2"/>
+        <v>49</v>
       </c>
     </row>
     <row r="31" spans="1:29" x14ac:dyDescent="0.2">
@@ -6138,8 +7204,8 @@
       <c r="D31" s="3">
         <v>7</v>
       </c>
-      <c r="E31" s="3" t="s">
-        <v>12</v>
+      <c r="E31" s="3">
+        <v>5</v>
       </c>
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
@@ -6177,13 +7243,16 @@
       <c r="Y31" s="3"/>
       <c r="Z31" s="3"/>
       <c r="AA31" s="3">
-        <f t="shared" si="1"/>
-        <v>31</v>
-      </c>
-      <c r="AB31" s="3"/>
-      <c r="AC31" s="3">
         <f t="shared" si="0"/>
         <v>31</v>
+      </c>
+      <c r="AB31" s="3">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="AC31" s="3">
+        <f t="shared" si="2"/>
+        <v>36</v>
       </c>
     </row>
     <row r="32" spans="1:29" x14ac:dyDescent="0.2">
@@ -6199,10 +7268,12 @@
       <c r="D32" s="3">
         <v>7</v>
       </c>
-      <c r="E32" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F32" s="3"/>
+      <c r="E32" s="3">
+        <v>5</v>
+      </c>
+      <c r="F32" s="3">
+        <v>5</v>
+      </c>
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>
       <c r="I32" s="6">
@@ -6241,20 +7312,29 @@
       <c r="T32" s="3">
         <v>3</v>
       </c>
-      <c r="U32" s="3"/>
-      <c r="V32" s="3"/>
-      <c r="W32" s="3"/>
+      <c r="U32" s="3">
+        <v>3</v>
+      </c>
+      <c r="V32" s="3">
+        <v>3</v>
+      </c>
+      <c r="W32" s="3">
+        <v>3</v>
+      </c>
       <c r="X32" s="3"/>
       <c r="Y32" s="3"/>
       <c r="Z32" s="3"/>
       <c r="AA32" s="3">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="AB32" s="3">
         <f t="shared" si="1"/>
-        <v>40</v>
-      </c>
-      <c r="AB32" s="3"/>
+        <v>25</v>
+      </c>
       <c r="AC32" s="3">
-        <f t="shared" si="0"/>
-        <v>46</v>
+        <f t="shared" si="2"/>
+        <v>65</v>
       </c>
     </row>
     <row r="33" spans="1:29" x14ac:dyDescent="0.2">
@@ -6294,7 +7374,9 @@
       <c r="P33" s="3">
         <v>3</v>
       </c>
-      <c r="Q33" s="3"/>
+      <c r="Q33" s="3">
+        <v>3</v>
+      </c>
       <c r="R33" s="3"/>
       <c r="S33" s="3"/>
       <c r="T33" s="3"/>
@@ -6305,13 +7387,16 @@
       <c r="Y33" s="3"/>
       <c r="Z33" s="3"/>
       <c r="AA33" s="3">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="AB33" s="3">
         <f t="shared" si="1"/>
-        <v>24</v>
-      </c>
-      <c r="AB33" s="3"/>
+        <v>0</v>
+      </c>
       <c r="AC33" s="3">
-        <f t="shared" si="0"/>
-        <v>24</v>
+        <f t="shared" si="2"/>
+        <v>27</v>
       </c>
     </row>
     <row r="34" spans="1:29" x14ac:dyDescent="0.2">
@@ -6365,20 +7450,27 @@
       <c r="T34" s="3">
         <v>3</v>
       </c>
-      <c r="U34" s="3"/>
-      <c r="V34" s="3"/>
+      <c r="U34" s="3">
+        <v>3</v>
+      </c>
+      <c r="V34" s="3">
+        <v>3</v>
+      </c>
       <c r="W34" s="3"/>
       <c r="X34" s="3"/>
       <c r="Y34" s="3"/>
       <c r="Z34" s="3"/>
       <c r="AA34" s="3">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="AB34" s="3">
         <f t="shared" si="1"/>
-        <v>33</v>
-      </c>
-      <c r="AB34" s="3"/>
+        <v>12</v>
+      </c>
       <c r="AC34" s="3">
-        <f t="shared" si="0"/>
-        <v>39</v>
+        <f t="shared" si="2"/>
+        <v>45</v>
       </c>
     </row>
     <row r="35" spans="1:29" x14ac:dyDescent="0.2">
@@ -6425,19 +7517,26 @@
       <c r="S35" s="3"/>
       <c r="T35" s="3"/>
       <c r="U35" s="3"/>
-      <c r="V35" s="3"/>
-      <c r="W35" s="3"/>
+      <c r="V35" s="3">
+        <v>3</v>
+      </c>
+      <c r="W35" s="3">
+        <v>3</v>
+      </c>
       <c r="X35" s="3"/>
       <c r="Y35" s="3"/>
       <c r="Z35" s="3"/>
       <c r="AA35" s="3">
-        <f t="shared" si="1"/>
-        <v>27</v>
-      </c>
-      <c r="AB35" s="3"/>
-      <c r="AC35" s="3">
         <f t="shared" si="0"/>
         <v>27</v>
+      </c>
+      <c r="AB35" s="3">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="AC35" s="3">
+        <f t="shared" si="2"/>
+        <v>33</v>
       </c>
     </row>
     <row r="36" spans="1:29" x14ac:dyDescent="0.2">
@@ -6453,7 +7552,9 @@
       <c r="D36" s="3">
         <v>7</v>
       </c>
-      <c r="E36" s="3"/>
+      <c r="E36" s="3">
+        <v>5</v>
+      </c>
       <c r="F36" s="3"/>
       <c r="G36" s="3"/>
       <c r="H36" s="3"/>
@@ -6484,23 +7585,36 @@
       <c r="Q36" s="3">
         <v>3</v>
       </c>
-      <c r="R36" s="3"/>
+      <c r="R36" s="3">
+        <v>3</v>
+      </c>
       <c r="S36" s="3"/>
-      <c r="T36" s="3"/>
-      <c r="U36" s="3"/>
-      <c r="V36" s="3"/>
-      <c r="W36" s="3"/>
+      <c r="T36" s="3">
+        <v>3</v>
+      </c>
+      <c r="U36" s="3">
+        <v>3</v>
+      </c>
+      <c r="V36" s="3">
+        <v>3</v>
+      </c>
+      <c r="W36" s="3">
+        <v>3</v>
+      </c>
       <c r="X36" s="3"/>
       <c r="Y36" s="3"/>
       <c r="Z36" s="3"/>
       <c r="AA36" s="3">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="AB36" s="3">
         <f t="shared" si="1"/>
-        <v>37</v>
-      </c>
-      <c r="AB36" s="3"/>
+        <v>17</v>
+      </c>
       <c r="AC36" s="3">
-        <f t="shared" si="0"/>
-        <v>37</v>
+        <f t="shared" si="2"/>
+        <v>57</v>
       </c>
     </row>
     <row r="37" spans="1:29" x14ac:dyDescent="0.2">
@@ -6516,10 +7630,12 @@
       <c r="D37" s="3">
         <v>7</v>
       </c>
-      <c r="E37" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F37" s="3"/>
+      <c r="E37" s="3">
+        <v>5</v>
+      </c>
+      <c r="F37" s="3">
+        <v>2</v>
+      </c>
       <c r="G37" s="3"/>
       <c r="H37" s="3"/>
       <c r="I37" s="6">
@@ -6552,22 +7668,31 @@
       <c r="R37" s="3">
         <v>3</v>
       </c>
-      <c r="S37" s="3"/>
+      <c r="S37" s="3">
+        <v>3</v>
+      </c>
       <c r="T37" s="3"/>
-      <c r="U37" s="3"/>
+      <c r="U37" s="3">
+        <v>3</v>
+      </c>
       <c r="V37" s="3"/>
-      <c r="W37" s="3"/>
+      <c r="W37" s="3">
+        <v>3</v>
+      </c>
       <c r="X37" s="3"/>
       <c r="Y37" s="3"/>
       <c r="Z37" s="3"/>
       <c r="AA37" s="3">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="AB37" s="3">
         <f t="shared" si="1"/>
-        <v>40</v>
-      </c>
-      <c r="AB37" s="3"/>
+        <v>16</v>
+      </c>
       <c r="AC37" s="3">
-        <f t="shared" si="0"/>
-        <v>40</v>
+        <f t="shared" si="2"/>
+        <v>56</v>
       </c>
     </row>
     <row r="38" spans="1:29" x14ac:dyDescent="0.2">
@@ -6602,12 +7727,15 @@
       <c r="Y38" s="3"/>
       <c r="Z38" s="3"/>
       <c r="AA38" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AB38" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AB38" s="3"/>
       <c r="AC38" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6646,11 +7774,21 @@
       <c r="N39" s="3">
         <v>3</v>
       </c>
-      <c r="O39" s="3"/>
-      <c r="P39" s="3"/>
-      <c r="Q39" s="3"/>
-      <c r="R39" s="3"/>
-      <c r="S39" s="3"/>
+      <c r="O39" s="3">
+        <v>3</v>
+      </c>
+      <c r="P39" s="3">
+        <v>3</v>
+      </c>
+      <c r="Q39" s="3">
+        <v>3</v>
+      </c>
+      <c r="R39" s="3">
+        <v>3</v>
+      </c>
+      <c r="S39" s="3">
+        <v>3</v>
+      </c>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
@@ -6659,13 +7797,16 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="AB39" s="3">
         <f t="shared" si="1"/>
-        <v>28</v>
-      </c>
-      <c r="AB39" s="3"/>
+        <v>3</v>
+      </c>
       <c r="AC39" s="3">
-        <f t="shared" si="0"/>
-        <v>28</v>
+        <f t="shared" si="2"/>
+        <v>43</v>
       </c>
     </row>
     <row r="40" spans="1:29" x14ac:dyDescent="0.2">
@@ -6673,9 +7814,11 @@
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C40" s="3"/>
+        <v>73</v>
+      </c>
+      <c r="C40" s="3">
+        <v>3</v>
+      </c>
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
@@ -6696,9 +7839,15 @@
       <c r="M40" s="3">
         <v>3</v>
       </c>
-      <c r="N40" s="3"/>
-      <c r="O40" s="3"/>
-      <c r="P40" s="3"/>
+      <c r="N40" s="3">
+        <v>3</v>
+      </c>
+      <c r="O40" s="3">
+        <v>3</v>
+      </c>
+      <c r="P40" s="3">
+        <v>3</v>
+      </c>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
@@ -6710,13 +7859,16 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="AB40" s="3">
         <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="AB40" s="3"/>
+        <v>0</v>
+      </c>
       <c r="AC40" s="3">
-        <f t="shared" si="0"/>
-        <v>15</v>
+        <f t="shared" si="2"/>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -6728,5 +7880,8 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="AA3 AA4:AA40 AB2:AB40" formulaRange="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
--- a/sem1/СО-ПР-22.xlsx
+++ b/sem1/СО-ПР-22.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thebandik/Library/Mobile Documents/com~apple~CloudDocs/General/Работа/Колледж/GitHub/computer-science/sem1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B23CC153-E26B-7A4B-A7B3-719A30620C7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB70172C-439D-F140-A40F-3D68B63970D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="2" xr2:uid="{78B3409E-6B57-FA43-BCC4-C09108445BD6}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Посещаемость 2" sheetId="1" r:id="rId2"/>
     <sheet name="Успеваемость" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1255" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1350" uniqueCount="77">
   <si>
     <t>№</t>
   </si>
@@ -397,7 +397,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="8">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -429,6 +429,13 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -455,6 +462,13 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -768,13 +782,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4215EFA8-B92E-4C45-9535-33FF4C7A518F}">
-  <dimension ref="A1:AF25"/>
+  <dimension ref="A1:AL25"/>
   <sheetViews>
-    <sheetView zoomScale="172" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="Y2" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="184" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="AC2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AF6" sqref="AF6"/>
+      <selection pane="bottomRight" activeCell="AF13" sqref="AF13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -788,13 +802,15 @@
     <col min="13" max="13" width="6.6640625" bestFit="1" customWidth="1"/>
     <col min="14" max="21" width="6.5" bestFit="1" customWidth="1"/>
     <col min="22" max="24" width="6.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="25" max="28" width="7.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="6.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="7.83203125" style="4" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="6.83203125" style="4" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="7" style="4" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="6.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="31" max="33" width="6.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="34" max="37" width="10.83203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -888,9 +904,19 @@
       <c r="AE1" s="2">
         <v>45247</v>
       </c>
-      <c r="AF1" s="1"/>
-    </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AF1" s="2">
+        <v>45251</v>
+      </c>
+      <c r="AG1" s="2">
+        <v>45253</v>
+      </c>
+      <c r="AH1" s="3"/>
+      <c r="AI1" s="3"/>
+      <c r="AJ1" s="3"/>
+      <c r="AK1" s="3"/>
+      <c r="AL1" s="1"/>
+    </row>
+    <row r="2" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -984,9 +1010,19 @@
       <c r="AE2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="AF2" s="1"/>
-    </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AF2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AG2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AH2" s="3"/>
+      <c r="AI2" s="3"/>
+      <c r="AJ2" s="3"/>
+      <c r="AK2" s="3"/>
+      <c r="AL2" s="1"/>
+    </row>
+    <row r="3" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1080,9 +1116,19 @@
       <c r="AE3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="AF3" s="1"/>
-    </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AF3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AG3" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="AH3" s="3"/>
+      <c r="AI3" s="3"/>
+      <c r="AJ3" s="3"/>
+      <c r="AK3" s="3"/>
+      <c r="AL3" s="1"/>
+    </row>
+    <row r="4" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1176,9 +1222,19 @@
       <c r="AE4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="AF4" s="1"/>
-    </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AF4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AG4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AH4" s="3"/>
+      <c r="AI4" s="3"/>
+      <c r="AJ4" s="3"/>
+      <c r="AK4" s="3"/>
+      <c r="AL4" s="1"/>
+    </row>
+    <row r="5" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1272,9 +1328,19 @@
       <c r="AE5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="AF5" s="1"/>
-    </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AF5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AG5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AH5" s="3"/>
+      <c r="AI5" s="3"/>
+      <c r="AJ5" s="3"/>
+      <c r="AK5" s="3"/>
+      <c r="AL5" s="1"/>
+    </row>
+    <row r="6" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1368,9 +1434,19 @@
       <c r="AE6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="AF6" s="1"/>
-    </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AF6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AG6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AH6" s="3"/>
+      <c r="AI6" s="3"/>
+      <c r="AJ6" s="3"/>
+      <c r="AK6" s="3"/>
+      <c r="AL6" s="1"/>
+    </row>
+    <row r="7" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1464,9 +1540,19 @@
       <c r="AE7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="AF7" s="1"/>
-    </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AF7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AG7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AH7" s="3"/>
+      <c r="AI7" s="3"/>
+      <c r="AJ7" s="3"/>
+      <c r="AK7" s="3"/>
+      <c r="AL7" s="1"/>
+    </row>
+    <row r="8" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1560,9 +1646,19 @@
       <c r="AE8" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="AF8" s="1"/>
-    </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AF8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AG8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AH8" s="3"/>
+      <c r="AI8" s="3"/>
+      <c r="AJ8" s="3"/>
+      <c r="AK8" s="3"/>
+      <c r="AL8" s="1"/>
+    </row>
+    <row r="9" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1656,9 +1752,19 @@
       <c r="AE9" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="AF9" s="1"/>
-    </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AF9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AG9" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="AH9" s="3"/>
+      <c r="AI9" s="3"/>
+      <c r="AJ9" s="3"/>
+      <c r="AK9" s="3"/>
+      <c r="AL9" s="1"/>
+    </row>
+    <row r="10" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1752,9 +1858,19 @@
       <c r="AE10" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="AF10" s="1"/>
-    </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AF10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AG10" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="AH10" s="3"/>
+      <c r="AI10" s="3"/>
+      <c r="AJ10" s="3"/>
+      <c r="AK10" s="3"/>
+      <c r="AL10" s="1"/>
+    </row>
+    <row r="11" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1848,9 +1964,19 @@
       <c r="AE11" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="AF11" s="1"/>
-    </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AF11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AG11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AH11" s="3"/>
+      <c r="AI11" s="3"/>
+      <c r="AJ11" s="3"/>
+      <c r="AK11" s="3"/>
+      <c r="AL11" s="1"/>
+    </row>
+    <row r="12" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1944,9 +2070,19 @@
       <c r="AE12" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="AF12" s="1"/>
-    </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AF12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AG12" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="AH12" s="3"/>
+      <c r="AI12" s="3"/>
+      <c r="AJ12" s="3"/>
+      <c r="AK12" s="3"/>
+      <c r="AL12" s="1"/>
+    </row>
+    <row r="13" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -2040,9 +2176,19 @@
       <c r="AE13" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="AF13" s="1"/>
-    </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AF13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AG13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AH13" s="3"/>
+      <c r="AI13" s="3"/>
+      <c r="AJ13" s="3"/>
+      <c r="AK13" s="3"/>
+      <c r="AL13" s="1"/>
+    </row>
+    <row r="14" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -2136,9 +2282,19 @@
       <c r="AE14" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="AF14" s="1"/>
-    </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AF14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AG14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AH14" s="3"/>
+      <c r="AI14" s="3"/>
+      <c r="AJ14" s="3"/>
+      <c r="AK14" s="3"/>
+      <c r="AL14" s="1"/>
+    </row>
+    <row r="15" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -2232,9 +2388,19 @@
       <c r="AE15" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="AF15" s="1"/>
-    </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AF15" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AG15" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AH15" s="3"/>
+      <c r="AI15" s="3"/>
+      <c r="AJ15" s="3"/>
+      <c r="AK15" s="3"/>
+      <c r="AL15" s="1"/>
+    </row>
+    <row r="16" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -2328,9 +2494,19 @@
       <c r="AE16" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="AF16" s="1"/>
-    </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AF16" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AG16" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AH16" s="3"/>
+      <c r="AI16" s="3"/>
+      <c r="AJ16" s="3"/>
+      <c r="AK16" s="3"/>
+      <c r="AL16" s="1"/>
+    </row>
+    <row r="17" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -2424,9 +2600,19 @@
       <c r="AE17" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="AF17" s="1"/>
-    </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AF17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AG17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AH17" s="3"/>
+      <c r="AI17" s="3"/>
+      <c r="AJ17" s="3"/>
+      <c r="AK17" s="3"/>
+      <c r="AL17" s="1"/>
+    </row>
+    <row r="18" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -2520,9 +2706,19 @@
       <c r="AE18" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="AF18" s="1"/>
-    </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AF18" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AG18" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AH18" s="3"/>
+      <c r="AI18" s="3"/>
+      <c r="AJ18" s="3"/>
+      <c r="AK18" s="3"/>
+      <c r="AL18" s="1"/>
+    </row>
+    <row r="19" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -2616,9 +2812,19 @@
       <c r="AE19" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="AF19" s="1"/>
-    </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AF19" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AG19" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AH19" s="3"/>
+      <c r="AI19" s="3"/>
+      <c r="AJ19" s="3"/>
+      <c r="AK19" s="3"/>
+      <c r="AL19" s="1"/>
+    </row>
+    <row r="20" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -2712,18 +2918,28 @@
       <c r="AE20" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="AF20" s="1"/>
-    </row>
-    <row r="22" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AF20" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AG20" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AH20" s="3"/>
+      <c r="AI20" s="3"/>
+      <c r="AJ20" s="3"/>
+      <c r="AK20" s="3"/>
+      <c r="AL20" s="1"/>
+    </row>
+    <row r="22" spans="1:38" x14ac:dyDescent="0.2">
       <c r="C22" s="4"/>
     </row>
-    <row r="23" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:38" x14ac:dyDescent="0.2">
       <c r="C23" s="4"/>
     </row>
-    <row r="24" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:38" x14ac:dyDescent="0.2">
       <c r="C24" s="4"/>
     </row>
-    <row r="25" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:38" x14ac:dyDescent="0.2">
       <c r="C25" s="4"/>
     </row>
   </sheetData>
@@ -2731,13 +2947,16 @@
     <sortCondition ref="B1:B25"/>
   </sortState>
   <conditionalFormatting sqref="A2:XFD20">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
+      <formula>"±"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
       <formula>"="</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
       <formula>"+"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2749,11 +2968,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F44A87E8-D92E-4B4A-BFC1-FEFAB9CDC28F}">
   <dimension ref="A1:AK20"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="Z2" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="157" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="AC2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AJ16" sqref="AJ16"/>
+      <selection pane="bottomRight" activeCell="AM6" sqref="AM6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2770,8 +2989,9 @@
     <col min="26" max="27" width="7.83203125" style="4" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="6.83203125" style="4" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="7.83203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="30" max="33" width="6.83203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="34" max="35" width="10.83203125" style="4"/>
+    <col min="30" max="34" width="6.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="35" max="36" width="7" style="4" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="10.83203125" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37" x14ac:dyDescent="0.2">
@@ -2874,10 +3094,16 @@
       <c r="AG1" s="2">
         <v>45247</v>
       </c>
-      <c r="AH1" s="3"/>
-      <c r="AI1" s="3"/>
-      <c r="AJ1" s="1"/>
-      <c r="AK1" s="1"/>
+      <c r="AH1" s="2">
+        <v>45251</v>
+      </c>
+      <c r="AI1" s="2">
+        <v>45253</v>
+      </c>
+      <c r="AJ1" s="2">
+        <v>45254</v>
+      </c>
+      <c r="AK1" s="3"/>
     </row>
     <row r="2" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
@@ -2979,10 +3205,16 @@
       <c r="AG2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="AH2" s="3"/>
-      <c r="AI2" s="3"/>
-      <c r="AJ2" s="1"/>
-      <c r="AK2" s="1"/>
+      <c r="AH2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AJ2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AK2" s="3"/>
     </row>
     <row r="3" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
@@ -3084,10 +3316,16 @@
       <c r="AG3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="AH3" s="3"/>
-      <c r="AI3" s="3"/>
-      <c r="AJ3" s="1"/>
-      <c r="AK3" s="1"/>
+      <c r="AH3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AK3" s="3"/>
     </row>
     <row r="4" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
@@ -3189,10 +3427,16 @@
       <c r="AG4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="AH4" s="3"/>
-      <c r="AI4" s="3"/>
-      <c r="AJ4" s="1"/>
-      <c r="AK4" s="1"/>
+      <c r="AH4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AK4" s="3"/>
     </row>
     <row r="5" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
@@ -3294,10 +3538,16 @@
       <c r="AG5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="AH5" s="3"/>
-      <c r="AI5" s="3"/>
-      <c r="AJ5" s="1"/>
-      <c r="AK5" s="1"/>
+      <c r="AH5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AI5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AJ5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AK5" s="3"/>
     </row>
     <row r="6" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
@@ -3399,10 +3649,16 @@
       <c r="AG6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="AH6" s="3"/>
-      <c r="AI6" s="3"/>
-      <c r="AJ6" s="1"/>
-      <c r="AK6" s="1"/>
+      <c r="AH6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AJ6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AK6" s="3"/>
     </row>
     <row r="7" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
@@ -3504,10 +3760,16 @@
       <c r="AG7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="AH7" s="3"/>
-      <c r="AI7" s="3"/>
-      <c r="AJ7" s="1"/>
-      <c r="AK7" s="1"/>
+      <c r="AH7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AI7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AJ7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AK7" s="3"/>
     </row>
     <row r="8" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
@@ -3609,10 +3871,16 @@
       <c r="AG8" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="AH8" s="3"/>
-      <c r="AI8" s="3"/>
-      <c r="AJ8" s="1"/>
-      <c r="AK8" s="1"/>
+      <c r="AH8" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="AI8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AJ8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AK8" s="3"/>
     </row>
     <row r="9" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
@@ -3714,10 +3982,16 @@
       <c r="AG9" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="AH9" s="3"/>
-      <c r="AI9" s="3"/>
-      <c r="AJ9" s="1"/>
-      <c r="AK9" s="1"/>
+      <c r="AH9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AI9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AJ9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AK9" s="3"/>
     </row>
     <row r="10" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
@@ -3819,10 +4093,16 @@
       <c r="AG10" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="AH10" s="3"/>
-      <c r="AI10" s="3"/>
-      <c r="AJ10" s="1"/>
-      <c r="AK10" s="1"/>
+      <c r="AH10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AJ10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AK10" s="3"/>
     </row>
     <row r="11" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
@@ -3924,10 +4204,16 @@
       <c r="AG11" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="AH11" s="3"/>
-      <c r="AI11" s="3"/>
-      <c r="AJ11" s="1"/>
-      <c r="AK11" s="1"/>
+      <c r="AH11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AJ11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AK11" s="3"/>
     </row>
     <row r="12" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
@@ -4029,10 +4315,16 @@
       <c r="AG12" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="AH12" s="3"/>
-      <c r="AI12" s="3"/>
-      <c r="AJ12" s="1"/>
-      <c r="AK12" s="1"/>
+      <c r="AH12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AI12" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="AJ12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AK12" s="3"/>
     </row>
     <row r="13" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
@@ -4134,10 +4426,16 @@
       <c r="AG13" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="AH13" s="3"/>
-      <c r="AI13" s="3"/>
-      <c r="AJ13" s="1"/>
-      <c r="AK13" s="1"/>
+      <c r="AH13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AJ13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AK13" s="3"/>
     </row>
     <row r="14" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
@@ -4234,15 +4532,21 @@
         <v>12</v>
       </c>
       <c r="AF14" s="3" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="AG14" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="AH14" s="3"/>
-      <c r="AI14" s="3"/>
-      <c r="AJ14" s="1"/>
-      <c r="AK14" s="1"/>
+        <v>40</v>
+      </c>
+      <c r="AH14" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AI14" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AJ14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AK14" s="3"/>
     </row>
     <row r="15" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
@@ -4344,10 +4648,16 @@
       <c r="AG15" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="AH15" s="3"/>
-      <c r="AI15" s="3"/>
-      <c r="AJ15" s="1"/>
-      <c r="AK15" s="1"/>
+      <c r="AH15" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AI15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AK15" s="3"/>
     </row>
     <row r="16" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
@@ -4449,10 +4759,16 @@
       <c r="AG16" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="AH16" s="3"/>
-      <c r="AI16" s="3"/>
-      <c r="AJ16" s="1"/>
-      <c r="AK16" s="1"/>
+      <c r="AH16" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI16" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ16" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AK16" s="3"/>
     </row>
     <row r="17" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
@@ -4554,10 +4870,16 @@
       <c r="AG17" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="AH17" s="3"/>
-      <c r="AI17" s="3"/>
-      <c r="AJ17" s="1"/>
-      <c r="AK17" s="1"/>
+      <c r="AH17" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="AI17" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AJ17" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AK17" s="3"/>
     </row>
     <row r="18" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
@@ -4659,10 +4981,16 @@
       <c r="AG18" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="AH18" s="3"/>
-      <c r="AI18" s="3"/>
-      <c r="AJ18" s="1"/>
-      <c r="AK18" s="1"/>
+      <c r="AH18" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AI18" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AJ18" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AK18" s="3"/>
     </row>
     <row r="19" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
@@ -4764,10 +5092,16 @@
       <c r="AG19" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="AH19" s="3"/>
-      <c r="AI19" s="3"/>
-      <c r="AJ19" s="1"/>
-      <c r="AK19" s="1"/>
+      <c r="AH19" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AI19" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AJ19" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AK19" s="3"/>
     </row>
     <row r="20" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
@@ -4869,20 +5203,29 @@
       <c r="AG20" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="AH20" s="3"/>
-      <c r="AI20" s="3"/>
-      <c r="AJ20" s="1"/>
-      <c r="AK20" s="1"/>
+      <c r="AH20" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AI20" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AJ20" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AK20" s="3"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:XFD20">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="1" stopIfTrue="1" operator="equal">
+      <formula>"±"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>"="</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
       <formula>"+"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4894,11 +5237,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39845E33-B198-1749-A96D-46C57A0F57AA}">
   <dimension ref="A1:AF40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="150" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="W11" sqref="W11"/>
+      <selection pane="bottomRight" activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5078,7 +5421,9 @@
       <c r="F3" s="3">
         <v>5</v>
       </c>
-      <c r="G3" s="3"/>
+      <c r="G3" s="3">
+        <v>5</v>
+      </c>
       <c r="H3" s="3"/>
       <c r="I3" s="6">
         <v>3</v>
@@ -5134,11 +5479,11 @@
       </c>
       <c r="AB3" s="3">
         <f t="shared" si="1"/>
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="AC3" s="3">
         <f t="shared" ref="AC3:AC40" si="2">SUM(AA3:AB3)</f>
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AE3" s="3" t="s">
         <v>71</v>
@@ -5166,7 +5511,9 @@
       <c r="F4" s="3">
         <v>5</v>
       </c>
-      <c r="G4" s="3"/>
+      <c r="G4" s="3">
+        <v>5</v>
+      </c>
       <c r="H4" s="3"/>
       <c r="I4" s="6">
         <v>3</v>
@@ -5222,11 +5569,11 @@
       </c>
       <c r="AB4" s="3">
         <f t="shared" si="1"/>
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="AC4" s="3">
         <f t="shared" si="2"/>
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AE4" s="3" t="s">
         <v>65</v>
@@ -5254,7 +5601,9 @@
       <c r="F5" s="3">
         <v>5</v>
       </c>
-      <c r="G5" s="3"/>
+      <c r="G5" s="3">
+        <v>5</v>
+      </c>
       <c r="H5" s="3"/>
       <c r="I5" s="6">
         <v>3</v>
@@ -5310,11 +5659,11 @@
       </c>
       <c r="AB5" s="3">
         <f t="shared" si="1"/>
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="AC5" s="3">
         <f t="shared" si="2"/>
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="AE5" s="3" t="s">
         <v>66</v>
@@ -5338,7 +5687,9 @@
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
+      <c r="G6" s="3">
+        <v>5</v>
+      </c>
       <c r="H6" s="3"/>
       <c r="I6" s="6">
         <v>3</v>
@@ -5394,11 +5745,11 @@
       </c>
       <c r="AB6" s="3">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="AC6" s="3">
         <f t="shared" si="2"/>
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AE6" s="3" t="s">
         <v>67</v>
@@ -5488,7 +5839,9 @@
       <c r="F8" s="3">
         <v>5</v>
       </c>
-      <c r="G8" s="3"/>
+      <c r="G8" s="3">
+        <v>5</v>
+      </c>
       <c r="H8" s="3"/>
       <c r="I8" s="6">
         <v>3</v>
@@ -5544,11 +5897,11 @@
       </c>
       <c r="AB8" s="3">
         <f t="shared" si="1"/>
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="AC8" s="3">
         <f t="shared" si="2"/>
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="AE8" s="3" t="s">
         <v>69</v>
@@ -5571,8 +5924,12 @@
       <c r="E9" s="3">
         <v>5</v>
       </c>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
+      <c r="F9" s="3">
+        <v>5</v>
+      </c>
+      <c r="G9" s="3">
+        <v>5</v>
+      </c>
       <c r="H9" s="3"/>
       <c r="I9" s="6">
         <v>3</v>
@@ -5628,11 +5985,11 @@
       </c>
       <c r="AB9" s="3">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="AC9" s="3">
         <f t="shared" si="2"/>
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AE9" s="3" t="s">
         <v>70</v>
@@ -5658,7 +6015,9 @@
       <c r="F10" s="3">
         <v>5</v>
       </c>
-      <c r="G10" s="3"/>
+      <c r="G10" s="3">
+        <v>5</v>
+      </c>
       <c r="H10" s="3"/>
       <c r="I10" s="6">
         <v>3</v>
@@ -5714,11 +6073,11 @@
       </c>
       <c r="AB10" s="3">
         <f t="shared" si="1"/>
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="AC10" s="3">
         <f t="shared" si="2"/>
-        <v>65</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:32" x14ac:dyDescent="0.2">
@@ -5873,7 +6232,9 @@
       <c r="E13" s="3">
         <v>5</v>
       </c>
-      <c r="F13" s="3"/>
+      <c r="F13" s="3">
+        <v>5</v>
+      </c>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
       <c r="I13" s="6">
@@ -5904,7 +6265,9 @@
       <c r="R13" s="3">
         <v>3</v>
       </c>
-      <c r="S13" s="3"/>
+      <c r="S13" s="3">
+        <v>3</v>
+      </c>
       <c r="T13" s="3">
         <v>3</v>
       </c>
@@ -5914,7 +6277,9 @@
       <c r="V13" s="3">
         <v>3</v>
       </c>
-      <c r="W13" s="3"/>
+      <c r="W13" s="3">
+        <v>3</v>
+      </c>
       <c r="X13" s="3"/>
       <c r="Y13" s="3"/>
       <c r="Z13" s="3"/>
@@ -5924,11 +6289,11 @@
       </c>
       <c r="AB13" s="3">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="AC13" s="3">
         <f t="shared" si="2"/>
-        <v>51</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:32" x14ac:dyDescent="0.2">
@@ -6088,7 +6453,9 @@
       <c r="F16" s="3">
         <v>5</v>
       </c>
-      <c r="G16" s="3"/>
+      <c r="G16" s="3">
+        <v>5</v>
+      </c>
       <c r="H16" s="3"/>
       <c r="I16" s="6">
         <v>3</v>
@@ -6144,11 +6511,11 @@
       </c>
       <c r="AB16" s="3">
         <f t="shared" si="1"/>
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="AC16" s="3">
         <f t="shared" si="2"/>
-        <v>65</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:29" x14ac:dyDescent="0.2">
@@ -6219,8 +6586,12 @@
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
+      <c r="F18" s="3">
+        <v>5</v>
+      </c>
+      <c r="G18" s="3">
+        <v>5</v>
+      </c>
       <c r="H18" s="3"/>
       <c r="I18" s="6">
         <v>3</v>
@@ -6276,11 +6647,11 @@
       </c>
       <c r="AB18" s="3">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="AC18" s="3">
         <f t="shared" si="2"/>
-        <v>48</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:29" x14ac:dyDescent="0.2">
@@ -6374,7 +6745,9 @@
       <c r="F20" s="3">
         <v>5</v>
       </c>
-      <c r="G20" s="3"/>
+      <c r="G20" s="3">
+        <v>5</v>
+      </c>
       <c r="H20" s="3"/>
       <c r="I20" s="6">
         <v>3</v>
@@ -6418,7 +6791,9 @@
       <c r="V20" s="3">
         <v>3</v>
       </c>
-      <c r="W20" s="3"/>
+      <c r="W20" s="3">
+        <v>3</v>
+      </c>
       <c r="X20" s="3"/>
       <c r="Y20" s="3"/>
       <c r="Z20" s="3"/>
@@ -6428,11 +6803,11 @@
       </c>
       <c r="AB20" s="3">
         <f t="shared" si="1"/>
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="AC20" s="3">
         <f t="shared" si="2"/>
-        <v>62</v>
+        <v>70</v>
       </c>
     </row>
     <row r="21" spans="1:29" x14ac:dyDescent="0.2">
@@ -6452,7 +6827,9 @@
         <v>5</v>
       </c>
       <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
+      <c r="G21" s="3">
+        <v>5</v>
+      </c>
       <c r="H21" s="3"/>
       <c r="I21" s="6">
         <v>3</v>
@@ -6508,14 +6885,14 @@
       </c>
       <c r="AB21" s="3">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="AC21" s="3">
         <f t="shared" si="2"/>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22" spans="1:29" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -6608,7 +6985,9 @@
       <c r="F23" s="3">
         <v>5</v>
       </c>
-      <c r="G23" s="3"/>
+      <c r="G23" s="3">
+        <v>5</v>
+      </c>
       <c r="H23" s="3"/>
       <c r="I23" s="6">
         <v>3</v>
@@ -6652,11 +7031,11 @@
       </c>
       <c r="AB23" s="3">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="AC23" s="3">
         <f t="shared" si="2"/>
-        <v>47</v>
+        <v>52</v>
       </c>
     </row>
     <row r="24" spans="1:29" x14ac:dyDescent="0.2">
@@ -6678,7 +7057,9 @@
       <c r="F24" s="3">
         <v>5</v>
       </c>
-      <c r="G24" s="3"/>
+      <c r="G24" s="3">
+        <v>5</v>
+      </c>
       <c r="H24" s="3"/>
       <c r="I24" s="6">
         <v>3</v>
@@ -6734,11 +7115,11 @@
       </c>
       <c r="AB24" s="3">
         <f t="shared" si="1"/>
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="AC24" s="3">
         <f t="shared" si="2"/>
-        <v>65</v>
+        <v>70</v>
       </c>
     </row>
     <row r="25" spans="1:29" x14ac:dyDescent="0.2">
@@ -6794,7 +7175,9 @@
         <v>3</v>
       </c>
       <c r="V25" s="3"/>
-      <c r="W25" s="3"/>
+      <c r="W25" s="3">
+        <v>2</v>
+      </c>
       <c r="X25" s="3"/>
       <c r="Y25" s="3"/>
       <c r="Z25" s="3"/>
@@ -6804,11 +7187,11 @@
       </c>
       <c r="AB25" s="3">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AC25" s="3">
         <f t="shared" si="2"/>
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26" spans="1:29" x14ac:dyDescent="0.2">
@@ -6970,9 +7353,11 @@
         <v>5</v>
       </c>
       <c r="F28" s="3">
-        <v>2</v>
-      </c>
-      <c r="G28" s="3"/>
+        <v>5</v>
+      </c>
+      <c r="G28" s="3">
+        <v>5</v>
+      </c>
       <c r="H28" s="3"/>
       <c r="I28" s="6">
         <v>3</v>
@@ -7028,11 +7413,11 @@
       </c>
       <c r="AB28" s="3">
         <f t="shared" si="1"/>
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="AC28" s="3">
         <f t="shared" si="2"/>
-        <v>62</v>
+        <v>70</v>
       </c>
     </row>
     <row r="29" spans="1:29" x14ac:dyDescent="0.2">
@@ -7054,7 +7439,9 @@
       <c r="F29" s="3">
         <v>5</v>
       </c>
-      <c r="G29" s="3"/>
+      <c r="G29" s="3">
+        <v>5</v>
+      </c>
       <c r="H29" s="3"/>
       <c r="I29" s="6">
         <v>3</v>
@@ -7110,11 +7497,11 @@
       </c>
       <c r="AB29" s="3">
         <f t="shared" si="1"/>
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="AC29" s="3">
         <f t="shared" si="2"/>
-        <v>65</v>
+        <v>70</v>
       </c>
     </row>
     <row r="30" spans="1:29" x14ac:dyDescent="0.2">
@@ -7274,7 +7661,9 @@
       <c r="F32" s="3">
         <v>5</v>
       </c>
-      <c r="G32" s="3"/>
+      <c r="G32" s="3">
+        <v>5</v>
+      </c>
       <c r="H32" s="3"/>
       <c r="I32" s="6">
         <v>3</v>
@@ -7330,11 +7719,11 @@
       </c>
       <c r="AB32" s="3">
         <f t="shared" si="1"/>
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="AC32" s="3">
         <f t="shared" si="2"/>
-        <v>65</v>
+        <v>70</v>
       </c>
     </row>
     <row r="33" spans="1:29" x14ac:dyDescent="0.2">
@@ -7456,7 +7845,9 @@
       <c r="V34" s="3">
         <v>3</v>
       </c>
-      <c r="W34" s="3"/>
+      <c r="W34" s="3">
+        <v>3</v>
+      </c>
       <c r="X34" s="3"/>
       <c r="Y34" s="3"/>
       <c r="Z34" s="3"/>
@@ -7466,11 +7857,11 @@
       </c>
       <c r="AB34" s="3">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AC34" s="3">
         <f t="shared" si="2"/>
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="35" spans="1:29" x14ac:dyDescent="0.2">
@@ -7486,7 +7877,9 @@
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
+      <c r="G35" s="3">
+        <v>5</v>
+      </c>
       <c r="H35" s="3"/>
       <c r="I35" s="6">
         <v>3</v>
@@ -7532,11 +7925,11 @@
       </c>
       <c r="AB35" s="3">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="AC35" s="3">
         <f t="shared" si="2"/>
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
     <row r="36" spans="1:29" x14ac:dyDescent="0.2">
@@ -7636,7 +8029,9 @@
       <c r="F37" s="3">
         <v>2</v>
       </c>
-      <c r="G37" s="3"/>
+      <c r="G37" s="3">
+        <v>5</v>
+      </c>
       <c r="H37" s="3"/>
       <c r="I37" s="6">
         <v>3</v>
@@ -7688,11 +8083,11 @@
       </c>
       <c r="AB37" s="3">
         <f t="shared" si="1"/>
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="AC37" s="3">
         <f t="shared" si="2"/>
-        <v>56</v>
+        <v>61</v>
       </c>
     </row>
     <row r="38" spans="1:29" x14ac:dyDescent="0.2">

--- a/sem1/СО-ПР-22.xlsx
+++ b/sem1/СО-ПР-22.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thebandik/Library/Mobile Documents/com~apple~CloudDocs/General/Работа/Колледж/GitHub/computer-science/sem1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB70172C-439D-F140-A40F-3D68B63970D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55DFDD0E-59C9-C94E-9BD2-88B50248F418}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="2" xr2:uid="{78B3409E-6B57-FA43-BCC4-C09108445BD6}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Посещаемость 1" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1350" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1552" uniqueCount="70">
   <si>
     <t>№</t>
   </si>
@@ -82,9 +82,6 @@
   </si>
   <si>
     <t>-</t>
-  </si>
-  <si>
-    <t>Шанина Ольга</t>
   </si>
   <si>
     <t>Мальцева Вероника</t>
@@ -234,40 +231,22 @@
     <t>пр15</t>
   </si>
   <si>
-    <t>Лабораторная работа №1</t>
-  </si>
-  <si>
-    <t>Лабораторная работа №2</t>
-  </si>
-  <si>
-    <t>Лабораторная работа №3</t>
-  </si>
-  <si>
-    <t>Лабораторная работа №4</t>
-  </si>
-  <si>
-    <t>Лабораторная работа №5</t>
-  </si>
-  <si>
-    <t>Лабораторная работа №6</t>
-  </si>
-  <si>
-    <t>Практические работы</t>
-  </si>
-  <si>
-    <t>Разбаловка</t>
-  </si>
-  <si>
     <t>Федосеева Юлия</t>
   </si>
   <si>
-    <t>Ат1</t>
+    <t>±</t>
   </si>
   <si>
-    <t>Ат2</t>
+    <t>лаб7</t>
   </si>
   <si>
-    <t>±</t>
+    <t>Оценка</t>
+  </si>
+  <si>
+    <t>лаб8</t>
+  </si>
+  <si>
+    <t>Посещаемость</t>
   </si>
 </sst>
 </file>
@@ -355,7 +334,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -390,14 +369,47 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="11">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -781,17 +793,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4215EFA8-B92E-4C45-9535-33FF4C7A518F}">
-  <dimension ref="A1:AL25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AP25"/>
   <sheetViews>
-    <sheetView zoomScale="184" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="AC2" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="150" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="AD2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AF13" sqref="AF13"/>
+      <selection pane="bottomRight" activeCell="AM18" sqref="AM18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.83203125" bestFit="1" customWidth="1"/>
@@ -806,8 +818,9 @@
     <col min="27" max="28" width="7.83203125" style="4" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="6.83203125" style="4" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="7" style="4" bestFit="1" customWidth="1"/>
-    <col min="31" max="33" width="6.83203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="34" max="37" width="10.83203125" style="4"/>
+    <col min="31" max="35" width="6.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="36" max="38" width="6.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="39" max="42" width="11" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:38" x14ac:dyDescent="0.2">
@@ -910,18 +923,28 @@
       <c r="AG1" s="2">
         <v>45253</v>
       </c>
-      <c r="AH1" s="3"/>
-      <c r="AI1" s="3"/>
-      <c r="AJ1" s="3"/>
-      <c r="AK1" s="3"/>
-      <c r="AL1" s="1"/>
+      <c r="AH1" s="2">
+        <v>45258</v>
+      </c>
+      <c r="AI1" s="2">
+        <v>45260</v>
+      </c>
+      <c r="AJ1" s="2">
+        <v>45261</v>
+      </c>
+      <c r="AK1" s="2">
+        <v>45265</v>
+      </c>
+      <c r="AL1" s="2">
+        <v>45267</v>
+      </c>
     </row>
     <row r="2" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>12</v>
@@ -1016,18 +1039,28 @@
       <c r="AG2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="AH2" s="3"/>
-      <c r="AI2" s="3"/>
-      <c r="AJ2" s="3"/>
-      <c r="AK2" s="3"/>
-      <c r="AL2" s="1"/>
+      <c r="AH2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AI2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AJ2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AK2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AL2" s="3" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="3" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>12</v>
@@ -1039,7 +1072,7 @@
         <v>12</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>12</v>
@@ -1120,20 +1153,30 @@
         <v>12</v>
       </c>
       <c r="AG3" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="AH3" s="3"/>
-      <c r="AI3" s="3"/>
-      <c r="AJ3" s="3"/>
-      <c r="AK3" s="3"/>
-      <c r="AL3" s="1"/>
+        <v>65</v>
+      </c>
+      <c r="AH3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI3" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="AJ3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AK3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AL3" s="3" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="4" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>14</v>
@@ -1228,18 +1271,28 @@
       <c r="AG4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="AH4" s="3"/>
-      <c r="AI4" s="3"/>
-      <c r="AJ4" s="3"/>
-      <c r="AK4" s="3"/>
-      <c r="AL4" s="1"/>
+      <c r="AH4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AJ4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AK4" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="AL4" s="3" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="5" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>12</v>
@@ -1260,25 +1313,25 @@
         <v>12</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P5" s="3" t="s">
         <v>12</v>
@@ -1293,7 +1346,7 @@
         <v>14</v>
       </c>
       <c r="T5" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="U5" s="3" t="s">
         <v>14</v>
@@ -1334,18 +1387,28 @@
       <c r="AG5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="AH5" s="3"/>
-      <c r="AI5" s="3"/>
-      <c r="AJ5" s="3"/>
-      <c r="AK5" s="3"/>
-      <c r="AL5" s="1"/>
+      <c r="AH5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AI5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AK5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AL5" s="3" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="6" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>12</v>
@@ -1414,7 +1477,7 @@
         <v>12</v>
       </c>
       <c r="Y6" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Z6" s="3" t="s">
         <v>12</v>
@@ -1440,18 +1503,28 @@
       <c r="AG6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="AH6" s="3"/>
-      <c r="AI6" s="3"/>
-      <c r="AJ6" s="3"/>
-      <c r="AK6" s="3"/>
-      <c r="AL6" s="1"/>
+      <c r="AH6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI6" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AJ6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AK6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AL6" s="3" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="7" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>12</v>
@@ -1472,7 +1545,7 @@
         <v>12</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J7" s="3" t="s">
         <v>12</v>
@@ -1505,7 +1578,7 @@
         <v>14</v>
       </c>
       <c r="T7" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="U7" s="3" t="s">
         <v>12</v>
@@ -1546,18 +1619,28 @@
       <c r="AG7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="AH7" s="3"/>
-      <c r="AI7" s="3"/>
-      <c r="AJ7" s="3"/>
-      <c r="AK7" s="3"/>
-      <c r="AL7" s="1"/>
+      <c r="AH7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AJ7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AK7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AL7" s="3" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="8" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>12</v>
@@ -1652,18 +1735,28 @@
       <c r="AG8" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="AH8" s="3"/>
-      <c r="AI8" s="3"/>
-      <c r="AJ8" s="3"/>
-      <c r="AK8" s="3"/>
-      <c r="AL8" s="1"/>
+      <c r="AH8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AI8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AJ8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AK8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AL8" s="3" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="9" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>12</v>
@@ -1747,7 +1840,7 @@
         <v>12</v>
       </c>
       <c r="AD9" s="3" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="AE9" s="3" t="s">
         <v>12</v>
@@ -1756,20 +1849,30 @@
         <v>12</v>
       </c>
       <c r="AG9" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="AH9" s="3"/>
-      <c r="AI9" s="3"/>
-      <c r="AJ9" s="3"/>
-      <c r="AK9" s="3"/>
-      <c r="AL9" s="1"/>
+        <v>65</v>
+      </c>
+      <c r="AH9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AK9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AL9" s="3" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="10" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>12</v>
@@ -1844,7 +1947,7 @@
         <v>12</v>
       </c>
       <c r="AA10" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AB10" s="3" t="s">
         <v>12</v>
@@ -1862,20 +1965,30 @@
         <v>12</v>
       </c>
       <c r="AG10" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="AH10" s="3"/>
-      <c r="AI10" s="3"/>
-      <c r="AJ10" s="3"/>
-      <c r="AK10" s="3"/>
-      <c r="AL10" s="1"/>
+        <v>65</v>
+      </c>
+      <c r="AH10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AK10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AL10" s="3" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="11" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>12</v>
@@ -1926,13 +2039,13 @@
         <v>12</v>
       </c>
       <c r="S11" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="T11" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="U11" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="V11" s="3" t="s">
         <v>12</v>
@@ -1956,10 +2069,10 @@
         <v>12</v>
       </c>
       <c r="AC11" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AD11" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AE11" s="3" t="s">
         <v>12</v>
@@ -1970,18 +2083,28 @@
       <c r="AG11" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="AH11" s="3"/>
-      <c r="AI11" s="3"/>
-      <c r="AJ11" s="3"/>
-      <c r="AK11" s="3"/>
-      <c r="AL11" s="1"/>
+      <c r="AH11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AK11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AL11" s="3" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="12" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>14</v>
@@ -2074,20 +2197,30 @@
         <v>12</v>
       </c>
       <c r="AG12" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="AH12" s="3"/>
-      <c r="AI12" s="3"/>
-      <c r="AJ12" s="3"/>
-      <c r="AK12" s="3"/>
-      <c r="AL12" s="1"/>
+        <v>65</v>
+      </c>
+      <c r="AH12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AJ12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AK12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AL12" s="3" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="13" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>12</v>
@@ -2180,20 +2313,30 @@
         <v>12</v>
       </c>
       <c r="AG13" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="AH13" s="3"/>
-      <c r="AI13" s="3"/>
-      <c r="AJ13" s="3"/>
-      <c r="AK13" s="3"/>
-      <c r="AL13" s="1"/>
+        <v>39</v>
+      </c>
+      <c r="AH13" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AK13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AL13" s="3" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="14" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>12</v>
@@ -2288,18 +2431,28 @@
       <c r="AG14" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="AH14" s="3"/>
-      <c r="AI14" s="3"/>
-      <c r="AJ14" s="3"/>
-      <c r="AK14" s="3"/>
-      <c r="AL14" s="1"/>
+      <c r="AH14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AK14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AL14" s="3" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="15" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>12</v>
@@ -2317,7 +2470,7 @@
         <v>12</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>12</v>
@@ -2335,7 +2488,7 @@
         <v>12</v>
       </c>
       <c r="N15" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O15" s="3" t="s">
         <v>14</v>
@@ -2353,7 +2506,7 @@
         <v>14</v>
       </c>
       <c r="T15" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="U15" s="3" t="s">
         <v>12</v>
@@ -2377,7 +2530,7 @@
         <v>12</v>
       </c>
       <c r="AB15" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AC15" s="3" t="s">
         <v>12</v>
@@ -2394,18 +2547,28 @@
       <c r="AG15" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="AH15" s="3"/>
-      <c r="AI15" s="3"/>
-      <c r="AJ15" s="3"/>
-      <c r="AK15" s="3"/>
-      <c r="AL15" s="1"/>
+      <c r="AH15" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AI15" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AJ15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AK15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AL15" s="3" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="16" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>12</v>
@@ -2498,20 +2661,30 @@
         <v>12</v>
       </c>
       <c r="AG16" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="AH16" s="3"/>
-      <c r="AI16" s="3"/>
-      <c r="AJ16" s="3"/>
-      <c r="AK16" s="3"/>
-      <c r="AL16" s="1"/>
+        <v>39</v>
+      </c>
+      <c r="AH16" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI16" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AJ16" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AK16" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AL16" s="3" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="17" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>12</v>
@@ -2544,7 +2717,7 @@
         <v>12</v>
       </c>
       <c r="M17" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N17" s="3" t="s">
         <v>12</v>
@@ -2606,18 +2779,28 @@
       <c r="AG17" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="AH17" s="3"/>
-      <c r="AI17" s="3"/>
-      <c r="AJ17" s="3"/>
-      <c r="AK17" s="3"/>
-      <c r="AL17" s="1"/>
+      <c r="AH17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ17" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AK17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AL17" s="3" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="18" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>12</v>
@@ -2683,13 +2866,13 @@
         <v>14</v>
       </c>
       <c r="X18" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Y18" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Z18" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AA18" s="3" t="s">
         <v>12</v>
@@ -2712,18 +2895,28 @@
       <c r="AG18" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="AH18" s="3"/>
-      <c r="AI18" s="3"/>
-      <c r="AJ18" s="3"/>
-      <c r="AK18" s="3"/>
-      <c r="AL18" s="1"/>
+      <c r="AH18" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI18" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AJ18" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AK18" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AL18" s="3" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="19" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>12</v>
@@ -2818,54 +3011,64 @@
       <c r="AG19" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="AH19" s="3"/>
-      <c r="AI19" s="3"/>
-      <c r="AJ19" s="3"/>
-      <c r="AK19" s="3"/>
-      <c r="AL19" s="1"/>
+      <c r="AH19" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI19" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AJ19" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AK19" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AL19" s="3" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="20" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L20" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M20" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N20" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O20" s="3" t="s">
         <v>12</v>
@@ -2924,11 +3127,21 @@
       <c r="AG20" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="AH20" s="3"/>
-      <c r="AI20" s="3"/>
-      <c r="AJ20" s="3"/>
-      <c r="AK20" s="3"/>
-      <c r="AL20" s="1"/>
+      <c r="AH20" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI20" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="AJ20" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AK20" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AL20" s="3" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="22" spans="1:38" x14ac:dyDescent="0.2">
       <c r="C22" s="4"/>
@@ -2947,16 +3160,16 @@
     <sortCondition ref="B1:B25"/>
   </sortState>
   <conditionalFormatting sqref="A2:XFD20">
-    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="1" operator="equal">
       <formula>"±"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="2" operator="equal">
       <formula>"="</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="3" operator="equal">
       <formula>"+"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="4" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2965,17 +3178,17 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F44A87E8-D92E-4B4A-BFC1-FEFAB9CDC28F}">
-  <dimension ref="A1:AK20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:AQ20"/>
   <sheetViews>
-    <sheetView zoomScale="157" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="AC2" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="173" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="AB2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AM6" sqref="AM6"/>
+      <selection pane="bottomRight" activeCell="AO11" sqref="AO11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.5" bestFit="1" customWidth="1"/>
@@ -2990,11 +3203,12 @@
     <col min="28" max="28" width="6.83203125" style="4" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="7.83203125" style="4" bestFit="1" customWidth="1"/>
     <col min="30" max="34" width="6.83203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="35" max="36" width="7" style="4" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="10.83203125" style="4"/>
+    <col min="35" max="37" width="7" style="4" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="6.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="39" max="42" width="6.6640625" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3103,9 +3317,27 @@
       <c r="AJ1" s="2">
         <v>45254</v>
       </c>
-      <c r="AK1" s="3"/>
+      <c r="AK1" s="2">
+        <v>45258</v>
+      </c>
+      <c r="AL1" s="2">
+        <v>45260</v>
+      </c>
+      <c r="AM1" s="2">
+        <v>45261</v>
+      </c>
+      <c r="AN1" s="2">
+        <v>45265</v>
+      </c>
+      <c r="AO1" s="2">
+        <v>45267</v>
+      </c>
+      <c r="AP1" s="2">
+        <v>45268</v>
+      </c>
+      <c r="AQ1" s="1"/>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -3179,10 +3411,10 @@
         <v>12</v>
       </c>
       <c r="Y2" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Z2" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AA2" s="3" t="s">
         <v>12</v>
@@ -3191,10 +3423,10 @@
         <v>12</v>
       </c>
       <c r="AC2" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AD2" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AE2" s="3" t="s">
         <v>12</v>
@@ -3214,9 +3446,27 @@
       <c r="AJ2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="AK2" s="3"/>
+      <c r="AK2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AL2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AM2" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AN2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AO2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AP2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AQ2" s="1"/>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -3236,7 +3486,7 @@
         <v>12</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>12</v>
@@ -3325,9 +3575,27 @@
       <c r="AJ3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="AK3" s="3"/>
+      <c r="AK3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AL3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AM3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AN3" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="AO3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AP3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AQ3" s="1"/>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -3436,9 +3704,27 @@
       <c r="AJ4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="AK4" s="3"/>
+      <c r="AK4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AL4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AM4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AN4" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="AO4" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AP4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AQ4" s="1"/>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -3467,13 +3753,13 @@
         <v>12</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K5" s="3" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M5" s="3" t="s">
         <v>12</v>
@@ -3482,7 +3768,7 @@
         <v>12</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P5" s="3" t="s">
         <v>12</v>
@@ -3497,7 +3783,7 @@
         <v>12</v>
       </c>
       <c r="T5" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="U5" s="3" t="s">
         <v>12</v>
@@ -3547,9 +3833,27 @@
       <c r="AJ5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="AK5" s="3"/>
+      <c r="AK5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AL5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AM5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AN5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AO5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AP5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AQ5" s="1"/>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -3608,7 +3912,7 @@
         <v>12</v>
       </c>
       <c r="T6" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="U6" s="3" t="s">
         <v>12</v>
@@ -3658,9 +3962,27 @@
       <c r="AJ6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="AK6" s="3"/>
+      <c r="AK6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AL6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AM6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AN6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AO6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AP6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AQ6" s="1"/>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -3769,9 +4091,27 @@
       <c r="AJ7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="AK7" s="3"/>
+      <c r="AK7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AL7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AM7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AN7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AO7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AP7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AQ7" s="1"/>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -3872,7 +4212,7 @@
         <v>12</v>
       </c>
       <c r="AH8" s="3" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="AI8" s="3" t="s">
         <v>14</v>
@@ -3880,9 +4220,27 @@
       <c r="AJ8" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="AK8" s="3"/>
+      <c r="AK8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AL8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AM8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AN8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AO8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AP8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AQ8" s="1"/>
     </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -3956,16 +4314,16 @@
         <v>12</v>
       </c>
       <c r="Y9" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Z9" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AA9" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AB9" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AC9" s="3" t="s">
         <v>14</v>
@@ -3991,9 +4349,27 @@
       <c r="AJ9" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="AK9" s="3"/>
+      <c r="AK9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AL9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AM9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AN9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AO9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AP9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AQ9" s="1"/>
     </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -4034,55 +4410,55 @@
         <v>14</v>
       </c>
       <c r="N10" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O10" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P10" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q10" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="R10" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="S10" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="T10" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="U10" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="V10" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="W10" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="X10" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Y10" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Z10" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AA10" s="3" t="s">
         <v>12</v>
       </c>
       <c r="AB10" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AC10" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AD10" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AE10" s="3" t="s">
         <v>12</v>
@@ -4102,9 +4478,27 @@
       <c r="AJ10" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="AK10" s="3"/>
+      <c r="AK10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AL10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AM10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AN10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AO10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AP10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AQ10" s="1"/>
     </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -4213,9 +4607,27 @@
       <c r="AJ11" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="AK11" s="3"/>
+      <c r="AK11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AL11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AM11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AN11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AO11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AP11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AQ11" s="1"/>
     </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -4223,25 +4635,25 @@
         <v>13</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J12" s="3" t="s">
         <v>12</v>
@@ -4319,19 +4731,37 @@
         <v>14</v>
       </c>
       <c r="AI12" s="3" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="AJ12" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="AK12" s="3"/>
+      <c r="AK12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AL12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AM12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AN12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AO12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AP12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AQ12" s="1"/>
     </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>14</v>
@@ -4370,10 +4800,10 @@
         <v>12</v>
       </c>
       <c r="O13" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P13" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q13" s="3" t="s">
         <v>14</v>
@@ -4435,236 +4865,290 @@
       <c r="AJ13" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="AK13" s="3"/>
+      <c r="AK13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AL13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AM13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AN13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AO13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AP13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AQ13" s="1"/>
     </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="R14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="S14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="T14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="U14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="V14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="W14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="X14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AD14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF14" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AG14" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH14" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI14" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AJ14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AK14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AL14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AM14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AN14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AO14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AP14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AQ14" s="1"/>
+    </row>
+    <row r="15" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="P14" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q14" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="R14" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="S14" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="T14" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="U14" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="V14" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="W14" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="X14" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y14" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="Z14" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="AA14" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="AB14" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="AC14" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="AD14" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="AE14" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="AF14" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="AG14" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="AH14" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="AI14" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="AJ14" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="AK14" s="3"/>
+      <c r="C15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="O15" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="P15" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q15" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="R15" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="S15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="T15" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="U15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="V15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="W15" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="X15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y15" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB15" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC15" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AD15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE15" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF15" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AG15" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AH15" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AI15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AK15" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AL15" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AM15" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AN15" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AO15" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AP15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AQ15" s="1"/>
     </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A15" s="1">
-        <v>14</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="K15" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="L15" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="M15" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="N15" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="O15" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="P15" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q15" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="R15" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="S15" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="T15" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="U15" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="V15" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="W15" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="X15" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y15" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="Z15" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="AA15" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="AB15" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="AC15" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="AD15" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="AE15" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="AF15" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="AG15" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="AH15" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="AI15" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="AJ15" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="AK15" s="3"/>
-    </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>12</v>
@@ -4694,13 +5178,13 @@
         <v>12</v>
       </c>
       <c r="L16" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M16" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N16" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O16" s="3" t="s">
         <v>14</v>
@@ -4768,14 +5252,32 @@
       <c r="AJ16" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="AK16" s="3"/>
+      <c r="AK16" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AL16" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AM16" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AN16" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AO16" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AP16" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AQ16" s="1"/>
     </row>
-    <row r="17" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>12</v>
@@ -4871,7 +5373,7 @@
         <v>14</v>
       </c>
       <c r="AH17" s="3" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="AI17" s="3" t="s">
         <v>14</v>
@@ -4879,14 +5381,32 @@
       <c r="AJ17" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="AK17" s="3"/>
+      <c r="AK17" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AL17" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AM17" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AN17" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AO17" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AP17" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AQ17" s="1"/>
     </row>
-    <row r="18" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>12</v>
@@ -4990,41 +5510,59 @@
       <c r="AJ18" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="AK18" s="3"/>
+      <c r="AK18" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AL18" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AM18" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AN18" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AO18" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AP18" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AQ18" s="1"/>
     </row>
-    <row r="19" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H19" s="3" t="s">
         <v>12</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L19" s="3" t="s">
         <v>12</v>
@@ -5101,17 +5639,35 @@
       <c r="AJ19" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="AK19" s="3"/>
+      <c r="AK19" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AL19" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AM19" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AN19" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AO19" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AP19" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AQ19" s="1"/>
     </row>
-    <row r="20" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>12</v>
@@ -5212,20 +5768,38 @@
       <c r="AJ20" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="AK20" s="3"/>
+      <c r="AK20" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AL20" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AM20" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AN20" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AO20" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AP20" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AQ20" s="1"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:XFD20">
-    <cfRule type="cellIs" dxfId="3" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="1" stopIfTrue="1" operator="equal">
       <formula>"±"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
       <formula>"="</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
       <formula>"+"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5234,24 +5808,27 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39845E33-B198-1749-A96D-46C57A0F57AA}">
-  <dimension ref="A1:AF40"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:AF39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="150" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G19" sqref="G19"/>
+      <selection pane="bottomRight" activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.5" bestFit="1" customWidth="1"/>
     <col min="3" max="8" width="5.1640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="17" width="4.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="18" max="26" width="5.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="4.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="5.1640625" style="4" customWidth="1"/>
+    <col min="11" max="19" width="4.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="20" max="25" width="5.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="7.5" style="4" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="5" style="4" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="23.5" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="8.6640625" bestFit="1" customWidth="1"/>
@@ -5265,79 +5842,82 @@
         <v>1</v>
       </c>
       <c r="C1" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="E1" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="F1" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="G1" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="H1" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="I1" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="J1" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="K1" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="L1" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="M1" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="N1" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="O1" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="P1" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q1" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="I1" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="J1" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="K1" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="L1" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="M1" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="N1" s="13" t="s">
+      <c r="R1" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="S1" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="T1" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="U1" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="V1" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="W1" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="X1" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y1" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z1" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA1" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="O1" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="P1" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q1" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="R1" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="S1" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="T1" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="U1" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="V1" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="W1" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="X1" s="13"/>
-      <c r="Y1" s="13"/>
-      <c r="Z1" s="13"/>
-      <c r="AA1" s="8" t="s">
-        <v>74</v>
-      </c>
       <c r="AB1" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="AC1" s="8" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.2">
@@ -5345,25 +5925,21 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C2" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D2" s="3">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
-      <c r="I2" s="6">
-        <v>3</v>
-      </c>
-      <c r="J2" s="3">
-        <v>3</v>
-      </c>
-      <c r="K2" s="3">
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6">
         <v>3</v>
       </c>
       <c r="L2" s="3">
@@ -5372,8 +5948,12 @@
       <c r="M2" s="3">
         <v>3</v>
       </c>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
+      <c r="N2" s="3">
+        <v>3</v>
+      </c>
+      <c r="O2" s="3">
+        <v>3</v>
+      </c>
       <c r="P2" s="3"/>
       <c r="Q2" s="3"/>
       <c r="R2" s="3"/>
@@ -5384,23 +5964,14 @@
       <c r="W2" s="3"/>
       <c r="X2" s="3"/>
       <c r="Y2" s="3"/>
-      <c r="Z2" s="3"/>
+      <c r="Z2" s="1"/>
       <c r="AA2" s="3">
-        <f t="shared" ref="AA2:AA40" si="0">SUM(C2:D2,I2:R2)</f>
-        <v>25</v>
-      </c>
-      <c r="AB2" s="3">
-        <f t="shared" ref="AB2:AB40" si="1">SUM(E2:H2,S2:Z2)</f>
-        <v>0</v>
-      </c>
-      <c r="AC2" s="3">
-        <f>SUM(AA2:AB2)</f>
-        <v>25</v>
-      </c>
-      <c r="AE2" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="AF2" s="14"/>
+        <f>SUM(C2:Z2)</f>
+        <v>30</v>
+      </c>
+      <c r="AB2" s="3"/>
+      <c r="AE2" s="15"/>
+      <c r="AF2" s="15"/>
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
@@ -5410,28 +5981,28 @@
         <v>6</v>
       </c>
       <c r="C3" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D3" s="3">
+        <v>10</v>
+      </c>
+      <c r="E3" s="3">
         <v>7</v>
       </c>
-      <c r="E3" s="3">
-        <v>5</v>
-      </c>
       <c r="F3" s="3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G3" s="3">
         <v>5</v>
       </c>
-      <c r="H3" s="3"/>
+      <c r="H3" s="3">
+        <v>5</v>
+      </c>
       <c r="I3" s="6">
         <v>3</v>
       </c>
-      <c r="J3" s="3">
-        <v>3</v>
-      </c>
-      <c r="K3" s="3">
+      <c r="J3" s="6"/>
+      <c r="K3" s="6">
         <v>3</v>
       </c>
       <c r="L3" s="3">
@@ -5470,27 +6041,20 @@
       <c r="W3" s="3">
         <v>3</v>
       </c>
-      <c r="X3" s="3"/>
-      <c r="Y3" s="3"/>
-      <c r="Z3" s="3"/>
+      <c r="X3" s="3">
+        <v>3</v>
+      </c>
+      <c r="Y3" s="3">
+        <v>3</v>
+      </c>
+      <c r="Z3" s="1"/>
       <c r="AA3" s="3">
-        <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-      <c r="AB3" s="3">
-        <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
-      <c r="AC3" s="3">
-        <f t="shared" ref="AC3:AC40" si="2">SUM(AA3:AB3)</f>
-        <v>70</v>
-      </c>
-      <c r="AE3" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="AF3" s="3">
-        <v>3</v>
-      </c>
+        <f t="shared" ref="AA3:AA37" si="0">SUM(C3:Z3)</f>
+        <v>87</v>
+      </c>
+      <c r="AB3" s="3"/>
+      <c r="AE3" s="4"/>
+      <c r="AF3" s="4"/>
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
@@ -5500,28 +6064,28 @@
         <v>3</v>
       </c>
       <c r="C4" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D4" s="3">
+        <v>10</v>
+      </c>
+      <c r="E4" s="3">
         <v>7</v>
       </c>
-      <c r="E4" s="3">
-        <v>5</v>
-      </c>
       <c r="F4" s="3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G4" s="3">
         <v>5</v>
       </c>
-      <c r="H4" s="3"/>
+      <c r="H4" s="3">
+        <v>5</v>
+      </c>
       <c r="I4" s="6">
-        <v>3</v>
-      </c>
-      <c r="J4" s="3">
-        <v>3</v>
-      </c>
-      <c r="K4" s="3">
+        <v>5</v>
+      </c>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6">
         <v>3</v>
       </c>
       <c r="L4" s="3">
@@ -5560,27 +6124,20 @@
       <c r="W4" s="3">
         <v>3</v>
       </c>
-      <c r="X4" s="3"/>
-      <c r="Y4" s="3"/>
-      <c r="Z4" s="3"/>
+      <c r="X4" s="3">
+        <v>3</v>
+      </c>
+      <c r="Y4" s="3">
+        <v>3</v>
+      </c>
+      <c r="Z4" s="1"/>
       <c r="AA4" s="3">
         <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-      <c r="AB4" s="3">
-        <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
-      <c r="AC4" s="3">
-        <f t="shared" si="2"/>
-        <v>70</v>
-      </c>
-      <c r="AE4" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="AF4" s="3">
-        <v>3</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="AB4" s="3"/>
+      <c r="AE4" s="4"/>
+      <c r="AF4" s="4"/>
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
@@ -5590,28 +6147,28 @@
         <v>2</v>
       </c>
       <c r="C5" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D5" s="3">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E5" s="3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F5" s="3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G5" s="3">
         <v>5</v>
       </c>
-      <c r="H5" s="3"/>
+      <c r="H5" s="3">
+        <v>5</v>
+      </c>
       <c r="I5" s="6">
-        <v>3</v>
-      </c>
-      <c r="J5" s="3">
-        <v>3</v>
-      </c>
-      <c r="K5" s="3">
+        <v>5</v>
+      </c>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6">
         <v>3</v>
       </c>
       <c r="L5" s="3">
@@ -5650,54 +6207,49 @@
       <c r="W5" s="3">
         <v>3</v>
       </c>
-      <c r="X5" s="3"/>
-      <c r="Y5" s="3"/>
-      <c r="Z5" s="3"/>
+      <c r="X5" s="3">
+        <v>3</v>
+      </c>
+      <c r="Y5" s="3">
+        <v>3</v>
+      </c>
+      <c r="Z5" s="1"/>
       <c r="AA5" s="3">
         <f t="shared" si="0"/>
-        <v>42</v>
-      </c>
-      <c r="AB5" s="3">
-        <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
-      <c r="AC5" s="3">
-        <f t="shared" si="2"/>
-        <v>72</v>
-      </c>
-      <c r="AE5" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="AF5" s="3">
-        <v>7</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="AB5" s="3"/>
+      <c r="AE5" s="4"/>
+      <c r="AF5" s="4"/>
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C6" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D6" s="3">
+        <v>10</v>
+      </c>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3">
         <v>7</v>
       </c>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
       <c r="G6" s="3">
         <v>5</v>
       </c>
-      <c r="H6" s="3"/>
+      <c r="H6" s="3">
+        <v>5</v>
+      </c>
       <c r="I6" s="6">
         <v>3</v>
       </c>
-      <c r="J6" s="3">
-        <v>3</v>
-      </c>
-      <c r="K6" s="3">
+      <c r="J6" s="6"/>
+      <c r="K6" s="6">
         <v>3</v>
       </c>
       <c r="L6" s="3">
@@ -5736,27 +6288,20 @@
       <c r="W6" s="3">
         <v>3</v>
       </c>
-      <c r="X6" s="3"/>
-      <c r="Y6" s="3"/>
-      <c r="Z6" s="3"/>
+      <c r="X6" s="3">
+        <v>3</v>
+      </c>
+      <c r="Y6" s="3">
+        <v>3</v>
+      </c>
+      <c r="Z6" s="1"/>
       <c r="AA6" s="3">
         <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-      <c r="AB6" s="3">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="AC6" s="3">
-        <f t="shared" si="2"/>
-        <v>60</v>
-      </c>
-      <c r="AE6" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="AF6" s="3">
-        <v>5</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="AB6" s="3"/>
+      <c r="AE6" s="4"/>
+      <c r="AF6" s="4"/>
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
@@ -5771,13 +6316,9 @@
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
-      <c r="I7" s="6">
-        <v>3</v>
-      </c>
-      <c r="J7" s="3">
-        <v>3</v>
-      </c>
-      <c r="K7" s="3">
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6">
         <v>3</v>
       </c>
       <c r="L7" s="3">
@@ -5792,8 +6333,12 @@
       <c r="O7" s="3">
         <v>3</v>
       </c>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="3"/>
+      <c r="P7" s="3">
+        <v>3</v>
+      </c>
+      <c r="Q7" s="3">
+        <v>3</v>
+      </c>
       <c r="R7" s="3"/>
       <c r="S7" s="3"/>
       <c r="T7" s="3"/>
@@ -5802,54 +6347,45 @@
       <c r="W7" s="3"/>
       <c r="X7" s="3"/>
       <c r="Y7" s="3"/>
-      <c r="Z7" s="3"/>
+      <c r="Z7" s="1"/>
       <c r="AA7" s="3">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="AB7" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AC7" s="3">
-        <f t="shared" si="2"/>
-        <v>21</v>
-      </c>
-      <c r="AE7" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="AF7" s="3">
-        <v>5</v>
-      </c>
+      <c r="AB7" s="3"/>
+      <c r="AE7" s="4"/>
+      <c r="AF7" s="4"/>
     </row>
     <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="3"/>
+        <v>22</v>
+      </c>
+      <c r="C8" s="3">
+        <v>5</v>
+      </c>
       <c r="D8" s="3">
+        <v>10</v>
+      </c>
+      <c r="E8" s="3">
         <v>7</v>
       </c>
-      <c r="E8" s="3">
-        <v>5</v>
-      </c>
       <c r="F8" s="3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G8" s="3">
         <v>5</v>
       </c>
-      <c r="H8" s="3"/>
+      <c r="H8" s="3">
+        <v>5</v>
+      </c>
       <c r="I8" s="6">
-        <v>3</v>
-      </c>
-      <c r="J8" s="3">
-        <v>3</v>
-      </c>
-      <c r="K8" s="3">
+        <v>5</v>
+      </c>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6">
         <v>3</v>
       </c>
       <c r="L8" s="3">
@@ -5888,27 +6424,22 @@
       <c r="W8" s="3">
         <v>3</v>
       </c>
-      <c r="X8" s="3"/>
-      <c r="Y8" s="3"/>
-      <c r="Z8" s="3"/>
+      <c r="X8" s="3">
+        <v>3</v>
+      </c>
+      <c r="Y8" s="3">
+        <v>3</v>
+      </c>
+      <c r="Z8" s="1"/>
       <c r="AA8" s="3">
         <f t="shared" si="0"/>
-        <v>37</v>
-      </c>
-      <c r="AB8" s="3">
-        <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
-      <c r="AC8" s="3">
-        <f t="shared" si="2"/>
-        <v>67</v>
-      </c>
-      <c r="AE8" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="AF8" s="3"/>
+        <v>89</v>
+      </c>
+      <c r="AB8" s="3"/>
+      <c r="AE8" s="4"/>
+      <c r="AF8" s="4"/>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -5916,28 +6447,28 @@
         <v>8</v>
       </c>
       <c r="C9" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>10</v>
+      </c>
+      <c r="E9" s="3">
         <v>7</v>
       </c>
-      <c r="E9" s="3">
-        <v>5</v>
-      </c>
       <c r="F9" s="3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G9" s="3">
         <v>5</v>
       </c>
-      <c r="H9" s="3"/>
+      <c r="H9" s="3">
+        <v>5</v>
+      </c>
       <c r="I9" s="6">
-        <v>3</v>
-      </c>
-      <c r="J9" s="3">
-        <v>3</v>
-      </c>
-      <c r="K9" s="3">
+        <v>5</v>
+      </c>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6">
         <v>3</v>
       </c>
       <c r="L9" s="3">
@@ -5976,25 +6507,20 @@
       <c r="W9" s="3">
         <v>3</v>
       </c>
-      <c r="X9" s="3"/>
-      <c r="Y9" s="3"/>
-      <c r="Z9" s="3"/>
+      <c r="X9" s="3">
+        <v>3</v>
+      </c>
+      <c r="Y9" s="3">
+        <v>3</v>
+      </c>
+      <c r="Z9" s="1"/>
       <c r="AA9" s="3">
         <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-      <c r="AB9" s="3">
-        <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
-      <c r="AC9" s="3">
-        <f t="shared" si="2"/>
-        <v>70</v>
-      </c>
-      <c r="AE9" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="AF9" s="3"/>
+        <v>89</v>
+      </c>
+      <c r="AB9" s="3"/>
+      <c r="AE9" s="4"/>
+      <c r="AF9" s="4"/>
     </row>
     <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
@@ -6004,28 +6530,28 @@
         <v>11</v>
       </c>
       <c r="C10" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>10</v>
+      </c>
+      <c r="E10" s="3">
         <v>7</v>
       </c>
-      <c r="E10" s="3">
-        <v>5</v>
-      </c>
       <c r="F10" s="3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G10" s="3">
         <v>5</v>
       </c>
-      <c r="H10" s="3"/>
+      <c r="H10" s="3">
+        <v>5</v>
+      </c>
       <c r="I10" s="6">
-        <v>3</v>
-      </c>
-      <c r="J10" s="3">
-        <v>3</v>
-      </c>
-      <c r="K10" s="3">
+        <v>5</v>
+      </c>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6">
         <v>3</v>
       </c>
       <c r="L10" s="3">
@@ -6064,48 +6590,41 @@
       <c r="W10" s="3">
         <v>3</v>
       </c>
-      <c r="X10" s="3"/>
-      <c r="Y10" s="3"/>
-      <c r="Z10" s="3"/>
+      <c r="X10" s="3">
+        <v>3</v>
+      </c>
+      <c r="Y10" s="3">
+        <v>3</v>
+      </c>
+      <c r="Z10" s="1"/>
       <c r="AA10" s="3">
         <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-      <c r="AB10" s="3">
-        <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
-      <c r="AC10" s="3">
-        <f t="shared" si="2"/>
-        <v>70</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="AB10" s="3"/>
     </row>
     <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C11" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D11" s="3">
+        <v>10</v>
+      </c>
+      <c r="E11" s="3">
         <v>7</v>
-      </c>
-      <c r="E11" s="3">
-        <v>5</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
-      <c r="I11" s="6">
-        <v>3</v>
-      </c>
-      <c r="J11" s="3">
-        <v>3</v>
-      </c>
-      <c r="K11" s="3">
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6">
         <v>3</v>
       </c>
       <c r="L11" s="3">
@@ -6120,58 +6639,57 @@
       <c r="O11" s="3">
         <v>3</v>
       </c>
-      <c r="P11" s="3"/>
+      <c r="P11" s="3">
+        <v>3</v>
+      </c>
       <c r="Q11" s="3">
         <v>3</v>
       </c>
-      <c r="R11" s="3"/>
-      <c r="S11" s="3"/>
+      <c r="R11" s="3">
+        <v>3</v>
+      </c>
+      <c r="S11" s="3">
+        <v>3</v>
+      </c>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-      <c r="Z11" s="3"/>
+      <c r="Z11" s="1"/>
       <c r="AA11" s="3">
         <f t="shared" si="0"/>
-        <v>33</v>
-      </c>
-      <c r="AB11" s="3">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="AC11" s="3">
-        <f t="shared" si="2"/>
-        <v>38</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="AB11" s="3"/>
     </row>
     <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C12" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D12" s="3">
+        <v>10</v>
+      </c>
+      <c r="E12" s="3">
         <v>7</v>
       </c>
-      <c r="E12" s="3">
-        <v>5</v>
-      </c>
-      <c r="F12" s="3"/>
+      <c r="F12" s="3">
+        <v>7</v>
+      </c>
       <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="6">
-        <v>3</v>
-      </c>
-      <c r="J12" s="3">
-        <v>3</v>
-      </c>
-      <c r="K12" s="3">
+      <c r="H12" s="3">
+        <v>5</v>
+      </c>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6">
         <v>3</v>
       </c>
       <c r="L12" s="3">
@@ -6195,55 +6713,50 @@
       <c r="R12" s="3">
         <v>3</v>
       </c>
-      <c r="S12" s="3"/>
-      <c r="T12" s="3"/>
+      <c r="S12" s="3">
+        <v>3</v>
+      </c>
+      <c r="T12" s="3">
+        <v>3</v>
+      </c>
       <c r="U12" s="3"/>
       <c r="V12" s="3"/>
       <c r="W12" s="3"/>
       <c r="X12" s="3"/>
       <c r="Y12" s="3"/>
-      <c r="Z12" s="3"/>
+      <c r="Z12" s="1"/>
       <c r="AA12" s="3">
         <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-      <c r="AB12" s="3">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="AC12" s="3">
-        <f t="shared" si="2"/>
-        <v>45</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="AB12" s="3"/>
     </row>
     <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C13" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D13" s="3">
+        <v>10</v>
+      </c>
+      <c r="E13" s="3">
         <v>7</v>
       </c>
-      <c r="E13" s="3">
-        <v>5</v>
-      </c>
       <c r="F13" s="3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="6">
-        <v>3</v>
-      </c>
-      <c r="J13" s="3">
-        <v>3</v>
-      </c>
-      <c r="K13" s="3">
+      <c r="H13" s="3">
+        <v>5</v>
+      </c>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6">
         <v>3</v>
       </c>
       <c r="L13" s="3">
@@ -6255,13 +6768,13 @@
       <c r="N13" s="3">
         <v>3</v>
       </c>
-      <c r="O13" s="3"/>
+      <c r="O13" s="3">
+        <v>3</v>
+      </c>
       <c r="P13" s="3">
         <v>3</v>
       </c>
-      <c r="Q13" s="3">
-        <v>3</v>
-      </c>
+      <c r="Q13" s="3"/>
       <c r="R13" s="3">
         <v>3</v>
       </c>
@@ -6280,21 +6793,18 @@
       <c r="W13" s="3">
         <v>3</v>
       </c>
-      <c r="X13" s="3"/>
-      <c r="Y13" s="3"/>
-      <c r="Z13" s="3"/>
+      <c r="X13" s="3">
+        <v>3</v>
+      </c>
+      <c r="Y13" s="3">
+        <v>3</v>
+      </c>
+      <c r="Z13" s="1"/>
       <c r="AA13" s="3">
         <f t="shared" si="0"/>
-        <v>37</v>
-      </c>
-      <c r="AB13" s="3">
-        <f t="shared" si="1"/>
-        <v>25</v>
-      </c>
-      <c r="AC13" s="3">
-        <f t="shared" si="2"/>
-        <v>62</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="AB13" s="3"/>
     </row>
     <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
@@ -6304,20 +6814,16 @@
         <v>9</v>
       </c>
       <c r="C14" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
-      <c r="I14" s="6">
-        <v>3</v>
-      </c>
-      <c r="J14" s="3">
-        <v>3</v>
-      </c>
-      <c r="K14" s="3">
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6">
         <v>3</v>
       </c>
       <c r="L14" s="3">
@@ -6326,62 +6832,63 @@
       <c r="M14" s="3">
         <v>3</v>
       </c>
-      <c r="N14" s="3"/>
-      <c r="O14" s="3"/>
-      <c r="P14" s="3">
-        <v>3</v>
-      </c>
+      <c r="N14" s="3">
+        <v>3</v>
+      </c>
+      <c r="O14" s="3">
+        <v>3</v>
+      </c>
+      <c r="P14" s="3"/>
       <c r="Q14" s="3"/>
-      <c r="R14" s="3"/>
+      <c r="R14" s="3">
+        <v>3</v>
+      </c>
       <c r="S14" s="3"/>
-      <c r="T14" s="3"/>
-      <c r="U14" s="3"/>
-      <c r="V14" s="3"/>
+      <c r="T14" s="3">
+        <v>3</v>
+      </c>
+      <c r="U14" s="3">
+        <v>3</v>
+      </c>
+      <c r="V14" s="3">
+        <v>3</v>
+      </c>
       <c r="W14" s="3"/>
       <c r="X14" s="3"/>
       <c r="Y14" s="3"/>
-      <c r="Z14" s="3"/>
+      <c r="Z14" s="1"/>
       <c r="AA14" s="3">
         <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="AB14" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AC14" s="3">
-        <f t="shared" si="2"/>
-        <v>21</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="AB14" s="3"/>
     </row>
     <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C15" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D15" s="3">
+        <v>10</v>
+      </c>
+      <c r="E15" s="3">
         <v>7</v>
       </c>
-      <c r="E15" s="3">
-        <v>5</v>
-      </c>
       <c r="F15" s="3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="6">
-        <v>3</v>
-      </c>
-      <c r="J15" s="3">
-        <v>3</v>
-      </c>
-      <c r="K15" s="3">
+      <c r="H15" s="3">
+        <v>5</v>
+      </c>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6">
         <v>3</v>
       </c>
       <c r="L15" s="3">
@@ -6412,27 +6919,24 @@
         <v>3</v>
       </c>
       <c r="U15" s="3">
+        <v>3</v>
+      </c>
+      <c r="V15" s="3">
+        <v>3</v>
+      </c>
+      <c r="W15" s="3">
         <v>2</v>
       </c>
-      <c r="V15" s="3">
-        <v>3</v>
-      </c>
-      <c r="W15" s="3"/>
-      <c r="X15" s="3"/>
+      <c r="X15" s="3">
+        <v>3</v>
+      </c>
       <c r="Y15" s="3"/>
-      <c r="Z15" s="3"/>
+      <c r="Z15" s="1"/>
       <c r="AA15" s="3">
         <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-      <c r="AB15" s="3">
-        <f t="shared" si="1"/>
-        <v>21</v>
-      </c>
-      <c r="AC15" s="3">
-        <f t="shared" si="2"/>
-        <v>61</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="AB15" s="3"/>
     </row>
     <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
@@ -6442,28 +6946,28 @@
         <v>5</v>
       </c>
       <c r="C16" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D16" s="3">
+        <v>10</v>
+      </c>
+      <c r="E16" s="3">
         <v>7</v>
       </c>
-      <c r="E16" s="3">
-        <v>5</v>
-      </c>
       <c r="F16" s="3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G16" s="3">
         <v>5</v>
       </c>
-      <c r="H16" s="3"/>
+      <c r="H16" s="3">
+        <v>5</v>
+      </c>
       <c r="I16" s="6">
         <v>3</v>
       </c>
-      <c r="J16" s="3">
-        <v>3</v>
-      </c>
-      <c r="K16" s="3">
+      <c r="J16" s="6"/>
+      <c r="K16" s="6">
         <v>3</v>
       </c>
       <c r="L16" s="3">
@@ -6502,23 +7006,20 @@
       <c r="W16" s="3">
         <v>3</v>
       </c>
-      <c r="X16" s="3"/>
-      <c r="Y16" s="3"/>
-      <c r="Z16" s="3"/>
+      <c r="X16" s="3">
+        <v>3</v>
+      </c>
+      <c r="Y16" s="3">
+        <v>3</v>
+      </c>
+      <c r="Z16" s="1"/>
       <c r="AA16" s="3">
         <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-      <c r="AB16" s="3">
-        <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
-      <c r="AC16" s="3">
-        <f t="shared" si="2"/>
-        <v>70</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="AB16" s="3"/>
     </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -6526,32 +7027,34 @@
         <v>10</v>
       </c>
       <c r="C17" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
-      <c r="I17" s="6">
-        <v>3</v>
-      </c>
-      <c r="J17" s="3">
-        <v>3</v>
-      </c>
-      <c r="K17" s="3">
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6">
         <v>3</v>
       </c>
       <c r="L17" s="3">
         <v>3</v>
       </c>
-      <c r="M17" s="3"/>
+      <c r="M17" s="3">
+        <v>3</v>
+      </c>
       <c r="N17" s="3">
         <v>3</v>
       </c>
       <c r="O17" s="3"/>
-      <c r="P17" s="3"/>
-      <c r="Q17" s="3"/>
+      <c r="P17" s="3">
+        <v>3</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>3</v>
+      </c>
       <c r="R17" s="3"/>
       <c r="S17" s="3"/>
       <c r="T17" s="3"/>
@@ -6560,46 +7063,35 @@
       <c r="W17" s="3"/>
       <c r="X17" s="3"/>
       <c r="Y17" s="3"/>
-      <c r="Z17" s="3"/>
+      <c r="Z17" s="1"/>
       <c r="AA17" s="3">
         <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="AB17" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AC17" s="3">
-        <f t="shared" si="2"/>
-        <v>18</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="AB17" s="3"/>
     </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C18" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
       <c r="F18" s="3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G18" s="3">
         <v>5</v>
       </c>
       <c r="H18" s="3"/>
-      <c r="I18" s="6">
-        <v>3</v>
-      </c>
-      <c r="J18" s="3">
-        <v>3</v>
-      </c>
-      <c r="K18" s="3">
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6">
         <v>3</v>
       </c>
       <c r="L18" s="3">
@@ -6638,44 +7130,37 @@
       <c r="W18" s="3">
         <v>3</v>
       </c>
-      <c r="X18" s="3"/>
-      <c r="Y18" s="3"/>
-      <c r="Z18" s="3"/>
+      <c r="X18" s="3">
+        <v>3</v>
+      </c>
+      <c r="Y18" s="3">
+        <v>3</v>
+      </c>
+      <c r="Z18" s="1"/>
       <c r="AA18" s="3">
         <f t="shared" si="0"/>
-        <v>33</v>
-      </c>
-      <c r="AB18" s="3">
-        <f t="shared" si="1"/>
-        <v>25</v>
-      </c>
-      <c r="AC18" s="3">
-        <f t="shared" si="2"/>
-        <v>58</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="AB18" s="3"/>
     </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C19" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
-      <c r="I19" s="6">
-        <v>3</v>
-      </c>
-      <c r="J19" s="3">
-        <v>3</v>
-      </c>
-      <c r="K19" s="3">
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6">
         <v>3</v>
       </c>
       <c r="L19" s="3">
@@ -6708,25 +7193,22 @@
       <c r="U19" s="3">
         <v>3</v>
       </c>
-      <c r="V19" s="3"/>
-      <c r="W19" s="3"/>
+      <c r="V19" s="3">
+        <v>3</v>
+      </c>
+      <c r="W19" s="3">
+        <v>3</v>
+      </c>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-      <c r="Z19" s="3"/>
+      <c r="Z19" s="1"/>
       <c r="AA19" s="3">
         <f t="shared" si="0"/>
-        <v>33</v>
-      </c>
-      <c r="AB19" s="3">
-        <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="AC19" s="3">
-        <f t="shared" si="2"/>
-        <v>42</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="AB19" s="3"/>
     </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -6734,28 +7216,28 @@
         <v>4</v>
       </c>
       <c r="C20" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D20" s="3">
+        <v>10</v>
+      </c>
+      <c r="E20" s="3">
         <v>7</v>
       </c>
-      <c r="E20" s="3">
-        <v>5</v>
-      </c>
       <c r="F20" s="3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G20" s="3">
         <v>5</v>
       </c>
-      <c r="H20" s="3"/>
+      <c r="H20" s="3">
+        <v>5</v>
+      </c>
       <c r="I20" s="6">
-        <v>3</v>
-      </c>
-      <c r="J20" s="3">
-        <v>3</v>
-      </c>
-      <c r="K20" s="3">
+        <v>5</v>
+      </c>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6">
         <v>3</v>
       </c>
       <c r="L20" s="3">
@@ -6794,50 +7276,49 @@
       <c r="W20" s="3">
         <v>3</v>
       </c>
-      <c r="X20" s="3"/>
-      <c r="Y20" s="3"/>
-      <c r="Z20" s="3"/>
+      <c r="X20" s="3">
+        <v>3</v>
+      </c>
+      <c r="Y20" s="3">
+        <v>3</v>
+      </c>
+      <c r="Z20" s="1"/>
       <c r="AA20" s="3">
         <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-      <c r="AB20" s="3">
-        <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
-      <c r="AC20" s="3">
-        <f t="shared" si="2"/>
-        <v>70</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="AB20" s="3"/>
     </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C21" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D21" s="3">
+        <v>10</v>
+      </c>
+      <c r="E21" s="3">
         <v>7</v>
       </c>
-      <c r="E21" s="3">
-        <v>5</v>
-      </c>
-      <c r="F21" s="3"/>
+      <c r="F21" s="3">
+        <v>7</v>
+      </c>
       <c r="G21" s="3">
         <v>5</v>
       </c>
-      <c r="H21" s="3"/>
+      <c r="H21" s="3">
+        <v>5</v>
+      </c>
       <c r="I21" s="6">
-        <v>3</v>
-      </c>
-      <c r="J21" s="3">
-        <v>3</v>
-      </c>
-      <c r="K21" s="3">
+        <v>5</v>
+      </c>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6">
         <v>3</v>
       </c>
       <c r="L21" s="3">
@@ -6876,48 +7357,45 @@
       <c r="W21" s="3">
         <v>3</v>
       </c>
-      <c r="X21" s="3"/>
-      <c r="Y21" s="3"/>
-      <c r="Z21" s="3"/>
+      <c r="X21" s="3">
+        <v>3</v>
+      </c>
+      <c r="Y21" s="3">
+        <v>3</v>
+      </c>
+      <c r="Z21" s="1"/>
       <c r="AA21" s="3">
         <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-      <c r="AB21" s="3">
-        <f t="shared" si="1"/>
-        <v>25</v>
-      </c>
-      <c r="AC21" s="3">
-        <f t="shared" si="2"/>
-        <v>65</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="AB21" s="3"/>
     </row>
-    <row r="22" spans="1:29" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:28" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C22" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D22" s="3">
+        <v>10</v>
+      </c>
+      <c r="E22" s="3">
         <v>7</v>
       </c>
-      <c r="E22" s="3">
-        <v>5</v>
-      </c>
       <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="6">
-        <v>3</v>
-      </c>
-      <c r="J22" s="3">
-        <v>3</v>
-      </c>
-      <c r="K22" s="3">
+      <c r="G22" s="3">
+        <v>3</v>
+      </c>
+      <c r="H22" s="3">
+        <v>5</v>
+      </c>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6">
         <v>3</v>
       </c>
       <c r="L22" s="3">
@@ -6938,64 +7416,61 @@
       <c r="Q22" s="3">
         <v>3</v>
       </c>
-      <c r="R22" s="3"/>
-      <c r="S22" s="3"/>
+      <c r="R22" s="3">
+        <v>3</v>
+      </c>
+      <c r="S22" s="3">
+        <v>3</v>
+      </c>
       <c r="T22" s="3"/>
-      <c r="U22" s="3">
-        <v>3</v>
-      </c>
-      <c r="V22" s="3">
-        <v>3</v>
-      </c>
+      <c r="U22" s="3"/>
+      <c r="V22" s="3"/>
       <c r="W22" s="3">
         <v>3</v>
       </c>
-      <c r="X22" s="3"/>
-      <c r="Y22" s="3"/>
-      <c r="Z22" s="3"/>
+      <c r="X22" s="3">
+        <v>3</v>
+      </c>
+      <c r="Y22" s="3">
+        <v>3</v>
+      </c>
+      <c r="Z22" s="1"/>
       <c r="AA22" s="3">
         <f t="shared" si="0"/>
-        <v>37</v>
-      </c>
-      <c r="AB22" s="3">
-        <f t="shared" si="1"/>
-        <v>14</v>
-      </c>
-      <c r="AC22" s="3">
-        <f t="shared" si="2"/>
-        <v>51</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="AB22" s="3"/>
     </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C23" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D23" s="3">
+        <v>10</v>
+      </c>
+      <c r="E23" s="3">
         <v>7</v>
       </c>
-      <c r="E23" s="3">
-        <v>5</v>
-      </c>
       <c r="F23" s="3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G23" s="3">
         <v>5</v>
       </c>
-      <c r="H23" s="3"/>
+      <c r="H23" s="3">
+        <v>5</v>
+      </c>
       <c r="I23" s="6">
-        <v>3</v>
-      </c>
-      <c r="J23" s="3">
-        <v>3</v>
-      </c>
-      <c r="K23" s="3">
+        <v>5</v>
+      </c>
+      <c r="J23" s="6"/>
+      <c r="K23" s="6">
         <v>3</v>
       </c>
       <c r="L23" s="3">
@@ -7007,11 +7482,21 @@
       <c r="N23" s="3">
         <v>3</v>
       </c>
-      <c r="O23" s="3"/>
-      <c r="P23" s="3"/>
-      <c r="Q23" s="3"/>
-      <c r="R23" s="3"/>
-      <c r="S23" s="3"/>
+      <c r="O23" s="3">
+        <v>3</v>
+      </c>
+      <c r="P23" s="3">
+        <v>3</v>
+      </c>
+      <c r="Q23" s="3">
+        <v>3</v>
+      </c>
+      <c r="R23" s="3">
+        <v>3</v>
+      </c>
+      <c r="S23" s="3">
+        <v>3</v>
+      </c>
       <c r="T23" s="3">
         <v>3</v>
       </c>
@@ -7021,53 +7506,52 @@
       <c r="V23" s="3">
         <v>3</v>
       </c>
-      <c r="W23" s="3"/>
-      <c r="X23" s="3"/>
-      <c r="Y23" s="3"/>
-      <c r="Z23" s="3"/>
+      <c r="W23" s="3">
+        <v>3</v>
+      </c>
+      <c r="X23" s="3">
+        <v>3</v>
+      </c>
+      <c r="Y23" s="3">
+        <v>3</v>
+      </c>
+      <c r="Z23" s="1"/>
       <c r="AA23" s="3">
         <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-      <c r="AB23" s="3">
-        <f t="shared" si="1"/>
-        <v>24</v>
-      </c>
-      <c r="AC23" s="3">
-        <f t="shared" si="2"/>
-        <v>52</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="AB23" s="3"/>
     </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C24" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D24" s="3">
+        <v>10</v>
+      </c>
+      <c r="E24" s="3">
         <v>7</v>
       </c>
-      <c r="E24" s="3">
-        <v>5</v>
-      </c>
       <c r="F24" s="3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G24" s="3">
         <v>5</v>
       </c>
-      <c r="H24" s="3"/>
+      <c r="H24" s="3">
+        <v>5</v>
+      </c>
       <c r="I24" s="6">
-        <v>3</v>
-      </c>
-      <c r="J24" s="3">
-        <v>3</v>
-      </c>
-      <c r="K24" s="3">
+        <v>5</v>
+      </c>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6">
         <v>3</v>
       </c>
       <c r="L24" s="3">
@@ -7106,42 +7590,37 @@
       <c r="W24" s="3">
         <v>3</v>
       </c>
-      <c r="X24" s="3"/>
-      <c r="Y24" s="3"/>
-      <c r="Z24" s="3"/>
+      <c r="X24" s="3">
+        <v>3</v>
+      </c>
+      <c r="Y24" s="3">
+        <v>3</v>
+      </c>
+      <c r="Z24" s="1"/>
       <c r="AA24" s="3">
         <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-      <c r="AB24" s="3">
-        <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
-      <c r="AC24" s="3">
-        <f t="shared" si="2"/>
-        <v>70</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="AB24" s="3"/>
     </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C25" s="3"/>
+        <v>16</v>
+      </c>
+      <c r="C25" s="3">
+        <v>5</v>
+      </c>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
-      <c r="I25" s="6">
-        <v>3</v>
-      </c>
-      <c r="J25" s="3">
-        <v>3</v>
-      </c>
-      <c r="K25" s="3">
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="6">
         <v>3</v>
       </c>
       <c r="L25" s="3">
@@ -7174,27 +7653,24 @@
       <c r="U25" s="3">
         <v>3</v>
       </c>
-      <c r="V25" s="3"/>
+      <c r="V25" s="3">
+        <v>3</v>
+      </c>
       <c r="W25" s="3">
+        <v>3</v>
+      </c>
+      <c r="X25" s="3"/>
+      <c r="Y25" s="3">
         <v>2</v>
       </c>
-      <c r="X25" s="3"/>
-      <c r="Y25" s="3"/>
-      <c r="Z25" s="3"/>
+      <c r="Z25" s="1"/>
       <c r="AA25" s="3">
         <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="AB25" s="3">
-        <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-      <c r="AC25" s="3">
-        <f t="shared" si="2"/>
-        <v>41</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="AB25" s="3"/>
     </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -7202,26 +7678,24 @@
         <v>7</v>
       </c>
       <c r="C26" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D26" s="3">
+        <v>10</v>
+      </c>
+      <c r="E26" s="3">
         <v>7</v>
       </c>
-      <c r="E26" s="3">
-        <v>5</v>
-      </c>
       <c r="F26" s="3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="6">
-        <v>3</v>
-      </c>
-      <c r="J26" s="3">
-        <v>3</v>
-      </c>
-      <c r="K26" s="3">
+      <c r="H26" s="3">
+        <v>5</v>
+      </c>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="6">
         <v>3</v>
       </c>
       <c r="L26" s="3">
@@ -7260,46 +7734,41 @@
       <c r="W26" s="3">
         <v>3</v>
       </c>
-      <c r="X26" s="3"/>
-      <c r="Y26" s="3"/>
-      <c r="Z26" s="3"/>
+      <c r="X26" s="3">
+        <v>3</v>
+      </c>
+      <c r="Y26" s="3">
+        <v>3</v>
+      </c>
+      <c r="Z26" s="1"/>
       <c r="AA26" s="3">
         <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-      <c r="AB26" s="3">
-        <f t="shared" si="1"/>
-        <v>25</v>
-      </c>
-      <c r="AC26" s="3">
-        <f t="shared" si="2"/>
-        <v>65</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="AB26" s="3"/>
     </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C27" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D27" s="3">
+        <v>10</v>
+      </c>
+      <c r="E27" s="3">
         <v>7</v>
-      </c>
-      <c r="E27" s="3">
-        <v>5</v>
       </c>
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
-      <c r="I27" s="6">
-        <v>3</v>
-      </c>
-      <c r="J27" s="3"/>
-      <c r="K27" s="3">
+      <c r="I27" s="6"/>
+      <c r="J27" s="6"/>
+      <c r="K27" s="6">
         <v>3</v>
       </c>
       <c r="L27" s="3"/>
@@ -7309,12 +7778,16 @@
       <c r="N27" s="3">
         <v>3</v>
       </c>
-      <c r="O27" s="3"/>
+      <c r="O27" s="3">
+        <v>3</v>
+      </c>
       <c r="P27" s="3">
         <v>3</v>
       </c>
       <c r="Q27" s="3"/>
-      <c r="R27" s="3"/>
+      <c r="R27" s="3">
+        <v>3</v>
+      </c>
       <c r="S27" s="3"/>
       <c r="T27" s="3"/>
       <c r="U27" s="3"/>
@@ -7322,50 +7795,41 @@
       <c r="W27" s="3"/>
       <c r="X27" s="3"/>
       <c r="Y27" s="3"/>
-      <c r="Z27" s="3"/>
+      <c r="Z27" s="1"/>
       <c r="AA27" s="3">
         <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="AB27" s="3">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="AC27" s="3">
-        <f t="shared" si="2"/>
-        <v>30</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="AB27" s="3"/>
     </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C28" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D28" s="3">
+        <v>10</v>
+      </c>
+      <c r="E28" s="3">
         <v>7</v>
       </c>
-      <c r="E28" s="3">
-        <v>5</v>
-      </c>
       <c r="F28" s="3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G28" s="3">
         <v>5</v>
       </c>
-      <c r="H28" s="3"/>
-      <c r="I28" s="6">
-        <v>3</v>
-      </c>
-      <c r="J28" s="3">
-        <v>3</v>
-      </c>
-      <c r="K28" s="3">
+      <c r="H28" s="3">
+        <v>5</v>
+      </c>
+      <c r="I28" s="6"/>
+      <c r="J28" s="6"/>
+      <c r="K28" s="6">
         <v>3</v>
       </c>
       <c r="L28" s="3">
@@ -7404,52 +7868,49 @@
       <c r="W28" s="3">
         <v>3</v>
       </c>
-      <c r="X28" s="3"/>
-      <c r="Y28" s="3"/>
-      <c r="Z28" s="3"/>
+      <c r="X28" s="3">
+        <v>3</v>
+      </c>
+      <c r="Y28" s="3">
+        <v>3</v>
+      </c>
+      <c r="Z28" s="1"/>
       <c r="AA28" s="3">
         <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-      <c r="AB28" s="3">
-        <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
-      <c r="AC28" s="3">
-        <f t="shared" si="2"/>
-        <v>70</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="AB28" s="3"/>
     </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C29" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D29" s="3">
+        <v>10</v>
+      </c>
+      <c r="E29" s="3">
         <v>7</v>
       </c>
-      <c r="E29" s="3">
-        <v>5</v>
-      </c>
       <c r="F29" s="3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G29" s="3">
         <v>5</v>
       </c>
-      <c r="H29" s="3"/>
+      <c r="H29" s="3">
+        <v>5</v>
+      </c>
       <c r="I29" s="6">
-        <v>3</v>
-      </c>
-      <c r="J29" s="3">
-        <v>3</v>
-      </c>
-      <c r="K29" s="3">
+        <v>5</v>
+      </c>
+      <c r="J29" s="6"/>
+      <c r="K29" s="6">
         <v>3</v>
       </c>
       <c r="L29" s="3">
@@ -7488,46 +7949,47 @@
       <c r="W29" s="3">
         <v>3</v>
       </c>
-      <c r="X29" s="3"/>
-      <c r="Y29" s="3"/>
-      <c r="Z29" s="3"/>
+      <c r="X29" s="3">
+        <v>3</v>
+      </c>
+      <c r="Y29" s="3">
+        <v>3</v>
+      </c>
+      <c r="Z29" s="1"/>
       <c r="AA29" s="3">
         <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-      <c r="AB29" s="3">
-        <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
-      <c r="AC29" s="3">
-        <f t="shared" si="2"/>
-        <v>70</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="AB29" s="3"/>
     </row>
-    <row r="30" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C30" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D30" s="3">
+        <v>10</v>
+      </c>
+      <c r="E30" s="3">
         <v>7</v>
       </c>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
-      <c r="I30" s="6">
-        <v>3</v>
-      </c>
-      <c r="J30" s="3">
-        <v>3</v>
-      </c>
-      <c r="K30" s="3">
+      <c r="F30" s="3">
+        <v>7</v>
+      </c>
+      <c r="G30" s="3">
+        <v>5</v>
+      </c>
+      <c r="H30" s="3">
+        <v>5</v>
+      </c>
+      <c r="I30" s="6"/>
+      <c r="J30" s="6"/>
+      <c r="K30" s="6">
         <v>3</v>
       </c>
       <c r="L30" s="3">
@@ -7560,50 +8022,43 @@
       <c r="U30" s="3">
         <v>3</v>
       </c>
-      <c r="V30" s="3"/>
-      <c r="W30" s="3"/>
+      <c r="V30" s="3">
+        <v>3</v>
+      </c>
+      <c r="W30" s="3">
+        <v>3</v>
+      </c>
       <c r="X30" s="3"/>
       <c r="Y30" s="3"/>
-      <c r="Z30" s="3"/>
+      <c r="Z30" s="1"/>
       <c r="AA30" s="3">
         <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-      <c r="AB30" s="3">
-        <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="AC30" s="3">
-        <f t="shared" si="2"/>
-        <v>49</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="AB30" s="3"/>
     </row>
-    <row r="31" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C31" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D31" s="3">
+        <v>10</v>
+      </c>
+      <c r="E31" s="3">
         <v>7</v>
-      </c>
-      <c r="E31" s="3">
-        <v>5</v>
       </c>
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
-      <c r="I31" s="6">
-        <v>3</v>
-      </c>
-      <c r="J31" s="3">
-        <v>3</v>
-      </c>
-      <c r="K31" s="3">
+      <c r="I31" s="6"/>
+      <c r="J31" s="6"/>
+      <c r="K31" s="6">
         <v>3</v>
       </c>
       <c r="L31" s="3">
@@ -7615,12 +8070,16 @@
       <c r="N31" s="3">
         <v>3</v>
       </c>
-      <c r="O31" s="3"/>
+      <c r="O31" s="3">
+        <v>3</v>
+      </c>
       <c r="P31" s="3">
         <v>3</v>
       </c>
       <c r="Q31" s="3"/>
-      <c r="R31" s="3"/>
+      <c r="R31" s="3">
+        <v>3</v>
+      </c>
       <c r="S31" s="3"/>
       <c r="T31" s="3"/>
       <c r="U31" s="3"/>
@@ -7628,50 +8087,43 @@
       <c r="W31" s="3"/>
       <c r="X31" s="3"/>
       <c r="Y31" s="3"/>
-      <c r="Z31" s="3"/>
+      <c r="Z31" s="1"/>
       <c r="AA31" s="3">
         <f t="shared" si="0"/>
-        <v>31</v>
-      </c>
-      <c r="AB31" s="3">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="AC31" s="3">
-        <f t="shared" si="2"/>
-        <v>36</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="AB31" s="3"/>
     </row>
-    <row r="32" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C32" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D32" s="3">
+        <v>10</v>
+      </c>
+      <c r="E32" s="3">
         <v>7</v>
       </c>
-      <c r="E32" s="3">
-        <v>5</v>
-      </c>
       <c r="F32" s="3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G32" s="3">
         <v>5</v>
       </c>
-      <c r="H32" s="3"/>
+      <c r="H32" s="3">
+        <v>5</v>
+      </c>
       <c r="I32" s="6">
-        <v>3</v>
-      </c>
-      <c r="J32" s="3">
-        <v>3</v>
-      </c>
-      <c r="K32" s="3">
+        <v>5</v>
+      </c>
+      <c r="J32" s="6"/>
+      <c r="K32" s="6">
         <v>3</v>
       </c>
       <c r="L32" s="3">
@@ -7710,106 +8162,96 @@
       <c r="W32" s="3">
         <v>3</v>
       </c>
-      <c r="X32" s="3"/>
-      <c r="Y32" s="3"/>
-      <c r="Z32" s="3"/>
+      <c r="X32" s="3">
+        <v>3</v>
+      </c>
+      <c r="Y32" s="3">
+        <v>3</v>
+      </c>
+      <c r="Z32" s="1"/>
       <c r="AA32" s="3">
         <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-      <c r="AB32" s="3">
-        <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
-      <c r="AC32" s="3">
-        <f t="shared" si="2"/>
-        <v>70</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="AB32" s="3"/>
     </row>
-    <row r="33" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C33" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
+      <c r="F33" s="3">
+        <v>7</v>
+      </c>
       <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
-      <c r="I33" s="6">
-        <v>3</v>
-      </c>
-      <c r="J33" s="3">
-        <v>3</v>
-      </c>
-      <c r="K33" s="3">
+      <c r="H33" s="3">
+        <v>5</v>
+      </c>
+      <c r="I33" s="6"/>
+      <c r="J33" s="6"/>
+      <c r="K33" s="6">
         <v>3</v>
       </c>
       <c r="L33" s="3">
         <v>3</v>
       </c>
-      <c r="M33" s="3"/>
+      <c r="M33" s="3">
+        <v>3</v>
+      </c>
       <c r="N33" s="3">
         <v>3</v>
       </c>
-      <c r="O33" s="3">
-        <v>3</v>
-      </c>
+      <c r="O33" s="3"/>
       <c r="P33" s="3">
         <v>3</v>
       </c>
       <c r="Q33" s="3">
         <v>3</v>
       </c>
-      <c r="R33" s="3"/>
-      <c r="S33" s="3"/>
+      <c r="R33" s="3">
+        <v>3</v>
+      </c>
+      <c r="S33" s="3">
+        <v>3</v>
+      </c>
       <c r="T33" s="3"/>
       <c r="U33" s="3"/>
       <c r="V33" s="3"/>
       <c r="W33" s="3"/>
       <c r="X33" s="3"/>
       <c r="Y33" s="3"/>
-      <c r="Z33" s="3"/>
+      <c r="Z33" s="1"/>
       <c r="AA33" s="3">
         <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-      <c r="AB33" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AC33" s="3">
-        <f t="shared" si="2"/>
-        <v>27</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="AB33" s="3"/>
     </row>
-    <row r="34" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C34" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
       <c r="H34" s="3"/>
-      <c r="I34" s="6">
-        <v>3</v>
-      </c>
-      <c r="J34" s="3">
-        <v>3</v>
-      </c>
-      <c r="K34" s="3">
+      <c r="I34" s="6"/>
+      <c r="J34" s="6"/>
+      <c r="K34" s="6">
         <v>3</v>
       </c>
       <c r="L34" s="3">
@@ -7848,31 +8290,28 @@
       <c r="W34" s="3">
         <v>3</v>
       </c>
-      <c r="X34" s="3"/>
-      <c r="Y34" s="3"/>
-      <c r="Z34" s="3"/>
+      <c r="X34" s="3">
+        <v>3</v>
+      </c>
+      <c r="Y34" s="3">
+        <v>3</v>
+      </c>
+      <c r="Z34" s="1"/>
       <c r="AA34" s="3">
         <f t="shared" si="0"/>
-        <v>33</v>
-      </c>
-      <c r="AB34" s="3">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="AC34" s="3">
-        <f t="shared" si="2"/>
-        <v>48</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="AB34" s="3"/>
     </row>
-    <row r="35" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C35" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
@@ -7884,10 +8323,8 @@
       <c r="I35" s="6">
         <v>3</v>
       </c>
-      <c r="J35" s="3">
-        <v>3</v>
-      </c>
-      <c r="K35" s="3">
+      <c r="J35" s="6"/>
+      <c r="K35" s="6">
         <v>3</v>
       </c>
       <c r="L35" s="3">
@@ -7896,68 +8333,61 @@
       <c r="M35" s="3">
         <v>3</v>
       </c>
-      <c r="N35" s="3"/>
-      <c r="O35" s="3"/>
-      <c r="P35" s="3">
-        <v>3</v>
-      </c>
-      <c r="Q35" s="3">
-        <v>3</v>
-      </c>
+      <c r="N35" s="3">
+        <v>3</v>
+      </c>
+      <c r="O35" s="3">
+        <v>3</v>
+      </c>
+      <c r="P35" s="3"/>
+      <c r="Q35" s="3"/>
       <c r="R35" s="3">
         <v>3</v>
       </c>
-      <c r="S35" s="3"/>
-      <c r="T35" s="3"/>
+      <c r="S35" s="3">
+        <v>3</v>
+      </c>
+      <c r="T35" s="3">
+        <v>3</v>
+      </c>
       <c r="U35" s="3"/>
-      <c r="V35" s="3">
-        <v>3</v>
-      </c>
-      <c r="W35" s="3">
-        <v>3</v>
-      </c>
-      <c r="X35" s="3"/>
-      <c r="Y35" s="3"/>
-      <c r="Z35" s="3"/>
+      <c r="V35" s="3"/>
+      <c r="W35" s="3"/>
+      <c r="X35" s="3">
+        <v>3</v>
+      </c>
+      <c r="Y35" s="3">
+        <v>3</v>
+      </c>
+      <c r="Z35" s="1"/>
       <c r="AA35" s="3">
         <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-      <c r="AB35" s="3">
-        <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-      <c r="AC35" s="3">
-        <f t="shared" si="2"/>
-        <v>38</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="AB35" s="3"/>
     </row>
-    <row r="36" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C36" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D36" s="3">
+        <v>10</v>
+      </c>
+      <c r="E36" s="3">
         <v>7</v>
-      </c>
-      <c r="E36" s="3">
-        <v>5</v>
       </c>
       <c r="F36" s="3"/>
       <c r="G36" s="3"/>
       <c r="H36" s="3"/>
-      <c r="I36" s="6">
-        <v>3</v>
-      </c>
-      <c r="J36" s="3">
-        <v>3</v>
-      </c>
-      <c r="K36" s="3">
+      <c r="I36" s="6"/>
+      <c r="J36" s="6"/>
+      <c r="K36" s="6">
         <v>3</v>
       </c>
       <c r="L36" s="3">
@@ -7981,65 +8411,62 @@
       <c r="R36" s="3">
         <v>3</v>
       </c>
-      <c r="S36" s="3"/>
+      <c r="S36" s="3">
+        <v>3</v>
+      </c>
       <c r="T36" s="3">
         <v>3</v>
       </c>
-      <c r="U36" s="3">
-        <v>3</v>
-      </c>
+      <c r="U36" s="3"/>
       <c r="V36" s="3">
         <v>3</v>
       </c>
       <c r="W36" s="3">
         <v>3</v>
       </c>
-      <c r="X36" s="3"/>
-      <c r="Y36" s="3"/>
-      <c r="Z36" s="3"/>
+      <c r="X36" s="3">
+        <v>3</v>
+      </c>
+      <c r="Y36" s="3">
+        <v>3</v>
+      </c>
+      <c r="Z36" s="1"/>
       <c r="AA36" s="3">
         <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-      <c r="AB36" s="3">
-        <f t="shared" si="1"/>
-        <v>17</v>
-      </c>
-      <c r="AC36" s="3">
-        <f t="shared" si="2"/>
-        <v>57</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="AB36" s="3"/>
     </row>
-    <row r="37" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C37" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D37" s="3">
+        <v>10</v>
+      </c>
+      <c r="E37" s="3">
         <v>7</v>
       </c>
-      <c r="E37" s="3">
-        <v>5</v>
-      </c>
       <c r="F37" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G37" s="3">
         <v>5</v>
       </c>
-      <c r="H37" s="3"/>
+      <c r="H37" s="3">
+        <v>5</v>
+      </c>
       <c r="I37" s="6">
-        <v>3</v>
-      </c>
-      <c r="J37" s="3">
-        <v>3</v>
-      </c>
-      <c r="K37" s="3">
+        <v>5</v>
+      </c>
+      <c r="J37" s="6"/>
+      <c r="K37" s="6">
         <v>3</v>
       </c>
       <c r="L37" s="3">
@@ -8066,97 +8493,115 @@
       <c r="S37" s="3">
         <v>3</v>
       </c>
-      <c r="T37" s="3"/>
+      <c r="T37" s="3">
+        <v>3</v>
+      </c>
       <c r="U37" s="3">
         <v>3</v>
       </c>
-      <c r="V37" s="3"/>
+      <c r="V37" s="3">
+        <v>3</v>
+      </c>
       <c r="W37" s="3">
         <v>3</v>
       </c>
-      <c r="X37" s="3"/>
-      <c r="Y37" s="3"/>
-      <c r="Z37" s="3"/>
+      <c r="X37" s="3">
+        <v>3</v>
+      </c>
+      <c r="Y37" s="3">
+        <v>3</v>
+      </c>
+      <c r="Z37" s="1"/>
       <c r="AA37" s="3">
         <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-      <c r="AB37" s="3">
-        <f t="shared" si="1"/>
-        <v>21</v>
-      </c>
-      <c r="AC37" s="3">
-        <f t="shared" si="2"/>
-        <v>61</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="AB37" s="3"/>
     </row>
-    <row r="38" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
+        <v>31</v>
+      </c>
+      <c r="C38" s="3">
+        <v>5</v>
+      </c>
+      <c r="D38" s="3">
+        <v>10</v>
+      </c>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
       <c r="G38" s="3"/>
-      <c r="H38" s="3"/>
-      <c r="I38" s="6"/>
+      <c r="H38" s="3">
+        <v>5</v>
+      </c>
+      <c r="I38" s="3"/>
       <c r="J38" s="3"/>
-      <c r="K38" s="3"/>
-      <c r="L38" s="3"/>
-      <c r="M38" s="3"/>
-      <c r="N38" s="3"/>
-      <c r="O38" s="3"/>
-      <c r="P38" s="3"/>
-      <c r="Q38" s="3"/>
-      <c r="R38" s="3"/>
-      <c r="S38" s="3"/>
-      <c r="T38" s="3"/>
-      <c r="U38" s="3"/>
+      <c r="K38" s="3">
+        <v>3</v>
+      </c>
+      <c r="L38" s="3">
+        <v>3</v>
+      </c>
+      <c r="M38" s="3">
+        <v>3</v>
+      </c>
+      <c r="N38" s="3">
+        <v>3</v>
+      </c>
+      <c r="O38" s="3">
+        <v>3</v>
+      </c>
+      <c r="P38" s="3">
+        <v>3</v>
+      </c>
+      <c r="Q38" s="3">
+        <v>3</v>
+      </c>
+      <c r="R38" s="3">
+        <v>3</v>
+      </c>
+      <c r="S38" s="3">
+        <v>3</v>
+      </c>
+      <c r="T38" s="3">
+        <v>3</v>
+      </c>
+      <c r="U38" s="3">
+        <v>3</v>
+      </c>
       <c r="V38" s="3"/>
       <c r="W38" s="3"/>
       <c r="X38" s="3"/>
       <c r="Y38" s="3"/>
-      <c r="Z38" s="3"/>
+      <c r="Z38" s="1"/>
       <c r="AA38" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AB38" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AC38" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+        <f>SUM(C38:Z38)</f>
+        <v>53</v>
+      </c>
+      <c r="AB38" s="3"/>
     </row>
-    <row r="39" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="C39" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D39" s="3">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
       <c r="G39" s="3"/>
       <c r="H39" s="3"/>
-      <c r="I39" s="3">
-        <v>3</v>
-      </c>
-      <c r="J39" s="3">
-        <v>3</v>
-      </c>
+      <c r="I39" s="3"/>
+      <c r="J39" s="3"/>
       <c r="K39" s="3">
         <v>3</v>
       </c>
@@ -8181,90 +8626,25 @@
       <c r="R39" s="3">
         <v>3</v>
       </c>
-      <c r="S39" s="3">
-        <v>3</v>
-      </c>
+      <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-      <c r="U39" s="3"/>
-      <c r="V39" s="3"/>
-      <c r="W39" s="3"/>
+      <c r="U39" s="3">
+        <v>3</v>
+      </c>
+      <c r="V39" s="3">
+        <v>3</v>
+      </c>
+      <c r="W39" s="3">
+        <v>3</v>
+      </c>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-      <c r="Z39" s="3"/>
+      <c r="Z39" s="1"/>
       <c r="AA39" s="3">
-        <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-      <c r="AB39" s="3">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="AC39" s="3">
-        <f t="shared" si="2"/>
-        <v>43</v>
-      </c>
-    </row>
-    <row r="40" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A40" s="1">
-        <v>39</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C40" s="3">
-        <v>3</v>
-      </c>
-      <c r="D40" s="3"/>
-      <c r="E40" s="3"/>
-      <c r="F40" s="3"/>
-      <c r="G40" s="3"/>
-      <c r="H40" s="3"/>
-      <c r="I40" s="3">
-        <v>3</v>
-      </c>
-      <c r="J40" s="3">
-        <v>3</v>
-      </c>
-      <c r="K40" s="3">
-        <v>3</v>
-      </c>
-      <c r="L40" s="3">
-        <v>3</v>
-      </c>
-      <c r="M40" s="3">
-        <v>3</v>
-      </c>
-      <c r="N40" s="3">
-        <v>3</v>
-      </c>
-      <c r="O40" s="3">
-        <v>3</v>
-      </c>
-      <c r="P40" s="3">
-        <v>3</v>
-      </c>
-      <c r="Q40" s="3"/>
-      <c r="R40" s="3"/>
-      <c r="S40" s="3"/>
-      <c r="T40" s="3"/>
-      <c r="U40" s="3"/>
-      <c r="V40" s="3"/>
-      <c r="W40" s="3"/>
-      <c r="X40" s="3"/>
-      <c r="Y40" s="3"/>
-      <c r="Z40" s="3"/>
-      <c r="AA40" s="3">
-        <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-      <c r="AB40" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AC40" s="3">
-        <f t="shared" si="2"/>
-        <v>27</v>
-      </c>
+        <f>SUM(C39:Z39)</f>
+        <v>48</v>
+      </c>
+      <c r="AB39" s="3"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H40">
@@ -8274,9 +8654,17 @@
     <mergeCell ref="AE2:AF2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="AA2:AA39">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="greaterThanOrEqual">
+      <formula>91</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThanOrEqual">
+      <formula>76</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="greaterThanOrEqual">
+      <formula>61</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <ignoredErrors>
-    <ignoredError sqref="AA3 AA4:AA40 AB2:AB40" formulaRange="1"/>
-  </ignoredErrors>
 </worksheet>
 </file>
--- a/sem1/СО-ПР-22.xlsx
+++ b/sem1/СО-ПР-22.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thebandik/Library/Mobile Documents/com~apple~CloudDocs/General/Работа/Колледж/GitHub/computer-science/sem1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thebandik/Library/Mobile Documents/com~apple~CloudDocs/General/Work/Колледж/GitHub/computer-science/sem1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D5FA749-479A-E641-B9CC-58D5E50F5231}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{177CB661-F083-5947-9E47-A0A2F58BE356}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1647" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1743" uniqueCount="75">
   <si>
     <t>№</t>
   </si>
@@ -247,6 +247,21 @@
   </si>
   <si>
     <t>Посещаемость</t>
+  </si>
+  <si>
+    <t>Отлично</t>
+  </si>
+  <si>
+    <t>Чебова София</t>
+  </si>
+  <si>
+    <t>Удовлетворительно</t>
+  </si>
+  <si>
+    <t>Хорошо</t>
+  </si>
+  <si>
+    <t>Не аттестован</t>
   </si>
 </sst>
 </file>
@@ -797,10 +812,10 @@
   <dimension ref="A1:AP25"/>
   <sheetViews>
     <sheetView zoomScale="165" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="AE2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="AD2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AM16" sqref="AM16"/>
+      <selection pane="bottomRight" activeCell="AQ9" sqref="AQ9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -819,8 +834,7 @@
     <col min="29" max="29" width="6.83203125" style="4" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="7" style="4" bestFit="1" customWidth="1"/>
     <col min="31" max="35" width="6.83203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="36" max="41" width="6.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="11" style="4"/>
+    <col min="36" max="42" width="6.6640625" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:42" x14ac:dyDescent="0.2">
@@ -947,7 +961,9 @@
       <c r="AO1" s="2">
         <v>45275</v>
       </c>
-      <c r="AP1" s="3"/>
+      <c r="AP1" s="2">
+        <v>45281</v>
+      </c>
     </row>
     <row r="2" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
@@ -1073,7 +1089,9 @@
       <c r="AO2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="AP2" s="3"/>
+      <c r="AP2" s="3" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="3" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
@@ -1199,7 +1217,9 @@
       <c r="AO3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="AP3" s="3"/>
+      <c r="AP3" s="3" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="4" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
@@ -1325,7 +1345,9 @@
       <c r="AO4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="AP4" s="3"/>
+      <c r="AP4" s="3" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="5" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
@@ -1451,7 +1473,9 @@
       <c r="AO5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="AP5" s="3"/>
+      <c r="AP5" s="3" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="6" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
@@ -1577,7 +1601,9 @@
       <c r="AO6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="AP6" s="3"/>
+      <c r="AP6" s="3" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="7" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
@@ -1703,7 +1729,9 @@
       <c r="AO7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="AP7" s="3"/>
+      <c r="AP7" s="3" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="8" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
@@ -1829,7 +1857,9 @@
       <c r="AO8" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="AP8" s="3"/>
+      <c r="AP8" s="3" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="9" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
@@ -1955,7 +1985,9 @@
       <c r="AO9" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="AP9" s="3"/>
+      <c r="AP9" s="3" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="10" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
@@ -2081,7 +2113,9 @@
       <c r="AO10" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="AP10" s="3"/>
+      <c r="AP10" s="3" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="11" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
@@ -2207,7 +2241,9 @@
       <c r="AO11" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="AP11" s="3"/>
+      <c r="AP11" s="3" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="12" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
@@ -2333,7 +2369,9 @@
       <c r="AO12" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="AP12" s="3"/>
+      <c r="AP12" s="3" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="13" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
@@ -2459,7 +2497,9 @@
       <c r="AO13" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="AP13" s="3"/>
+      <c r="AP13" s="3" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="14" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
@@ -2585,7 +2625,9 @@
       <c r="AO14" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="AP14" s="3"/>
+      <c r="AP14" s="3" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="15" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
@@ -2711,7 +2753,9 @@
       <c r="AO15" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="AP15" s="3"/>
+      <c r="AP15" s="3" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="16" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
@@ -2837,7 +2881,9 @@
       <c r="AO16" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="AP16" s="3"/>
+      <c r="AP16" s="3" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="17" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
@@ -2963,7 +3009,9 @@
       <c r="AO17" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="AP17" s="3"/>
+      <c r="AP17" s="3" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="18" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
@@ -3089,7 +3137,9 @@
       <c r="AO18" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="AP18" s="3"/>
+      <c r="AP18" s="3" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="19" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
@@ -3215,7 +3265,9 @@
       <c r="AO19" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="AP19" s="3"/>
+      <c r="AP19" s="3" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="20" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
@@ -3341,7 +3393,9 @@
       <c r="AO20" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="AP20" s="3"/>
+      <c r="AP20" s="3" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="22" spans="1:42" x14ac:dyDescent="0.2">
       <c r="C22" s="4"/>
@@ -3382,10 +3436,10 @@
   <dimension ref="A1:AU20"/>
   <sheetViews>
     <sheetView zoomScale="173" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="AJ2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="Z2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AS1" sqref="AS1"/>
+      <selection pane="bottomRight" activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3405,8 +3459,7 @@
     <col min="30" max="34" width="6.83203125" style="4" bestFit="1" customWidth="1"/>
     <col min="35" max="37" width="7" style="4" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="6.83203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="39" max="44" width="6.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="45" max="46" width="11" style="4"/>
+    <col min="39" max="46" width="6.6640625" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:47" x14ac:dyDescent="0.2">
@@ -3542,8 +3595,12 @@
       <c r="AR1" s="2">
         <v>45274</v>
       </c>
-      <c r="AS1" s="3"/>
-      <c r="AT1" s="3"/>
+      <c r="AS1" s="2">
+        <v>45275</v>
+      </c>
+      <c r="AT1" s="2">
+        <v>45281</v>
+      </c>
       <c r="AU1" s="1"/>
     </row>
     <row r="2" spans="1:47" x14ac:dyDescent="0.2">
@@ -3679,8 +3736,12 @@
       <c r="AR2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="AS2" s="3"/>
-      <c r="AT2" s="3"/>
+      <c r="AS2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AT2" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="AU2" s="1"/>
     </row>
     <row r="3" spans="1:47" x14ac:dyDescent="0.2">
@@ -3816,8 +3877,12 @@
       <c r="AR3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="AS3" s="3"/>
-      <c r="AT3" s="3"/>
+      <c r="AS3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AT3" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="AU3" s="1"/>
     </row>
     <row r="4" spans="1:47" x14ac:dyDescent="0.2">
@@ -3948,13 +4013,17 @@
         <v>14</v>
       </c>
       <c r="AQ4" s="3" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="AR4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="AS4" s="3"/>
-      <c r="AT4" s="3"/>
+        <v>39</v>
+      </c>
+      <c r="AS4" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AT4" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="AU4" s="1"/>
     </row>
     <row r="5" spans="1:47" x14ac:dyDescent="0.2">
@@ -4090,8 +4159,12 @@
       <c r="AR5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="AS5" s="3"/>
-      <c r="AT5" s="3"/>
+      <c r="AS5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AT5" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="AU5" s="1"/>
     </row>
     <row r="6" spans="1:47" x14ac:dyDescent="0.2">
@@ -4227,8 +4300,12 @@
       <c r="AR6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="AS6" s="3"/>
-      <c r="AT6" s="3"/>
+      <c r="AS6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AT6" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="AU6" s="1"/>
     </row>
     <row r="7" spans="1:47" x14ac:dyDescent="0.2">
@@ -4364,8 +4441,12 @@
       <c r="AR7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="AS7" s="3"/>
-      <c r="AT7" s="3"/>
+      <c r="AS7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AT7" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="AU7" s="1"/>
     </row>
     <row r="8" spans="1:47" x14ac:dyDescent="0.2">
@@ -4501,8 +4582,12 @@
       <c r="AR8" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="AS8" s="3"/>
-      <c r="AT8" s="3"/>
+      <c r="AS8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AT8" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="AU8" s="1"/>
     </row>
     <row r="9" spans="1:47" x14ac:dyDescent="0.2">
@@ -4638,8 +4723,12 @@
       <c r="AR9" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="AS9" s="3"/>
-      <c r="AT9" s="3"/>
+      <c r="AS9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AT9" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="AU9" s="1"/>
     </row>
     <row r="10" spans="1:47" x14ac:dyDescent="0.2">
@@ -4775,8 +4864,12 @@
       <c r="AR10" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="AS10" s="3"/>
-      <c r="AT10" s="3"/>
+      <c r="AS10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AT10" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="AU10" s="1"/>
     </row>
     <row r="11" spans="1:47" x14ac:dyDescent="0.2">
@@ -4912,8 +5005,12 @@
       <c r="AR11" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="AS11" s="3"/>
-      <c r="AT11" s="3"/>
+      <c r="AS11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AT11" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="AU11" s="1"/>
     </row>
     <row r="12" spans="1:47" x14ac:dyDescent="0.2">
@@ -5049,8 +5146,12 @@
       <c r="AR12" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="AS12" s="3"/>
-      <c r="AT12" s="3"/>
+      <c r="AS12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AT12" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="AU12" s="1"/>
     </row>
     <row r="13" spans="1:47" x14ac:dyDescent="0.2">
@@ -5186,8 +5287,12 @@
       <c r="AR13" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="AS13" s="3"/>
-      <c r="AT13" s="3"/>
+      <c r="AS13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AT13" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="AU13" s="1"/>
     </row>
     <row r="14" spans="1:47" x14ac:dyDescent="0.2">
@@ -5323,8 +5428,12 @@
       <c r="AR14" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="AS14" s="3"/>
-      <c r="AT14" s="3"/>
+      <c r="AS14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AT14" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="AU14" s="1"/>
     </row>
     <row r="15" spans="1:47" x14ac:dyDescent="0.2">
@@ -5460,8 +5569,12 @@
       <c r="AR15" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="AS15" s="3"/>
-      <c r="AT15" s="3"/>
+      <c r="AS15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AT15" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="AU15" s="1"/>
     </row>
     <row r="16" spans="1:47" x14ac:dyDescent="0.2">
@@ -5597,8 +5710,12 @@
       <c r="AR16" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="AS16" s="3"/>
-      <c r="AT16" s="3"/>
+      <c r="AS16" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AT16" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="AU16" s="1"/>
     </row>
     <row r="17" spans="1:47" x14ac:dyDescent="0.2">
@@ -5734,8 +5851,12 @@
       <c r="AR17" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="AS17" s="3"/>
-      <c r="AT17" s="3"/>
+      <c r="AS17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AT17" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="AU17" s="1"/>
     </row>
     <row r="18" spans="1:47" x14ac:dyDescent="0.2">
@@ -5871,8 +5992,12 @@
       <c r="AR18" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="AS18" s="3"/>
-      <c r="AT18" s="3"/>
+      <c r="AS18" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AT18" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="AU18" s="1"/>
     </row>
     <row r="19" spans="1:47" x14ac:dyDescent="0.2">
@@ -6008,8 +6133,12 @@
       <c r="AR19" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="AS19" s="3"/>
-      <c r="AT19" s="3"/>
+      <c r="AS19" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AT19" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="AU19" s="1"/>
     </row>
     <row r="20" spans="1:47" x14ac:dyDescent="0.2">
@@ -6145,8 +6274,12 @@
       <c r="AR20" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="AS20" s="3"/>
-      <c r="AT20" s="3"/>
+      <c r="AS20" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AT20" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="AU20" s="1"/>
     </row>
   </sheetData>
@@ -6170,13 +6303,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:AF39"/>
+  <dimension ref="A1:AF40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="150" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="S8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N31" sqref="N31"/>
+      <selection pane="bottomRight" activeCell="AE26" sqref="AE26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6187,9 +6320,9 @@
     <col min="9" max="10" width="5.1640625" style="4" customWidth="1"/>
     <col min="11" max="19" width="4.33203125" style="4" bestFit="1" customWidth="1"/>
     <col min="20" max="25" width="5.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="13.6640625" style="4" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="6" style="4" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="7.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="18.33203125" style="4" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="5" style="4" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="23.5" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="8.6640625" bestFit="1" customWidth="1"/>
@@ -6295,11 +6428,21 @@
         <v>10</v>
       </c>
       <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
+      <c r="F2" s="3">
+        <v>7</v>
+      </c>
+      <c r="G2" s="3">
+        <v>5</v>
+      </c>
+      <c r="H2" s="3">
+        <v>5</v>
+      </c>
+      <c r="I2" s="6">
+        <v>5</v>
+      </c>
+      <c r="J2" s="6">
+        <v>5</v>
+      </c>
       <c r="K2" s="6">
         <v>3</v>
       </c>
@@ -6325,12 +6468,13 @@
       <c r="W2" s="3"/>
       <c r="X2" s="3"/>
       <c r="Y2" s="3"/>
-      <c r="Z2" s="1"/>
+      <c r="Z2" s="3"/>
       <c r="AA2" s="3">
-        <f>SUM(C2:Z2)</f>
-        <v>30</v>
-      </c>
-      <c r="AB2" s="3"/>
+        <v>61</v>
+      </c>
+      <c r="AB2" s="3" t="s">
+        <v>72</v>
+      </c>
       <c r="AE2" s="15"/>
       <c r="AF2" s="15"/>
     </row>
@@ -6362,7 +6506,9 @@
       <c r="I3" s="6">
         <v>3</v>
       </c>
-      <c r="J3" s="6"/>
+      <c r="J3" s="6">
+        <v>5</v>
+      </c>
       <c r="K3" s="6">
         <v>3</v>
       </c>
@@ -6408,12 +6554,14 @@
       <c r="Y3" s="3">
         <v>3</v>
       </c>
-      <c r="Z3" s="1"/>
+      <c r="Z3" s="3"/>
       <c r="AA3" s="3">
         <f t="shared" ref="AA3:AA37" si="0">SUM(C3:Z3)</f>
-        <v>87</v>
-      </c>
-      <c r="AB3" s="3"/>
+        <v>92</v>
+      </c>
+      <c r="AB3" s="3" t="s">
+        <v>70</v>
+      </c>
       <c r="AE3" s="4"/>
       <c r="AF3" s="4"/>
     </row>
@@ -6493,12 +6641,14 @@
       <c r="Y4" s="3">
         <v>3</v>
       </c>
-      <c r="Z4" s="1"/>
+      <c r="Z4" s="3"/>
       <c r="AA4" s="3">
         <f t="shared" si="0"/>
         <v>94</v>
       </c>
-      <c r="AB4" s="3"/>
+      <c r="AB4" s="3" t="s">
+        <v>70</v>
+      </c>
       <c r="AE4" s="4"/>
       <c r="AF4" s="4"/>
     </row>
@@ -6576,12 +6726,14 @@
       <c r="Y5" s="3">
         <v>3</v>
       </c>
-      <c r="Z5" s="1"/>
+      <c r="Z5" s="3"/>
       <c r="AA5" s="3">
         <f t="shared" si="0"/>
         <v>91</v>
       </c>
-      <c r="AB5" s="3"/>
+      <c r="AB5" s="3" t="s">
+        <v>70</v>
+      </c>
       <c r="AE5" s="4"/>
       <c r="AF5" s="4"/>
     </row>
@@ -6598,7 +6750,9 @@
       <c r="D6" s="3">
         <v>10</v>
       </c>
-      <c r="E6" s="3"/>
+      <c r="E6" s="3">
+        <v>5</v>
+      </c>
       <c r="F6" s="3">
         <v>7</v>
       </c>
@@ -6611,7 +6765,9 @@
       <c r="I6" s="6">
         <v>3</v>
       </c>
-      <c r="J6" s="6"/>
+      <c r="J6" s="6">
+        <v>5</v>
+      </c>
       <c r="K6" s="6">
         <v>3</v>
       </c>
@@ -6657,12 +6813,13 @@
       <c r="Y6" s="3">
         <v>3</v>
       </c>
-      <c r="Z6" s="1"/>
+      <c r="Z6" s="3"/>
       <c r="AA6" s="3">
-        <f t="shared" si="0"/>
-        <v>80</v>
-      </c>
-      <c r="AB6" s="3"/>
+        <v>91</v>
+      </c>
+      <c r="AB6" s="3" t="s">
+        <v>70</v>
+      </c>
       <c r="AE6" s="4"/>
       <c r="AF6" s="4"/>
     </row>
@@ -6674,11 +6831,19 @@
         <v>13</v>
       </c>
       <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
+      <c r="D7" s="3">
+        <v>10</v>
+      </c>
+      <c r="E7" s="3">
+        <v>7</v>
+      </c>
+      <c r="F7" s="3">
+        <v>7</v>
+      </c>
       <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
+      <c r="H7" s="3">
+        <v>5</v>
+      </c>
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
       <c r="K7" s="6">
@@ -6720,16 +6885,19 @@
       <c r="W7" s="3">
         <v>3</v>
       </c>
-      <c r="X7" s="3"/>
+      <c r="X7" s="3">
+        <v>3</v>
+      </c>
       <c r="Y7" s="3">
         <v>3</v>
       </c>
-      <c r="Z7" s="1"/>
+      <c r="Z7" s="3"/>
       <c r="AA7" s="3">
-        <f t="shared" si="0"/>
-        <v>42</v>
-      </c>
-      <c r="AB7" s="3"/>
+        <v>76</v>
+      </c>
+      <c r="AB7" s="3" t="s">
+        <v>73</v>
+      </c>
       <c r="AE7" s="4"/>
       <c r="AF7" s="4"/>
     </row>
@@ -6761,7 +6929,9 @@
       <c r="I8" s="6">
         <v>5</v>
       </c>
-      <c r="J8" s="6"/>
+      <c r="J8" s="6">
+        <v>5</v>
+      </c>
       <c r="K8" s="6">
         <v>3</v>
       </c>
@@ -6807,12 +6977,14 @@
       <c r="Y8" s="3">
         <v>3</v>
       </c>
-      <c r="Z8" s="1"/>
+      <c r="Z8" s="3"/>
       <c r="AA8" s="3">
         <f t="shared" si="0"/>
-        <v>89</v>
-      </c>
-      <c r="AB8" s="3"/>
+        <v>94</v>
+      </c>
+      <c r="AB8" s="3" t="s">
+        <v>70</v>
+      </c>
       <c r="AE8" s="4"/>
       <c r="AF8" s="4"/>
     </row>
@@ -6890,12 +7062,13 @@
       <c r="Y9" s="3">
         <v>3</v>
       </c>
-      <c r="Z9" s="1"/>
+      <c r="Z9" s="3"/>
       <c r="AA9" s="3">
-        <f t="shared" si="0"/>
-        <v>89</v>
-      </c>
-      <c r="AB9" s="3"/>
+        <v>91</v>
+      </c>
+      <c r="AB9" s="3" t="s">
+        <v>70</v>
+      </c>
       <c r="AE9" s="4"/>
       <c r="AF9" s="4"/>
     </row>
@@ -6973,12 +7146,13 @@
       <c r="Y10" s="3">
         <v>3</v>
       </c>
-      <c r="Z10" s="1"/>
+      <c r="Z10" s="3"/>
       <c r="AA10" s="3">
-        <f t="shared" si="0"/>
-        <v>89</v>
-      </c>
-      <c r="AB10" s="3"/>
+        <v>91</v>
+      </c>
+      <c r="AB10" s="3" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
@@ -7032,18 +7206,22 @@
       <c r="S11" s="3">
         <v>3</v>
       </c>
-      <c r="T11" s="3"/>
+      <c r="T11" s="3">
+        <v>3</v>
+      </c>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-      <c r="Z11" s="1"/>
+      <c r="Z11" s="3"/>
       <c r="AA11" s="3">
         <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="AB11" s="3"/>
+        <v>63</v>
+      </c>
+      <c r="AB11" s="3" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
@@ -7068,8 +7246,12 @@
       <c r="H12" s="3">
         <v>5</v>
       </c>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
+      <c r="I12" s="6">
+        <v>2</v>
+      </c>
+      <c r="J12" s="6">
+        <v>5</v>
+      </c>
       <c r="K12" s="6">
         <v>3</v>
       </c>
@@ -7101,16 +7283,19 @@
         <v>3</v>
       </c>
       <c r="U12" s="3"/>
-      <c r="V12" s="3"/>
+      <c r="V12" s="3">
+        <v>3</v>
+      </c>
       <c r="W12" s="3"/>
       <c r="X12" s="3"/>
       <c r="Y12" s="3"/>
-      <c r="Z12" s="1"/>
+      <c r="Z12" s="3"/>
       <c r="AA12" s="3">
-        <f t="shared" si="0"/>
-        <v>64</v>
-      </c>
-      <c r="AB12" s="3"/>
+        <v>76</v>
+      </c>
+      <c r="AB12" s="3" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
@@ -7188,12 +7373,14 @@
       <c r="Y13" s="3">
         <v>3</v>
       </c>
-      <c r="Z13" s="1"/>
+      <c r="Z13" s="3"/>
       <c r="AA13" s="3">
         <f t="shared" si="0"/>
         <v>94</v>
       </c>
-      <c r="AB13" s="3"/>
+      <c r="AB13" s="3" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
@@ -7206,7 +7393,9 @@
         <v>5</v>
       </c>
       <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
+      <c r="E14" s="3">
+        <v>5</v>
+      </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
@@ -7227,12 +7416,18 @@
       <c r="O14" s="3">
         <v>3</v>
       </c>
-      <c r="P14" s="3"/>
-      <c r="Q14" s="3"/>
+      <c r="P14" s="3">
+        <v>3</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>3</v>
+      </c>
       <c r="R14" s="3">
         <v>3</v>
       </c>
-      <c r="S14" s="3"/>
+      <c r="S14" s="3">
+        <v>3</v>
+      </c>
       <c r="T14" s="3">
         <v>3</v>
       </c>
@@ -7242,15 +7437,22 @@
       <c r="V14" s="3">
         <v>3</v>
       </c>
-      <c r="W14" s="3"/>
-      <c r="X14" s="3"/>
-      <c r="Y14" s="3"/>
-      <c r="Z14" s="1"/>
+      <c r="W14" s="3">
+        <v>3</v>
+      </c>
+      <c r="X14" s="3">
+        <v>3</v>
+      </c>
+      <c r="Y14" s="3">
+        <v>3</v>
+      </c>
+      <c r="Z14" s="3"/>
       <c r="AA14" s="3">
-        <f t="shared" si="0"/>
-        <v>32</v>
-      </c>
-      <c r="AB14" s="3"/>
+        <v>61</v>
+      </c>
+      <c r="AB14" s="3" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
@@ -7280,7 +7482,9 @@
       <c r="I15" s="6">
         <v>5</v>
       </c>
-      <c r="J15" s="6"/>
+      <c r="J15" s="6">
+        <v>5</v>
+      </c>
       <c r="K15" s="6">
         <v>3</v>
       </c>
@@ -7324,12 +7528,13 @@
         <v>3</v>
       </c>
       <c r="Y15" s="3"/>
-      <c r="Z15" s="1"/>
+      <c r="Z15" s="3"/>
       <c r="AA15" s="3">
-        <f t="shared" si="0"/>
-        <v>85</v>
-      </c>
-      <c r="AB15" s="3"/>
+        <v>91</v>
+      </c>
+      <c r="AB15" s="3" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
@@ -7359,7 +7564,9 @@
       <c r="I16" s="6">
         <v>3</v>
       </c>
-      <c r="J16" s="6"/>
+      <c r="J16" s="6">
+        <v>5</v>
+      </c>
       <c r="K16" s="6">
         <v>3</v>
       </c>
@@ -7405,12 +7612,14 @@
       <c r="Y16" s="3">
         <v>3</v>
       </c>
-      <c r="Z16" s="1"/>
+      <c r="Z16" s="3"/>
       <c r="AA16" s="3">
         <f t="shared" si="0"/>
-        <v>87</v>
-      </c>
-      <c r="AB16" s="3"/>
+        <v>92</v>
+      </c>
+      <c r="AB16" s="3" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="17" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
@@ -7456,12 +7665,14 @@
       <c r="W17" s="3"/>
       <c r="X17" s="3"/>
       <c r="Y17" s="3"/>
-      <c r="Z17" s="1"/>
+      <c r="Z17" s="3"/>
       <c r="AA17" s="3">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="AB17" s="3"/>
+      <c r="AB17" s="3" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="18" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
@@ -7473,16 +7684,24 @@
       <c r="C18" s="3">
         <v>5</v>
       </c>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
+      <c r="D18" s="3">
+        <v>10</v>
+      </c>
+      <c r="E18" s="3">
+        <v>7</v>
+      </c>
       <c r="F18" s="3">
         <v>7</v>
       </c>
       <c r="G18" s="3">
         <v>5</v>
       </c>
-      <c r="H18" s="3"/>
-      <c r="I18" s="6"/>
+      <c r="H18" s="3">
+        <v>5</v>
+      </c>
+      <c r="I18" s="6">
+        <v>2</v>
+      </c>
       <c r="J18" s="6"/>
       <c r="K18" s="6">
         <v>3</v>
@@ -7529,12 +7748,13 @@
       <c r="Y18" s="3">
         <v>3</v>
       </c>
-      <c r="Z18" s="1"/>
+      <c r="Z18" s="3"/>
       <c r="AA18" s="3">
-        <f t="shared" si="0"/>
-        <v>62</v>
-      </c>
-      <c r="AB18" s="3"/>
+        <v>91</v>
+      </c>
+      <c r="AB18" s="3" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="19" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
@@ -7549,10 +7769,16 @@
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
+      <c r="G19" s="3">
+        <v>5</v>
+      </c>
+      <c r="H19" s="3">
+        <v>5</v>
+      </c>
       <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
+      <c r="J19" s="6">
+        <v>5</v>
+      </c>
       <c r="K19" s="6">
         <v>3</v>
       </c>
@@ -7594,12 +7820,13 @@
       </c>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-      <c r="Z19" s="1"/>
+      <c r="Z19" s="3"/>
       <c r="AA19" s="3">
-        <f t="shared" si="0"/>
-        <v>44</v>
-      </c>
-      <c r="AB19" s="3"/>
+        <v>61</v>
+      </c>
+      <c r="AB19" s="3" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="20" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
@@ -7675,12 +7902,13 @@
       <c r="Y20" s="3">
         <v>3</v>
       </c>
-      <c r="Z20" s="1"/>
+      <c r="Z20" s="3"/>
       <c r="AA20" s="3">
-        <f t="shared" si="0"/>
-        <v>89</v>
-      </c>
-      <c r="AB20" s="3"/>
+        <v>91</v>
+      </c>
+      <c r="AB20" s="3" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="21" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
@@ -7758,12 +7986,14 @@
       <c r="Y21" s="3">
         <v>3</v>
       </c>
-      <c r="Z21" s="1"/>
+      <c r="Z21" s="3"/>
       <c r="AA21" s="3">
         <f t="shared" si="0"/>
         <v>94</v>
       </c>
-      <c r="AB21" s="3"/>
+      <c r="AB21" s="3" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="22" spans="1:28" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
@@ -7781,15 +8011,21 @@
       <c r="E22" s="3">
         <v>7</v>
       </c>
-      <c r="F22" s="3"/>
+      <c r="F22" s="3">
+        <v>7</v>
+      </c>
       <c r="G22" s="3">
         <v>3</v>
       </c>
       <c r="H22" s="3">
         <v>5</v>
       </c>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
+      <c r="I22" s="6">
+        <v>5</v>
+      </c>
+      <c r="J22" s="6">
+        <v>5</v>
+      </c>
       <c r="K22" s="6">
         <v>3</v>
       </c>
@@ -7835,12 +8071,14 @@
       <c r="Y22" s="3">
         <v>3</v>
       </c>
-      <c r="Z22" s="1"/>
+      <c r="Z22" s="3"/>
       <c r="AA22" s="3">
         <f t="shared" si="0"/>
-        <v>75</v>
-      </c>
-      <c r="AB22" s="3"/>
+        <v>92</v>
+      </c>
+      <c r="AB22" s="3" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="23" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
@@ -7918,12 +8156,16 @@
       <c r="Y23" s="3">
         <v>3</v>
       </c>
-      <c r="Z23" s="1"/>
+      <c r="Z23" s="3">
+        <v>10</v>
+      </c>
       <c r="AA23" s="3">
         <f t="shared" si="0"/>
-        <v>94</v>
-      </c>
-      <c r="AB23" s="3"/>
+        <v>104</v>
+      </c>
+      <c r="AB23" s="3" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="24" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
@@ -8001,12 +8243,14 @@
       <c r="Y24" s="3">
         <v>3</v>
       </c>
-      <c r="Z24" s="1"/>
+      <c r="Z24" s="3"/>
       <c r="AA24" s="3">
         <f t="shared" si="0"/>
         <v>94</v>
       </c>
-      <c r="AB24" s="3"/>
+      <c r="AB24" s="3" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="25" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
@@ -8020,7 +8264,9 @@
       </c>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
+      <c r="F25" s="3">
+        <v>5</v>
+      </c>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
       <c r="I25" s="6"/>
@@ -8064,16 +8310,19 @@
       <c r="W25" s="3">
         <v>3</v>
       </c>
-      <c r="X25" s="3"/>
+      <c r="X25" s="3">
+        <v>3</v>
+      </c>
       <c r="Y25" s="3">
         <v>2</v>
       </c>
-      <c r="Z25" s="1"/>
+      <c r="Z25" s="3"/>
       <c r="AA25" s="3">
-        <f t="shared" si="0"/>
-        <v>46</v>
-      </c>
-      <c r="AB25" s="3"/>
+        <v>76</v>
+      </c>
+      <c r="AB25" s="3" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="26" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
@@ -8147,12 +8396,13 @@
       <c r="Y26" s="3">
         <v>3</v>
       </c>
-      <c r="Z26" s="1"/>
+      <c r="Z26" s="3"/>
       <c r="AA26" s="3">
-        <f t="shared" si="0"/>
-        <v>84</v>
-      </c>
-      <c r="AB26" s="3"/>
+        <v>91</v>
+      </c>
+      <c r="AB26" s="3" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="27" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
@@ -8171,9 +8421,15 @@
         <v>7</v>
       </c>
       <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="6"/>
+      <c r="G27" s="3">
+        <v>5</v>
+      </c>
+      <c r="H27" s="3">
+        <v>5</v>
+      </c>
+      <c r="I27" s="6">
+        <v>5</v>
+      </c>
       <c r="J27" s="6"/>
       <c r="K27" s="6">
         <v>3</v>
@@ -8195,19 +8451,22 @@
       <c r="R27" s="3">
         <v>3</v>
       </c>
-      <c r="S27" s="3"/>
+      <c r="S27" s="3">
+        <v>3</v>
+      </c>
       <c r="T27" s="3"/>
       <c r="U27" s="3"/>
       <c r="V27" s="3"/>
       <c r="W27" s="3"/>
       <c r="X27" s="3"/>
       <c r="Y27" s="3"/>
-      <c r="Z27" s="1"/>
+      <c r="Z27" s="3"/>
       <c r="AA27" s="3">
-        <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-      <c r="AB27" s="3"/>
+        <v>61</v>
+      </c>
+      <c r="AB27" s="3" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="28" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
@@ -8283,12 +8542,13 @@
       <c r="Y28" s="3">
         <v>3</v>
       </c>
-      <c r="Z28" s="1"/>
+      <c r="Z28" s="3"/>
       <c r="AA28" s="3">
-        <f t="shared" si="0"/>
-        <v>89</v>
-      </c>
-      <c r="AB28" s="3"/>
+        <v>91</v>
+      </c>
+      <c r="AB28" s="3" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="29" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
@@ -8366,12 +8626,16 @@
       <c r="Y29" s="3">
         <v>3</v>
       </c>
-      <c r="Z29" s="1"/>
+      <c r="Z29" s="3">
+        <v>10</v>
+      </c>
       <c r="AA29" s="3">
         <f t="shared" si="0"/>
-        <v>94</v>
-      </c>
-      <c r="AB29" s="3"/>
+        <v>104</v>
+      </c>
+      <c r="AB29" s="3" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="30" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
@@ -8441,14 +8705,17 @@
       <c r="W30" s="3">
         <v>3</v>
       </c>
-      <c r="X30" s="3"/>
+      <c r="X30" s="3">
+        <v>3</v>
+      </c>
       <c r="Y30" s="3"/>
-      <c r="Z30" s="1"/>
+      <c r="Z30" s="3"/>
       <c r="AA30" s="3">
-        <f t="shared" si="0"/>
-        <v>83</v>
-      </c>
-      <c r="AB30" s="3"/>
+        <v>91</v>
+      </c>
+      <c r="AB30" s="3" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="31" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
@@ -8500,12 +8767,13 @@
       <c r="W31" s="3"/>
       <c r="X31" s="3"/>
       <c r="Y31" s="3"/>
-      <c r="Z31" s="1"/>
+      <c r="Z31" s="3"/>
       <c r="AA31" s="3">
-        <f t="shared" si="0"/>
-        <v>43</v>
-      </c>
-      <c r="AB31" s="3"/>
+        <v>61</v>
+      </c>
+      <c r="AB31" s="3" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="32" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
@@ -8583,12 +8851,14 @@
       <c r="Y32" s="3">
         <v>3</v>
       </c>
-      <c r="Z32" s="1"/>
+      <c r="Z32" s="3"/>
       <c r="AA32" s="3">
         <f t="shared" si="0"/>
         <v>94</v>
       </c>
-      <c r="AB32" s="3"/>
+      <c r="AB32" s="3" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="33" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
@@ -8600,17 +8870,23 @@
       <c r="C33" s="3">
         <v>5</v>
       </c>
-      <c r="D33" s="3"/>
+      <c r="D33" s="3">
+        <v>10</v>
+      </c>
       <c r="E33" s="3"/>
       <c r="F33" s="3">
         <v>7</v>
       </c>
-      <c r="G33" s="3"/>
+      <c r="G33" s="3">
+        <v>5</v>
+      </c>
       <c r="H33" s="3">
         <v>5</v>
       </c>
       <c r="I33" s="6"/>
-      <c r="J33" s="6"/>
+      <c r="J33" s="6">
+        <v>5</v>
+      </c>
       <c r="K33" s="6">
         <v>3</v>
       </c>
@@ -8639,15 +8915,23 @@
       <c r="T33" s="3"/>
       <c r="U33" s="3"/>
       <c r="V33" s="3"/>
-      <c r="W33" s="3"/>
-      <c r="X33" s="3"/>
-      <c r="Y33" s="3"/>
-      <c r="Z33" s="1"/>
+      <c r="W33" s="3">
+        <v>3</v>
+      </c>
+      <c r="X33" s="3">
+        <v>3</v>
+      </c>
+      <c r="Y33" s="3">
+        <v>3</v>
+      </c>
+      <c r="Z33" s="3"/>
       <c r="AA33" s="3">
         <f t="shared" si="0"/>
-        <v>41</v>
-      </c>
-      <c r="AB33" s="3"/>
+        <v>70</v>
+      </c>
+      <c r="AB33" s="3" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="34" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
@@ -8663,7 +8947,9 @@
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
-      <c r="H34" s="3"/>
+      <c r="H34" s="3">
+        <v>5</v>
+      </c>
       <c r="I34" s="6"/>
       <c r="J34" s="6"/>
       <c r="K34" s="6">
@@ -8711,12 +8997,13 @@
       <c r="Y34" s="3">
         <v>3</v>
       </c>
-      <c r="Z34" s="1"/>
+      <c r="Z34" s="3"/>
       <c r="AA34" s="3">
-        <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-      <c r="AB34" s="3"/>
+        <v>76</v>
+      </c>
+      <c r="AB34" s="3" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="35" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
@@ -8729,16 +9016,20 @@
         <v>5</v>
       </c>
       <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
+      <c r="E35" s="3">
+        <v>5</v>
+      </c>
       <c r="F35" s="3"/>
       <c r="G35" s="3">
         <v>5</v>
       </c>
       <c r="H35" s="3"/>
       <c r="I35" s="6">
-        <v>3</v>
-      </c>
-      <c r="J35" s="6"/>
+        <v>5</v>
+      </c>
+      <c r="J35" s="6">
+        <v>5</v>
+      </c>
       <c r="K35" s="6">
         <v>3</v>
       </c>
@@ -8774,12 +9065,13 @@
       <c r="Y35" s="3">
         <v>3</v>
       </c>
-      <c r="Z35" s="1"/>
+      <c r="Z35" s="3"/>
       <c r="AA35" s="3">
-        <f t="shared" si="0"/>
-        <v>43</v>
-      </c>
-      <c r="AB35" s="3"/>
+        <v>61</v>
+      </c>
+      <c r="AB35" s="3" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="36" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
@@ -8845,12 +9137,14 @@
       <c r="Y36" s="3">
         <v>3</v>
       </c>
-      <c r="Z36" s="1"/>
+      <c r="Z36" s="3"/>
       <c r="AA36" s="3">
         <f t="shared" si="0"/>
         <v>64</v>
       </c>
-      <c r="AB36" s="3"/>
+      <c r="AB36" s="3" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="37" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
@@ -8928,12 +9222,14 @@
       <c r="Y37" s="3">
         <v>3</v>
       </c>
-      <c r="Z37" s="1"/>
+      <c r="Z37" s="3"/>
       <c r="AA37" s="3">
         <f t="shared" si="0"/>
         <v>91</v>
       </c>
-      <c r="AB37" s="3"/>
+      <c r="AB37" s="3" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="38" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
@@ -8948,7 +9244,9 @@
       <c r="D38" s="3">
         <v>10</v>
       </c>
-      <c r="E38" s="3"/>
+      <c r="E38" s="3">
+        <v>7</v>
+      </c>
       <c r="F38" s="3">
         <v>7</v>
       </c>
@@ -8957,7 +9255,7 @@
         <v>5</v>
       </c>
       <c r="I38" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J38" s="3">
         <v>5</v>
@@ -8999,12 +9297,14 @@
       <c r="W38" s="3"/>
       <c r="X38" s="3"/>
       <c r="Y38" s="3"/>
-      <c r="Z38" s="1"/>
+      <c r="Z38" s="3"/>
       <c r="AA38" s="3">
         <f>SUM(C38:Z38)</f>
-        <v>68</v>
-      </c>
-      <c r="AB38" s="3"/>
+        <v>77</v>
+      </c>
+      <c r="AB38" s="3" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="39" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
@@ -9026,9 +9326,15 @@
       <c r="G39" s="3">
         <v>5</v>
       </c>
-      <c r="H39" s="3"/>
-      <c r="I39" s="3"/>
-      <c r="J39" s="3"/>
+      <c r="H39" s="3">
+        <v>5</v>
+      </c>
+      <c r="I39" s="3">
+        <v>5</v>
+      </c>
+      <c r="J39" s="3">
+        <v>5</v>
+      </c>
       <c r="K39" s="3">
         <v>3</v>
       </c>
@@ -9053,8 +9359,12 @@
       <c r="R39" s="3">
         <v>3</v>
       </c>
-      <c r="S39" s="3"/>
-      <c r="T39" s="3"/>
+      <c r="S39" s="3">
+        <v>3</v>
+      </c>
+      <c r="T39" s="3">
+        <v>3</v>
+      </c>
       <c r="U39" s="3">
         <v>3</v>
       </c>
@@ -9066,12 +9376,79 @@
       </c>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-      <c r="Z39" s="1"/>
+      <c r="Z39" s="3"/>
       <c r="AA39" s="3">
         <f>SUM(C39:Z39)</f>
-        <v>60</v>
-      </c>
-      <c r="AB39" s="3"/>
+        <v>81</v>
+      </c>
+      <c r="AB39" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="40" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C40" s="3">
+        <v>5</v>
+      </c>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3">
+        <v>7</v>
+      </c>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3">
+        <v>5</v>
+      </c>
+      <c r="I40" s="3">
+        <v>5</v>
+      </c>
+      <c r="J40" s="3">
+        <v>5</v>
+      </c>
+      <c r="K40" s="3">
+        <v>3</v>
+      </c>
+      <c r="L40" s="3">
+        <v>3</v>
+      </c>
+      <c r="M40" s="3">
+        <v>3</v>
+      </c>
+      <c r="N40" s="3">
+        <v>3</v>
+      </c>
+      <c r="O40" s="3">
+        <v>3</v>
+      </c>
+      <c r="P40" s="3">
+        <v>3</v>
+      </c>
+      <c r="Q40" s="3">
+        <v>3</v>
+      </c>
+      <c r="R40" s="3">
+        <v>3</v>
+      </c>
+      <c r="S40" s="3"/>
+      <c r="T40" s="3">
+        <v>3</v>
+      </c>
+      <c r="U40" s="3"/>
+      <c r="V40" s="3"/>
+      <c r="W40" s="3"/>
+      <c r="X40" s="3"/>
+      <c r="Y40" s="3"/>
+      <c r="Z40" s="3"/>
+      <c r="AA40" s="3">
+        <f>SUM(C40:Z40)</f>
+        <v>54</v>
+      </c>
+      <c r="AB40" s="3"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H40">
@@ -9081,7 +9458,7 @@
     <mergeCell ref="AE2:AF2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="AA2:AA39">
+  <conditionalFormatting sqref="AA2:AA40">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="greaterThanOrEqual">
       <formula>91</formula>
     </cfRule>

--- a/sem1/СО-ПР-22.xlsx
+++ b/sem1/СО-ПР-22.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thebandik/Library/Mobile Documents/com~apple~CloudDocs/General/Work/Колледж/GitHub/computer-science/sem1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{177CB661-F083-5947-9E47-A0A2F58BE356}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9D2ACFC-EAA9-F448-8D11-513E26668A94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1743" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1744" uniqueCount="75">
   <si>
     <t>№</t>
   </si>
@@ -6306,10 +6306,10 @@
   <dimension ref="A1:AF40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="150" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="S8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AE26" sqref="AE26"/>
+      <selection pane="bottomRight" activeCell="Z31" sqref="Z31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9395,12 +9395,16 @@
       <c r="C40" s="3">
         <v>5</v>
       </c>
-      <c r="D40" s="3"/>
+      <c r="D40" s="3">
+        <v>10</v>
+      </c>
       <c r="E40" s="3"/>
       <c r="F40" s="3">
         <v>7</v>
       </c>
-      <c r="G40" s="3"/>
+      <c r="G40" s="3">
+        <v>5</v>
+      </c>
       <c r="H40" s="3">
         <v>5</v>
       </c>
@@ -9434,7 +9438,9 @@
       <c r="R40" s="3">
         <v>3</v>
       </c>
-      <c r="S40" s="3"/>
+      <c r="S40" s="3">
+        <v>3</v>
+      </c>
       <c r="T40" s="3">
         <v>3</v>
       </c>
@@ -9445,10 +9451,11 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3">
-        <f>SUM(C40:Z40)</f>
-        <v>54</v>
-      </c>
-      <c r="AB40" s="3"/>
+        <v>76</v>
+      </c>
+      <c r="AB40" s="3" t="s">
+        <v>73</v>
+      </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H40">
